--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>4587204</v>
+        <v>4587304</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,55 +28598,55 @@
         <v>44732.54166666666</v>
       </c>
       <c r="F316" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G316" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>54</v>
       </c>
       <c r="K316">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L316">
         <v>3.4</v>
       </c>
       <c r="M316">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="N316">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P316">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R316">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S316">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W316">
         <v>-1</v>
@@ -28655,19 +28655,19 @@
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z316">
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB316">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC316">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28764,7 +28764,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>4587304</v>
+        <v>4587699</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28776,76 +28776,76 @@
         <v>44732.54166666666</v>
       </c>
       <c r="F318" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G318" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
         <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K318">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L318">
         <v>3.4</v>
       </c>
       <c r="M318">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N318">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O318">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P318">
+        <v>2.5</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
         <v>2.05</v>
       </c>
-      <c r="Q318">
-        <v>0.25</v>
-      </c>
-      <c r="R318">
-        <v>2</v>
-      </c>
       <c r="S318">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T318">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U318">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V318">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y318">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA318">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB318">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC318">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28853,7 +28853,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>4587699</v>
+        <v>4587204</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28865,73 +28865,73 @@
         <v>44732.54166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G319" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H319">
         <v>2</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J319" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K319">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="L319">
         <v>3.4</v>
       </c>
       <c r="M319">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N319">
         <v>2.7</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P319">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q319">
         <v>0</v>
       </c>
       <c r="R319">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
         <v>2.75</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -32057,7 +32057,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4587748</v>
+        <v>4587217</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32069,55 +32069,55 @@
         <v>44760.54166666666</v>
       </c>
       <c r="F355" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G355" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H355">
         <v>0</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J355" t="s">
         <v>54</v>
       </c>
       <c r="K355">
+        <v>2.5</v>
+      </c>
+      <c r="L355">
+        <v>3.4</v>
+      </c>
+      <c r="M355">
         <v>2.7</v>
       </c>
-      <c r="L355">
+      <c r="N355">
+        <v>2.375</v>
+      </c>
+      <c r="O355">
         <v>3.6</v>
       </c>
-      <c r="M355">
-        <v>2.4</v>
-      </c>
-      <c r="N355">
+      <c r="P355">
         <v>2.8</v>
       </c>
-      <c r="O355">
-        <v>3.75</v>
-      </c>
-      <c r="P355">
-        <v>2.3</v>
-      </c>
       <c r="Q355">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
+        <v>2.05</v>
+      </c>
+      <c r="S355">
         <v>1.8</v>
-      </c>
-      <c r="S355">
-        <v>2.05</v>
       </c>
       <c r="T355">
         <v>2.75</v>
       </c>
       <c r="U355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W355">
         <v>-1</v>
@@ -32126,19 +32126,19 @@
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB355">
         <v>-1</v>
       </c>
       <c r="AC355">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32146,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4587217</v>
+        <v>4587748</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32158,55 +32158,55 @@
         <v>44760.54166666666</v>
       </c>
       <c r="F356" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H356">
         <v>0</v>
       </c>
       <c r="I356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
         <v>54</v>
       </c>
       <c r="K356">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L356">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M356">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N356">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O356">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P356">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R356">
+        <v>1.8</v>
+      </c>
+      <c r="S356">
         <v>2.05</v>
-      </c>
-      <c r="S356">
-        <v>1.8</v>
       </c>
       <c r="T356">
         <v>2.75</v>
       </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V356">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W356">
         <v>-1</v>
@@ -32215,19 +32215,19 @@
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z356">
         <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB356">
         <v>-1</v>
       </c>
       <c r="AC356">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32502,7 +32502,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>4587322</v>
+        <v>4587456</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32514,73 +32514,73 @@
         <v>44766.41666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G360" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K360">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L360">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M360">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N360">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O360">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P360">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q360">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R360">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S360">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T360">
         <v>3</v>
       </c>
       <c r="U360">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X360">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA360">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC360">
         <v>-1</v>
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4587456</v>
+        <v>4587322</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,73 +32603,73 @@
         <v>44766.41666666666</v>
       </c>
       <c r="F361" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G361" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K361">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L361">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M361">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N361">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O361">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P361">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q361">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R361">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S361">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T361">
         <v>3</v>
       </c>
       <c r="U361">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y361">
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB361">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC361">
         <v>-1</v>
@@ -32947,7 +32947,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>4587593</v>
+        <v>4587321</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32959,76 +32959,76 @@
         <v>44767.54166666666</v>
       </c>
       <c r="F365" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G365" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K365">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L365">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M365">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N365">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O365">
         <v>4</v>
       </c>
       <c r="P365">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q365">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R365">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S365">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T365">
         <v>3.25</v>
       </c>
       <c r="U365">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z365">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA365">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC365">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33125,7 +33125,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>4587321</v>
+        <v>4587593</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33137,76 +33137,76 @@
         <v>44767.54166666666</v>
       </c>
       <c r="F367" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G367" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H367">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J367" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K367">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L367">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M367">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N367">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O367">
         <v>4</v>
       </c>
       <c r="P367">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q367">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S367">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T367">
         <v>3.25</v>
       </c>
       <c r="U367">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V367">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W367">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z367">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB367">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4591742</v>
+        <v>4587700</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,76 +33315,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G369" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J369" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K369">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L369">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M369">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N369">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O369">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P369">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q369">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R369">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S369">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T369">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U369">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V369">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W369">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X369">
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z369">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC369">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4587700</v>
+        <v>4591742</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,76 +33404,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F370" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G370" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K370">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L370">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M370">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N370">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="O370">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P370">
-        <v>1.727</v>
+        <v>10</v>
       </c>
       <c r="Q370">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R370">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S370">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T370">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U370">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V370">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA370">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB370">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC370">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -34549,7 +34549,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4591741</v>
+        <v>4587327</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34561,76 +34561,76 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F383" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G383" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383" t="s">
+        <v>53</v>
+      </c>
+      <c r="K383">
+        <v>4.2</v>
+      </c>
+      <c r="L383">
         <v>4</v>
       </c>
-      <c r="J383" t="s">
-        <v>54</v>
-      </c>
-      <c r="K383">
-        <v>3.6</v>
-      </c>
-      <c r="L383">
-        <v>3.75</v>
-      </c>
       <c r="M383">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N383">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O383">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P383">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q383">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R383">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S383">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U383">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V383">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W383">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA383">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>4587327</v>
+        <v>4591741</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34650,76 +34650,76 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F384" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G384" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J384" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K384">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L384">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M384">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N384">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O384">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P384">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="Q384">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R384">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S384">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T384">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U384">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V384">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W384">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z384">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB384">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC384">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -35706,7 +35706,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4587232</v>
+        <v>4587332</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35718,76 +35718,76 @@
         <v>44787.54166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G396" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H396">
+        <v>3</v>
+      </c>
+      <c r="I396">
         <v>0</v>
       </c>
-      <c r="I396">
-        <v>4</v>
-      </c>
       <c r="J396" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K396">
-        <v>2.15</v>
+        <v>1.125</v>
       </c>
       <c r="L396">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N396">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P396">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q396">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R396">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S396">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U396">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V396">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA396">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35795,7 +35795,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>4587332</v>
+        <v>4587232</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35807,76 +35807,76 @@
         <v>44787.54166666666</v>
       </c>
       <c r="F397" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G397" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>4</v>
+      </c>
+      <c r="J397" t="s">
+        <v>54</v>
+      </c>
+      <c r="K397">
+        <v>2.15</v>
+      </c>
+      <c r="L397">
+        <v>3.5</v>
+      </c>
+      <c r="M397">
         <v>3</v>
       </c>
-      <c r="I397">
-        <v>0</v>
-      </c>
-      <c r="J397" t="s">
-        <v>53</v>
-      </c>
-      <c r="K397">
-        <v>1.125</v>
-      </c>
-      <c r="L397">
-        <v>7</v>
-      </c>
-      <c r="M397">
-        <v>15</v>
-      </c>
       <c r="N397">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="O397">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P397">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q397">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R397">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S397">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T397">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U397">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V397">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W397">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X397">
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z397">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC397">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>4591736</v>
+        <v>4587340</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,73 +37854,73 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F420" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J420" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K420">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L420">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M420">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N420">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O420">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P420">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q420">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S420">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T420">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U420">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V420">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y420">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z420">
         <v>-1</v>
       </c>
       <c r="AA420">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB420">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC420">
         <v>-1</v>
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>4587340</v>
+        <v>4587339</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37943,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F421" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G421" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H421">
+        <v>2</v>
+      </c>
+      <c r="I421">
         <v>1</v>
       </c>
-      <c r="I421">
-        <v>4</v>
-      </c>
       <c r="J421" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K421">
+        <v>2.4</v>
+      </c>
+      <c r="L421">
         <v>3.5</v>
       </c>
-      <c r="L421">
-        <v>3.6</v>
-      </c>
       <c r="M421">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N421">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O421">
         <v>4</v>
       </c>
       <c r="P421">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q421">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S421">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T421">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4587339</v>
+        <v>4587599</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,10 +38032,10 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G422" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H422">
         <v>2</v>
@@ -38047,34 +38047,34 @@
         <v>53</v>
       </c>
       <c r="K422">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L422">
+        <v>3.75</v>
+      </c>
+      <c r="M422">
+        <v>1.666</v>
+      </c>
+      <c r="N422">
+        <v>3.8</v>
+      </c>
+      <c r="O422">
+        <v>4.5</v>
+      </c>
+      <c r="P422">
+        <v>1.75</v>
+      </c>
+      <c r="Q422">
+        <v>0.75</v>
+      </c>
+      <c r="R422">
+        <v>1.9</v>
+      </c>
+      <c r="S422">
+        <v>1.95</v>
+      </c>
+      <c r="T422">
         <v>3.5</v>
-      </c>
-      <c r="M422">
-        <v>2.625</v>
-      </c>
-      <c r="N422">
-        <v>2.3</v>
-      </c>
-      <c r="O422">
-        <v>4</v>
-      </c>
-      <c r="P422">
-        <v>2.625</v>
-      </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
-        <v>1.8</v>
-      </c>
-      <c r="S422">
-        <v>2.05</v>
-      </c>
-      <c r="T422">
-        <v>3.25</v>
       </c>
       <c r="U422">
         <v>1.9</v>
@@ -38083,7 +38083,7 @@
         <v>1.95</v>
       </c>
       <c r="W422">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="X422">
         <v>-1</v>
@@ -38092,16 +38092,16 @@
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA422">
         <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4587599</v>
+        <v>4587239</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,76 +38121,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G423" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423">
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K423">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="L423">
+        <v>3.8</v>
+      </c>
+      <c r="M423">
+        <v>4.2</v>
+      </c>
+      <c r="N423">
+        <v>1.909</v>
+      </c>
+      <c r="O423">
+        <v>3.8</v>
+      </c>
+      <c r="P423">
         <v>3.75</v>
       </c>
-      <c r="M423">
-        <v>1.666</v>
-      </c>
-      <c r="N423">
-        <v>3.8</v>
-      </c>
-      <c r="O423">
-        <v>4.5</v>
-      </c>
-      <c r="P423">
-        <v>1.75</v>
-      </c>
       <c r="Q423">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R423">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S423">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T423">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U423">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W423">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z423">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4587239</v>
+        <v>4591736</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G424" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J424" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K424">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="L424">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M424">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N424">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O424">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P424">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q424">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R424">
+        <v>1.925</v>
+      </c>
+      <c r="S424">
+        <v>1.925</v>
+      </c>
+      <c r="T424">
+        <v>3.25</v>
+      </c>
+      <c r="U424">
+        <v>1.975</v>
+      </c>
+      <c r="V424">
         <v>1.875</v>
       </c>
-      <c r="S424">
-        <v>1.975</v>
-      </c>
-      <c r="T424">
-        <v>3</v>
-      </c>
-      <c r="U424">
-        <v>1.875</v>
-      </c>
-      <c r="V424">
-        <v>1.975</v>
-      </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y424">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
+        <v>0.925</v>
+      </c>
+      <c r="AB424">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB424">
-        <v>-1</v>
-      </c>
       <c r="AC424">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4587344</v>
+        <v>4587241</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,40 +38299,40 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F425" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G425" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H425">
         <v>3</v>
       </c>
       <c r="I425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K425">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L425">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M425">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="N425">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O425">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P425">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q425">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R425">
         <v>2.025</v>
@@ -38341,34 +38341,34 @@
         <v>1.825</v>
       </c>
       <c r="T425">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U425">
+        <v>1.9</v>
+      </c>
+      <c r="V425">
         <v>1.95</v>
       </c>
-      <c r="V425">
-        <v>1.9</v>
-      </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X425">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA425">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB425">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38376,7 +38376,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>4587241</v>
+        <v>4587344</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38388,40 +38388,40 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G426" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H426">
         <v>3</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J426" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K426">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L426">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M426">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="N426">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O426">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P426">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q426">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R426">
         <v>2.025</v>
@@ -38430,34 +38430,34 @@
         <v>1.825</v>
       </c>
       <c r="T426">
+        <v>3.5</v>
+      </c>
+      <c r="U426">
+        <v>1.95</v>
+      </c>
+      <c r="V426">
+        <v>1.9</v>
+      </c>
+      <c r="W426">
+        <v>-1</v>
+      </c>
+      <c r="X426">
         <v>3.75</v>
       </c>
-      <c r="U426">
-        <v>1.9</v>
-      </c>
-      <c r="V426">
-        <v>1.95</v>
-      </c>
-      <c r="W426">
-        <v>0.2</v>
-      </c>
-      <c r="X426">
-        <v>-1</v>
-      </c>
       <c r="Y426">
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB426">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC426">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -39978,7 +39978,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>4587347</v>
+        <v>4587246</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39990,76 +39990,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F444" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G444" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="s">
         <v>55</v>
       </c>
       <c r="K444">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="L444">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M444">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N444">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O444">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P444">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q444">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R444">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S444">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T444">
         <v>3.25</v>
       </c>
       <c r="U444">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V444">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W444">
         <v>-1</v>
       </c>
       <c r="X444">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y444">
         <v>-1</v>
       </c>
       <c r="Z444">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40067,7 +40067,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>4587246</v>
+        <v>4591733</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40079,76 +40079,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F445" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G445" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I445">
         <v>0</v>
       </c>
       <c r="J445" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K445">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="L445">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M445">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="N445">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="O445">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P445">
+        <v>11</v>
+      </c>
+      <c r="Q445">
+        <v>-2</v>
+      </c>
+      <c r="R445">
+        <v>1.9</v>
+      </c>
+      <c r="S445">
+        <v>1.95</v>
+      </c>
+      <c r="T445">
         <v>3.75</v>
       </c>
-      <c r="Q445">
+      <c r="U445">
+        <v>1.9</v>
+      </c>
+      <c r="V445">
+        <v>1.95</v>
+      </c>
+      <c r="W445">
+        <v>0.222</v>
+      </c>
+      <c r="X445">
+        <v>-1</v>
+      </c>
+      <c r="Y445">
+        <v>-1</v>
+      </c>
+      <c r="Z445">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA445">
+        <v>-1</v>
+      </c>
+      <c r="AB445">
+        <v>0.45</v>
+      </c>
+      <c r="AC445">
         <v>-0.5</v>
-      </c>
-      <c r="R445">
-        <v>1.85</v>
-      </c>
-      <c r="S445">
-        <v>2</v>
-      </c>
-      <c r="T445">
-        <v>3.25</v>
-      </c>
-      <c r="U445">
-        <v>2.1</v>
-      </c>
-      <c r="V445">
-        <v>1.775</v>
-      </c>
-      <c r="W445">
-        <v>-1</v>
-      </c>
-      <c r="X445">
-        <v>3</v>
-      </c>
-      <c r="Y445">
-        <v>-1</v>
-      </c>
-      <c r="Z445">
-        <v>-1</v>
-      </c>
-      <c r="AA445">
-        <v>1</v>
-      </c>
-      <c r="AB445">
-        <v>-1</v>
-      </c>
-      <c r="AC445">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40156,7 +40156,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>4587247</v>
+        <v>4587347</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40168,76 +40168,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F446" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G446" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K446">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="L446">
         <v>3.5</v>
       </c>
       <c r="M446">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N446">
+        <v>3.4</v>
+      </c>
+      <c r="O446">
+        <v>4.2</v>
+      </c>
+      <c r="P446">
         <v>1.909</v>
       </c>
-      <c r="O446">
-        <v>4</v>
-      </c>
-      <c r="P446">
-        <v>3.6</v>
-      </c>
       <c r="Q446">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R446">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S446">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T446">
         <v>3.25</v>
       </c>
       <c r="U446">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V446">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W446">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X446">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y446">
         <v>-1</v>
       </c>
       <c r="Z446">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA446">
         <v>-1</v>
       </c>
       <c r="AB446">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC446">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40245,7 +40245,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>4591733</v>
+        <v>4587601</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40257,76 +40257,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F447" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G447" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H447">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J447" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K447">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="L447">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M447">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N447">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="O447">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P447">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q447">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R447">
+        <v>1.95</v>
+      </c>
+      <c r="S447">
         <v>1.9</v>
       </c>
-      <c r="S447">
-        <v>1.95</v>
-      </c>
       <c r="T447">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U447">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V447">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W447">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X447">
         <v>-1</v>
       </c>
       <c r="Y447">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z447">
+        <v>-1</v>
+      </c>
+      <c r="AA447">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA447">
-        <v>-1</v>
-      </c>
       <c r="AB447">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC447">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40334,7 +40334,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>4587601</v>
+        <v>4587247</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40346,76 +40346,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F448" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G448" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I448">
         <v>2</v>
       </c>
       <c r="J448" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K448">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L448">
         <v>3.5</v>
       </c>
       <c r="M448">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N448">
         <v>1.909</v>
       </c>
       <c r="O448">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P448">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q448">
         <v>-0.5</v>
       </c>
       <c r="R448">
+        <v>1.925</v>
+      </c>
+      <c r="S448">
+        <v>1.925</v>
+      </c>
+      <c r="T448">
+        <v>3.25</v>
+      </c>
+      <c r="U448">
+        <v>1.9</v>
+      </c>
+      <c r="V448">
         <v>1.95</v>
       </c>
-      <c r="S448">
-        <v>1.9</v>
-      </c>
-      <c r="T448">
-        <v>3.5</v>
-      </c>
-      <c r="U448">
-        <v>1.925</v>
-      </c>
-      <c r="V448">
-        <v>1.925</v>
-      </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA448">
+        <v>-1</v>
+      </c>
+      <c r="AB448">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB448">
-        <v>-1</v>
-      </c>
       <c r="AC448">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40779,7 +40779,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>4587752</v>
+        <v>4591732</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40791,76 +40791,76 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G453" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J453" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K453">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L453">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M453">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N453">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O453">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P453">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q453">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
+        <v>1.85</v>
+      </c>
+      <c r="S453">
+        <v>2</v>
+      </c>
+      <c r="T453">
+        <v>3.25</v>
+      </c>
+      <c r="U453">
         <v>1.9</v>
       </c>
-      <c r="S453">
+      <c r="V453">
         <v>1.95</v>
       </c>
-      <c r="T453">
-        <v>3.75</v>
-      </c>
-      <c r="U453">
-        <v>1.85</v>
-      </c>
-      <c r="V453">
-        <v>2</v>
-      </c>
       <c r="W453">
         <v>-1</v>
       </c>
       <c r="X453">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y453">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA453">
+        <v>-1</v>
+      </c>
+      <c r="AB453">
+        <v>-1</v>
+      </c>
+      <c r="AC453">
         <v>0.95</v>
-      </c>
-      <c r="AB453">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC453">
-        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40868,7 +40868,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4587348</v>
+        <v>4587752</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40880,55 +40880,55 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F454" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G454" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J454" t="s">
         <v>54</v>
       </c>
       <c r="K454">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="L454">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M454">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N454">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O454">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P454">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R454">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S454">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T454">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U454">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V454">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40937,19 +40937,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC454">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40957,7 +40957,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4587349</v>
+        <v>4587348</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40969,76 +40969,76 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F455" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G455" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J455" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K455">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L455">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M455">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N455">
         <v>1.909</v>
       </c>
       <c r="O455">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P455">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q455">
         <v>-0.5</v>
       </c>
       <c r="R455">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S455">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T455">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W455">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z455">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB455">
         <v>-1</v>
       </c>
       <c r="AC455">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41046,7 +41046,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4591732</v>
+        <v>4587349</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41058,67 +41058,67 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F456" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G456" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456">
         <v>0</v>
       </c>
       <c r="J456" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K456">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="L456">
         <v>3.75</v>
       </c>
       <c r="M456">
+        <v>2.3</v>
+      </c>
+      <c r="N456">
         <v>1.909</v>
       </c>
-      <c r="N456">
-        <v>3.3</v>
-      </c>
       <c r="O456">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P456">
+        <v>3.6</v>
+      </c>
+      <c r="Q456">
+        <v>-0.5</v>
+      </c>
+      <c r="R456">
+        <v>1.9</v>
+      </c>
+      <c r="S456">
         <v>1.95</v>
-      </c>
-      <c r="Q456">
-        <v>0.5</v>
-      </c>
-      <c r="R456">
-        <v>1.85</v>
-      </c>
-      <c r="S456">
-        <v>2</v>
       </c>
       <c r="T456">
         <v>3.25</v>
       </c>
       <c r="U456">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V456">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X456">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA456">
         <v>-1</v>
@@ -41127,7 +41127,7 @@
         <v>-1</v>
       </c>
       <c r="AC456">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41224,7 +41224,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>4587251</v>
+        <v>4587252</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41236,58 +41236,58 @@
         <v>44850.375</v>
       </c>
       <c r="F458" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G458" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H458">
         <v>2</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="s">
         <v>53</v>
       </c>
       <c r="K458">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L458">
+        <v>3.75</v>
+      </c>
+      <c r="M458">
+        <v>2</v>
+      </c>
+      <c r="N458">
+        <v>3.8</v>
+      </c>
+      <c r="O458">
+        <v>4.5</v>
+      </c>
+      <c r="P458">
+        <v>1.727</v>
+      </c>
+      <c r="Q458">
+        <v>0.75</v>
+      </c>
+      <c r="R458">
+        <v>1.9</v>
+      </c>
+      <c r="S458">
+        <v>1.95</v>
+      </c>
+      <c r="T458">
         <v>3.5</v>
       </c>
-      <c r="M458">
-        <v>2.6</v>
-      </c>
-      <c r="N458">
-        <v>2.3</v>
-      </c>
-      <c r="O458">
-        <v>3.75</v>
-      </c>
-      <c r="P458">
-        <v>2.875</v>
-      </c>
-      <c r="Q458">
-        <v>-0.25</v>
-      </c>
-      <c r="R458">
-        <v>2.025</v>
-      </c>
-      <c r="S458">
-        <v>1.825</v>
-      </c>
-      <c r="T458">
-        <v>3</v>
-      </c>
       <c r="U458">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V458">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W458">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="X458">
         <v>-1</v>
@@ -41296,16 +41296,16 @@
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA458">
         <v>-1</v>
       </c>
       <c r="AB458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC458">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41313,7 +41313,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>4591731</v>
+        <v>4587251</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41325,58 +41325,58 @@
         <v>44850.375</v>
       </c>
       <c r="F459" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G459" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H459">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J459" t="s">
         <v>53</v>
       </c>
       <c r="K459">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="L459">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M459">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N459">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O459">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P459">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="Q459">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R459">
+        <v>2.025</v>
+      </c>
+      <c r="S459">
+        <v>1.825</v>
+      </c>
+      <c r="T459">
+        <v>3</v>
+      </c>
+      <c r="U459">
+        <v>1.95</v>
+      </c>
+      <c r="V459">
         <v>1.9</v>
       </c>
-      <c r="S459">
-        <v>1.95</v>
-      </c>
-      <c r="T459">
-        <v>3.5</v>
-      </c>
-      <c r="U459">
-        <v>2</v>
-      </c>
-      <c r="V459">
-        <v>1.85</v>
-      </c>
       <c r="W459">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41385,16 +41385,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA459">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC459">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41402,7 +41402,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>4587252</v>
+        <v>4591731</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41414,40 +41414,40 @@
         <v>44850.375</v>
       </c>
       <c r="F460" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G460" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J460" t="s">
         <v>53</v>
       </c>
       <c r="K460">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="L460">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M460">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N460">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O460">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P460">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="Q460">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R460">
         <v>1.9</v>
@@ -41459,13 +41459,13 @@
         <v>3.5</v>
       </c>
       <c r="U460">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V460">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W460">
-        <v>2.8</v>
+        <v>0.363</v>
       </c>
       <c r="X460">
         <v>-1</v>
@@ -41474,16 +41474,16 @@
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB460">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC460">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41491,7 +41491,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>4587352</v>
+        <v>4587351</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41503,76 +41503,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F461" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G461" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I461">
+        <v>1</v>
+      </c>
+      <c r="J461" t="s">
+        <v>53</v>
+      </c>
+      <c r="K461">
+        <v>2.15</v>
+      </c>
+      <c r="L461">
+        <v>3.75</v>
+      </c>
+      <c r="M461">
+        <v>2.9</v>
+      </c>
+      <c r="N461">
+        <v>2.15</v>
+      </c>
+      <c r="O461">
+        <v>3.75</v>
+      </c>
+      <c r="P461">
+        <v>3.1</v>
+      </c>
+      <c r="Q461">
+        <v>-0.25</v>
+      </c>
+      <c r="R461">
+        <v>1.925</v>
+      </c>
+      <c r="S461">
+        <v>1.925</v>
+      </c>
+      <c r="T461">
         <v>3</v>
       </c>
-      <c r="J461" t="s">
-        <v>54</v>
-      </c>
-      <c r="K461">
-        <v>2.75</v>
-      </c>
-      <c r="L461">
-        <v>3.6</v>
-      </c>
-      <c r="M461">
-        <v>2.3</v>
-      </c>
-      <c r="N461">
-        <v>3.2</v>
-      </c>
-      <c r="O461">
-        <v>3.6</v>
-      </c>
-      <c r="P461">
-        <v>2.15</v>
-      </c>
-      <c r="Q461">
-        <v>0.25</v>
-      </c>
-      <c r="R461">
-        <v>2.025</v>
-      </c>
-      <c r="S461">
-        <v>1.825</v>
-      </c>
-      <c r="T461">
-        <v>3.25</v>
-      </c>
       <c r="U461">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V461">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA461">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC461">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41580,7 +41580,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4587350</v>
+        <v>4587352</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41592,76 +41592,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G462" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
         <v>3</v>
       </c>
-      <c r="I462">
-        <v>0</v>
-      </c>
       <c r="J462" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K462">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="L462">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M462">
-        <v>41</v>
+        <v>2.3</v>
       </c>
       <c r="N462">
-        <v>1.111</v>
+        <v>3.2</v>
       </c>
       <c r="O462">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P462">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q462">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R462">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S462">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T462">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U462">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V462">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W462">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z462">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA462">
+        <v>0.825</v>
+      </c>
+      <c r="AB462">
         <v>-0.5</v>
       </c>
-      <c r="AB462">
-        <v>-1</v>
-      </c>
       <c r="AC462">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41669,7 +41669,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>4587461</v>
+        <v>4587350</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41681,76 +41681,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F463" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G463" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I463">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K463">
-        <v>3</v>
+        <v>1.055</v>
       </c>
       <c r="L463">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M463">
-        <v>2.15</v>
+        <v>41</v>
       </c>
       <c r="N463">
-        <v>5</v>
+        <v>1.111</v>
       </c>
       <c r="O463">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="P463">
-        <v>1.571</v>
+        <v>19</v>
       </c>
       <c r="Q463">
-        <v>1</v>
+        <v>-2.75</v>
       </c>
       <c r="R463">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S463">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T463">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U463">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V463">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA463">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB463">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41758,7 +41758,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4587351</v>
+        <v>4587461</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41770,76 +41770,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F464" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G464" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H464">
+        <v>1</v>
+      </c>
+      <c r="I464">
+        <v>2</v>
+      </c>
+      <c r="J464" t="s">
+        <v>54</v>
+      </c>
+      <c r="K464">
         <v>3</v>
       </c>
-      <c r="I464">
+      <c r="L464">
+        <v>3.6</v>
+      </c>
+      <c r="M464">
+        <v>2.15</v>
+      </c>
+      <c r="N464">
+        <v>5</v>
+      </c>
+      <c r="O464">
+        <v>4.75</v>
+      </c>
+      <c r="P464">
+        <v>1.571</v>
+      </c>
+      <c r="Q464">
         <v>1</v>
       </c>
-      <c r="J464" t="s">
-        <v>53</v>
-      </c>
-      <c r="K464">
-        <v>2.15</v>
-      </c>
-      <c r="L464">
-        <v>3.75</v>
-      </c>
-      <c r="M464">
-        <v>2.9</v>
-      </c>
-      <c r="N464">
-        <v>2.15</v>
-      </c>
-      <c r="O464">
-        <v>3.75</v>
-      </c>
-      <c r="P464">
-        <v>3.1</v>
-      </c>
-      <c r="Q464">
-        <v>-0.25</v>
-      </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S464">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T464">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U464">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V464">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W464">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z464">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA464">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB464">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC464">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -45140,7 +45140,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>6011433</v>
+        <v>6011657</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45152,76 +45152,76 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F502" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G502" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J502" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K502">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L502">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M502">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N502">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O502">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P502">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q502">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R502">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S502">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="T502">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U502">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V502">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W502">
         <v>-1</v>
       </c>
       <c r="X502">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y502">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z502">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA502">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB502">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC502">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45229,7 +45229,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>6011657</v>
+        <v>6011433</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45241,76 +45241,76 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F503" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G503" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J503" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K503">
+        <v>3.1</v>
+      </c>
+      <c r="L503">
+        <v>3.4</v>
+      </c>
+      <c r="M503">
+        <v>2.2</v>
+      </c>
+      <c r="N503">
+        <v>2.9</v>
+      </c>
+      <c r="O503">
+        <v>3.4</v>
+      </c>
+      <c r="P503">
+        <v>2.4</v>
+      </c>
+      <c r="Q503">
+        <v>0.25</v>
+      </c>
+      <c r="R503">
+        <v>1.725</v>
+      </c>
+      <c r="S503">
+        <v>2.15</v>
+      </c>
+      <c r="T503">
+        <v>2.75</v>
+      </c>
+      <c r="U503">
+        <v>1.8</v>
+      </c>
+      <c r="V503">
         <v>2.05</v>
       </c>
-      <c r="L503">
-        <v>3.5</v>
-      </c>
-      <c r="M503">
-        <v>3.5</v>
-      </c>
-      <c r="N503">
-        <v>2.15</v>
-      </c>
-      <c r="O503">
-        <v>3.5</v>
-      </c>
-      <c r="P503">
-        <v>3.25</v>
-      </c>
-      <c r="Q503">
-        <v>-0.25</v>
-      </c>
-      <c r="R503">
-        <v>1.875</v>
-      </c>
-      <c r="S503">
-        <v>1.975</v>
-      </c>
-      <c r="T503">
-        <v>3</v>
-      </c>
-      <c r="U503">
-        <v>1.85</v>
-      </c>
-      <c r="V503">
-        <v>2</v>
-      </c>
       <c r="W503">
         <v>-1</v>
       </c>
       <c r="X503">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y503">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z503">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA503">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB503">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC503">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -46208,7 +46208,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>6011551</v>
+        <v>6011435</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46220,76 +46220,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F514" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G514" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J514" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K514">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L514">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M514">
+        <v>2.5</v>
+      </c>
+      <c r="N514">
+        <v>2.8</v>
+      </c>
+      <c r="O514">
         <v>3.5</v>
       </c>
-      <c r="N514">
-        <v>1.65</v>
-      </c>
-      <c r="O514">
-        <v>4.75</v>
-      </c>
       <c r="P514">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q514">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R514">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S514">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T514">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U514">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V514">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W514">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X514">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y514">
         <v>-1</v>
       </c>
       <c r="Z514">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA514">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB514">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC514">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="515" spans="1:29">
@@ -46297,7 +46297,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>6011435</v>
+        <v>6011551</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46309,76 +46309,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F515" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G515" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J515" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K515">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L515">
+        <v>3.75</v>
+      </c>
+      <c r="M515">
         <v>3.5</v>
       </c>
-      <c r="M515">
-        <v>2.5</v>
-      </c>
       <c r="N515">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O515">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P515">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q515">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R515">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S515">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T515">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U515">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V515">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W515">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X515">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y515">
         <v>-1</v>
       </c>
       <c r="Z515">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA515">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB515">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC515">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -48433,7 +48433,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6011662</v>
+        <v>6011661</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48445,58 +48445,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F539" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G539" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H539">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J539" t="s">
         <v>53</v>
       </c>
       <c r="K539">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L539">
         <v>3.6</v>
       </c>
       <c r="M539">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N539">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O539">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P539">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q539">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R539">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S539">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T539">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U539">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V539">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W539">
-        <v>0.7270000000000001</v>
+        <v>1</v>
       </c>
       <c r="X539">
         <v>-1</v>
@@ -48505,16 +48505,16 @@
         <v>-1</v>
       </c>
       <c r="Z539">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AA539">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB539">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC539">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -48522,7 +48522,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6010969</v>
+        <v>6011662</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48534,58 +48534,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F540" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G540" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I540">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J540" t="s">
         <v>53</v>
       </c>
       <c r="K540">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L540">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M540">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N540">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O540">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P540">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q540">
         <v>-0.75</v>
       </c>
       <c r="R540">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S540">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U540">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V540">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W540">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X540">
         <v>-1</v>
@@ -48594,16 +48594,16 @@
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>0.5249999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA540">
         <v>-0.5</v>
       </c>
       <c r="AB540">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC540">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48611,7 +48611,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6011563</v>
+        <v>6010969</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48623,13 +48623,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F541" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G541" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H541">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I541">
         <v>0</v>
@@ -48638,31 +48638,31 @@
         <v>53</v>
       </c>
       <c r="K541">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L541">
         <v>3.5</v>
       </c>
       <c r="M541">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N541">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O541">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P541">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q541">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R541">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S541">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T541">
         <v>2.75</v>
@@ -48674,7 +48674,7 @@
         <v>1.825</v>
       </c>
       <c r="W541">
-        <v>1.875</v>
+        <v>0.8</v>
       </c>
       <c r="X541">
         <v>-1</v>
@@ -48683,16 +48683,16 @@
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA541">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB541">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC541">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -48700,7 +48700,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>6011661</v>
+        <v>6011563</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48712,13 +48712,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F542" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G542" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I542">
         <v>0</v>
@@ -48727,25 +48727,25 @@
         <v>53</v>
       </c>
       <c r="K542">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L542">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M542">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N542">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O542">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P542">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q542">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R542">
         <v>2.025</v>
@@ -48763,7 +48763,7 @@
         <v>1.825</v>
       </c>
       <c r="W542">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="X542">
         <v>-1</v>
@@ -48778,10 +48778,10 @@
         <v>-1</v>
       </c>
       <c r="AB542">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC542">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="543" spans="1:29">
@@ -52171,7 +52171,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>6011584</v>
+        <v>6011943</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52183,73 +52183,73 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F581" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G581" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J581" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K581">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L581">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M581">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N581">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O581">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P581">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q581">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R581">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S581">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T581">
         <v>3.25</v>
       </c>
       <c r="U581">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V581">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W581">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X581">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y581">
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC581">
         <v>-1</v>
@@ -52260,7 +52260,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6014977</v>
+        <v>6011584</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52272,76 +52272,76 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F582" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G582" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J582" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K582">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L582">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M582">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N582">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O582">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P582">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q582">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R582">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S582">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T582">
+        <v>3.25</v>
+      </c>
+      <c r="U582">
+        <v>1.975</v>
+      </c>
+      <c r="V582">
+        <v>1.875</v>
+      </c>
+      <c r="W582">
+        <v>-1</v>
+      </c>
+      <c r="X582">
         <v>2.75</v>
       </c>
-      <c r="U582">
-        <v>1.95</v>
-      </c>
-      <c r="V582">
-        <v>1.9</v>
-      </c>
-      <c r="W582">
-        <v>-1</v>
-      </c>
-      <c r="X582">
-        <v>-1</v>
-      </c>
       <c r="Y582">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z582">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA582">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB582">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC582">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52349,7 +52349,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6011583</v>
+        <v>6014977</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52361,76 +52361,76 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F583" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G583" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H583">
+        <v>0</v>
+      </c>
+      <c r="I583">
         <v>1</v>
       </c>
-      <c r="I583">
-        <v>0</v>
-      </c>
       <c r="J583" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K583">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L583">
+        <v>3.4</v>
+      </c>
+      <c r="M583">
+        <v>2.3</v>
+      </c>
+      <c r="N583">
+        <v>2.9</v>
+      </c>
+      <c r="O583">
         <v>3.5</v>
       </c>
-      <c r="M583">
-        <v>3.75</v>
-      </c>
-      <c r="N583">
-        <v>1.909</v>
-      </c>
-      <c r="O583">
-        <v>3.6</v>
-      </c>
       <c r="P583">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q583">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R583">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S583">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T583">
         <v>2.75</v>
       </c>
       <c r="U583">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V583">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W583">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X583">
         <v>-1</v>
       </c>
       <c r="Y583">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z583">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA583">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB583">
         <v>-1</v>
       </c>
       <c r="AC583">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -52438,7 +52438,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>6011943</v>
+        <v>6011583</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52450,58 +52450,58 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F584" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G584" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H584">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J584" t="s">
         <v>53</v>
       </c>
       <c r="K584">
+        <v>1.95</v>
+      </c>
+      <c r="L584">
+        <v>3.5</v>
+      </c>
+      <c r="M584">
+        <v>3.75</v>
+      </c>
+      <c r="N584">
+        <v>1.909</v>
+      </c>
+      <c r="O584">
+        <v>3.6</v>
+      </c>
+      <c r="P584">
+        <v>4</v>
+      </c>
+      <c r="Q584">
+        <v>-0.5</v>
+      </c>
+      <c r="R584">
+        <v>1.875</v>
+      </c>
+      <c r="S584">
+        <v>1.975</v>
+      </c>
+      <c r="T584">
+        <v>2.75</v>
+      </c>
+      <c r="U584">
         <v>1.85</v>
       </c>
-      <c r="L584">
-        <v>3.6</v>
-      </c>
-      <c r="M584">
-        <v>4</v>
-      </c>
-      <c r="N584">
-        <v>1.5</v>
-      </c>
-      <c r="O584">
-        <v>4.333</v>
-      </c>
-      <c r="P584">
-        <v>6</v>
-      </c>
-      <c r="Q584">
-        <v>-1.25</v>
-      </c>
-      <c r="R584">
-        <v>2.025</v>
-      </c>
-      <c r="S584">
-        <v>1.825</v>
-      </c>
-      <c r="T584">
-        <v>3.25</v>
-      </c>
-      <c r="U584">
-        <v>1.825</v>
-      </c>
       <c r="V584">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W584">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X584">
         <v>-1</v>
@@ -52510,16 +52510,16 @@
         <v>-1</v>
       </c>
       <c r="Z584">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA584">
         <v>-1</v>
       </c>
       <c r="AB584">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC584">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52794,7 +52794,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6014976</v>
+        <v>6011944</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52806,46 +52806,46 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G588" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J588" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K588">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L588">
         <v>3.4</v>
       </c>
       <c r="M588">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N588">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O588">
         <v>3.6</v>
       </c>
       <c r="P588">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q588">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T588">
         <v>2.75</v>
@@ -52857,25 +52857,25 @@
         <v>2.025</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z588">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA588">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52883,7 +52883,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6011944</v>
+        <v>6014976</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52895,46 +52895,46 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F589" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G589" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H589">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I589">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K589">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L589">
         <v>3.4</v>
       </c>
       <c r="M589">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N589">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O589">
         <v>3.6</v>
       </c>
       <c r="P589">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="Q589">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R589">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S589">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T589">
         <v>2.75</v>
@@ -52946,25 +52946,25 @@
         <v>2.025</v>
       </c>
       <c r="W589">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z589">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA589">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB589">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53328,7 +53328,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6010976</v>
+        <v>6011589</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53340,76 +53340,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F594" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G594" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
         <v>0</v>
       </c>
-      <c r="I594">
-        <v>1</v>
-      </c>
       <c r="J594" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K594">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L594">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M594">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N594">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O594">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P594">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q594">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R594">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S594">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T594">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U594">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V594">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W594">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X594">
         <v>-1</v>
       </c>
       <c r="Y594">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z594">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA594">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB594">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC594">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53417,7 +53417,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6011588</v>
+        <v>6011591</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53429,58 +53429,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F595" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G595" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H595">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I595">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J595" t="s">
         <v>53</v>
       </c>
       <c r="K595">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L595">
+        <v>3.5</v>
+      </c>
+      <c r="M595">
+        <v>2.25</v>
+      </c>
+      <c r="N595">
+        <v>3.1</v>
+      </c>
+      <c r="O595">
         <v>3.6</v>
       </c>
-      <c r="M595">
-        <v>4.2</v>
-      </c>
-      <c r="N595">
-        <v>1.533</v>
-      </c>
-      <c r="O595">
-        <v>4.5</v>
-      </c>
       <c r="P595">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q595">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R595">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S595">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T595">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U595">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V595">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W595">
-        <v>0.5329999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X595">
         <v>-1</v>
@@ -53489,13 +53489,13 @@
         <v>-1</v>
       </c>
       <c r="Z595">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA595">
         <v>-1</v>
       </c>
       <c r="AB595">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC595">
         <v>-1</v>
@@ -53506,7 +53506,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6011589</v>
+        <v>6010976</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53518,76 +53518,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F596" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G596" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H596">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J596" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K596">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L596">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M596">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N596">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O596">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P596">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q596">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R596">
+        <v>1.95</v>
+      </c>
+      <c r="S596">
+        <v>1.9</v>
+      </c>
+      <c r="T596">
+        <v>2.5</v>
+      </c>
+      <c r="U596">
         <v>1.85</v>
       </c>
-      <c r="S596">
-        <v>2</v>
-      </c>
-      <c r="T596">
-        <v>3.25</v>
-      </c>
-      <c r="U596">
-        <v>1.875</v>
-      </c>
       <c r="V596">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W596">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X596">
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z596">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA596">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB596">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC596">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53595,7 +53595,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6011591</v>
+        <v>6011588</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53607,58 +53607,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F597" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G597" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J597" t="s">
         <v>53</v>
       </c>
       <c r="K597">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L597">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M597">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N597">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O597">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P597">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q597">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R597">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S597">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T597">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V597">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W597">
-        <v>2.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X597">
         <v>-1</v>
@@ -53667,13 +53667,13 @@
         <v>-1</v>
       </c>
       <c r="Z597">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA597">
         <v>-1</v>
       </c>
       <c r="AB597">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC597">
         <v>-1</v>
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>6011623</v>
+        <v>6011947</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,76 +59837,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F667" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G667" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H667">
         <v>1</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J667" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K667">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L667">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M667">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N667">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="O667">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P667">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q667">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R667">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
         <v>3</v>
       </c>
       <c r="U667">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V667">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W667">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X667">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y667">
         <v>-1</v>
       </c>
       <c r="Z667">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA667">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB667">
         <v>-1</v>
       </c>
       <c r="AC667">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>6011947</v>
+        <v>6011623</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,76 +59926,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F668" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G668" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H668">
         <v>1</v>
       </c>
       <c r="I668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K668">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L668">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M668">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N668">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="O668">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P668">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q668">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T668">
         <v>3</v>
       </c>
       <c r="U668">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V668">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W668">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X668">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y668">
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA668">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60626,7 +60626,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>6011451</v>
+        <v>6014965</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60638,73 +60638,73 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G676" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I676">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J676" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K676">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="L676">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M676">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N676">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O676">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P676">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q676">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S676">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T676">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U676">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V676">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W676">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z676">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA676">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC676">
         <v>-1</v>
@@ -60715,7 +60715,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>6014965</v>
+        <v>6011630</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60727,10 +60727,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G677" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H677">
         <v>3</v>
@@ -60742,43 +60742,43 @@
         <v>53</v>
       </c>
       <c r="K677">
+        <v>2.05</v>
+      </c>
+      <c r="L677">
+        <v>3.75</v>
+      </c>
+      <c r="M677">
+        <v>3</v>
+      </c>
+      <c r="N677">
         <v>1.95</v>
       </c>
-      <c r="L677">
-        <v>3.6</v>
-      </c>
-      <c r="M677">
-        <v>3.4</v>
-      </c>
-      <c r="N677">
-        <v>2.15</v>
-      </c>
       <c r="O677">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P677">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q677">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R677">
+        <v>2</v>
+      </c>
+      <c r="S677">
+        <v>1.85</v>
+      </c>
+      <c r="T677">
+        <v>3.25</v>
+      </c>
+      <c r="U677">
+        <v>2.025</v>
+      </c>
+      <c r="V677">
         <v>1.825</v>
       </c>
-      <c r="S677">
-        <v>2.025</v>
-      </c>
-      <c r="T677">
-        <v>2.5</v>
-      </c>
-      <c r="U677">
-        <v>2.05</v>
-      </c>
-      <c r="V677">
-        <v>1.8</v>
-      </c>
       <c r="W677">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60787,16 +60787,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA677">
         <v>-1</v>
       </c>
       <c r="AB677">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60804,7 +60804,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>6011630</v>
+        <v>6011451</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60816,76 +60816,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F678" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G678" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H678">
+        <v>1</v>
+      </c>
+      <c r="I678">
         <v>3</v>
       </c>
-      <c r="I678">
-        <v>0</v>
-      </c>
       <c r="J678" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K678">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L678">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M678">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N678">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O678">
         <v>4.2</v>
       </c>
       <c r="P678">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q678">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R678">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S678">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T678">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U678">
+        <v>1.825</v>
+      </c>
+      <c r="V678">
         <v>2.025</v>
       </c>
-      <c r="V678">
-        <v>1.825</v>
-      </c>
       <c r="W678">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z678">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA678">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB678">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC678">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -61071,7 +61071,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>6014964</v>
+        <v>6011636</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61083,76 +61083,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F681" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G681" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K681">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L681">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M681">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N681">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O681">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P681">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q681">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R681">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S681">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T681">
         <v>3</v>
       </c>
       <c r="U681">
+        <v>1.975</v>
+      </c>
+      <c r="V681">
         <v>1.875</v>
       </c>
-      <c r="V681">
-        <v>1.975</v>
-      </c>
       <c r="W681">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X681">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y681">
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA681">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB681">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC681">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61160,7 +61160,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>6011636</v>
+        <v>6011637</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61172,76 +61172,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F682" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G682" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I682">
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K682">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L682">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M682">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N682">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O682">
         <v>3.75</v>
       </c>
       <c r="P682">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q682">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R682">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S682">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T682">
         <v>3</v>
       </c>
       <c r="U682">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V682">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W682">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X682">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA682">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB682">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC682">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61249,7 +61249,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6011637</v>
+        <v>6014964</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61261,58 +61261,58 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F683" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G683" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H683">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J683" t="s">
         <v>53</v>
       </c>
       <c r="K683">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="L683">
         <v>4</v>
       </c>
       <c r="M683">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="N683">
+        <v>1.615</v>
+      </c>
+      <c r="O683">
         <v>4</v>
       </c>
-      <c r="O683">
-        <v>3.75</v>
-      </c>
       <c r="P683">
+        <v>5.25</v>
+      </c>
+      <c r="Q683">
+        <v>-1</v>
+      </c>
+      <c r="R683">
+        <v>2</v>
+      </c>
+      <c r="S683">
         <v>1.85</v>
-      </c>
-      <c r="Q683">
-        <v>0.5</v>
-      </c>
-      <c r="R683">
-        <v>1.975</v>
-      </c>
-      <c r="S683">
-        <v>1.875</v>
       </c>
       <c r="T683">
         <v>3</v>
       </c>
       <c r="U683">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V683">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W683">
-        <v>3</v>
+        <v>0.615</v>
       </c>
       <c r="X683">
         <v>-1</v>
@@ -61321,10 +61321,10 @@
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB683">
         <v>0</v>
@@ -62762,7 +62762,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>6011673</v>
+        <v>6011454</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62774,76 +62774,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F700" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G700" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J700" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K700">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L700">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M700">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N700">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O700">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P700">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q700">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R700">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S700">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T700">
         <v>2.75</v>
       </c>
       <c r="U700">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V700">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W700">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X700">
         <v>-1</v>
       </c>
       <c r="Y700">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z700">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA700">
+        <v>-1</v>
+      </c>
+      <c r="AB700">
+        <v>-1</v>
+      </c>
+      <c r="AC700">
         <v>1.05</v>
-      </c>
-      <c r="AB700">
-        <v>0.4875</v>
-      </c>
-      <c r="AC700">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -62851,7 +62851,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>6011454</v>
+        <v>6011673</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62863,76 +62863,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F701" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G701" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J701" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K701">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L701">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M701">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N701">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O701">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P701">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q701">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R701">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S701">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T701">
         <v>2.75</v>
       </c>
       <c r="U701">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V701">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W701">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X701">
         <v>-1</v>
       </c>
       <c r="Y701">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z701">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA701">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB701">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC701">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62940,7 +62940,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>6014962</v>
+        <v>6010988</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62952,76 +62952,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F702" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G702" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702">
         <v>1</v>
       </c>
       <c r="J702" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K702">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L702">
         <v>3.6</v>
       </c>
       <c r="M702">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N702">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O702">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P702">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q702">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R702">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S702">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T702">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U702">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V702">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W702">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X702">
         <v>-1</v>
       </c>
       <c r="Y702">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z702">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA702">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB702">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC702">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -63029,7 +63029,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>6010988</v>
+        <v>6014962</v>
       </c>
       <c r="C703" t="s">
         <v>28</v>
@@ -63041,76 +63041,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F703" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G703" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703">
         <v>1</v>
       </c>
       <c r="J703" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K703">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L703">
         <v>3.6</v>
       </c>
       <c r="M703">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N703">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O703">
+        <v>3.6</v>
+      </c>
+      <c r="P703">
         <v>3.4</v>
       </c>
-      <c r="P703">
-        <v>2.6</v>
-      </c>
       <c r="Q703">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R703">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S703">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T703">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U703">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V703">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W703">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X703">
         <v>-1</v>
       </c>
       <c r="Y703">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z703">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA703">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB703">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC703">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="704" spans="1:29">

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -166,10 +166,10 @@
     <t>Stabaek</t>
   </si>
   <si>
-    <t>Moss</t>
+    <t>Kristiansund BK</t>
   </si>
   <si>
-    <t>Kristiansund BK</t>
+    <t>Moss</t>
   </si>
   <si>
     <t>Hodd</t>
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>4587195</v>
+        <v>4587293</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,13 +25661,13 @@
         <v>44696.54166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -25676,43 +25676,43 @@
         <v>53</v>
       </c>
       <c r="K283">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M283">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N283">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P283">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S283">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
         <v>3</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W283">
-        <v>0.7270000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25721,13 +25721,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
+        <v>1</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
         <v>0.925</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>0.95</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>4587293</v>
+        <v>4587587</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,76 +25750,76 @@
         <v>44696.54166666666</v>
       </c>
       <c r="F284" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H284">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L284">
+        <v>3.6</v>
+      </c>
+      <c r="M284">
+        <v>2.15</v>
+      </c>
+      <c r="N284">
+        <v>2.45</v>
+      </c>
+      <c r="O284">
         <v>3.4</v>
       </c>
-      <c r="M284">
-        <v>3.1</v>
-      </c>
-      <c r="N284">
-        <v>1.95</v>
-      </c>
-      <c r="O284">
-        <v>4</v>
-      </c>
       <c r="P284">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S284">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T284">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U284">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z284">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB284">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4587587</v>
+        <v>4587698</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>44696.54166666666</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K285">
+        <v>1.95</v>
+      </c>
+      <c r="L285">
+        <v>3.75</v>
+      </c>
+      <c r="M285">
+        <v>3.5</v>
+      </c>
+      <c r="N285">
+        <v>2.2</v>
+      </c>
+      <c r="O285">
+        <v>3.6</v>
+      </c>
+      <c r="P285">
         <v>3.1</v>
-      </c>
-      <c r="L285">
-        <v>3.6</v>
-      </c>
-      <c r="M285">
-        <v>2.15</v>
-      </c>
-      <c r="N285">
-        <v>2.45</v>
-      </c>
-      <c r="O285">
-        <v>3.4</v>
-      </c>
-      <c r="P285">
-        <v>2.875</v>
       </c>
       <c r="Q285">
         <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T285">
         <v>2.75</v>
       </c>
       <c r="U285">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V285">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA285">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AC285">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25916,7 +25916,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>4587698</v>
+        <v>4587195</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25928,13 +25928,13 @@
         <v>44696.54166666666</v>
       </c>
       <c r="F286" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I286">
         <v>1</v>
@@ -25943,43 +25943,43 @@
         <v>53</v>
       </c>
       <c r="K286">
+        <v>2.15</v>
+      </c>
+      <c r="L286">
+        <v>3.5</v>
+      </c>
+      <c r="M286">
+        <v>3.25</v>
+      </c>
+      <c r="N286">
+        <v>1.727</v>
+      </c>
+      <c r="O286">
+        <v>3.8</v>
+      </c>
+      <c r="P286">
+        <v>4.5</v>
+      </c>
+      <c r="Q286">
+        <v>-0.75</v>
+      </c>
+      <c r="R286">
+        <v>1.925</v>
+      </c>
+      <c r="S286">
+        <v>1.925</v>
+      </c>
+      <c r="T286">
+        <v>3</v>
+      </c>
+      <c r="U286">
         <v>1.95</v>
       </c>
-      <c r="L286">
-        <v>3.75</v>
-      </c>
-      <c r="M286">
-        <v>3.5</v>
-      </c>
-      <c r="N286">
-        <v>2.2</v>
-      </c>
-      <c r="O286">
-        <v>3.6</v>
-      </c>
-      <c r="P286">
-        <v>3.1</v>
-      </c>
-      <c r="Q286">
-        <v>-0.25</v>
-      </c>
-      <c r="R286">
-        <v>1.975</v>
-      </c>
-      <c r="S286">
-        <v>1.875</v>
-      </c>
-      <c r="T286">
-        <v>2.75</v>
-      </c>
-      <c r="U286">
-        <v>2.1</v>
-      </c>
       <c r="V286">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W286">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25988,16 +25988,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -30099,7 +30099,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>4587210</v>
+        <v>4587309</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30111,76 +30111,76 @@
         <v>44746.54166666666</v>
       </c>
       <c r="F333" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K333">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M333">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N333">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O333">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="Q333">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S333">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T333">
         <v>3.25</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
         <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y333">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
+        <v>0.4375</v>
+      </c>
+      <c r="AB333">
         <v>1</v>
       </c>
-      <c r="AB333">
-        <v>-0.5</v>
-      </c>
       <c r="AC333">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30277,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4587309</v>
+        <v>4587210</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30289,76 +30289,76 @@
         <v>44746.54166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G335" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J335" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K335">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L335">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M335">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N335">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O335">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P335">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R335">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T335">
         <v>3.25</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V335">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z335">
+        <v>-1</v>
+      </c>
+      <c r="AA335">
+        <v>1</v>
+      </c>
+      <c r="AB335">
         <v>-0.5</v>
       </c>
-      <c r="AA335">
-        <v>0.4375</v>
-      </c>
-      <c r="AB335">
-        <v>1</v>
-      </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4587211</v>
+        <v>4587313</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,76 +30467,76 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F337" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G337" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K337">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M337">
+        <v>2.1</v>
+      </c>
+      <c r="N337">
         <v>3.25</v>
       </c>
-      <c r="N337">
-        <v>2.05</v>
-      </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P337">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S337">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W337">
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC337">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30544,7 +30544,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>4587212</v>
+        <v>4591746</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30556,76 +30556,76 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F338" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H338">
+        <v>4</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+      <c r="J338" t="s">
+        <v>53</v>
+      </c>
+      <c r="K338">
+        <v>1.333</v>
+      </c>
+      <c r="L338">
+        <v>5</v>
+      </c>
+      <c r="M338">
+        <v>6</v>
+      </c>
+      <c r="N338">
+        <v>1.2</v>
+      </c>
+      <c r="O338">
+        <v>7</v>
+      </c>
+      <c r="P338">
+        <v>13</v>
+      </c>
+      <c r="Q338">
+        <v>-2</v>
+      </c>
+      <c r="R338">
+        <v>2.05</v>
+      </c>
+      <c r="S338">
+        <v>1.8</v>
+      </c>
+      <c r="T338">
+        <v>3.25</v>
+      </c>
+      <c r="U338">
+        <v>2</v>
+      </c>
+      <c r="V338">
+        <v>1.85</v>
+      </c>
+      <c r="W338">
+        <v>0.2</v>
+      </c>
+      <c r="X338">
+        <v>-1</v>
+      </c>
+      <c r="Y338">
+        <v>-1</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>-0</v>
+      </c>
+      <c r="AB338">
         <v>1</v>
       </c>
-      <c r="I338">
-        <v>1</v>
-      </c>
-      <c r="J338" t="s">
-        <v>55</v>
-      </c>
-      <c r="K338">
-        <v>2.1</v>
-      </c>
-      <c r="L338">
-        <v>3.5</v>
-      </c>
-      <c r="M338">
-        <v>3</v>
-      </c>
-      <c r="N338">
-        <v>2.2</v>
-      </c>
-      <c r="O338">
-        <v>3.75</v>
-      </c>
-      <c r="P338">
-        <v>3.1</v>
-      </c>
-      <c r="Q338">
-        <v>-0.25</v>
-      </c>
-      <c r="R338">
-        <v>1.9</v>
-      </c>
-      <c r="S338">
-        <v>1.95</v>
-      </c>
-      <c r="T338">
-        <v>3</v>
-      </c>
-      <c r="U338">
-        <v>1.8</v>
-      </c>
-      <c r="V338">
-        <v>2.05</v>
-      </c>
-      <c r="W338">
-        <v>-1</v>
-      </c>
-      <c r="X338">
-        <v>2.75</v>
-      </c>
-      <c r="Y338">
-        <v>-1</v>
-      </c>
-      <c r="Z338">
-        <v>-0.5</v>
-      </c>
-      <c r="AA338">
-        <v>0.475</v>
-      </c>
-      <c r="AB338">
-        <v>-1</v>
-      </c>
       <c r="AC338">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30633,7 +30633,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>4587313</v>
+        <v>4587211</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30645,76 +30645,76 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G339" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J339" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K339">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L339">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M339">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N339">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="O339">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P339">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q339">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S339">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T339">
         <v>2.75</v>
       </c>
       <c r="U339">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V339">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y339">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
+        <v>0.825</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+      <c r="AC339">
         <v>0.875</v>
-      </c>
-      <c r="AB339">
-        <v>0.425</v>
-      </c>
-      <c r="AC339">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30811,7 +30811,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>4591746</v>
+        <v>4587212</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30823,76 +30823,76 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G341" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H341">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K341">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L341">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M341">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N341">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="O341">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P341">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="Q341">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>3</v>
+      </c>
+      <c r="U341">
+        <v>1.8</v>
+      </c>
+      <c r="V341">
         <v>2.05</v>
       </c>
-      <c r="S341">
-        <v>1.8</v>
-      </c>
-      <c r="T341">
-        <v>3.25</v>
-      </c>
-      <c r="U341">
-        <v>2</v>
-      </c>
-      <c r="V341">
-        <v>1.85</v>
-      </c>
       <c r="W341">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X341">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y341">
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA341">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB341">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30900,7 +30900,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4587747</v>
+        <v>4587311</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30912,73 +30912,73 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G342" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I342">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K342">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L342">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M342">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N342">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O342">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P342">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R342">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S342">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W342">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA342">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC342">
         <v>-1</v>
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>4587311</v>
+        <v>4587747</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,73 +31001,73 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G343" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H343">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I343">
+        <v>3</v>
+      </c>
+      <c r="J343" t="s">
+        <v>54</v>
+      </c>
+      <c r="K343">
+        <v>2.55</v>
+      </c>
+      <c r="L343">
+        <v>3.5</v>
+      </c>
+      <c r="M343">
+        <v>2.45</v>
+      </c>
+      <c r="N343">
+        <v>2.625</v>
+      </c>
+      <c r="O343">
+        <v>3.6</v>
+      </c>
+      <c r="P343">
+        <v>2.5</v>
+      </c>
+      <c r="Q343">
         <v>0</v>
       </c>
-      <c r="J343" t="s">
-        <v>53</v>
-      </c>
-      <c r="K343">
-        <v>1.4</v>
-      </c>
-      <c r="L343">
-        <v>4.5</v>
-      </c>
-      <c r="M343">
-        <v>6</v>
-      </c>
-      <c r="N343">
-        <v>1.65</v>
-      </c>
-      <c r="O343">
-        <v>4.333</v>
-      </c>
-      <c r="P343">
-        <v>4.75</v>
-      </c>
-      <c r="Q343">
-        <v>-1</v>
-      </c>
       <c r="R343">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T343">
         <v>3</v>
       </c>
       <c r="U343">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V343">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W343">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z343">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB343">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC343">
         <v>-1</v>
@@ -31345,7 +31345,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>4587315</v>
+        <v>4587214</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31357,76 +31357,76 @@
         <v>44753.54166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G347" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H347">
         <v>0</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K347">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L347">
         <v>3.75</v>
       </c>
       <c r="M347">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N347">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O347">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P347">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q347">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S347">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T347">
         <v>3</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>4587216</v>
+        <v>4587316</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31446,76 +31446,76 @@
         <v>44753.54166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G348" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348" t="s">
+        <v>55</v>
+      </c>
+      <c r="K348">
+        <v>1.8</v>
+      </c>
+      <c r="L348">
+        <v>3.8</v>
+      </c>
+      <c r="M348">
         <v>4</v>
       </c>
-      <c r="I348">
-        <v>0</v>
-      </c>
-      <c r="J348" t="s">
-        <v>53</v>
-      </c>
-      <c r="K348">
-        <v>1.7</v>
-      </c>
-      <c r="L348">
-        <v>4</v>
-      </c>
-      <c r="M348">
-        <v>4.5</v>
-      </c>
       <c r="N348">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O348">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P348">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
+        <v>1.9</v>
+      </c>
+      <c r="S348">
         <v>1.95</v>
       </c>
-      <c r="S348">
-        <v>1.9</v>
-      </c>
       <c r="T348">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
+        <v>-1</v>
+      </c>
+      <c r="AA348">
         <v>0.95</v>
       </c>
-      <c r="AA348">
-        <v>-1</v>
-      </c>
       <c r="AB348">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>4587316</v>
+        <v>4587315</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31535,46 +31535,46 @@
         <v>44753.54166666666</v>
       </c>
       <c r="F349" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>55</v>
       </c>
       <c r="K349">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L349">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M349">
+        <v>3.25</v>
+      </c>
+      <c r="N349">
+        <v>1.95</v>
+      </c>
+      <c r="O349">
         <v>4</v>
       </c>
-      <c r="N349">
-        <v>1.85</v>
-      </c>
-      <c r="O349">
-        <v>4.2</v>
-      </c>
       <c r="P349">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q349">
         <v>-0.5</v>
       </c>
       <c r="R349">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S349">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T349">
         <v>3</v>
@@ -31589,7 +31589,7 @@
         <v>-1</v>
       </c>
       <c r="X349">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y349">
         <v>-1</v>
@@ -31598,7 +31598,7 @@
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB349">
         <v>-1</v>
@@ -31612,7 +31612,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4587215</v>
+        <v>4587216</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31624,76 +31624,76 @@
         <v>44753.54166666666</v>
       </c>
       <c r="F350" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G350" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K350">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L350">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M350">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N350">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O350">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P350">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q350">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R350">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S350">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T350">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U350">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V350">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA350">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC350">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31701,7 +31701,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4587214</v>
+        <v>4587215</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31713,49 +31713,49 @@
         <v>44753.54166666666</v>
       </c>
       <c r="F351" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G351" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
         <v>54</v>
       </c>
       <c r="K351">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L351">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M351">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N351">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O351">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P351">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R351">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S351">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T351">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>1.925</v>
@@ -31770,19 +31770,19 @@
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC351">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4587218</v>
+        <v>4587317</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,73 +31802,73 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G352" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K352">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L352">
         <v>3.6</v>
       </c>
       <c r="M352">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N352">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O352">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P352">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R352">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S352">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T352">
         <v>3.25</v>
       </c>
       <c r="U352">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X352">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA352">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31879,7 +31879,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4587317</v>
+        <v>4587218</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31891,73 +31891,73 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G353" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H353">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K353">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L353">
         <v>3.6</v>
       </c>
       <c r="M353">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N353">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O353">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P353">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q353">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S353">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T353">
         <v>3.25</v>
       </c>
       <c r="U353">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W353">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB353">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC353">
         <v>-1</v>
@@ -32146,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4587319</v>
+        <v>4587748</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32158,46 +32158,46 @@
         <v>44760.54166666666</v>
       </c>
       <c r="F356" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K356">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L356">
         <v>3.6</v>
       </c>
       <c r="M356">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N356">
+        <v>2.8</v>
+      </c>
+      <c r="O356">
+        <v>3.75</v>
+      </c>
+      <c r="P356">
+        <v>2.3</v>
+      </c>
+      <c r="Q356">
+        <v>0.25</v>
+      </c>
+      <c r="R356">
+        <v>1.8</v>
+      </c>
+      <c r="S356">
         <v>2.05</v>
-      </c>
-      <c r="O356">
-        <v>3.8</v>
-      </c>
-      <c r="P356">
-        <v>3.2</v>
-      </c>
-      <c r="Q356">
-        <v>-0.25</v>
-      </c>
-      <c r="R356">
-        <v>1.825</v>
-      </c>
-      <c r="S356">
-        <v>2.025</v>
       </c>
       <c r="T356">
         <v>2.75</v>
@@ -32209,25 +32209,25 @@
         <v>2</v>
       </c>
       <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
+        <v>-1</v>
+      </c>
+      <c r="Y356">
+        <v>1.3</v>
+      </c>
+      <c r="Z356">
+        <v>-1</v>
+      </c>
+      <c r="AA356">
         <v>1.05</v>
       </c>
-      <c r="X356">
-        <v>-1</v>
-      </c>
-      <c r="Y356">
-        <v>-1</v>
-      </c>
-      <c r="Z356">
-        <v>0.825</v>
-      </c>
-      <c r="AA356">
-        <v>-1</v>
-      </c>
       <c r="AB356">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4587219</v>
+        <v>4587319</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32336,76 +32336,76 @@
         <v>44760.54166666666</v>
       </c>
       <c r="F358" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358">
         <v>2</v>
       </c>
       <c r="J358" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K358">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L358">
         <v>3.6</v>
       </c>
       <c r="M358">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N358">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O358">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P358">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q358">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R358">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S358">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T358">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U358">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V358">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W358">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X358">
         <v>-1</v>
       </c>
       <c r="Y358">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA358">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC358">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32413,7 +32413,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>4587748</v>
+        <v>4587219</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32425,55 +32425,55 @@
         <v>44760.54166666666</v>
       </c>
       <c r="F359" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G359" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
         <v>54</v>
       </c>
       <c r="K359">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L359">
         <v>3.6</v>
       </c>
       <c r="M359">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N359">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O359">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P359">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q359">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R359">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S359">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T359">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U359">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V359">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W359">
         <v>-1</v>
@@ -32482,19 +32482,19 @@
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB359">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC359">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4591742</v>
+        <v>4587700</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,76 +33315,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G369" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J369" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K369">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L369">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M369">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N369">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O369">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P369">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q369">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R369">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S369">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T369">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U369">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V369">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W369">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X369">
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z369">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC369">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4587700</v>
+        <v>4591742</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,76 +33404,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F370" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G370" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K370">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L370">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M370">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N370">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="O370">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P370">
-        <v>1.727</v>
+        <v>10</v>
       </c>
       <c r="Q370">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R370">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S370">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T370">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U370">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V370">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA370">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB370">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC370">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4587222</v>
+        <v>4587324</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,76 +33493,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F371" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G371" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K371">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="L371">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M371">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="N371">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="O371">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P371">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="Q371">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S371">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T371">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U371">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V371">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y371">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA371">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB371">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4587223</v>
+        <v>4587222</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,76 +33582,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F372" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G372" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K372">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="L372">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M372">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="N372">
-        <v>1.727</v>
+        <v>9.5</v>
       </c>
       <c r="O372">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P372">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R372">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S372">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T372">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U372">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V372">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W372">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z372">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC372">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4587224</v>
+        <v>4587223</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33671,67 +33671,67 @@
         <v>44773.4375</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G373" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H373">
         <v>1</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K373">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L373">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M373">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N373">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O373">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P373">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T373">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U373">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="V373">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X373">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AA373">
         <v>-0.5</v>
@@ -33740,7 +33740,7 @@
         <v>-1</v>
       </c>
       <c r="AC373">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33748,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4587323</v>
+        <v>4587224</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33760,40 +33760,40 @@
         <v>44773.4375</v>
       </c>
       <c r="F374" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G374" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374">
         <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K374">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L374">
         <v>3.6</v>
       </c>
       <c r="M374">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N374">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O374">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P374">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
         <v>2</v>
@@ -33802,34 +33802,34 @@
         <v>1.85</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>2.15</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W374">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33837,7 +33837,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4587324</v>
+        <v>4587323</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33849,19 +33849,19 @@
         <v>44773.4375</v>
       </c>
       <c r="F375" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G375" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K375">
         <v>2.15</v>
@@ -33873,52 +33873,52 @@
         <v>3.2</v>
       </c>
       <c r="N375">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O375">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P375">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q375">
         <v>-0.25</v>
       </c>
       <c r="R375">
+        <v>2</v>
+      </c>
+      <c r="S375">
         <v>1.85</v>
       </c>
-      <c r="S375">
-        <v>2</v>
-      </c>
       <c r="T375">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
+        <v>1.825</v>
+      </c>
+      <c r="V375">
         <v>2.025</v>
       </c>
-      <c r="V375">
-        <v>1.825</v>
-      </c>
       <c r="W375">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X375">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA375">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC375">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -34460,7 +34460,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4587327</v>
+        <v>4587325</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34472,76 +34472,76 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F382" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G382" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J382" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K382">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L382">
         <v>4</v>
       </c>
       <c r="M382">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N382">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O382">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P382">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q382">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R382">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S382">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T382">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U382">
+        <v>1.975</v>
+      </c>
+      <c r="V382">
         <v>1.875</v>
       </c>
-      <c r="V382">
-        <v>1.975</v>
-      </c>
       <c r="W382">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC382">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34549,7 +34549,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4587325</v>
+        <v>4591741</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34561,73 +34561,73 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F383" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G383" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H383">
         <v>2</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J383" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K383">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="L383">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M383">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N383">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O383">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P383">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q383">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R383">
+        <v>1.925</v>
+      </c>
+      <c r="S383">
+        <v>1.925</v>
+      </c>
+      <c r="T383">
+        <v>2.75</v>
+      </c>
+      <c r="U383">
+        <v>1.825</v>
+      </c>
+      <c r="V383">
         <v>2.025</v>
       </c>
-      <c r="S383">
-        <v>1.825</v>
-      </c>
-      <c r="T383">
-        <v>3.5</v>
-      </c>
-      <c r="U383">
-        <v>1.975</v>
-      </c>
-      <c r="V383">
-        <v>1.875</v>
-      </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
+        <v>0.925</v>
+      </c>
+      <c r="AB383">
         <v>0.825</v>
-      </c>
-      <c r="AB383">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC383">
         <v>-1</v>
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>4591741</v>
+        <v>4587327</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34650,76 +34650,76 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F384" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G384" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384" t="s">
+        <v>53</v>
+      </c>
+      <c r="K384">
+        <v>4.2</v>
+      </c>
+      <c r="L384">
         <v>4</v>
       </c>
-      <c r="J384" t="s">
-        <v>54</v>
-      </c>
-      <c r="K384">
-        <v>3.6</v>
-      </c>
-      <c r="L384">
-        <v>3.75</v>
-      </c>
       <c r="M384">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N384">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O384">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P384">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q384">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R384">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S384">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T384">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U384">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W384">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA384">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB384">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -35706,7 +35706,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4587232</v>
+        <v>4587333</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35718,34 +35718,34 @@
         <v>44787.54166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G396" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H396">
+        <v>2</v>
+      </c>
+      <c r="I396">
         <v>0</v>
       </c>
-      <c r="I396">
-        <v>4</v>
-      </c>
       <c r="J396" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K396">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L396">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N396">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P396">
         <v>3.1</v>
@@ -35754,40 +35754,40 @@
         <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S396">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U396">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V396">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA396">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36062,7 +36062,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>4587333</v>
+        <v>4587232</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36074,34 +36074,34 @@
         <v>44787.54166666666</v>
       </c>
       <c r="F400" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G400" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J400" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K400">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L400">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M400">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N400">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O400">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P400">
         <v>3.1</v>
@@ -36110,40 +36110,40 @@
         <v>-0.25</v>
       </c>
       <c r="R400">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S400">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T400">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U400">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V400">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W400">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X400">
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z400">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA400">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB400">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC400">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36418,7 +36418,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>4587336</v>
+        <v>4587233</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36430,76 +36430,76 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F404" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G404" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I404">
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K404">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L404">
+        <v>4</v>
+      </c>
+      <c r="M404">
+        <v>4.75</v>
+      </c>
+      <c r="N404">
+        <v>1.5</v>
+      </c>
+      <c r="O404">
+        <v>4.75</v>
+      </c>
+      <c r="P404">
+        <v>5.25</v>
+      </c>
+      <c r="Q404">
+        <v>-1</v>
+      </c>
+      <c r="R404">
+        <v>1.85</v>
+      </c>
+      <c r="S404">
+        <v>2</v>
+      </c>
+      <c r="T404">
         <v>3.5</v>
       </c>
-      <c r="M404">
-        <v>2.5</v>
-      </c>
-      <c r="N404">
-        <v>2.625</v>
-      </c>
-      <c r="O404">
-        <v>3.5</v>
-      </c>
-      <c r="P404">
-        <v>2.6</v>
-      </c>
-      <c r="Q404">
-        <v>0</v>
-      </c>
-      <c r="R404">
+      <c r="U404">
         <v>1.975</v>
       </c>
-      <c r="S404">
+      <c r="V404">
         <v>1.875</v>
       </c>
-      <c r="T404">
-        <v>3</v>
-      </c>
-      <c r="U404">
-        <v>1.875</v>
-      </c>
-      <c r="V404">
-        <v>1.975</v>
-      </c>
       <c r="W404">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y404">
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB404">
+        <v>-1</v>
+      </c>
+      <c r="AC404">
         <v>0.875</v>
-      </c>
-      <c r="AC404">
-        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36507,7 +36507,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4587233</v>
+        <v>4587458</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36519,46 +36519,46 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G405" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405">
         <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K405">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L405">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M405">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N405">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O405">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P405">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q405">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R405">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S405">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T405">
         <v>3.5</v>
@@ -36570,19 +36570,19 @@
         <v>1.875</v>
       </c>
       <c r="W405">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X405">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y405">
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA405">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
         <v>-1</v>
@@ -36596,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4587335</v>
+        <v>4587336</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36608,76 +36608,76 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G406" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I406">
         <v>1</v>
       </c>
       <c r="J406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K406">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L406">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N406">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O406">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P406">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q406">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S406">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T406">
         <v>3</v>
       </c>
       <c r="U406">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V406">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC406">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4587458</v>
+        <v>4587335</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,76 +36697,76 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F407" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G407" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407">
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K407">
+        <v>2.2</v>
+      </c>
+      <c r="L407">
+        <v>3.4</v>
+      </c>
+      <c r="M407">
+        <v>3</v>
+      </c>
+      <c r="N407">
+        <v>2.25</v>
+      </c>
+      <c r="O407">
+        <v>3.6</v>
+      </c>
+      <c r="P407">
+        <v>3</v>
+      </c>
+      <c r="Q407">
+        <v>-0.25</v>
+      </c>
+      <c r="R407">
+        <v>1.95</v>
+      </c>
+      <c r="S407">
+        <v>1.9</v>
+      </c>
+      <c r="T407">
+        <v>3</v>
+      </c>
+      <c r="U407">
         <v>1.85</v>
       </c>
-      <c r="L407">
-        <v>3.8</v>
-      </c>
-      <c r="M407">
-        <v>3.4</v>
-      </c>
-      <c r="N407">
-        <v>1.85</v>
-      </c>
-      <c r="O407">
-        <v>4.2</v>
-      </c>
-      <c r="P407">
-        <v>3.6</v>
-      </c>
-      <c r="Q407">
-        <v>-0.5</v>
-      </c>
-      <c r="R407">
-        <v>1.9</v>
-      </c>
-      <c r="S407">
-        <v>1.95</v>
-      </c>
-      <c r="T407">
-        <v>3.5</v>
-      </c>
-      <c r="U407">
-        <v>1.975</v>
-      </c>
       <c r="V407">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W407">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z407">
+        <v>-1</v>
+      </c>
+      <c r="AA407">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA407">
-        <v>-1</v>
-      </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>4591736</v>
+        <v>4587340</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,73 +37854,73 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F420" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J420" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K420">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L420">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M420">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N420">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O420">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P420">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q420">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S420">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T420">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U420">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V420">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y420">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z420">
         <v>-1</v>
       </c>
       <c r="AA420">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB420">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC420">
         <v>-1</v>
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>4587340</v>
+        <v>4587339</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37943,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F421" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G421" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H421">
+        <v>2</v>
+      </c>
+      <c r="I421">
         <v>1</v>
       </c>
-      <c r="I421">
-        <v>4</v>
-      </c>
       <c r="J421" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K421">
+        <v>2.4</v>
+      </c>
+      <c r="L421">
         <v>3.5</v>
       </c>
-      <c r="L421">
-        <v>3.6</v>
-      </c>
       <c r="M421">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N421">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O421">
         <v>4</v>
       </c>
       <c r="P421">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q421">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S421">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T421">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4587339</v>
+        <v>4587599</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,10 +38032,10 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G422" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H422">
         <v>2</v>
@@ -38047,34 +38047,34 @@
         <v>53</v>
       </c>
       <c r="K422">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L422">
+        <v>3.75</v>
+      </c>
+      <c r="M422">
+        <v>1.666</v>
+      </c>
+      <c r="N422">
+        <v>3.8</v>
+      </c>
+      <c r="O422">
+        <v>4.5</v>
+      </c>
+      <c r="P422">
+        <v>1.75</v>
+      </c>
+      <c r="Q422">
+        <v>0.75</v>
+      </c>
+      <c r="R422">
+        <v>1.9</v>
+      </c>
+      <c r="S422">
+        <v>1.95</v>
+      </c>
+      <c r="T422">
         <v>3.5</v>
-      </c>
-      <c r="M422">
-        <v>2.625</v>
-      </c>
-      <c r="N422">
-        <v>2.3</v>
-      </c>
-      <c r="O422">
-        <v>4</v>
-      </c>
-      <c r="P422">
-        <v>2.625</v>
-      </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
-        <v>1.8</v>
-      </c>
-      <c r="S422">
-        <v>2.05</v>
-      </c>
-      <c r="T422">
-        <v>3.25</v>
       </c>
       <c r="U422">
         <v>1.9</v>
@@ -38083,7 +38083,7 @@
         <v>1.95</v>
       </c>
       <c r="W422">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="X422">
         <v>-1</v>
@@ -38092,16 +38092,16 @@
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA422">
         <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4587599</v>
+        <v>4587239</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,76 +38121,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G423" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423">
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K423">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="L423">
+        <v>3.8</v>
+      </c>
+      <c r="M423">
+        <v>4.2</v>
+      </c>
+      <c r="N423">
+        <v>1.909</v>
+      </c>
+      <c r="O423">
+        <v>3.8</v>
+      </c>
+      <c r="P423">
         <v>3.75</v>
       </c>
-      <c r="M423">
-        <v>1.666</v>
-      </c>
-      <c r="N423">
-        <v>3.8</v>
-      </c>
-      <c r="O423">
-        <v>4.5</v>
-      </c>
-      <c r="P423">
-        <v>1.75</v>
-      </c>
       <c r="Q423">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R423">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S423">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T423">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U423">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W423">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z423">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4587239</v>
+        <v>4591736</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G424" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J424" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K424">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="L424">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M424">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N424">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O424">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P424">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q424">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R424">
+        <v>1.925</v>
+      </c>
+      <c r="S424">
+        <v>1.925</v>
+      </c>
+      <c r="T424">
+        <v>3.25</v>
+      </c>
+      <c r="U424">
+        <v>1.975</v>
+      </c>
+      <c r="V424">
         <v>1.875</v>
       </c>
-      <c r="S424">
-        <v>1.975</v>
-      </c>
-      <c r="T424">
-        <v>3</v>
-      </c>
-      <c r="U424">
-        <v>1.875</v>
-      </c>
-      <c r="V424">
-        <v>1.975</v>
-      </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y424">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
+        <v>0.925</v>
+      </c>
+      <c r="AB424">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB424">
-        <v>-1</v>
-      </c>
       <c r="AC424">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -40779,7 +40779,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>4587752</v>
+        <v>4591732</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40791,76 +40791,76 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G453" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J453" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K453">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L453">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M453">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N453">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O453">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P453">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q453">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
+        <v>1.85</v>
+      </c>
+      <c r="S453">
+        <v>2</v>
+      </c>
+      <c r="T453">
+        <v>3.25</v>
+      </c>
+      <c r="U453">
         <v>1.9</v>
       </c>
-      <c r="S453">
+      <c r="V453">
         <v>1.95</v>
       </c>
-      <c r="T453">
-        <v>3.75</v>
-      </c>
-      <c r="U453">
-        <v>1.85</v>
-      </c>
-      <c r="V453">
-        <v>2</v>
-      </c>
       <c r="W453">
         <v>-1</v>
       </c>
       <c r="X453">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y453">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA453">
+        <v>-1</v>
+      </c>
+      <c r="AB453">
+        <v>-1</v>
+      </c>
+      <c r="AC453">
         <v>0.95</v>
-      </c>
-      <c r="AB453">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC453">
-        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40868,7 +40868,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4587348</v>
+        <v>4587752</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40880,55 +40880,55 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F454" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G454" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J454" t="s">
         <v>54</v>
       </c>
       <c r="K454">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="L454">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M454">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N454">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O454">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P454">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R454">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S454">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T454">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U454">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V454">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40937,19 +40937,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC454">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40957,7 +40957,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4587349</v>
+        <v>4587348</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40969,76 +40969,76 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F455" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G455" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J455" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K455">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L455">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M455">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N455">
         <v>1.909</v>
       </c>
       <c r="O455">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P455">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q455">
         <v>-0.5</v>
       </c>
       <c r="R455">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S455">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T455">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W455">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z455">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB455">
         <v>-1</v>
       </c>
       <c r="AC455">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41046,7 +41046,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4591732</v>
+        <v>4587349</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41058,67 +41058,67 @@
         <v>44844.54166666666</v>
       </c>
       <c r="F456" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G456" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456">
         <v>0</v>
       </c>
       <c r="J456" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K456">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="L456">
         <v>3.75</v>
       </c>
       <c r="M456">
+        <v>2.3</v>
+      </c>
+      <c r="N456">
         <v>1.909</v>
       </c>
-      <c r="N456">
-        <v>3.3</v>
-      </c>
       <c r="O456">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P456">
+        <v>3.6</v>
+      </c>
+      <c r="Q456">
+        <v>-0.5</v>
+      </c>
+      <c r="R456">
+        <v>1.9</v>
+      </c>
+      <c r="S456">
         <v>1.95</v>
-      </c>
-      <c r="Q456">
-        <v>0.5</v>
-      </c>
-      <c r="R456">
-        <v>1.85</v>
-      </c>
-      <c r="S456">
-        <v>2</v>
       </c>
       <c r="T456">
         <v>3.25</v>
       </c>
       <c r="U456">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V456">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X456">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA456">
         <v>-1</v>
@@ -41127,7 +41127,7 @@
         <v>-1</v>
       </c>
       <c r="AC456">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41491,7 +41491,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>4587350</v>
+        <v>4587352</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41503,76 +41503,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F461" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G461" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
         <v>3</v>
       </c>
-      <c r="I461">
-        <v>0</v>
-      </c>
       <c r="J461" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K461">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="L461">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M461">
-        <v>41</v>
+        <v>2.3</v>
       </c>
       <c r="N461">
-        <v>1.111</v>
+        <v>3.2</v>
       </c>
       <c r="O461">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P461">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q461">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R461">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S461">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T461">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U461">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V461">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W461">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z461">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA461">
+        <v>0.825</v>
+      </c>
+      <c r="AB461">
         <v>-0.5</v>
       </c>
-      <c r="AB461">
-        <v>-1</v>
-      </c>
       <c r="AC461">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41580,7 +41580,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4587351</v>
+        <v>4587461</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41592,76 +41592,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G462" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>2</v>
+      </c>
+      <c r="J462" t="s">
+        <v>54</v>
+      </c>
+      <c r="K462">
         <v>3</v>
       </c>
-      <c r="I462">
+      <c r="L462">
+        <v>3.6</v>
+      </c>
+      <c r="M462">
+        <v>2.15</v>
+      </c>
+      <c r="N462">
+        <v>5</v>
+      </c>
+      <c r="O462">
+        <v>4.75</v>
+      </c>
+      <c r="P462">
+        <v>1.571</v>
+      </c>
+      <c r="Q462">
         <v>1</v>
       </c>
-      <c r="J462" t="s">
-        <v>53</v>
-      </c>
-      <c r="K462">
-        <v>2.15</v>
-      </c>
-      <c r="L462">
-        <v>3.75</v>
-      </c>
-      <c r="M462">
-        <v>2.9</v>
-      </c>
-      <c r="N462">
-        <v>2.15</v>
-      </c>
-      <c r="O462">
-        <v>3.75</v>
-      </c>
-      <c r="P462">
-        <v>3.1</v>
-      </c>
-      <c r="Q462">
-        <v>-0.25</v>
-      </c>
       <c r="R462">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S462">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T462">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U462">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V462">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W462">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z462">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC462">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41669,7 +41669,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>4587352</v>
+        <v>4587350</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41681,76 +41681,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F463" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G463" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H463">
+        <v>3</v>
+      </c>
+      <c r="I463">
         <v>0</v>
       </c>
-      <c r="I463">
-        <v>3</v>
-      </c>
       <c r="J463" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K463">
-        <v>2.75</v>
+        <v>1.055</v>
       </c>
       <c r="L463">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="M463">
-        <v>2.3</v>
+        <v>41</v>
       </c>
       <c r="N463">
-        <v>3.2</v>
+        <v>1.111</v>
       </c>
       <c r="O463">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="P463">
-        <v>2.15</v>
+        <v>19</v>
       </c>
       <c r="Q463">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R463">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S463">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T463">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z463">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA463">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB463">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41758,7 +41758,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4587461</v>
+        <v>4587351</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41770,76 +41770,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F464" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G464" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H464">
+        <v>3</v>
+      </c>
+      <c r="I464">
         <v>1</v>
       </c>
-      <c r="I464">
-        <v>2</v>
-      </c>
       <c r="J464" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K464">
+        <v>2.15</v>
+      </c>
+      <c r="L464">
+        <v>3.75</v>
+      </c>
+      <c r="M464">
+        <v>2.9</v>
+      </c>
+      <c r="N464">
+        <v>2.15</v>
+      </c>
+      <c r="O464">
+        <v>3.75</v>
+      </c>
+      <c r="P464">
+        <v>3.1</v>
+      </c>
+      <c r="Q464">
+        <v>-0.25</v>
+      </c>
+      <c r="R464">
+        <v>1.925</v>
+      </c>
+      <c r="S464">
+        <v>1.925</v>
+      </c>
+      <c r="T464">
         <v>3</v>
       </c>
-      <c r="L464">
-        <v>3.6</v>
-      </c>
-      <c r="M464">
-        <v>2.15</v>
-      </c>
-      <c r="N464">
-        <v>5</v>
-      </c>
-      <c r="O464">
-        <v>4.75</v>
-      </c>
-      <c r="P464">
-        <v>1.571</v>
-      </c>
-      <c r="Q464">
-        <v>1</v>
-      </c>
-      <c r="R464">
-        <v>1.875</v>
-      </c>
-      <c r="S464">
-        <v>1.975</v>
-      </c>
-      <c r="T464">
-        <v>3.25</v>
-      </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V464">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA464">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC464">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42559,7 +42559,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>4591729</v>
+        <v>4588161</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42571,58 +42571,58 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F473" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G473" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J473" t="s">
         <v>53</v>
       </c>
       <c r="K473">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L473">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M473">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N473">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O473">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P473">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q473">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R473">
+        <v>2.025</v>
+      </c>
+      <c r="S473">
+        <v>1.825</v>
+      </c>
+      <c r="T473">
+        <v>4</v>
+      </c>
+      <c r="U473">
+        <v>1.95</v>
+      </c>
+      <c r="V473">
         <v>1.9</v>
       </c>
-      <c r="S473">
-        <v>1.95</v>
-      </c>
-      <c r="T473">
-        <v>3</v>
-      </c>
-      <c r="U473">
-        <v>1.85</v>
-      </c>
-      <c r="V473">
-        <v>2</v>
-      </c>
       <c r="W473">
-        <v>0.571</v>
+        <v>1.625</v>
       </c>
       <c r="X473">
         <v>-1</v>
@@ -42631,16 +42631,16 @@
         <v>-1</v>
       </c>
       <c r="Z473">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA473">
         <v>-1</v>
       </c>
       <c r="AB473">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC473">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42737,7 +42737,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>4588161</v>
+        <v>4591729</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42749,58 +42749,58 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F475" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G475" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H475">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J475" t="s">
         <v>53</v>
       </c>
       <c r="K475">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L475">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M475">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N475">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O475">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P475">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q475">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R475">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S475">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T475">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U475">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V475">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W475">
-        <v>1.625</v>
+        <v>0.571</v>
       </c>
       <c r="X475">
         <v>-1</v>
@@ -42809,16 +42809,16 @@
         <v>-1</v>
       </c>
       <c r="Z475">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA475">
         <v>-1</v>
       </c>
       <c r="AB475">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC475">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42826,7 +42826,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4587257</v>
+        <v>4587256</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42838,55 +42838,55 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F476" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G476" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H476">
         <v>0</v>
       </c>
       <c r="I476">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J476" t="s">
         <v>54</v>
       </c>
       <c r="K476">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L476">
         <v>3.6</v>
       </c>
       <c r="M476">
+        <v>2.375</v>
+      </c>
+      <c r="N476">
         <v>2.8</v>
       </c>
-      <c r="N476">
-        <v>2.2</v>
-      </c>
       <c r="O476">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P476">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q476">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R476">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S476">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T476">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U476">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V476">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W476">
         <v>-1</v>
@@ -42895,19 +42895,19 @@
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z476">
         <v>-1</v>
       </c>
       <c r="AA476">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB476">
         <v>-1</v>
       </c>
       <c r="AC476">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42915,7 +42915,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>4587604</v>
+        <v>4587463</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42927,76 +42927,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F477" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G477" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477">
         <v>1</v>
       </c>
       <c r="J477" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K477">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L477">
+        <v>3.6</v>
+      </c>
+      <c r="M477">
+        <v>3.75</v>
+      </c>
+      <c r="N477">
+        <v>1.615</v>
+      </c>
+      <c r="O477">
+        <v>4.2</v>
+      </c>
+      <c r="P477">
         <v>4.5</v>
       </c>
-      <c r="M477">
-        <v>4.75</v>
-      </c>
-      <c r="N477">
-        <v>1.727</v>
-      </c>
-      <c r="O477">
-        <v>4.5</v>
-      </c>
-      <c r="P477">
-        <v>4</v>
-      </c>
       <c r="Q477">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R477">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S477">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T477">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U477">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V477">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W477">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X477">
         <v>-1</v>
       </c>
       <c r="Y477">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z477">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA477">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB477">
         <v>-1</v>
       </c>
       <c r="AC477">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -43004,7 +43004,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4587463</v>
+        <v>4587355</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43016,70 +43016,70 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F478" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G478" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H478">
+        <v>1</v>
+      </c>
+      <c r="I478">
         <v>0</v>
       </c>
-      <c r="I478">
-        <v>1</v>
-      </c>
       <c r="J478" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K478">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L478">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M478">
+        <v>2.15</v>
+      </c>
+      <c r="N478">
+        <v>1.6</v>
+      </c>
+      <c r="O478">
+        <v>4.75</v>
+      </c>
+      <c r="P478">
+        <v>4.333</v>
+      </c>
+      <c r="Q478">
+        <v>-1</v>
+      </c>
+      <c r="R478">
+        <v>1.9</v>
+      </c>
+      <c r="S478">
+        <v>1.95</v>
+      </c>
+      <c r="T478">
         <v>3.75</v>
       </c>
-      <c r="N478">
-        <v>1.615</v>
-      </c>
-      <c r="O478">
-        <v>4.2</v>
-      </c>
-      <c r="P478">
-        <v>4.5</v>
-      </c>
-      <c r="Q478">
-        <v>-1</v>
-      </c>
-      <c r="R478">
-        <v>2.025</v>
-      </c>
-      <c r="S478">
-        <v>1.825</v>
-      </c>
-      <c r="T478">
-        <v>3.5</v>
-      </c>
       <c r="U478">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V478">
         <v>2</v>
       </c>
       <c r="W478">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X478">
         <v>-1</v>
       </c>
       <c r="Y478">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA478">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB478">
         <v>-1</v>
@@ -43093,7 +43093,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4587355</v>
+        <v>4587257</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43105,76 +43105,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F479" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G479" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J479" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K479">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L479">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M479">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N479">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O479">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P479">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q479">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R479">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S479">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T479">
         <v>3.75</v>
       </c>
       <c r="U479">
+        <v>2</v>
+      </c>
+      <c r="V479">
         <v>1.85</v>
       </c>
-      <c r="V479">
-        <v>2</v>
-      </c>
       <c r="W479">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X479">
         <v>-1</v>
       </c>
       <c r="Y479">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z479">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA479">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB479">
         <v>-1</v>
       </c>
       <c r="AC479">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43182,7 +43182,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>4587256</v>
+        <v>4587604</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43194,76 +43194,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F480" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G480" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J480" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K480">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L480">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M480">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N480">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O480">
+        <v>4.5</v>
+      </c>
+      <c r="P480">
+        <v>4</v>
+      </c>
+      <c r="Q480">
+        <v>-0.75</v>
+      </c>
+      <c r="R480">
+        <v>1.875</v>
+      </c>
+      <c r="S480">
+        <v>1.975</v>
+      </c>
+      <c r="T480">
         <v>3.75</v>
       </c>
-      <c r="P480">
-        <v>2.375</v>
-      </c>
-      <c r="Q480">
-        <v>0.25</v>
-      </c>
-      <c r="R480">
-        <v>1.825</v>
-      </c>
-      <c r="S480">
-        <v>2.025</v>
-      </c>
-      <c r="T480">
-        <v>3.25</v>
-      </c>
       <c r="U480">
+        <v>1.975</v>
+      </c>
+      <c r="V480">
         <v>1.875</v>
       </c>
-      <c r="V480">
-        <v>1.975</v>
-      </c>
       <c r="W480">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X480">
         <v>-1</v>
       </c>
       <c r="Y480">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z480">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA480">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB480">
         <v>-1</v>
       </c>
       <c r="AC480">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -43360,7 +43360,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>6014989</v>
+        <v>6011656</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43375,73 +43375,73 @@
         <v>50</v>
       </c>
       <c r="G482" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H482">
         <v>0</v>
       </c>
       <c r="I482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J482" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K482">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="L482">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M482">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N482">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="O482">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P482">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q482">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R482">
+        <v>1.825</v>
+      </c>
+      <c r="S482">
         <v>2.025</v>
       </c>
-      <c r="S482">
+      <c r="T482">
+        <v>3</v>
+      </c>
+      <c r="U482">
+        <v>2.025</v>
+      </c>
+      <c r="V482">
         <v>1.825</v>
       </c>
-      <c r="T482">
-        <v>2.75</v>
-      </c>
-      <c r="U482">
-        <v>1.825</v>
-      </c>
-      <c r="V482">
-        <v>2.025</v>
-      </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y482">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z482">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA482">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43449,7 +43449,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6011656</v>
+        <v>6014989</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43464,73 +43464,73 @@
         <v>51</v>
       </c>
       <c r="G483" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H483">
         <v>0</v>
       </c>
       <c r="I483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J483" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K483">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L483">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M483">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N483">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="O483">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P483">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q483">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R483">
+        <v>2.025</v>
+      </c>
+      <c r="S483">
         <v>1.825</v>
       </c>
-      <c r="S483">
+      <c r="T483">
+        <v>2.75</v>
+      </c>
+      <c r="U483">
+        <v>1.825</v>
+      </c>
+      <c r="V483">
         <v>2.025</v>
       </c>
-      <c r="T483">
-        <v>3</v>
-      </c>
-      <c r="U483">
-        <v>2.025</v>
-      </c>
-      <c r="V483">
-        <v>1.825</v>
-      </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y483">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA483">
+        <v>-0.5</v>
+      </c>
+      <c r="AB483">
+        <v>-1</v>
+      </c>
+      <c r="AC483">
         <v>1.025</v>
-      </c>
-      <c r="AB483">
-        <v>-1</v>
-      </c>
-      <c r="AC483">
-        <v>0.825</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -44265,7 +44265,7 @@
         <v>40</v>
       </c>
       <c r="G492" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H492">
         <v>4</v>
@@ -44621,7 +44621,7 @@
         <v>43</v>
       </c>
       <c r="G496" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H496">
         <v>1</v>
@@ -44796,7 +44796,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F498" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G498" t="s">
         <v>48</v>
@@ -45063,7 +45063,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F501" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G501" t="s">
         <v>34</v>
@@ -45600,7 +45600,7 @@
         <v>46</v>
       </c>
       <c r="G507" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H507">
         <v>1</v>
@@ -45864,7 +45864,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F510" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G510" t="s">
         <v>31</v>
@@ -45941,7 +45941,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>6011549</v>
+        <v>6011659</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45953,76 +45953,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F511" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G511" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J511" t="s">
         <v>55</v>
       </c>
       <c r="K511">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L511">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M511">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N511">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O511">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P511">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q511">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R511">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S511">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T511">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U511">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V511">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W511">
         <v>-1</v>
       </c>
       <c r="X511">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y511">
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA511">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB511">
         <v>-1</v>
       </c>
       <c r="AC511">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46030,7 +46030,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>6011659</v>
+        <v>6011549</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46042,76 +46042,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F512" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G512" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J512" t="s">
         <v>55</v>
       </c>
       <c r="K512">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L512">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M512">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N512">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O512">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P512">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q512">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R512">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S512">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T512">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U512">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V512">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W512">
         <v>-1</v>
       </c>
       <c r="X512">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y512">
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA512">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB512">
         <v>-1</v>
       </c>
       <c r="AC512">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -46220,7 +46220,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F514" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G514" t="s">
         <v>34</v>
@@ -46490,7 +46490,7 @@
         <v>45</v>
       </c>
       <c r="G517" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H517">
         <v>2</v>
@@ -46932,7 +46932,7 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F522" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G522" t="s">
         <v>41</v>
@@ -47466,7 +47466,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F528" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G528" t="s">
         <v>36</v>
@@ -47558,7 +47558,7 @@
         <v>36</v>
       </c>
       <c r="G529" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H529">
         <v>1</v>
@@ -48181,7 +48181,7 @@
         <v>52</v>
       </c>
       <c r="G536" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H536">
         <v>1</v>
@@ -48267,7 +48267,7 @@
         <v>45062.5</v>
       </c>
       <c r="F537" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G537" t="s">
         <v>30</v>
@@ -48445,7 +48445,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F539" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G539" t="s">
         <v>33</v>
@@ -49071,7 +49071,7 @@
         <v>39</v>
       </c>
       <c r="G546" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H546">
         <v>4</v>
@@ -49160,7 +49160,7 @@
         <v>31</v>
       </c>
       <c r="G547" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H547">
         <v>1</v>
@@ -50047,7 +50047,7 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F557" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G557" t="s">
         <v>45</v>
@@ -50136,7 +50136,7 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F558" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G558" t="s">
         <v>37</v>
@@ -50495,7 +50495,7 @@
         <v>33</v>
       </c>
       <c r="G562" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H562">
         <v>2</v>
@@ -50673,7 +50673,7 @@
         <v>39</v>
       </c>
       <c r="G564" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H564">
         <v>2</v>
@@ -51115,10 +51115,10 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F569" t="s">
+        <v>50</v>
+      </c>
+      <c r="G569" t="s">
         <v>51</v>
-      </c>
-      <c r="G569" t="s">
-        <v>50</v>
       </c>
       <c r="H569">
         <v>4</v>
@@ -52186,7 +52186,7 @@
         <v>30</v>
       </c>
       <c r="G581" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H581">
         <v>2</v>
@@ -52272,7 +52272,7 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F582" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G582" t="s">
         <v>48</v>
@@ -52539,7 +52539,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F585" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G585" t="s">
         <v>52</v>
@@ -52809,7 +52809,7 @@
         <v>46</v>
       </c>
       <c r="G588" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -53610,7 +53610,7 @@
         <v>37</v>
       </c>
       <c r="G597" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H597">
         <v>3</v>
@@ -53874,7 +53874,7 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F600" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G600" t="s">
         <v>41</v>
@@ -54141,7 +54141,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F603" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G603" t="s">
         <v>40</v>
@@ -54233,7 +54233,7 @@
         <v>31</v>
       </c>
       <c r="G604" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H604">
         <v>1</v>
@@ -55120,7 +55120,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F614" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G614" t="s">
         <v>39</v>
@@ -55387,7 +55387,7 @@
         <v>45151.5</v>
       </c>
       <c r="F617" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G617" t="s">
         <v>31</v>
@@ -55479,7 +55479,7 @@
         <v>36</v>
       </c>
       <c r="G618" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H618">
         <v>2</v>
@@ -56280,7 +56280,7 @@
         <v>43</v>
       </c>
       <c r="G627" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H627">
         <v>4</v>
@@ -56544,7 +56544,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F630" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G630" t="s">
         <v>46</v>
@@ -56903,7 +56903,7 @@
         <v>41</v>
       </c>
       <c r="G634" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H634">
         <v>3</v>
@@ -56989,7 +56989,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F635" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G635" t="s">
         <v>36</v>
@@ -57968,10 +57968,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F646" t="s">
+        <v>51</v>
+      </c>
+      <c r="G646" t="s">
         <v>50</v>
-      </c>
-      <c r="G646" t="s">
-        <v>51</v>
       </c>
       <c r="H646">
         <v>0</v>
@@ -58324,7 +58324,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F650" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G650" t="s">
         <v>46</v>
@@ -58594,7 +58594,7 @@
         <v>37</v>
       </c>
       <c r="G653" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H653">
         <v>1</v>
@@ -59125,7 +59125,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F659" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G659" t="s">
         <v>45</v>
@@ -59217,7 +59217,7 @@
         <v>48</v>
       </c>
       <c r="G660" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H660">
         <v>1</v>
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>6010984</v>
+        <v>6011619</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,58 +59303,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G661" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H661">
+        <v>2</v>
+      </c>
+      <c r="I661">
         <v>1</v>
-      </c>
-      <c r="I661">
-        <v>0</v>
       </c>
       <c r="J661" t="s">
         <v>53</v>
       </c>
       <c r="K661">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L661">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M661">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N661">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O661">
         <v>3.5</v>
       </c>
       <c r="P661">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q661">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R661">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S661">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T661">
         <v>2.75</v>
       </c>
       <c r="U661">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V661">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W661">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59363,16 +59363,16 @@
         <v>-1</v>
       </c>
       <c r="Z661">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA661">
         <v>-1</v>
       </c>
       <c r="AB661">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC661">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59380,7 +59380,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>6011619</v>
+        <v>6010984</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59392,58 +59392,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F662" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G662" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J662" t="s">
         <v>53</v>
       </c>
       <c r="K662">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L662">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M662">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N662">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O662">
         <v>3.5</v>
       </c>
       <c r="P662">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q662">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R662">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S662">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T662">
         <v>2.75</v>
       </c>
       <c r="U662">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V662">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W662">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="X662">
         <v>-1</v>
@@ -59452,16 +59452,16 @@
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA662">
         <v>-1</v>
       </c>
       <c r="AB662">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC662">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -60018,7 +60018,7 @@
         <v>41</v>
       </c>
       <c r="G669" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H669">
         <v>1</v>
@@ -60107,7 +60107,7 @@
         <v>40</v>
       </c>
       <c r="G670" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H670">
         <v>0</v>
@@ -60282,7 +60282,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F672" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G672" t="s">
         <v>39</v>
@@ -60727,7 +60727,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G677" t="s">
         <v>52</v>
@@ -60997,7 +60997,7 @@
         <v>34</v>
       </c>
       <c r="G680" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H680">
         <v>2</v>
@@ -61086,7 +61086,7 @@
         <v>34</v>
       </c>
       <c r="G681" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H681">
         <v>2</v>
@@ -61353,7 +61353,7 @@
         <v>52</v>
       </c>
       <c r="G684" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H684">
         <v>0</v>
@@ -62062,7 +62062,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F692" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G692" t="s">
         <v>30</v>
@@ -62418,7 +62418,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F696" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G696" t="s">
         <v>33</v>
@@ -62510,7 +62510,7 @@
         <v>33</v>
       </c>
       <c r="G697" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H697">
         <v>0</v>
@@ -63044,7 +63044,7 @@
         <v>30</v>
       </c>
       <c r="G703" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H703">
         <v>2</v>
@@ -63219,7 +63219,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F705" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G705" t="s">
         <v>37</v>
@@ -63842,7 +63842,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F712" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G712" t="s">
         <v>43</v>
@@ -63934,7 +63934,7 @@
         <v>48</v>
       </c>
       <c r="G713" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H713">
         <v>1</v>
@@ -64557,7 +64557,7 @@
         <v>45</v>
       </c>
       <c r="G720" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H720">
         <v>0</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4587599</v>
+        <v>4591736</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,76 +38032,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G422" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H422">
         <v>2</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J422" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K422">
+        <v>1.363</v>
+      </c>
+      <c r="L422">
+        <v>5</v>
+      </c>
+      <c r="M422">
+        <v>7</v>
+      </c>
+      <c r="N422">
+        <v>1.333</v>
+      </c>
+      <c r="O422">
+        <v>5.5</v>
+      </c>
+      <c r="P422">
+        <v>8.5</v>
+      </c>
+      <c r="Q422">
+        <v>-1.5</v>
+      </c>
+      <c r="R422">
+        <v>1.925</v>
+      </c>
+      <c r="S422">
+        <v>1.925</v>
+      </c>
+      <c r="T422">
+        <v>3.25</v>
+      </c>
+      <c r="U422">
+        <v>1.975</v>
+      </c>
+      <c r="V422">
+        <v>1.875</v>
+      </c>
+      <c r="W422">
+        <v>-1</v>
+      </c>
+      <c r="X422">
         <v>4.5</v>
       </c>
-      <c r="L422">
-        <v>3.75</v>
-      </c>
-      <c r="M422">
-        <v>1.666</v>
-      </c>
-      <c r="N422">
-        <v>3.8</v>
-      </c>
-      <c r="O422">
-        <v>4.5</v>
-      </c>
-      <c r="P422">
-        <v>1.75</v>
-      </c>
-      <c r="Q422">
-        <v>0.75</v>
-      </c>
-      <c r="R422">
-        <v>1.9</v>
-      </c>
-      <c r="S422">
-        <v>1.95</v>
-      </c>
-      <c r="T422">
-        <v>3.5</v>
-      </c>
-      <c r="U422">
-        <v>1.9</v>
-      </c>
-      <c r="V422">
-        <v>1.95</v>
-      </c>
-      <c r="W422">
-        <v>2.8</v>
-      </c>
-      <c r="X422">
-        <v>-1</v>
-      </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC422">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4591736</v>
+        <v>4587599</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G424" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H424">
         <v>2</v>
       </c>
       <c r="I424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K424">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L424">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M424">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="N424">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O424">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P424">
-        <v>8.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q424">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R424">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S424">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T424">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U424">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V424">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X424">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA424">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -45941,7 +45941,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>6011659</v>
+        <v>6011549</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45953,76 +45953,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F511" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G511" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J511" t="s">
         <v>55</v>
       </c>
       <c r="K511">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L511">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M511">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N511">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O511">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P511">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q511">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R511">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S511">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T511">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U511">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V511">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W511">
         <v>-1</v>
       </c>
       <c r="X511">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y511">
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA511">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB511">
         <v>-1</v>
       </c>
       <c r="AC511">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46030,7 +46030,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>6011549</v>
+        <v>6011659</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46042,76 +46042,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F512" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G512" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J512" t="s">
         <v>55</v>
       </c>
       <c r="K512">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L512">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M512">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N512">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O512">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P512">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q512">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R512">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S512">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T512">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U512">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V512">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W512">
         <v>-1</v>
       </c>
       <c r="X512">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y512">
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA512">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB512">
         <v>-1</v>
       </c>
       <c r="AC512">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -48611,7 +48611,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6011563</v>
+        <v>6011564</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48623,76 +48623,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F541" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G541" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H541">
         <v>3</v>
       </c>
       <c r="I541">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J541" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K541">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L541">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M541">
+        <v>4</v>
+      </c>
+      <c r="N541">
+        <v>1.7</v>
+      </c>
+      <c r="O541">
+        <v>4.2</v>
+      </c>
+      <c r="P541">
+        <v>4.333</v>
+      </c>
+      <c r="Q541">
+        <v>-0.75</v>
+      </c>
+      <c r="R541">
+        <v>1.85</v>
+      </c>
+      <c r="S541">
+        <v>2</v>
+      </c>
+      <c r="T541">
+        <v>3.25</v>
+      </c>
+      <c r="U541">
+        <v>1.975</v>
+      </c>
+      <c r="V541">
+        <v>1.875</v>
+      </c>
+      <c r="W541">
+        <v>-1</v>
+      </c>
+      <c r="X541">
         <v>3.2</v>
       </c>
-      <c r="N541">
-        <v>2.875</v>
-      </c>
-      <c r="O541">
-        <v>3.4</v>
-      </c>
-      <c r="P541">
-        <v>2.5</v>
-      </c>
-      <c r="Q541">
-        <v>0</v>
-      </c>
-      <c r="R541">
-        <v>2.025</v>
-      </c>
-      <c r="S541">
-        <v>1.825</v>
-      </c>
-      <c r="T541">
-        <v>2.75</v>
-      </c>
-      <c r="U541">
-        <v>2.025</v>
-      </c>
-      <c r="V541">
-        <v>1.825</v>
-      </c>
-      <c r="W541">
-        <v>1.875</v>
-      </c>
-      <c r="X541">
-        <v>-1</v>
-      </c>
       <c r="Y541">
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA541">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB541">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC541">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -48789,7 +48789,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>6011564</v>
+        <v>6011563</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48801,76 +48801,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F543" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G543" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H543">
         <v>3</v>
       </c>
       <c r="I543">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J543" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K543">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L543">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M543">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N543">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O543">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P543">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q543">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R543">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S543">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T543">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U543">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V543">
+        <v>1.825</v>
+      </c>
+      <c r="W543">
         <v>1.875</v>
       </c>
-      <c r="W543">
-        <v>-1</v>
-      </c>
       <c r="X543">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y543">
         <v>-1</v>
       </c>
       <c r="Z543">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA543">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB543">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC543">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="544" spans="1:29">
@@ -49323,7 +49323,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>6011566</v>
+        <v>6011567</v>
       </c>
       <c r="C549" t="s">
         <v>28</v>
@@ -49335,13 +49335,13 @@
         <v>45067.5</v>
       </c>
       <c r="F549" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G549" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -49350,61 +49350,61 @@
         <v>54</v>
       </c>
       <c r="K549">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L549">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M549">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N549">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O549">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P549">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q549">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R549">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S549">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T549">
+        <v>3</v>
+      </c>
+      <c r="U549">
+        <v>1.95</v>
+      </c>
+      <c r="V549">
+        <v>1.9</v>
+      </c>
+      <c r="W549">
+        <v>-1</v>
+      </c>
+      <c r="X549">
+        <v>-1</v>
+      </c>
+      <c r="Y549">
         <v>2.75</v>
       </c>
-      <c r="U549">
-        <v>2</v>
-      </c>
-      <c r="V549">
-        <v>1.85</v>
-      </c>
-      <c r="W549">
-        <v>-1</v>
-      </c>
-      <c r="X549">
-        <v>-1</v>
-      </c>
-      <c r="Y549">
-        <v>1.5</v>
-      </c>
       <c r="Z549">
         <v>-1</v>
       </c>
       <c r="AA549">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB549">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC549">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="550" spans="1:29">
@@ -49501,7 +49501,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>6011567</v>
+        <v>6011566</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49513,13 +49513,13 @@
         <v>45067.5</v>
       </c>
       <c r="F551" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G551" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -49528,61 +49528,61 @@
         <v>54</v>
       </c>
       <c r="K551">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L551">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M551">
+        <v>2.875</v>
+      </c>
+      <c r="N551">
+        <v>2.8</v>
+      </c>
+      <c r="O551">
         <v>3.4</v>
       </c>
-      <c r="N551">
-        <v>1.909</v>
-      </c>
-      <c r="O551">
-        <v>3.8</v>
-      </c>
       <c r="P551">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q551">
+        <v>0</v>
+      </c>
+      <c r="R551">
+        <v>2</v>
+      </c>
+      <c r="S551">
+        <v>1.85</v>
+      </c>
+      <c r="T551">
+        <v>2.75</v>
+      </c>
+      <c r="U551">
+        <v>2</v>
+      </c>
+      <c r="V551">
+        <v>1.85</v>
+      </c>
+      <c r="W551">
+        <v>-1</v>
+      </c>
+      <c r="X551">
+        <v>-1</v>
+      </c>
+      <c r="Y551">
+        <v>1.5</v>
+      </c>
+      <c r="Z551">
+        <v>-1</v>
+      </c>
+      <c r="AA551">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB551">
+        <v>0.5</v>
+      </c>
+      <c r="AC551">
         <v>-0.5</v>
-      </c>
-      <c r="R551">
-        <v>1.95</v>
-      </c>
-      <c r="S551">
-        <v>1.9</v>
-      </c>
-      <c r="T551">
-        <v>3</v>
-      </c>
-      <c r="U551">
-        <v>1.95</v>
-      </c>
-      <c r="V551">
-        <v>1.9</v>
-      </c>
-      <c r="W551">
-        <v>-1</v>
-      </c>
-      <c r="X551">
-        <v>-1</v>
-      </c>
-      <c r="Y551">
-        <v>2.75</v>
-      </c>
-      <c r="Z551">
-        <v>-1</v>
-      </c>
-      <c r="AA551">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB551">
-        <v>-1</v>
-      </c>
-      <c r="AC551">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="552" spans="1:29">
@@ -51904,7 +51904,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6011663</v>
+        <v>6010974</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51916,34 +51916,34 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F578" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G578" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J578" t="s">
         <v>54</v>
       </c>
       <c r="K578">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L578">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M578">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N578">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O578">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P578">
         <v>3.25</v>
@@ -51952,19 +51952,19 @@
         <v>-0.25</v>
       </c>
       <c r="R578">
+        <v>2.025</v>
+      </c>
+      <c r="S578">
         <v>1.825</v>
       </c>
-      <c r="S578">
-        <v>2.025</v>
-      </c>
       <c r="T578">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U578">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V578">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W578">
         <v>-1</v>
@@ -51979,13 +51979,13 @@
         <v>-1</v>
       </c>
       <c r="AA578">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB578">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51993,7 +51993,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6010974</v>
+        <v>6011663</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52005,34 +52005,34 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F579" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G579" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J579" t="s">
         <v>54</v>
       </c>
       <c r="K579">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L579">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M579">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N579">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O579">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P579">
         <v>3.25</v>
@@ -52041,19 +52041,19 @@
         <v>-0.25</v>
       </c>
       <c r="R579">
+        <v>1.825</v>
+      </c>
+      <c r="S579">
         <v>2.025</v>
       </c>
-      <c r="S579">
-        <v>1.825</v>
-      </c>
       <c r="T579">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U579">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V579">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W579">
         <v>-1</v>
@@ -52068,13 +52068,13 @@
         <v>-1</v>
       </c>
       <c r="AA579">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB579">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC579">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -53239,7 +53239,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6011665</v>
+        <v>6011591</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53251,73 +53251,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F593" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G593" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I593">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J593" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K593">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L593">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M593">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N593">
+        <v>3.1</v>
+      </c>
+      <c r="O593">
+        <v>3.6</v>
+      </c>
+      <c r="P593">
+        <v>2.15</v>
+      </c>
+      <c r="Q593">
+        <v>0.25</v>
+      </c>
+      <c r="R593">
+        <v>1.95</v>
+      </c>
+      <c r="S593">
+        <v>1.9</v>
+      </c>
+      <c r="T593">
+        <v>3</v>
+      </c>
+      <c r="U593">
+        <v>1.95</v>
+      </c>
+      <c r="V593">
+        <v>1.9</v>
+      </c>
+      <c r="W593">
         <v>2.1</v>
       </c>
-      <c r="O593">
-        <v>3.75</v>
-      </c>
-      <c r="P593">
-        <v>3.3</v>
-      </c>
-      <c r="Q593">
-        <v>-0.5</v>
-      </c>
-      <c r="R593">
-        <v>1.925</v>
-      </c>
-      <c r="S593">
-        <v>1.925</v>
-      </c>
-      <c r="T593">
-        <v>3.25</v>
-      </c>
-      <c r="U593">
-        <v>1.825</v>
-      </c>
-      <c r="V593">
-        <v>2.025</v>
-      </c>
-      <c r="W593">
-        <v>-1</v>
-      </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA593">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB593">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC593">
         <v>-1</v>
@@ -53328,7 +53328,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6010976</v>
+        <v>6011589</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53340,76 +53340,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F594" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G594" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
         <v>0</v>
       </c>
-      <c r="I594">
-        <v>1</v>
-      </c>
       <c r="J594" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K594">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L594">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M594">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N594">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O594">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P594">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q594">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R594">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S594">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T594">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U594">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V594">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W594">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X594">
         <v>-1</v>
       </c>
       <c r="Y594">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z594">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA594">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB594">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC594">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53417,7 +53417,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6011588</v>
+        <v>6011665</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53429,73 +53429,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F595" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G595" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H595">
+        <v>0</v>
+      </c>
+      <c r="I595">
         <v>5</v>
       </c>
-      <c r="I595">
-        <v>1</v>
-      </c>
       <c r="J595" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K595">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L595">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M595">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N595">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O595">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P595">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q595">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R595">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S595">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T595">
         <v>3.25</v>
       </c>
       <c r="U595">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V595">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W595">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X595">
         <v>-1</v>
       </c>
       <c r="Y595">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z595">
+        <v>-1</v>
+      </c>
+      <c r="AA595">
+        <v>0.925</v>
+      </c>
+      <c r="AB595">
         <v>0.825</v>
-      </c>
-      <c r="AA595">
-        <v>-1</v>
-      </c>
-      <c r="AB595">
-        <v>1</v>
       </c>
       <c r="AC595">
         <v>-1</v>
@@ -53506,7 +53506,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6011589</v>
+        <v>6011588</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53518,58 +53518,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F596" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G596" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H596">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J596" t="s">
         <v>53</v>
       </c>
       <c r="K596">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L596">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M596">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N596">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O596">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P596">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q596">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R596">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S596">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T596">
         <v>3.25</v>
       </c>
       <c r="U596">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V596">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W596">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X596">
         <v>-1</v>
@@ -53578,16 +53578,16 @@
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA596">
         <v>-1</v>
       </c>
       <c r="AB596">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC596">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53595,7 +53595,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6011591</v>
+        <v>6010976</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53607,40 +53607,40 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F597" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G597" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J597" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K597">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L597">
+        <v>3.3</v>
+      </c>
+      <c r="M597">
+        <v>2.2</v>
+      </c>
+      <c r="N597">
+        <v>4</v>
+      </c>
+      <c r="O597">
         <v>3.5</v>
       </c>
-      <c r="M597">
-        <v>2.25</v>
-      </c>
-      <c r="N597">
-        <v>3.1</v>
-      </c>
-      <c r="O597">
-        <v>3.6</v>
-      </c>
       <c r="P597">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q597">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R597">
         <v>1.95</v>
@@ -53649,34 +53649,34 @@
         <v>1.9</v>
       </c>
       <c r="T597">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V597">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W597">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z597">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA597">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB597">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -54396,7 +54396,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>6011593</v>
+        <v>6011594</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54408,34 +54408,34 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F606" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G606" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J606" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K606">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L606">
         <v>4</v>
       </c>
       <c r="M606">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N606">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="O606">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P606">
         <v>6.5</v>
@@ -54444,40 +54444,40 @@
         <v>-1.25</v>
       </c>
       <c r="R606">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S606">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T606">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U606">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V606">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W606">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X606">
         <v>-1</v>
       </c>
       <c r="Y606">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z606">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA606">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB606">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC606">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54485,7 +54485,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>6011594</v>
+        <v>6011593</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54497,34 +54497,34 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F607" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G607" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H607">
+        <v>2</v>
+      </c>
+      <c r="I607">
         <v>1</v>
       </c>
-      <c r="I607">
-        <v>3</v>
-      </c>
       <c r="J607" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K607">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L607">
         <v>4</v>
       </c>
       <c r="M607">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N607">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O607">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P607">
         <v>6.5</v>
@@ -54533,40 +54533,40 @@
         <v>-1.25</v>
       </c>
       <c r="R607">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S607">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T607">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U607">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V607">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W607">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X607">
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z607">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA607">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB607">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC607">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -56265,7 +56265,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6011668</v>
+        <v>6014971</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56277,10 +56277,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F627" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G627" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H627">
         <v>4</v>
@@ -56292,43 +56292,43 @@
         <v>53</v>
       </c>
       <c r="K627">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L627">
         <v>3.5</v>
       </c>
       <c r="M627">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N627">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O627">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P627">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q627">
         <v>-0.5</v>
       </c>
       <c r="R627">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S627">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T627">
         <v>2.75</v>
       </c>
       <c r="U627">
+        <v>1.875</v>
+      </c>
+      <c r="V627">
         <v>1.975</v>
       </c>
-      <c r="V627">
-        <v>1.875</v>
-      </c>
       <c r="W627">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X627">
         <v>-1</v>
@@ -56337,13 +56337,13 @@
         <v>-1</v>
       </c>
       <c r="Z627">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA627">
         <v>-1</v>
       </c>
       <c r="AB627">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC627">
         <v>-1</v>
@@ -56354,7 +56354,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6011606</v>
+        <v>6011668</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56366,13 +56366,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F628" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G628" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I628">
         <v>1</v>
@@ -56381,43 +56381,43 @@
         <v>53</v>
       </c>
       <c r="K628">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L628">
         <v>3.5</v>
       </c>
       <c r="M628">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N628">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O628">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P628">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q628">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R628">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S628">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T628">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V628">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W628">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56426,16 +56426,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA628">
         <v>-1</v>
       </c>
       <c r="AB628">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC628">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56443,7 +56443,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>6011446</v>
+        <v>6011606</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56455,10 +56455,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F629" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G629" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H629">
         <v>2</v>
@@ -56470,43 +56470,43 @@
         <v>53</v>
       </c>
       <c r="K629">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L629">
         <v>3.5</v>
       </c>
       <c r="M629">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N629">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O629">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P629">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q629">
         <v>-0.25</v>
       </c>
       <c r="R629">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S629">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T629">
         <v>3</v>
       </c>
       <c r="U629">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V629">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W629">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X629">
         <v>-1</v>
@@ -56515,7 +56515,7 @@
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA629">
         <v>-1</v>
@@ -56532,7 +56532,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>6014971</v>
+        <v>6011446</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56544,13 +56544,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F630" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G630" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H630">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I630">
         <v>1</v>
@@ -56559,43 +56559,43 @@
         <v>53</v>
       </c>
       <c r="K630">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L630">
         <v>3.5</v>
       </c>
       <c r="M630">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N630">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O630">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P630">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q630">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R630">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S630">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T630">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U630">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V630">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W630">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X630">
         <v>-1</v>
@@ -56604,16 +56604,16 @@
         <v>-1</v>
       </c>
       <c r="Z630">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA630">
         <v>-1</v>
       </c>
       <c r="AB630">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC630">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>6011619</v>
+        <v>6010984</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,58 +59303,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G661" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J661" t="s">
         <v>53</v>
       </c>
       <c r="K661">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L661">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M661">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N661">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O661">
         <v>3.5</v>
       </c>
       <c r="P661">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q661">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R661">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S661">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T661">
         <v>2.75</v>
       </c>
       <c r="U661">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V661">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W661">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59363,16 +59363,16 @@
         <v>-1</v>
       </c>
       <c r="Z661">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA661">
         <v>-1</v>
       </c>
       <c r="AB661">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC661">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59380,7 +59380,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>6010984</v>
+        <v>6011619</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59392,58 +59392,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F662" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G662" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H662">
+        <v>2</v>
+      </c>
+      <c r="I662">
         <v>1</v>
-      </c>
-      <c r="I662">
-        <v>0</v>
       </c>
       <c r="J662" t="s">
         <v>53</v>
       </c>
       <c r="K662">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L662">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M662">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N662">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O662">
         <v>3.5</v>
       </c>
       <c r="P662">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q662">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R662">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S662">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T662">
         <v>2.75</v>
       </c>
       <c r="U662">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V662">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W662">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="X662">
         <v>-1</v>
@@ -59452,16 +59452,16 @@
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA662">
         <v>-1</v>
       </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC662">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>6011623</v>
+        <v>6014966</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,55 +59837,55 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F667" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G667" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J667" t="s">
         <v>55</v>
       </c>
       <c r="K667">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L667">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M667">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N667">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O667">
         <v>4</v>
       </c>
       <c r="P667">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q667">
         <v>-0.75</v>
       </c>
       <c r="R667">
+        <v>1.95</v>
+      </c>
+      <c r="S667">
+        <v>1.9</v>
+      </c>
+      <c r="T667">
+        <v>2.75</v>
+      </c>
+      <c r="U667">
+        <v>1.825</v>
+      </c>
+      <c r="V667">
         <v>2.025</v>
-      </c>
-      <c r="S667">
-        <v>1.825</v>
-      </c>
-      <c r="T667">
-        <v>3</v>
-      </c>
-      <c r="U667">
-        <v>1.9</v>
-      </c>
-      <c r="V667">
-        <v>1.95</v>
       </c>
       <c r="W667">
         <v>-1</v>
@@ -59900,13 +59900,13 @@
         <v>-1</v>
       </c>
       <c r="AA667">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB667">
         <v>-1</v>
       </c>
       <c r="AC667">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>6011947</v>
+        <v>6011450</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,76 +59926,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F668" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G668" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H668">
         <v>1</v>
       </c>
       <c r="I668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K668">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L668">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M668">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N668">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O668">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P668">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q668">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T668">
         <v>3</v>
       </c>
       <c r="U668">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V668">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W668">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X668">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y668">
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA668">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60003,7 +60003,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>6011450</v>
+        <v>6011947</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60015,76 +60015,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F669" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G669" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H669">
         <v>1</v>
       </c>
       <c r="I669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J669" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K669">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L669">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M669">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N669">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O669">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P669">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q669">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R669">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S669">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T669">
         <v>3</v>
       </c>
       <c r="U669">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V669">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W669">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X669">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y669">
         <v>-1</v>
       </c>
       <c r="Z669">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA669">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB669">
         <v>-1</v>
       </c>
       <c r="AC669">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -60092,7 +60092,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>6014966</v>
+        <v>6011623</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60104,55 +60104,55 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F670" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G670" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J670" t="s">
         <v>55</v>
       </c>
       <c r="K670">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L670">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M670">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N670">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O670">
         <v>4</v>
       </c>
       <c r="P670">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q670">
         <v>-0.75</v>
       </c>
       <c r="R670">
+        <v>2.025</v>
+      </c>
+      <c r="S670">
+        <v>1.825</v>
+      </c>
+      <c r="T670">
+        <v>3</v>
+      </c>
+      <c r="U670">
+        <v>1.9</v>
+      </c>
+      <c r="V670">
         <v>1.95</v>
-      </c>
-      <c r="S670">
-        <v>1.9</v>
-      </c>
-      <c r="T670">
-        <v>2.75</v>
-      </c>
-      <c r="U670">
-        <v>1.825</v>
-      </c>
-      <c r="V670">
-        <v>2.025</v>
       </c>
       <c r="W670">
         <v>-1</v>
@@ -60167,13 +60167,13 @@
         <v>-1</v>
       </c>
       <c r="AA670">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB670">
         <v>-1</v>
       </c>
       <c r="AC670">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="671" spans="1:29">
@@ -60626,7 +60626,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>6011451</v>
+        <v>6014965</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60638,73 +60638,73 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G676" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I676">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J676" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K676">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="L676">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M676">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N676">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O676">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P676">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q676">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S676">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T676">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U676">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V676">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W676">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z676">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA676">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC676">
         <v>-1</v>
@@ -60715,7 +60715,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>6014965</v>
+        <v>6011630</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60727,10 +60727,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G677" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H677">
         <v>3</v>
@@ -60742,43 +60742,43 @@
         <v>53</v>
       </c>
       <c r="K677">
+        <v>2.05</v>
+      </c>
+      <c r="L677">
+        <v>3.75</v>
+      </c>
+      <c r="M677">
+        <v>3</v>
+      </c>
+      <c r="N677">
         <v>1.95</v>
       </c>
-      <c r="L677">
-        <v>3.6</v>
-      </c>
-      <c r="M677">
-        <v>3.4</v>
-      </c>
-      <c r="N677">
-        <v>2.15</v>
-      </c>
       <c r="O677">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P677">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q677">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R677">
+        <v>2</v>
+      </c>
+      <c r="S677">
+        <v>1.85</v>
+      </c>
+      <c r="T677">
+        <v>3.25</v>
+      </c>
+      <c r="U677">
+        <v>2.025</v>
+      </c>
+      <c r="V677">
         <v>1.825</v>
       </c>
-      <c r="S677">
-        <v>2.025</v>
-      </c>
-      <c r="T677">
-        <v>2.5</v>
-      </c>
-      <c r="U677">
-        <v>2.05</v>
-      </c>
-      <c r="V677">
-        <v>1.8</v>
-      </c>
       <c r="W677">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60787,16 +60787,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA677">
         <v>-1</v>
       </c>
       <c r="AB677">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60804,7 +60804,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>6011630</v>
+        <v>6011451</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60816,76 +60816,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F678" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G678" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H678">
+        <v>1</v>
+      </c>
+      <c r="I678">
         <v>3</v>
       </c>
-      <c r="I678">
-        <v>0</v>
-      </c>
       <c r="J678" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K678">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L678">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M678">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N678">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O678">
         <v>4.2</v>
       </c>
       <c r="P678">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q678">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R678">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S678">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T678">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U678">
+        <v>1.825</v>
+      </c>
+      <c r="V678">
         <v>2.025</v>
       </c>
-      <c r="V678">
-        <v>1.825</v>
-      </c>
       <c r="W678">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z678">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA678">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB678">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC678">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -61071,7 +61071,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>6014964</v>
+        <v>6011636</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61083,76 +61083,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F681" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G681" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K681">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L681">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M681">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N681">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O681">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P681">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q681">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R681">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S681">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T681">
         <v>3</v>
       </c>
       <c r="U681">
+        <v>1.975</v>
+      </c>
+      <c r="V681">
         <v>1.875</v>
       </c>
-      <c r="V681">
-        <v>1.975</v>
-      </c>
       <c r="W681">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X681">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y681">
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA681">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB681">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC681">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61160,7 +61160,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>6011636</v>
+        <v>6011637</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61172,76 +61172,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F682" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G682" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I682">
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K682">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L682">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M682">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N682">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O682">
         <v>3.75</v>
       </c>
       <c r="P682">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q682">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R682">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S682">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T682">
         <v>3</v>
       </c>
       <c r="U682">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V682">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W682">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X682">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA682">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB682">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC682">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61249,7 +61249,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6011637</v>
+        <v>6014964</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61261,58 +61261,58 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F683" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G683" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H683">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J683" t="s">
         <v>53</v>
       </c>
       <c r="K683">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="L683">
         <v>4</v>
       </c>
       <c r="M683">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="N683">
+        <v>1.615</v>
+      </c>
+      <c r="O683">
         <v>4</v>
       </c>
-      <c r="O683">
-        <v>3.75</v>
-      </c>
       <c r="P683">
+        <v>5.25</v>
+      </c>
+      <c r="Q683">
+        <v>-1</v>
+      </c>
+      <c r="R683">
+        <v>2</v>
+      </c>
+      <c r="S683">
         <v>1.85</v>
-      </c>
-      <c r="Q683">
-        <v>0.5</v>
-      </c>
-      <c r="R683">
-        <v>1.975</v>
-      </c>
-      <c r="S683">
-        <v>1.875</v>
       </c>
       <c r="T683">
         <v>3</v>
       </c>
       <c r="U683">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V683">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W683">
-        <v>3</v>
+        <v>0.615</v>
       </c>
       <c r="X683">
         <v>-1</v>
@@ -61321,10 +61321,10 @@
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB683">
         <v>0</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -26539,7 +26539,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4587197</v>
+        <v>4587198</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26551,10 +26551,10 @@
         <v>44704.54166666666</v>
       </c>
       <c r="F293" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -26566,58 +26566,58 @@
         <v>55</v>
       </c>
       <c r="K293">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
+        <v>2.875</v>
+      </c>
+      <c r="N293">
+        <v>3.8</v>
+      </c>
+      <c r="O293">
+        <v>4.75</v>
+      </c>
+      <c r="P293">
+        <v>1.727</v>
+      </c>
+      <c r="Q293">
+        <v>0.75</v>
+      </c>
+      <c r="R293">
+        <v>1.925</v>
+      </c>
+      <c r="S293">
+        <v>1.925</v>
+      </c>
+      <c r="T293">
+        <v>3.5</v>
+      </c>
+      <c r="U293">
+        <v>1.925</v>
+      </c>
+      <c r="V293">
+        <v>1.925</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
         <v>3.75</v>
       </c>
-      <c r="N293">
-        <v>2.3</v>
-      </c>
-      <c r="O293">
-        <v>3.6</v>
-      </c>
-      <c r="P293">
-        <v>3</v>
-      </c>
-      <c r="Q293">
-        <v>-0.25</v>
-      </c>
-      <c r="R293">
-        <v>2.025</v>
-      </c>
-      <c r="S293">
-        <v>1.825</v>
-      </c>
-      <c r="T293">
-        <v>2.75</v>
-      </c>
-      <c r="U293">
-        <v>1.95</v>
-      </c>
-      <c r="V293">
-        <v>1.9</v>
-      </c>
-      <c r="W293">
-        <v>-1</v>
-      </c>
-      <c r="X293">
-        <v>2.6</v>
-      </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA293">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>4587198</v>
+        <v>4587197</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,10 +26907,10 @@
         <v>44704.54166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -26922,58 +26922,58 @@
         <v>55</v>
       </c>
       <c r="K297">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L297">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M297">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N297">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O297">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P297">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q297">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S297">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB297">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -27251,7 +27251,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>4587297</v>
+        <v>4587200</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27263,10 +27263,10 @@
         <v>44707.54166666666</v>
       </c>
       <c r="F301" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27278,41 +27278,41 @@
         <v>54</v>
       </c>
       <c r="K301">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L301">
         <v>3.5</v>
       </c>
       <c r="M301">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N301">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="O301">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P301">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q301">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R301">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S301">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T301">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
+        <v>1.875</v>
+      </c>
+      <c r="V301">
         <v>1.975</v>
       </c>
-      <c r="V301">
-        <v>1.875</v>
-      </c>
       <c r="W301">
         <v>-1</v>
       </c>
@@ -27320,16 +27320,16 @@
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z301">
         <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB301">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC301">
         <v>-1</v>
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>4587454</v>
+        <v>4587299</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,40 +27352,40 @@
         <v>44707.54166666666</v>
       </c>
       <c r="F302" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I302">
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N302">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O302">
         <v>3.6</v>
       </c>
       <c r="P302">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R302">
         <v>2.05</v>
@@ -27397,31 +27397,31 @@
         <v>2.75</v>
       </c>
       <c r="U302">
+        <v>1.875</v>
+      </c>
+      <c r="V302">
         <v>1.975</v>
       </c>
-      <c r="V302">
-        <v>1.875</v>
-      </c>
       <c r="W302">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>4587299</v>
+        <v>4587297</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,73 +27441,73 @@
         <v>44707.54166666666</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G303" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
         <v>3</v>
       </c>
-      <c r="I303">
-        <v>2</v>
-      </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K303">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M303">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N303">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="O303">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P303">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q303">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U303">
+        <v>1.975</v>
+      </c>
+      <c r="V303">
         <v>1.875</v>
       </c>
-      <c r="V303">
-        <v>1.975</v>
-      </c>
       <c r="W303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z303">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB303">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27607,7 +27607,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4587200</v>
+        <v>4587454</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27619,56 +27619,56 @@
         <v>44707.54166666666</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>54</v>
       </c>
       <c r="K305">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L305">
+        <v>3.6</v>
+      </c>
+      <c r="M305">
         <v>3.5</v>
       </c>
-      <c r="M305">
-        <v>2</v>
-      </c>
       <c r="N305">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O305">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q305">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R305">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S305">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T305">
         <v>2.75</v>
       </c>
       <c r="U305">
+        <v>1.975</v>
+      </c>
+      <c r="V305">
         <v>1.875</v>
       </c>
-      <c r="V305">
-        <v>1.975</v>
-      </c>
       <c r="W305">
         <v>-1</v>
       </c>
@@ -27676,19 +27676,19 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.2</v>
+        <v>1.875</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB305">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>4587301</v>
+        <v>4587589</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,76 +27975,76 @@
         <v>44711.54166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G309" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K309">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L309">
         <v>3.75</v>
       </c>
       <c r="M309">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N309">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O309">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P309">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S309">
+        <v>2.1</v>
+      </c>
+      <c r="T309">
+        <v>3.25</v>
+      </c>
+      <c r="U309">
         <v>1.85</v>
       </c>
-      <c r="T309">
-        <v>3</v>
-      </c>
-      <c r="U309">
-        <v>1.875</v>
-      </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z309">
+        <v>-1</v>
+      </c>
+      <c r="AA309">
+        <v>1.1</v>
+      </c>
+      <c r="AB309">
+        <v>-0.5</v>
+      </c>
+      <c r="AC309">
         <v>0.5</v>
-      </c>
-      <c r="AA309">
-        <v>-0.5</v>
-      </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>4587589</v>
+        <v>4587746</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,76 +28064,76 @@
         <v>44711.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G310" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K310">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M310">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N310">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O310">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P310">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R310">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S310">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T310">
         <v>3.25</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC310">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28141,7 +28141,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>4587746</v>
+        <v>4591750</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28153,13 +28153,13 @@
         <v>44711.54166666666</v>
       </c>
       <c r="F311" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G311" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H311">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -28168,43 +28168,43 @@
         <v>53</v>
       </c>
       <c r="K311">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L311">
         <v>4.5</v>
       </c>
       <c r="M311">
+        <v>6</v>
+      </c>
+      <c r="N311">
+        <v>1.4</v>
+      </c>
+      <c r="O311">
+        <v>5</v>
+      </c>
+      <c r="P311">
         <v>7</v>
       </c>
-      <c r="N311">
-        <v>1.25</v>
-      </c>
-      <c r="O311">
-        <v>6.5</v>
-      </c>
-      <c r="P311">
-        <v>11</v>
-      </c>
       <c r="Q311">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R311">
+        <v>1.85</v>
+      </c>
+      <c r="S311">
+        <v>2</v>
+      </c>
+      <c r="T311">
+        <v>3</v>
+      </c>
+      <c r="U311">
         <v>1.825</v>
       </c>
-      <c r="S311">
+      <c r="V311">
         <v>2.025</v>
       </c>
-      <c r="T311">
-        <v>3.25</v>
-      </c>
-      <c r="U311">
-        <v>1.925</v>
-      </c>
-      <c r="V311">
-        <v>1.925</v>
-      </c>
       <c r="W311">
-        <v>0.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28213,16 +28213,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB311">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28230,7 +28230,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>4591750</v>
+        <v>4587301</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28242,10 +28242,10 @@
         <v>44711.54166666666</v>
       </c>
       <c r="F312" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G312" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28257,43 +28257,43 @@
         <v>53</v>
       </c>
       <c r="K312">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L312">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M312">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N312">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O312">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P312">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q312">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R312">
+        <v>2</v>
+      </c>
+      <c r="S312">
         <v>1.85</v>
-      </c>
-      <c r="S312">
-        <v>2</v>
       </c>
       <c r="T312">
         <v>3</v>
       </c>
       <c r="U312">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V312">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W312">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X312">
         <v>-1</v>
@@ -28302,16 +28302,16 @@
         <v>-1</v>
       </c>
       <c r="Z312">
+        <v>0.5</v>
+      </c>
+      <c r="AA312">
         <v>-0.5</v>
       </c>
-      <c r="AA312">
-        <v>0.5</v>
-      </c>
       <c r="AB312">
         <v>-1</v>
       </c>
       <c r="AC312">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -29209,7 +29209,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4587306</v>
+        <v>4587591</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29221,13 +29221,13 @@
         <v>44739.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -29236,40 +29236,40 @@
         <v>53</v>
       </c>
       <c r="K323">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L323">
         <v>3.4</v>
       </c>
       <c r="M323">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N323">
         <v>2.55</v>
       </c>
       <c r="O323">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q323">
         <v>0</v>
       </c>
       <c r="R323">
+        <v>1.875</v>
+      </c>
+      <c r="S323">
+        <v>1.975</v>
+      </c>
+      <c r="T323">
+        <v>2.75</v>
+      </c>
+      <c r="U323">
+        <v>1.825</v>
+      </c>
+      <c r="V323">
         <v>2.025</v>
-      </c>
-      <c r="S323">
-        <v>1.825</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.925</v>
-      </c>
-      <c r="V323">
-        <v>1.925</v>
       </c>
       <c r="W323">
         <v>1.55</v>
@@ -29281,16 +29281,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC323">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29298,7 +29298,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>4587207</v>
+        <v>4587306</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29310,58 +29310,58 @@
         <v>44739.54166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G324" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H324">
+        <v>2</v>
+      </c>
+      <c r="I324">
         <v>1</v>
-      </c>
-      <c r="I324">
-        <v>0</v>
       </c>
       <c r="J324" t="s">
         <v>53</v>
       </c>
       <c r="K324">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L324">
         <v>3.4</v>
       </c>
       <c r="M324">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N324">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O324">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P324">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R324">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S324">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V324">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W324">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29370,16 +29370,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA324">
         <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC324">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>4587206</v>
+        <v>4587207</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,76 +29399,76 @@
         <v>44739.54166666666</v>
       </c>
       <c r="F325" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K325">
+        <v>2.1</v>
+      </c>
+      <c r="L325">
+        <v>3.4</v>
+      </c>
+      <c r="M325">
+        <v>3.1</v>
+      </c>
+      <c r="N325">
+        <v>2.1</v>
+      </c>
+      <c r="O325">
+        <v>4</v>
+      </c>
+      <c r="P325">
+        <v>3.1</v>
+      </c>
+      <c r="Q325">
+        <v>-0.25</v>
+      </c>
+      <c r="R325">
+        <v>1.9</v>
+      </c>
+      <c r="S325">
         <v>1.95</v>
       </c>
-      <c r="L325">
-        <v>3.5</v>
-      </c>
-      <c r="M325">
-        <v>3.4</v>
-      </c>
-      <c r="N325">
-        <v>1.7</v>
-      </c>
-      <c r="O325">
-        <v>4.2</v>
-      </c>
-      <c r="P325">
-        <v>4.333</v>
-      </c>
-      <c r="Q325">
-        <v>-0.75</v>
-      </c>
-      <c r="R325">
-        <v>1.775</v>
-      </c>
-      <c r="S325">
-        <v>2.1</v>
-      </c>
       <c r="T325">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X325">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA325">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
         <v>-1</v>
       </c>
       <c r="AC325">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>4587591</v>
+        <v>4587206</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29488,76 +29488,76 @@
         <v>44739.54166666666</v>
       </c>
       <c r="F326" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G326" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H326">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326" t="s">
+        <v>55</v>
+      </c>
+      <c r="K326">
+        <v>1.95</v>
+      </c>
+      <c r="L326">
+        <v>3.5</v>
+      </c>
+      <c r="M326">
+        <v>3.4</v>
+      </c>
+      <c r="N326">
+        <v>1.7</v>
+      </c>
+      <c r="O326">
+        <v>4.2</v>
+      </c>
+      <c r="P326">
+        <v>4.333</v>
+      </c>
+      <c r="Q326">
+        <v>-0.75</v>
+      </c>
+      <c r="R326">
+        <v>1.775</v>
+      </c>
+      <c r="S326">
+        <v>2.1</v>
+      </c>
+      <c r="T326">
+        <v>3</v>
+      </c>
+      <c r="U326">
+        <v>1.85</v>
+      </c>
+      <c r="V326">
+        <v>2</v>
+      </c>
+      <c r="W326">
+        <v>-1</v>
+      </c>
+      <c r="X326">
+        <v>3.2</v>
+      </c>
+      <c r="Y326">
+        <v>-1</v>
+      </c>
+      <c r="Z326">
+        <v>-1</v>
+      </c>
+      <c r="AA326">
+        <v>1.1</v>
+      </c>
+      <c r="AB326">
+        <v>-1</v>
+      </c>
+      <c r="AC326">
         <v>1</v>
-      </c>
-      <c r="J326" t="s">
-        <v>53</v>
-      </c>
-      <c r="K326">
-        <v>2.25</v>
-      </c>
-      <c r="L326">
-        <v>3.4</v>
-      </c>
-      <c r="M326">
-        <v>2.8</v>
-      </c>
-      <c r="N326">
-        <v>2.55</v>
-      </c>
-      <c r="O326">
-        <v>3.6</v>
-      </c>
-      <c r="P326">
-        <v>2.625</v>
-      </c>
-      <c r="Q326">
-        <v>0</v>
-      </c>
-      <c r="R326">
-        <v>1.875</v>
-      </c>
-      <c r="S326">
-        <v>1.975</v>
-      </c>
-      <c r="T326">
-        <v>2.75</v>
-      </c>
-      <c r="U326">
-        <v>1.825</v>
-      </c>
-      <c r="V326">
-        <v>2.025</v>
-      </c>
-      <c r="W326">
-        <v>1.55</v>
-      </c>
-      <c r="X326">
-        <v>-1</v>
-      </c>
-      <c r="Y326">
-        <v>-1</v>
-      </c>
-      <c r="Z326">
-        <v>0.875</v>
-      </c>
-      <c r="AA326">
-        <v>-1</v>
-      </c>
-      <c r="AB326">
-        <v>0.825</v>
-      </c>
-      <c r="AC326">
-        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -30010,7 +30010,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>4587308</v>
+        <v>4587310</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30022,73 +30022,73 @@
         <v>44746.54166666666</v>
       </c>
       <c r="F332" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G332" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J332" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K332">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L332">
+        <v>3.5</v>
+      </c>
+      <c r="M332">
+        <v>3.4</v>
+      </c>
+      <c r="N332">
+        <v>2.05</v>
+      </c>
+      <c r="O332">
         <v>4</v>
       </c>
-      <c r="M332">
-        <v>5.5</v>
-      </c>
-      <c r="N332">
-        <v>1.7</v>
-      </c>
-      <c r="O332">
-        <v>4.2</v>
-      </c>
       <c r="P332">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S332">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T332">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB332">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30099,7 +30099,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>4587309</v>
+        <v>4587210</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30111,76 +30111,76 @@
         <v>44746.54166666666</v>
       </c>
       <c r="F333" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G333" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J333" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K333">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L333">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M333">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N333">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O333">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P333">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q333">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R333">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T333">
         <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
         <v>-1</v>
       </c>
       <c r="X333">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z333">
+        <v>-1</v>
+      </c>
+      <c r="AA333">
+        <v>1</v>
+      </c>
+      <c r="AB333">
         <v>-0.5</v>
       </c>
-      <c r="AA333">
-        <v>0.4375</v>
-      </c>
-      <c r="AB333">
-        <v>1</v>
-      </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30188,7 +30188,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>4587310</v>
+        <v>4587308</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30200,73 +30200,73 @@
         <v>44746.54166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334" t="s">
+        <v>55</v>
+      </c>
+      <c r="K334">
+        <v>1.5</v>
+      </c>
+      <c r="L334">
         <v>4</v>
       </c>
-      <c r="J334" t="s">
-        <v>54</v>
-      </c>
-      <c r="K334">
+      <c r="M334">
+        <v>5.5</v>
+      </c>
+      <c r="N334">
+        <v>1.7</v>
+      </c>
+      <c r="O334">
+        <v>4.2</v>
+      </c>
+      <c r="P334">
+        <v>4.333</v>
+      </c>
+      <c r="Q334">
+        <v>-0.75</v>
+      </c>
+      <c r="R334">
+        <v>1.9</v>
+      </c>
+      <c r="S334">
         <v>1.95</v>
       </c>
-      <c r="L334">
-        <v>3.5</v>
-      </c>
-      <c r="M334">
-        <v>3.4</v>
-      </c>
-      <c r="N334">
-        <v>2.05</v>
-      </c>
-      <c r="O334">
-        <v>4</v>
-      </c>
-      <c r="P334">
-        <v>3.1</v>
-      </c>
-      <c r="Q334">
-        <v>-0.5</v>
-      </c>
-      <c r="R334">
-        <v>2.1</v>
-      </c>
-      <c r="S334">
-        <v>1.775</v>
-      </c>
       <c r="T334">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U334">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V334">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y334">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
         <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB334">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC334">
         <v>-1</v>
@@ -30277,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4587210</v>
+        <v>4587309</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30289,76 +30289,76 @@
         <v>44746.54166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G335" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K335">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L335">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M335">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N335">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O335">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P335">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="Q335">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R335">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S335">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T335">
         <v>3.25</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y335">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA335">
+        <v>0.4375</v>
+      </c>
+      <c r="AB335">
         <v>1</v>
       </c>
-      <c r="AB335">
-        <v>-0.5</v>
-      </c>
       <c r="AC335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4587211</v>
+        <v>4587212</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,10 +30378,10 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G336" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30393,61 +30393,61 @@
         <v>55</v>
       </c>
       <c r="K336">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L336">
         <v>3.5</v>
       </c>
       <c r="M336">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N336">
+        <v>2.2</v>
+      </c>
+      <c r="O336">
+        <v>3.75</v>
+      </c>
+      <c r="P336">
+        <v>3.1</v>
+      </c>
+      <c r="Q336">
+        <v>-0.25</v>
+      </c>
+      <c r="R336">
+        <v>1.9</v>
+      </c>
+      <c r="S336">
+        <v>1.95</v>
+      </c>
+      <c r="T336">
+        <v>3</v>
+      </c>
+      <c r="U336">
+        <v>1.8</v>
+      </c>
+      <c r="V336">
         <v>2.05</v>
       </c>
-      <c r="O336">
-        <v>3.6</v>
-      </c>
-      <c r="P336">
-        <v>3.5</v>
-      </c>
-      <c r="Q336">
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
+        <v>2.75</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
         <v>-0.5</v>
       </c>
-      <c r="R336">
-        <v>2.025</v>
-      </c>
-      <c r="S336">
-        <v>1.825</v>
-      </c>
-      <c r="T336">
-        <v>2.75</v>
-      </c>
-      <c r="U336">
-        <v>1.975</v>
-      </c>
-      <c r="V336">
-        <v>1.875</v>
-      </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
-      <c r="X336">
-        <v>2.6</v>
-      </c>
-      <c r="Y336">
-        <v>-1</v>
-      </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
       <c r="AA336">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30544,7 +30544,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>4587312</v>
+        <v>4587211</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30556,76 +30556,76 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F338" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G338" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
         <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K338">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L338">
         <v>3.5</v>
       </c>
       <c r="M338">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N338">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O338">
         <v>3.6</v>
       </c>
       <c r="P338">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
+        <v>2.025</v>
+      </c>
+      <c r="S338">
         <v>1.825</v>
-      </c>
-      <c r="S338">
-        <v>2.025</v>
       </c>
       <c r="T338">
         <v>2.75</v>
       </c>
       <c r="U338">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V338">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W338">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X338">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
+        <v>-1</v>
+      </c>
+      <c r="AA338">
         <v>0.825</v>
       </c>
-      <c r="AA338">
-        <v>-1</v>
-      </c>
       <c r="AB338">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30633,7 +30633,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>4587313</v>
+        <v>4587312</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30645,46 +30645,46 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G339" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339" t="s">
+        <v>53</v>
+      </c>
+      <c r="K339">
+        <v>2.1</v>
+      </c>
+      <c r="L339">
+        <v>3.5</v>
+      </c>
+      <c r="M339">
         <v>3</v>
       </c>
-      <c r="J339" t="s">
-        <v>54</v>
-      </c>
-      <c r="K339">
-        <v>2.875</v>
-      </c>
-      <c r="L339">
+      <c r="N339">
+        <v>2.1</v>
+      </c>
+      <c r="O339">
+        <v>3.6</v>
+      </c>
+      <c r="P339">
         <v>3.4</v>
       </c>
-      <c r="M339">
-        <v>2.1</v>
-      </c>
-      <c r="N339">
-        <v>3.25</v>
-      </c>
-      <c r="O339">
-        <v>3.8</v>
-      </c>
-      <c r="P339">
-        <v>2.1</v>
-      </c>
       <c r="Q339">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
         <v>2.75</v>
@@ -30696,19 +30696,19 @@
         <v>2</v>
       </c>
       <c r="W339">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA339">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
         <v>0.425</v>
@@ -30722,7 +30722,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>4587212</v>
+        <v>4587213</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30734,76 +30734,76 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F340" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G340" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K340">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L340">
         <v>3.5</v>
       </c>
       <c r="M340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N340">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O340">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P340">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q340">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R340">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S340">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T340">
         <v>3</v>
       </c>
       <c r="U340">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V340">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z340">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
         <v>-1</v>
       </c>
       <c r="AC340">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30811,7 +30811,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>4587747</v>
+        <v>4587313</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30823,13 +30823,13 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G341" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341">
         <v>3</v>
@@ -30838,40 +30838,40 @@
         <v>54</v>
       </c>
       <c r="K341">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="L341">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M341">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N341">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="O341">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P341">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q341">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S341">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T341">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U341">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V341">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W341">
         <v>-1</v>
@@ -30880,19 +30880,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB341">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30900,7 +30900,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4587213</v>
+        <v>4587747</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30912,55 +30912,55 @@
         <v>44749.54166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G342" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J342" t="s">
         <v>54</v>
       </c>
       <c r="K342">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L342">
         <v>3.5</v>
       </c>
       <c r="M342">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N342">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O342">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P342">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q342">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R342">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S342">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V342">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W342">
         <v>-1</v>
@@ -30969,19 +30969,19 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC342">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4587317</v>
+        <v>4587218</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,73 +31802,73 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G352" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H352">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K352">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L352">
         <v>3.6</v>
       </c>
       <c r="M352">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N352">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O352">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P352">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q352">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S352">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T352">
         <v>3.25</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W352">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB352">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31879,7 +31879,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4587218</v>
+        <v>4587317</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31891,73 +31891,73 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G353" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I353">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K353">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L353">
         <v>3.6</v>
       </c>
       <c r="M353">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N353">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O353">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R353">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
         <v>3.25</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V353">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X353">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA353">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC353">
         <v>-1</v>
@@ -32858,7 +32858,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4587593</v>
+        <v>4587221</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32870,13 +32870,13 @@
         <v>44767.54166666666</v>
       </c>
       <c r="F364" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G364" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364">
         <v>2</v>
@@ -32885,40 +32885,40 @@
         <v>54</v>
       </c>
       <c r="K364">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L364">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M364">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N364">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O364">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P364">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q364">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R364">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T364">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V364">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W364">
         <v>-1</v>
@@ -32927,19 +32927,19 @@
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>2.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z364">
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB364">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32947,7 +32947,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>4587321</v>
+        <v>4587593</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32959,76 +32959,76 @@
         <v>44767.54166666666</v>
       </c>
       <c r="F365" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G365" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H365">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J365" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K365">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L365">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M365">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N365">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O365">
         <v>4</v>
       </c>
       <c r="P365">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q365">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R365">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S365">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T365">
         <v>3.25</v>
       </c>
       <c r="U365">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V365">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W365">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z365">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB365">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33125,7 +33125,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>4587221</v>
+        <v>4587321</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33137,76 +33137,76 @@
         <v>44767.54166666666</v>
       </c>
       <c r="F367" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G367" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H367">
+        <v>6</v>
+      </c>
+      <c r="I367">
         <v>0</v>
       </c>
-      <c r="I367">
-        <v>2</v>
-      </c>
       <c r="J367" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K367">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L367">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M367">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N367">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="O367">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P367">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q367">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R367">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S367">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T367">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U367">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V367">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA367">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -34282,7 +34282,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4587327</v>
+        <v>4587595</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34294,10 +34294,10 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F380" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G380" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H380">
         <v>1</v>
@@ -34309,43 +34309,43 @@
         <v>53</v>
       </c>
       <c r="K380">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="L380">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M380">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="N380">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O380">
         <v>4</v>
       </c>
       <c r="P380">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q380">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R380">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S380">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T380">
         <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V380">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34354,7 +34354,7 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA380">
         <v>-1</v>
@@ -34363,7 +34363,7 @@
         <v>-1</v>
       </c>
       <c r="AC380">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34371,7 +34371,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>4591741</v>
+        <v>4587326</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34383,76 +34383,76 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F381" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G381" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J381" t="s">
         <v>54</v>
       </c>
       <c r="K381">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="L381">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M381">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N381">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O381">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P381">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q381">
+        <v>-0.25</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
+        <v>1.85</v>
+      </c>
+      <c r="T381">
+        <v>3.25</v>
+      </c>
+      <c r="U381">
+        <v>1.85</v>
+      </c>
+      <c r="V381">
+        <v>2</v>
+      </c>
+      <c r="W381">
+        <v>-1</v>
+      </c>
+      <c r="X381">
+        <v>-1</v>
+      </c>
+      <c r="Y381">
+        <v>1.875</v>
+      </c>
+      <c r="Z381">
+        <v>-1</v>
+      </c>
+      <c r="AA381">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB381">
+        <v>-0.5</v>
+      </c>
+      <c r="AC381">
         <v>0.5</v>
-      </c>
-      <c r="R381">
-        <v>1.925</v>
-      </c>
-      <c r="S381">
-        <v>1.925</v>
-      </c>
-      <c r="T381">
-        <v>2.75</v>
-      </c>
-      <c r="U381">
-        <v>1.825</v>
-      </c>
-      <c r="V381">
-        <v>2.025</v>
-      </c>
-      <c r="W381">
-        <v>-1</v>
-      </c>
-      <c r="X381">
-        <v>-1</v>
-      </c>
-      <c r="Y381">
-        <v>0.909</v>
-      </c>
-      <c r="Z381">
-        <v>-1</v>
-      </c>
-      <c r="AA381">
-        <v>0.925</v>
-      </c>
-      <c r="AB381">
-        <v>0.825</v>
-      </c>
-      <c r="AC381">
-        <v>-1</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34549,7 +34549,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4587326</v>
+        <v>4591741</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34561,55 +34561,55 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F383" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G383" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J383" t="s">
         <v>54</v>
       </c>
       <c r="K383">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="L383">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M383">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N383">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O383">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P383">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q383">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R383">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S383">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T383">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U383">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V383">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W383">
         <v>-1</v>
@@ -34618,19 +34618,19 @@
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB383">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC383">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>4587595</v>
+        <v>4587327</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34650,10 +34650,10 @@
         <v>44777.54166666666</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G384" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H384">
         <v>1</v>
@@ -34665,43 +34665,43 @@
         <v>53</v>
       </c>
       <c r="K384">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="L384">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M384">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="N384">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O384">
         <v>4</v>
       </c>
       <c r="P384">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R384">
+        <v>2</v>
+      </c>
+      <c r="S384">
         <v>1.85</v>
-      </c>
-      <c r="S384">
-        <v>2</v>
       </c>
       <c r="T384">
         <v>3.25</v>
       </c>
       <c r="U384">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W384">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="X384">
         <v>-1</v>
@@ -34710,7 +34710,7 @@
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA384">
         <v>-1</v>
@@ -34719,7 +34719,7 @@
         <v>-1</v>
       </c>
       <c r="AC384">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34816,7 +34816,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>4591740</v>
+        <v>4587329</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34828,76 +34828,76 @@
         <v>44780.41666666666</v>
       </c>
       <c r="F386" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G386" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386">
         <v>2</v>
       </c>
       <c r="J386" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K386">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="L386">
+        <v>4.5</v>
+      </c>
+      <c r="M386">
+        <v>6</v>
+      </c>
+      <c r="N386">
+        <v>1.5</v>
+      </c>
+      <c r="O386">
+        <v>4.75</v>
+      </c>
+      <c r="P386">
+        <v>5.5</v>
+      </c>
+      <c r="Q386">
+        <v>-1.25</v>
+      </c>
+      <c r="R386">
+        <v>2.05</v>
+      </c>
+      <c r="S386">
+        <v>1.8</v>
+      </c>
+      <c r="T386">
+        <v>3.25</v>
+      </c>
+      <c r="U386">
+        <v>2.025</v>
+      </c>
+      <c r="V386">
+        <v>1.825</v>
+      </c>
+      <c r="W386">
+        <v>-1</v>
+      </c>
+      <c r="X386">
         <v>3.75</v>
       </c>
-      <c r="M386">
-        <v>1.75</v>
-      </c>
-      <c r="N386">
-        <v>3.8</v>
-      </c>
-      <c r="O386">
-        <v>3.8</v>
-      </c>
-      <c r="P386">
-        <v>1.909</v>
-      </c>
-      <c r="Q386">
-        <v>0.5</v>
-      </c>
-      <c r="R386">
-        <v>1.9</v>
-      </c>
-      <c r="S386">
-        <v>1.95</v>
-      </c>
-      <c r="T386">
-        <v>2.75</v>
-      </c>
-      <c r="U386">
-        <v>1.85</v>
-      </c>
-      <c r="V386">
-        <v>2</v>
-      </c>
-      <c r="W386">
-        <v>-1</v>
-      </c>
-      <c r="X386">
-        <v>-1</v>
-      </c>
       <c r="Y386">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z386">
         <v>-1</v>
       </c>
       <c r="AA386">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB386">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC386">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34905,7 +34905,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>4587329</v>
+        <v>4591740</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34917,76 +34917,76 @@
         <v>44780.41666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G387" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387">
         <v>2</v>
       </c>
       <c r="J387" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K387">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="L387">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M387">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N387">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O387">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P387">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q387">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R387">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S387">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T387">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U387">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V387">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W387">
         <v>-1</v>
       </c>
       <c r="X387">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z387">
         <v>-1</v>
       </c>
       <c r="AA387">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB387">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -34994,7 +34994,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>4587331</v>
+        <v>4587330</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35006,40 +35006,40 @@
         <v>44781.54166666666</v>
       </c>
       <c r="F388" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G388" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388" t="s">
+        <v>55</v>
+      </c>
+      <c r="K388">
+        <v>1.65</v>
+      </c>
+      <c r="L388">
         <v>4</v>
       </c>
-      <c r="I388">
-        <v>3</v>
-      </c>
-      <c r="J388" t="s">
-        <v>53</v>
-      </c>
-      <c r="K388">
-        <v>2.6</v>
-      </c>
-      <c r="L388">
-        <v>3.4</v>
-      </c>
       <c r="M388">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N388">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P388">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q388">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R388">
         <v>1.925</v>
@@ -35048,34 +35048,34 @@
         <v>1.925</v>
       </c>
       <c r="T388">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U388">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W388">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X388">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
+        <v>-1</v>
+      </c>
+      <c r="AA388">
         <v>0.925</v>
       </c>
-      <c r="AA388">
-        <v>-1</v>
-      </c>
       <c r="AB388">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC388">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35083,7 +35083,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>4587330</v>
+        <v>4587328</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35095,76 +35095,76 @@
         <v>44781.54166666666</v>
       </c>
       <c r="F389" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G389" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>2</v>
+      </c>
+      <c r="J389" t="s">
+        <v>54</v>
+      </c>
+      <c r="K389">
+        <v>2.8</v>
+      </c>
+      <c r="L389">
+        <v>3.75</v>
+      </c>
+      <c r="M389">
+        <v>2.15</v>
+      </c>
+      <c r="N389">
+        <v>3.4</v>
+      </c>
+      <c r="O389">
+        <v>4.2</v>
+      </c>
+      <c r="P389">
+        <v>1.95</v>
+      </c>
+      <c r="Q389">
+        <v>0.5</v>
+      </c>
+      <c r="R389">
+        <v>1.875</v>
+      </c>
+      <c r="S389">
+        <v>1.975</v>
+      </c>
+      <c r="T389">
+        <v>3</v>
+      </c>
+      <c r="U389">
+        <v>1.9</v>
+      </c>
+      <c r="V389">
+        <v>1.95</v>
+      </c>
+      <c r="W389">
+        <v>-1</v>
+      </c>
+      <c r="X389">
+        <v>-1</v>
+      </c>
+      <c r="Y389">
+        <v>0.95</v>
+      </c>
+      <c r="Z389">
+        <v>-1</v>
+      </c>
+      <c r="AA389">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB389">
         <v>0</v>
       </c>
-      <c r="I389">
-        <v>0</v>
-      </c>
-      <c r="J389" t="s">
-        <v>55</v>
-      </c>
-      <c r="K389">
-        <v>1.65</v>
-      </c>
-      <c r="L389">
-        <v>4</v>
-      </c>
-      <c r="M389">
-        <v>4.75</v>
-      </c>
-      <c r="N389">
-        <v>1.6</v>
-      </c>
-      <c r="O389">
-        <v>4.5</v>
-      </c>
-      <c r="P389">
-        <v>4.75</v>
-      </c>
-      <c r="Q389">
-        <v>-1</v>
-      </c>
-      <c r="R389">
-        <v>1.925</v>
-      </c>
-      <c r="S389">
-        <v>1.925</v>
-      </c>
-      <c r="T389">
-        <v>3.25</v>
-      </c>
-      <c r="U389">
-        <v>1.95</v>
-      </c>
-      <c r="V389">
-        <v>1.9</v>
-      </c>
-      <c r="W389">
-        <v>-1</v>
-      </c>
-      <c r="X389">
-        <v>3.5</v>
-      </c>
-      <c r="Y389">
-        <v>-1</v>
-      </c>
-      <c r="Z389">
-        <v>-1</v>
-      </c>
-      <c r="AA389">
-        <v>0.925</v>
-      </c>
-      <c r="AB389">
-        <v>-1</v>
-      </c>
       <c r="AC389">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35172,7 +35172,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>4587596</v>
+        <v>4587331</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35184,58 +35184,58 @@
         <v>44781.54166666666</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G390" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J390" t="s">
         <v>53</v>
       </c>
       <c r="K390">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L390">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M390">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N390">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O390">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P390">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q390">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R390">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S390">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T390">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U390">
+        <v>1.825</v>
+      </c>
+      <c r="V390">
         <v>2.025</v>
       </c>
-      <c r="V390">
-        <v>1.825</v>
-      </c>
       <c r="W390">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35244,16 +35244,16 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA390">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC390">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35261,7 +35261,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>4587229</v>
+        <v>4587596</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35273,37 +35273,37 @@
         <v>44781.54166666666</v>
       </c>
       <c r="F391" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H391">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="s">
         <v>53</v>
       </c>
       <c r="K391">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L391">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M391">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="N391">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O391">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P391">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q391">
         <v>-0.75</v>
@@ -35315,16 +35315,16 @@
         <v>1.95</v>
       </c>
       <c r="T391">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U391">
+        <v>2.025</v>
+      </c>
+      <c r="V391">
         <v>1.825</v>
       </c>
-      <c r="V391">
-        <v>2.025</v>
-      </c>
       <c r="W391">
-        <v>0.6659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X391">
         <v>-1</v>
@@ -35333,16 +35333,16 @@
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB391">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC391">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35350,7 +35350,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>4587328</v>
+        <v>4587229</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35362,76 +35362,76 @@
         <v>44781.54166666666</v>
       </c>
       <c r="F392" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G392" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I392">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K392">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L392">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M392">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N392">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="O392">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P392">
+        <v>4.75</v>
+      </c>
+      <c r="Q392">
+        <v>-0.75</v>
+      </c>
+      <c r="R392">
+        <v>1.9</v>
+      </c>
+      <c r="S392">
         <v>1.95</v>
       </c>
-      <c r="Q392">
-        <v>0.5</v>
-      </c>
-      <c r="R392">
-        <v>1.875</v>
-      </c>
-      <c r="S392">
-        <v>1.975</v>
-      </c>
       <c r="T392">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U392">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V392">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W392">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X392">
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z392">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA392">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB392">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC392">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35706,7 +35706,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4587332</v>
+        <v>4587232</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35718,76 +35718,76 @@
         <v>44787.54166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G396" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>4</v>
+      </c>
+      <c r="J396" t="s">
+        <v>54</v>
+      </c>
+      <c r="K396">
+        <v>2.15</v>
+      </c>
+      <c r="L396">
+        <v>3.5</v>
+      </c>
+      <c r="M396">
         <v>3</v>
       </c>
-      <c r="I396">
-        <v>0</v>
-      </c>
-      <c r="J396" t="s">
-        <v>53</v>
-      </c>
-      <c r="K396">
-        <v>1.125</v>
-      </c>
-      <c r="L396">
-        <v>7</v>
-      </c>
-      <c r="M396">
-        <v>15</v>
-      </c>
       <c r="N396">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="O396">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P396">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q396">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S396">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T396">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U396">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V396">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W396">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z396">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB396">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC396">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35795,7 +35795,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>4587232</v>
+        <v>4587332</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35807,76 +35807,76 @@
         <v>44787.54166666666</v>
       </c>
       <c r="F397" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G397" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H397">
+        <v>3</v>
+      </c>
+      <c r="I397">
         <v>0</v>
       </c>
-      <c r="I397">
-        <v>4</v>
-      </c>
       <c r="J397" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K397">
-        <v>2.15</v>
+        <v>1.125</v>
       </c>
       <c r="L397">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M397">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N397">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="O397">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P397">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q397">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R397">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S397">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T397">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U397">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V397">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W397">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X397">
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA397">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -36507,7 +36507,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4587233</v>
+        <v>4587335</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36519,76 +36519,76 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G405" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405">
         <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K405">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L405">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M405">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N405">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O405">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P405">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q405">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R405">
+        <v>1.95</v>
+      </c>
+      <c r="S405">
+        <v>1.9</v>
+      </c>
+      <c r="T405">
+        <v>3</v>
+      </c>
+      <c r="U405">
         <v>1.85</v>
       </c>
-      <c r="S405">
-        <v>2</v>
-      </c>
-      <c r="T405">
-        <v>3.5</v>
-      </c>
-      <c r="U405">
-        <v>1.975</v>
-      </c>
       <c r="V405">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W405">
         <v>-1</v>
       </c>
       <c r="X405">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y405">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z405">
         <v>-1</v>
       </c>
       <c r="AA405">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB405">
+        <v>-1</v>
+      </c>
+      <c r="AC405">
         <v>1</v>
-      </c>
-      <c r="AB405">
-        <v>-1</v>
-      </c>
-      <c r="AC405">
-        <v>0.875</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36596,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4587335</v>
+        <v>4587458</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36608,76 +36608,76 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G406" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406">
         <v>1</v>
       </c>
       <c r="J406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K406">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L406">
+        <v>3.8</v>
+      </c>
+      <c r="M406">
         <v>3.4</v>
       </c>
-      <c r="M406">
-        <v>3</v>
-      </c>
       <c r="N406">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O406">
+        <v>4.2</v>
+      </c>
+      <c r="P406">
         <v>3.6</v>
       </c>
-      <c r="P406">
-        <v>3</v>
-      </c>
       <c r="Q406">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R406">
+        <v>1.9</v>
+      </c>
+      <c r="S406">
         <v>1.95</v>
       </c>
-      <c r="S406">
-        <v>1.9</v>
-      </c>
       <c r="T406">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U406">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V406">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4587458</v>
+        <v>4587233</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,46 +36697,46 @@
         <v>44795.54166666666</v>
       </c>
       <c r="F407" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G407" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407">
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K407">
+        <v>1.6</v>
+      </c>
+      <c r="L407">
+        <v>4</v>
+      </c>
+      <c r="M407">
+        <v>4.75</v>
+      </c>
+      <c r="N407">
+        <v>1.5</v>
+      </c>
+      <c r="O407">
+        <v>4.75</v>
+      </c>
+      <c r="P407">
+        <v>5.25</v>
+      </c>
+      <c r="Q407">
+        <v>-1</v>
+      </c>
+      <c r="R407">
         <v>1.85</v>
       </c>
-      <c r="L407">
-        <v>3.8</v>
-      </c>
-      <c r="M407">
-        <v>3.4</v>
-      </c>
-      <c r="N407">
-        <v>1.85</v>
-      </c>
-      <c r="O407">
-        <v>4.2</v>
-      </c>
-      <c r="P407">
-        <v>3.6</v>
-      </c>
-      <c r="Q407">
-        <v>-0.5</v>
-      </c>
-      <c r="R407">
-        <v>1.9</v>
-      </c>
       <c r="S407">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T407">
         <v>3.5</v>
@@ -36748,19 +36748,19 @@
         <v>1.875</v>
       </c>
       <c r="W407">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X407">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB407">
         <v>-1</v>
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>4587599</v>
+        <v>4591736</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,76 +37854,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F420" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G420" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H420">
         <v>2</v>
       </c>
       <c r="I420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J420" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K420">
+        <v>1.363</v>
+      </c>
+      <c r="L420">
+        <v>5</v>
+      </c>
+      <c r="M420">
+        <v>7</v>
+      </c>
+      <c r="N420">
+        <v>1.333</v>
+      </c>
+      <c r="O420">
+        <v>5.5</v>
+      </c>
+      <c r="P420">
+        <v>8.5</v>
+      </c>
+      <c r="Q420">
+        <v>-1.5</v>
+      </c>
+      <c r="R420">
+        <v>1.925</v>
+      </c>
+      <c r="S420">
+        <v>1.925</v>
+      </c>
+      <c r="T420">
+        <v>3.25</v>
+      </c>
+      <c r="U420">
+        <v>1.975</v>
+      </c>
+      <c r="V420">
+        <v>1.875</v>
+      </c>
+      <c r="W420">
+        <v>-1</v>
+      </c>
+      <c r="X420">
         <v>4.5</v>
       </c>
-      <c r="L420">
-        <v>3.75</v>
-      </c>
-      <c r="M420">
-        <v>1.666</v>
-      </c>
-      <c r="N420">
-        <v>3.8</v>
-      </c>
-      <c r="O420">
-        <v>4.5</v>
-      </c>
-      <c r="P420">
-        <v>1.75</v>
-      </c>
-      <c r="Q420">
-        <v>0.75</v>
-      </c>
-      <c r="R420">
-        <v>1.9</v>
-      </c>
-      <c r="S420">
-        <v>1.95</v>
-      </c>
-      <c r="T420">
-        <v>3.5</v>
-      </c>
-      <c r="U420">
-        <v>1.9</v>
-      </c>
-      <c r="V420">
-        <v>1.95</v>
-      </c>
-      <c r="W420">
-        <v>2.8</v>
-      </c>
-      <c r="X420">
-        <v>-1</v>
-      </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB420">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC420">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4587339</v>
+        <v>4587599</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,10 +38032,10 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G422" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H422">
         <v>2</v>
@@ -38047,34 +38047,34 @@
         <v>53</v>
       </c>
       <c r="K422">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L422">
+        <v>3.75</v>
+      </c>
+      <c r="M422">
+        <v>1.666</v>
+      </c>
+      <c r="N422">
+        <v>3.8</v>
+      </c>
+      <c r="O422">
+        <v>4.5</v>
+      </c>
+      <c r="P422">
+        <v>1.75</v>
+      </c>
+      <c r="Q422">
+        <v>0.75</v>
+      </c>
+      <c r="R422">
+        <v>1.9</v>
+      </c>
+      <c r="S422">
+        <v>1.95</v>
+      </c>
+      <c r="T422">
         <v>3.5</v>
-      </c>
-      <c r="M422">
-        <v>2.625</v>
-      </c>
-      <c r="N422">
-        <v>2.3</v>
-      </c>
-      <c r="O422">
-        <v>4</v>
-      </c>
-      <c r="P422">
-        <v>2.625</v>
-      </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
-        <v>1.8</v>
-      </c>
-      <c r="S422">
-        <v>2.05</v>
-      </c>
-      <c r="T422">
-        <v>3.25</v>
       </c>
       <c r="U422">
         <v>1.9</v>
@@ -38083,7 +38083,7 @@
         <v>1.95</v>
       </c>
       <c r="W422">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="X422">
         <v>-1</v>
@@ -38092,16 +38092,16 @@
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA422">
         <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4587340</v>
+        <v>4587339</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,76 +38121,76 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G423" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H423">
+        <v>2</v>
+      </c>
+      <c r="I423">
         <v>1</v>
       </c>
-      <c r="I423">
-        <v>4</v>
-      </c>
       <c r="J423" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K423">
+        <v>2.4</v>
+      </c>
+      <c r="L423">
         <v>3.5</v>
       </c>
-      <c r="L423">
-        <v>3.6</v>
-      </c>
       <c r="M423">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N423">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O423">
         <v>4</v>
       </c>
       <c r="P423">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q423">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R423">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S423">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T423">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U423">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V423">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA423">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4591736</v>
+        <v>4587340</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,73 +38210,73 @@
         <v>44809.54166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G424" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J424" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K424">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L424">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M424">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N424">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O424">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P424">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q424">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S424">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T424">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U424">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V424">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB424">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC424">
         <v>-1</v>
@@ -38999,7 +38999,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>4587346</v>
+        <v>4587600</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39011,10 +39011,10 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F433" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G433" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H433">
         <v>1</v>
@@ -39026,40 +39026,40 @@
         <v>54</v>
       </c>
       <c r="K433">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L433">
+        <v>3.75</v>
+      </c>
+      <c r="M433">
+        <v>2.05</v>
+      </c>
+      <c r="N433">
+        <v>3.1</v>
+      </c>
+      <c r="O433">
         <v>3.8</v>
       </c>
-      <c r="M433">
+      <c r="P433">
         <v>2.15</v>
-      </c>
-      <c r="N433">
-        <v>3</v>
-      </c>
-      <c r="O433">
-        <v>3.75</v>
-      </c>
-      <c r="P433">
-        <v>2.25</v>
       </c>
       <c r="Q433">
         <v>0.25</v>
       </c>
       <c r="R433">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S433">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T433">
         <v>3</v>
       </c>
       <c r="U433">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V433">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W433">
         <v>-1</v>
@@ -39068,13 +39068,13 @@
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z433">
         <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB433">
         <v>0</v>
@@ -39088,7 +39088,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>4587243</v>
+        <v>4587345</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39100,76 +39100,76 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F434" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G434" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I434">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J434" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K434">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L434">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M434">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N434">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O434">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P434">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q434">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R434">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S434">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T434">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U434">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V434">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W434">
         <v>-1</v>
       </c>
       <c r="X434">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y434">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA434">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB434">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC434">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39177,7 +39177,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>4587244</v>
+        <v>4587243</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39189,76 +39189,76 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F435" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G435" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J435" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K435">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L435">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M435">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N435">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O435">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P435">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q435">
         <v>0.25</v>
       </c>
       <c r="R435">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S435">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T435">
         <v>3.25</v>
       </c>
       <c r="U435">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V435">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W435">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X435">
         <v>-1</v>
       </c>
       <c r="Y435">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z435">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB435">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC435">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="436" spans="1:29">
@@ -39266,7 +39266,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>4587345</v>
+        <v>4587244</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39278,49 +39278,49 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F436" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G436" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H436">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J436" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K436">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L436">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M436">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N436">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O436">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P436">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q436">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R436">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S436">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T436">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U436">
         <v>1.825</v>
@@ -39329,25 +39329,25 @@
         <v>2.025</v>
       </c>
       <c r="W436">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X436">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA436">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB436">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC436">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39355,7 +39355,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>4587600</v>
+        <v>4587346</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39367,10 +39367,10 @@
         <v>44821.45833333334</v>
       </c>
       <c r="F437" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G437" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H437">
         <v>1</v>
@@ -39382,40 +39382,40 @@
         <v>54</v>
       </c>
       <c r="K437">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L437">
+        <v>3.8</v>
+      </c>
+      <c r="M437">
+        <v>2.15</v>
+      </c>
+      <c r="N437">
+        <v>3</v>
+      </c>
+      <c r="O437">
         <v>3.75</v>
       </c>
-      <c r="M437">
-        <v>2.05</v>
-      </c>
-      <c r="N437">
-        <v>3.1</v>
-      </c>
-      <c r="O437">
-        <v>3.8</v>
-      </c>
       <c r="P437">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q437">
         <v>0.25</v>
       </c>
       <c r="R437">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S437">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T437">
         <v>3</v>
       </c>
       <c r="U437">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V437">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W437">
         <v>-1</v>
@@ -39424,13 +39424,13 @@
         <v>-1</v>
       </c>
       <c r="Y437">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Z437">
         <v>-1</v>
       </c>
       <c r="AA437">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB437">
         <v>0</v>
@@ -40067,7 +40067,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>4591733</v>
+        <v>4587247</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40079,49 +40079,49 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F445" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G445" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H445">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I445">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J445" t="s">
         <v>53</v>
       </c>
       <c r="K445">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="L445">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M445">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="N445">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="O445">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P445">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="Q445">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R445">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S445">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T445">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U445">
         <v>1.9</v>
@@ -40130,7 +40130,7 @@
         <v>1.95</v>
       </c>
       <c r="W445">
-        <v>0.222</v>
+        <v>0.909</v>
       </c>
       <c r="X445">
         <v>-1</v>
@@ -40139,16 +40139,16 @@
         <v>-1</v>
       </c>
       <c r="Z445">
+        <v>0.925</v>
+      </c>
+      <c r="AA445">
+        <v>-1</v>
+      </c>
+      <c r="AB445">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA445">
-        <v>-1</v>
-      </c>
-      <c r="AB445">
-        <v>0.45</v>
-      </c>
       <c r="AC445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40245,7 +40245,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>4587601</v>
+        <v>4591733</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40257,76 +40257,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F447" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G447" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I447">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J447" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K447">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="L447">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M447">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="N447">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="O447">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P447">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q447">
+        <v>-2</v>
+      </c>
+      <c r="R447">
+        <v>1.9</v>
+      </c>
+      <c r="S447">
+        <v>1.95</v>
+      </c>
+      <c r="T447">
+        <v>3.75</v>
+      </c>
+      <c r="U447">
+        <v>1.9</v>
+      </c>
+      <c r="V447">
+        <v>1.95</v>
+      </c>
+      <c r="W447">
+        <v>0.222</v>
+      </c>
+      <c r="X447">
+        <v>-1</v>
+      </c>
+      <c r="Y447">
+        <v>-1</v>
+      </c>
+      <c r="Z447">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA447">
+        <v>-1</v>
+      </c>
+      <c r="AB447">
+        <v>0.45</v>
+      </c>
+      <c r="AC447">
         <v>-0.5</v>
-      </c>
-      <c r="R447">
-        <v>1.95</v>
-      </c>
-      <c r="S447">
-        <v>1.9</v>
-      </c>
-      <c r="T447">
-        <v>3.5</v>
-      </c>
-      <c r="U447">
-        <v>1.925</v>
-      </c>
-      <c r="V447">
-        <v>1.925</v>
-      </c>
-      <c r="W447">
-        <v>-1</v>
-      </c>
-      <c r="X447">
-        <v>-1</v>
-      </c>
-      <c r="Y447">
-        <v>2.2</v>
-      </c>
-      <c r="Z447">
-        <v>-1</v>
-      </c>
-      <c r="AA447">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB447">
-        <v>-1</v>
-      </c>
-      <c r="AC447">
-        <v>0.925</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40334,7 +40334,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>4587247</v>
+        <v>4587601</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40346,76 +40346,76 @@
         <v>44837.54166666666</v>
       </c>
       <c r="F448" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G448" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H448">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I448">
         <v>2</v>
       </c>
       <c r="J448" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K448">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L448">
         <v>3.5</v>
       </c>
       <c r="M448">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N448">
         <v>1.909</v>
       </c>
       <c r="O448">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P448">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q448">
         <v>-0.5</v>
       </c>
       <c r="R448">
+        <v>1.95</v>
+      </c>
+      <c r="S448">
+        <v>1.9</v>
+      </c>
+      <c r="T448">
+        <v>3.5</v>
+      </c>
+      <c r="U448">
         <v>1.925</v>
       </c>
-      <c r="S448">
+      <c r="V448">
         <v>1.925</v>
       </c>
-      <c r="T448">
-        <v>3.25</v>
-      </c>
-      <c r="U448">
-        <v>1.9</v>
-      </c>
-      <c r="V448">
-        <v>1.95</v>
-      </c>
       <c r="W448">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z448">
+        <v>-1</v>
+      </c>
+      <c r="AA448">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB448">
+        <v>-1</v>
+      </c>
+      <c r="AC448">
         <v>0.925</v>
-      </c>
-      <c r="AA448">
-        <v>-1</v>
-      </c>
-      <c r="AB448">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC448">
-        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -41491,7 +41491,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>4587351</v>
+        <v>4587350</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41503,49 +41503,49 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F461" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G461" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H461">
         <v>3</v>
       </c>
       <c r="I461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" t="s">
         <v>53</v>
       </c>
       <c r="K461">
-        <v>2.15</v>
+        <v>1.055</v>
       </c>
       <c r="L461">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="M461">
-        <v>2.9</v>
+        <v>41</v>
       </c>
       <c r="N461">
-        <v>2.15</v>
+        <v>1.111</v>
       </c>
       <c r="O461">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="P461">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q461">
-        <v>-0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R461">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S461">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T461">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U461">
         <v>1.925</v>
@@ -41554,7 +41554,7 @@
         <v>1.925</v>
       </c>
       <c r="W461">
-        <v>1.15</v>
+        <v>0.111</v>
       </c>
       <c r="X461">
         <v>-1</v>
@@ -41563,16 +41563,16 @@
         <v>-1</v>
       </c>
       <c r="Z461">
+        <v>0.5</v>
+      </c>
+      <c r="AA461">
+        <v>-0.5</v>
+      </c>
+      <c r="AB461">
+        <v>-1</v>
+      </c>
+      <c r="AC461">
         <v>0.925</v>
-      </c>
-      <c r="AA461">
-        <v>-1</v>
-      </c>
-      <c r="AB461">
-        <v>0.925</v>
-      </c>
-      <c r="AC461">
-        <v>-1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41580,7 +41580,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4587352</v>
+        <v>4587461</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41592,56 +41592,56 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G462" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I462">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J462" t="s">
         <v>54</v>
       </c>
       <c r="K462">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L462">
         <v>3.6</v>
       </c>
       <c r="M462">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N462">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O462">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P462">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="Q462">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R462">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S462">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T462">
         <v>3.25</v>
       </c>
       <c r="U462">
+        <v>1.9</v>
+      </c>
+      <c r="V462">
         <v>1.95</v>
       </c>
-      <c r="V462">
-        <v>1.9</v>
-      </c>
       <c r="W462">
         <v>-1</v>
       </c>
@@ -41649,19 +41649,19 @@
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>1.15</v>
+        <v>0.571</v>
       </c>
       <c r="Z462">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA462">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
         <v>-0.5</v>
       </c>
       <c r="AC462">
-        <v>0.45</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41669,7 +41669,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>4587350</v>
+        <v>4587352</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41681,76 +41681,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F463" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G463" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
         <v>3</v>
       </c>
-      <c r="I463">
-        <v>0</v>
-      </c>
       <c r="J463" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K463">
-        <v>1.055</v>
+        <v>2.75</v>
       </c>
       <c r="L463">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="M463">
-        <v>41</v>
+        <v>2.3</v>
       </c>
       <c r="N463">
-        <v>1.111</v>
+        <v>3.2</v>
       </c>
       <c r="O463">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P463">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q463">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R463">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S463">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T463">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U463">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V463">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W463">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z463">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA463">
+        <v>0.825</v>
+      </c>
+      <c r="AB463">
         <v>-0.5</v>
       </c>
-      <c r="AB463">
-        <v>-1</v>
-      </c>
       <c r="AC463">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41758,7 +41758,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4587461</v>
+        <v>4587351</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41770,76 +41770,76 @@
         <v>44851.54166666666</v>
       </c>
       <c r="F464" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G464" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H464">
+        <v>3</v>
+      </c>
+      <c r="I464">
         <v>1</v>
       </c>
-      <c r="I464">
-        <v>2</v>
-      </c>
       <c r="J464" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K464">
+        <v>2.15</v>
+      </c>
+      <c r="L464">
+        <v>3.75</v>
+      </c>
+      <c r="M464">
+        <v>2.9</v>
+      </c>
+      <c r="N464">
+        <v>2.15</v>
+      </c>
+      <c r="O464">
+        <v>3.75</v>
+      </c>
+      <c r="P464">
+        <v>3.1</v>
+      </c>
+      <c r="Q464">
+        <v>-0.25</v>
+      </c>
+      <c r="R464">
+        <v>1.925</v>
+      </c>
+      <c r="S464">
+        <v>1.925</v>
+      </c>
+      <c r="T464">
         <v>3</v>
       </c>
-      <c r="L464">
-        <v>3.6</v>
-      </c>
-      <c r="M464">
-        <v>2.15</v>
-      </c>
-      <c r="N464">
-        <v>5</v>
-      </c>
-      <c r="O464">
-        <v>4.75</v>
-      </c>
-      <c r="P464">
-        <v>1.571</v>
-      </c>
-      <c r="Q464">
-        <v>1</v>
-      </c>
-      <c r="R464">
-        <v>1.875</v>
-      </c>
-      <c r="S464">
-        <v>1.975</v>
-      </c>
-      <c r="T464">
-        <v>3.25</v>
-      </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V464">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA464">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC464">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -45051,7 +45051,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>6011657</v>
+        <v>6014987</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45063,55 +45063,55 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F501" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G501" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I501">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J501" t="s">
         <v>54</v>
       </c>
       <c r="K501">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L501">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M501">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N501">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O501">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P501">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q501">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R501">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S501">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T501">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U501">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="V501">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W501">
         <v>-1</v>
@@ -45120,19 +45120,19 @@
         <v>-1</v>
       </c>
       <c r="Y501">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z501">
         <v>-1</v>
       </c>
       <c r="AA501">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB501">
-        <v>-1</v>
+        <v>0.5625</v>
       </c>
       <c r="AC501">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45140,7 +45140,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>6011433</v>
+        <v>6011657</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45152,76 +45152,76 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F502" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G502" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J502" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K502">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L502">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M502">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N502">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O502">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P502">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q502">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R502">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S502">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="T502">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U502">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V502">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W502">
         <v>-1</v>
       </c>
       <c r="X502">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y502">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z502">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA502">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB502">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC502">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45229,7 +45229,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>6014987</v>
+        <v>6011433</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45241,76 +45241,76 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F503" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G503" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503">
         <v>2</v>
       </c>
       <c r="J503" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K503">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L503">
         <v>3.4</v>
       </c>
       <c r="M503">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N503">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O503">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P503">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q503">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R503">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S503">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="T503">
         <v>2.75</v>
       </c>
       <c r="U503">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="V503">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="W503">
         <v>-1</v>
       </c>
       <c r="X503">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y503">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z503">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA503">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB503">
-        <v>0.5625</v>
+        <v>0.8</v>
       </c>
       <c r="AC503">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -45852,7 +45852,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>6014986</v>
+        <v>6011549</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45864,76 +45864,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F510" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G510" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510">
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K510">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L510">
+        <v>3.4</v>
+      </c>
+      <c r="M510">
+        <v>2.7</v>
+      </c>
+      <c r="N510">
+        <v>2.5</v>
+      </c>
+      <c r="O510">
         <v>3.5</v>
       </c>
-      <c r="M510">
-        <v>2.45</v>
-      </c>
-      <c r="N510">
-        <v>2.9</v>
-      </c>
-      <c r="O510">
-        <v>3.4</v>
-      </c>
       <c r="P510">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q510">
         <v>0</v>
       </c>
       <c r="R510">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S510">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T510">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U510">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W510">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="AA510">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB510">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -46030,7 +46030,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>6011549</v>
+        <v>6014986</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46042,76 +46042,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F512" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G512" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512">
         <v>1</v>
       </c>
       <c r="J512" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K512">
+        <v>2.6</v>
+      </c>
+      <c r="L512">
+        <v>3.5</v>
+      </c>
+      <c r="M512">
         <v>2.45</v>
       </c>
-      <c r="L512">
+      <c r="N512">
+        <v>2.9</v>
+      </c>
+      <c r="O512">
         <v>3.4</v>
       </c>
-      <c r="M512">
-        <v>2.7</v>
-      </c>
-      <c r="N512">
-        <v>2.5</v>
-      </c>
-      <c r="O512">
-        <v>3.5</v>
-      </c>
       <c r="P512">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q512">
         <v>0</v>
       </c>
       <c r="R512">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S512">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T512">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U512">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V512">
+        <v>1.85</v>
+      </c>
+      <c r="W512">
         <v>1.9</v>
       </c>
-      <c r="W512">
-        <v>-1</v>
-      </c>
       <c r="X512">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y512">
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA512">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB512">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC512">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -62762,7 +62762,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>6011454</v>
+        <v>6014962</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62774,58 +62774,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F700" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G700" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H700">
         <v>2</v>
       </c>
       <c r="I700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J700" t="s">
         <v>53</v>
       </c>
       <c r="K700">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L700">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M700">
+        <v>3.2</v>
+      </c>
+      <c r="N700">
+        <v>2.1</v>
+      </c>
+      <c r="O700">
         <v>3.6</v>
       </c>
-      <c r="N700">
-        <v>1.909</v>
-      </c>
-      <c r="O700">
-        <v>3.75</v>
-      </c>
       <c r="P700">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q700">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R700">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S700">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T700">
         <v>2.75</v>
       </c>
       <c r="U700">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V700">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W700">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X700">
         <v>-1</v>
@@ -62834,16 +62834,16 @@
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA700">
         <v>-1</v>
       </c>
       <c r="AB700">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC700">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -62940,7 +62940,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>6010988</v>
+        <v>6011454</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62952,40 +62952,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F702" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G702" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H702">
+        <v>2</v>
+      </c>
+      <c r="I702">
         <v>0</v>
       </c>
-      <c r="I702">
-        <v>1</v>
-      </c>
       <c r="J702" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K702">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L702">
+        <v>3.75</v>
+      </c>
+      <c r="M702">
         <v>3.6</v>
       </c>
-      <c r="M702">
-        <v>2.9</v>
-      </c>
       <c r="N702">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O702">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P702">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q702">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R702">
         <v>1.925</v>
@@ -62994,34 +62994,34 @@
         <v>1.925</v>
       </c>
       <c r="T702">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U702">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V702">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W702">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X702">
         <v>-1</v>
       </c>
       <c r="Y702">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z702">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA702">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB702">
         <v>-1</v>
       </c>
       <c r="AC702">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -63029,7 +63029,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>6014962</v>
+        <v>6010988</v>
       </c>
       <c r="C703" t="s">
         <v>28</v>
@@ -63041,76 +63041,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F703" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G703" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703">
         <v>1</v>
       </c>
       <c r="J703" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K703">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L703">
         <v>3.6</v>
       </c>
       <c r="M703">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N703">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O703">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P703">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q703">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R703">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S703">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T703">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U703">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V703">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W703">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X703">
         <v>-1</v>
       </c>
       <c r="Y703">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z703">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA703">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB703">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC703">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="704" spans="1:29">
@@ -64008,7 +64008,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6011652</v>
+        <v>6011676</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64020,13 +64020,13 @@
         <v>45242.4375</v>
       </c>
       <c r="F714" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G714" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714">
         <v>0</v>
@@ -64035,43 +64035,43 @@
         <v>53</v>
       </c>
       <c r="K714">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="L714">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M714">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N714">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O714">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P714">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q714">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R714">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S714">
+        <v>2.05</v>
+      </c>
+      <c r="T714">
+        <v>3</v>
+      </c>
+      <c r="U714">
         <v>1.85</v>
       </c>
-      <c r="T714">
-        <v>3.5</v>
-      </c>
-      <c r="U714">
-        <v>2.025</v>
-      </c>
       <c r="V714">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W714">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X714">
         <v>-1</v>
@@ -64080,16 +64080,16 @@
         <v>-1</v>
       </c>
       <c r="Z714">
+        <v>0</v>
+      </c>
+      <c r="AA714">
+        <v>-0</v>
+      </c>
+      <c r="AB714">
+        <v>-1</v>
+      </c>
+      <c r="AC714">
         <v>1</v>
-      </c>
-      <c r="AA714">
-        <v>-1</v>
-      </c>
-      <c r="AB714">
-        <v>-1</v>
-      </c>
-      <c r="AC714">
-        <v>0.825</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64097,7 +64097,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>6011676</v>
+        <v>6011652</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64109,13 +64109,13 @@
         <v>45242.4375</v>
       </c>
       <c r="F715" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G715" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I715">
         <v>0</v>
@@ -64124,43 +64124,43 @@
         <v>53</v>
       </c>
       <c r="K715">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="L715">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M715">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N715">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O715">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P715">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q715">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R715">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S715">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T715">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U715">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V715">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W715">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X715">
         <v>-1</v>
@@ -64169,16 +64169,16 @@
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA715">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB715">
         <v>-1</v>
       </c>
       <c r="AC715">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="716" spans="1:29">

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6011546</v>
+        <v>6011545</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
+        <v>1.75</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>4.5</v>
+      </c>
+      <c r="N19">
         <v>2.1</v>
       </c>
-      <c r="L19">
-        <v>3.5</v>
-      </c>
-      <c r="M19">
+      <c r="O19">
+        <v>3.75</v>
+      </c>
+      <c r="P19">
         <v>3.25</v>
       </c>
-      <c r="N19">
-        <v>2.375</v>
-      </c>
-      <c r="O19">
-        <v>3.6</v>
-      </c>
-      <c r="P19">
-        <v>2.8</v>
-      </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
         <v>1.85</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X19">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6011545</v>
+        <v>6011546</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6010968</v>
+        <v>6014984</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,58 +4722,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>46</v>
       </c>
       <c r="K48">
+        <v>2.2</v>
+      </c>
+      <c r="L48">
+        <v>3.4</v>
+      </c>
+      <c r="M48">
+        <v>2.875</v>
+      </c>
+      <c r="N48">
+        <v>2.375</v>
+      </c>
+      <c r="O48">
+        <v>3.5</v>
+      </c>
+      <c r="P48">
+        <v>2.9</v>
+      </c>
+      <c r="Q48">
+        <v>-0.25</v>
+      </c>
+      <c r="R48">
+        <v>2.05</v>
+      </c>
+      <c r="S48">
         <v>1.8</v>
-      </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-      <c r="M48">
-        <v>3.8</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>3.4</v>
-      </c>
-      <c r="P48">
-        <v>4</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
-      <c r="R48">
-        <v>2.025</v>
-      </c>
-      <c r="S48">
-        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4782,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6014984</v>
+        <v>6010968</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,58 +4811,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
+        <v>3.6</v>
+      </c>
+      <c r="M49">
+        <v>3.8</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
         <v>3.4</v>
       </c>
-      <c r="M49">
-        <v>2.875</v>
-      </c>
-      <c r="N49">
-        <v>2.375</v>
-      </c>
-      <c r="O49">
-        <v>3.5</v>
-      </c>
       <c r="P49">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,16 +4871,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011437</v>
+        <v>6011559</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
+        <v>2.7</v>
+      </c>
+      <c r="N51">
+        <v>2.3</v>
+      </c>
+      <c r="O51">
         <v>3.4</v>
       </c>
-      <c r="N51">
-        <v>1.75</v>
-      </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>2.15</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011559</v>
+        <v>6011437</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L52">
+        <v>3.5</v>
+      </c>
+      <c r="M52">
         <v>3.4</v>
       </c>
-      <c r="M52">
-        <v>2.7</v>
-      </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>2.15</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6011562</v>
+        <v>6010969</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,34 +6161,34 @@
         <v>46</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>3.4</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
         <v>3.6</v>
       </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="N64">
+      <c r="P64">
+        <v>4.5</v>
+      </c>
+      <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
         <v>2.05</v>
       </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
-      <c r="P64">
-        <v>3.6</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
         <v>2.025</v>
@@ -6197,7 +6197,7 @@
         <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,16 +6206,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6010969</v>
+        <v>6011562</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,13 +6235,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6250,34 +6250,34 @@
         <v>46</v>
       </c>
       <c r="K65">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>2.05</v>
+      </c>
+      <c r="O65">
         <v>3.5</v>
       </c>
-      <c r="M65">
-        <v>3.4</v>
-      </c>
-      <c r="N65">
-        <v>1.8</v>
-      </c>
-      <c r="O65">
+      <c r="P65">
         <v>3.6</v>
       </c>
-      <c r="P65">
-        <v>4.5</v>
-      </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>2.025</v>
@@ -6286,7 +6286,7 @@
         <v>1.825</v>
       </c>
       <c r="W65">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,16 +6295,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6011440</v>
+        <v>6010971</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,46 +7036,46 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N74">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7087,25 +7087,25 @@
         <v>1.875</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6010971</v>
+        <v>6011440</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,46 +7125,46 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N75">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.5</v>
@@ -7176,25 +7176,25 @@
         <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6011570</v>
+        <v>6011572</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,55 +7303,55 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N77">
         <v>2</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
         <v>1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6011572</v>
+        <v>6011570</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,55 +7392,55 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
         <v>3.6</v>
       </c>
-      <c r="M78">
-        <v>3.2</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
       <c r="P78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
         <v>1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6011579</v>
+        <v>6011442</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,70 +8905,70 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6735385</v>
+        <v>6011579</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>0</v>
       </c>
-      <c r="I96">
+      <c r="J96" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96">
+        <v>1.666</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>4.2</v>
+      </c>
+      <c r="N96">
+        <v>1.727</v>
+      </c>
+      <c r="O96">
         <v>4</v>
       </c>
-      <c r="J96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96">
-        <v>2.45</v>
-      </c>
-      <c r="L96">
-        <v>3.25</v>
-      </c>
-      <c r="M96">
-        <v>2.55</v>
-      </c>
-      <c r="N96">
-        <v>2.9</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
       <c r="P96">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6011442</v>
+        <v>6735385</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,55 +9083,55 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
         <v>45</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N97">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9140,19 +9140,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6011663</v>
+        <v>6010974</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,34 +9261,34 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>45</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
         <v>3.25</v>
@@ -9297,19 +9297,19 @@
         <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
         <v>1.825</v>
       </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9324,13 +9324,13 @@
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6010974</v>
+        <v>6011663</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,34 +9350,34 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>45</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
         <v>3.25</v>
@@ -9386,19 +9386,19 @@
         <v>-0.25</v>
       </c>
       <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
         <v>2.025</v>
       </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9413,13 +9413,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6011664</v>
+        <v>6011587</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,58 +10329,58 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N111">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q111">
         <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.85</v>
       </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
       <c r="W111">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10389,16 +10389,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6011587</v>
+        <v>6011664</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,58 +10418,58 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L112">
+        <v>3.5</v>
+      </c>
+      <c r="M112">
         <v>3.75</v>
       </c>
-      <c r="M112">
-        <v>3.4</v>
-      </c>
       <c r="N112">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q112">
         <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10478,16 +10478,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6011591</v>
+        <v>6011588</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,58 +10774,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>46</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N116">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P116">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>2.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10834,13 +10834,13 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6011588</v>
+        <v>6011591</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>2.25</v>
+      </c>
+      <c r="N118">
+        <v>3.1</v>
+      </c>
+      <c r="O118">
         <v>3.6</v>
       </c>
-      <c r="M118">
-        <v>4.2</v>
-      </c>
-      <c r="N118">
-        <v>1.533</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.5329999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,13 +11012,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6011590</v>
+        <v>6014975</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N119">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6014975</v>
+        <v>6011592</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
+        <v>1.975</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
         <v>2.025</v>
       </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.95</v>
-      </c>
       <c r="W120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>1.025</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6011592</v>
+        <v>6011590</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>47</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
+        <v>2.2</v>
+      </c>
+      <c r="O121">
+        <v>3.4</v>
+      </c>
+      <c r="P121">
+        <v>3.4</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
         <v>1.85</v>
       </c>
-      <c r="O121">
-        <v>4</v>
-      </c>
-      <c r="P121">
-        <v>3.75</v>
-      </c>
-      <c r="Q121">
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>1.85</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.4</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>1.875</v>
-      </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
-      <c r="V121">
-        <v>2.025</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
-      <c r="X121">
-        <v>3</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>-1</v>
-      </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011599</v>
+        <v>6011445</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N131">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="V131">
-        <v>2</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011601</v>
+        <v>6014973</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
+        <v>1.925</v>
+      </c>
+      <c r="S132">
+        <v>1.925</v>
+      </c>
+      <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.9</v>
       </c>
-      <c r="T132">
-        <v>3.5</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6011445</v>
+        <v>6011601</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,49 +12376,49 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>46</v>
       </c>
       <c r="K134">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>1.45</v>
+      </c>
+      <c r="O134">
         <v>4.75</v>
-      </c>
-      <c r="N134">
-        <v>1.533</v>
-      </c>
-      <c r="O134">
-        <v>4</v>
       </c>
       <c r="P134">
         <v>6.5</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U134">
         <v>2</v>
@@ -12427,7 +12427,7 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.5329999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12436,16 +12436,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6014973</v>
+        <v>6011599</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,55 +12465,55 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
         <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N135">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
         <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12522,19 +12522,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6010979</v>
+        <v>6011605</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,58 +12732,58 @@
         <v>45151.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>46</v>
       </c>
       <c r="K138">
+        <v>2.15</v>
+      </c>
+      <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2.3</v>
+      </c>
+      <c r="O138">
+        <v>3.75</v>
+      </c>
+      <c r="P138">
+        <v>2.875</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>2.025</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3.25</v>
+      </c>
+      <c r="U138">
         <v>1.95</v>
       </c>
-      <c r="L138">
-        <v>3.4</v>
-      </c>
-      <c r="M138">
-        <v>3.6</v>
-      </c>
-      <c r="N138">
-        <v>2</v>
-      </c>
-      <c r="O138">
-        <v>3.4</v>
-      </c>
-      <c r="P138">
-        <v>4</v>
-      </c>
-      <c r="Q138">
-        <v>-0.5</v>
-      </c>
-      <c r="R138">
-        <v>1.975</v>
-      </c>
-      <c r="S138">
-        <v>1.875</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.8</v>
-      </c>
       <c r="V138">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6011667</v>
+        <v>6010979</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45151.5</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6011604</v>
+        <v>6011667</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,10 +12910,10 @@
         <v>45151.5</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12925,25 +12925,25 @@
         <v>45</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
+        <v>2.15</v>
+      </c>
+      <c r="O140">
+        <v>3.75</v>
+      </c>
+      <c r="P140">
         <v>3.1</v>
       </c>
-      <c r="O140">
-        <v>3.4</v>
-      </c>
-      <c r="P140">
-        <v>2.3</v>
-      </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
         <v>1.825</v>
@@ -12952,13 +12952,13 @@
         <v>2.025</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12967,7 +12967,7 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6011603</v>
+        <v>6011604</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45151.5</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
       <c r="W141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6011666</v>
+        <v>6011603</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,13 +13088,13 @@
         <v>45151.5</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13103,43 +13103,43 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13148,13 +13148,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6011605</v>
+        <v>6011666</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,58 +13177,58 @@
         <v>45151.5</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>46</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
         <v>1.95</v>
       </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
       <c r="W143">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6011965</v>
+        <v>6010981</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,10 +14245,10 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14260,40 +14260,40 @@
         <v>45</v>
       </c>
       <c r="K155">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O155">
         <v>4.333</v>
       </c>
       <c r="P155">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q155">
         <v>-1</v>
       </c>
       <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
         <v>2.025</v>
       </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14302,19 +14302,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6014970</v>
+        <v>6011959</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,73 +14334,73 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L156">
+        <v>3.3</v>
+      </c>
+      <c r="M156">
+        <v>2.875</v>
+      </c>
+      <c r="N156">
+        <v>2.3</v>
+      </c>
+      <c r="O156">
         <v>3.4</v>
       </c>
-      <c r="M156">
+      <c r="P156">
         <v>3.1</v>
-      </c>
-      <c r="N156">
-        <v>2.05</v>
-      </c>
-      <c r="O156">
-        <v>3.6</v>
-      </c>
-      <c r="P156">
-        <v>3.4</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6011959</v>
+        <v>6011965</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6010981</v>
+        <v>6014970</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,40 +14601,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
         <v>1.825</v>
@@ -14646,31 +14646,31 @@
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -17793,7 +17793,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6011629</v>
+        <v>6011948</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17805,76 +17805,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>45</v>
+      </c>
+      <c r="K195">
+        <v>2.3</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>2.7</v>
+      </c>
+      <c r="N195">
+        <v>2.45</v>
+      </c>
+      <c r="O195">
+        <v>3.8</v>
+      </c>
+      <c r="P195">
+        <v>2.6</v>
+      </c>
+      <c r="Q195">
         <v>0</v>
       </c>
-      <c r="J195" t="s">
-        <v>46</v>
-      </c>
-      <c r="K195">
-        <v>2.625</v>
-      </c>
-      <c r="L195">
-        <v>3.5</v>
-      </c>
-      <c r="M195">
-        <v>2.375</v>
-      </c>
-      <c r="N195">
-        <v>3</v>
-      </c>
-      <c r="O195">
-        <v>3.5</v>
-      </c>
-      <c r="P195">
-        <v>2.3</v>
-      </c>
-      <c r="Q195">
-        <v>0.25</v>
-      </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
         <v>3</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6011948</v>
+        <v>6011629</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,76 +17894,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K196">
+        <v>2.625</v>
+      </c>
+      <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>2.375</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196">
+        <v>3.5</v>
+      </c>
+      <c r="P196">
         <v>2.3</v>
       </c>
-      <c r="L196">
-        <v>3.6</v>
-      </c>
-      <c r="M196">
-        <v>2.7</v>
-      </c>
-      <c r="N196">
-        <v>2.45</v>
-      </c>
-      <c r="O196">
-        <v>3.8</v>
-      </c>
-      <c r="P196">
-        <v>2.6</v>
-      </c>
       <c r="Q196">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
         <v>3</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
         <v>0.925</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
-      <c r="AC196">
-        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6011455</v>
+        <v>6014961</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K227">
+        <v>3.2</v>
+      </c>
+      <c r="L227">
+        <v>3.5</v>
+      </c>
+      <c r="M227">
+        <v>2.1</v>
+      </c>
+      <c r="N227">
+        <v>3.25</v>
+      </c>
+      <c r="O227">
+        <v>3.5</v>
+      </c>
+      <c r="P227">
+        <v>2.2</v>
+      </c>
+      <c r="Q227">
+        <v>0.25</v>
+      </c>
+      <c r="R227">
+        <v>1.925</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
         <v>2.5</v>
       </c>
-      <c r="L227">
-        <v>3.4</v>
-      </c>
-      <c r="M227">
-        <v>2.6</v>
-      </c>
-      <c r="N227">
-        <v>2.4</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>2.8</v>
-      </c>
-      <c r="Q227">
-        <v>0</v>
-      </c>
-      <c r="R227">
-        <v>1.8</v>
-      </c>
-      <c r="S227">
-        <v>2.05</v>
-      </c>
-      <c r="T227">
-        <v>3</v>
-      </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6011647</v>
+        <v>6011455</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,37 +20742,37 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N228">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -20787,31 +20787,31 @@
         <v>3</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X228">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
+        <v>0.8</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
         <v>0</v>
       </c>
-      <c r="AA228">
+      <c r="AC228">
         <v>-0</v>
-      </c>
-      <c r="AB228">
-        <v>-1</v>
-      </c>
-      <c r="AC228">
-        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6011648</v>
+        <v>6011647</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20831,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L229">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="M229">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N229">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="O229">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6011649</v>
+        <v>6011648</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,40 +20920,40 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M230">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="N230">
-        <v>1.45</v>
+        <v>1.142</v>
       </c>
       <c r="O230">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P230">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R230">
         <v>1.975</v>
@@ -20965,19 +20965,19 @@
         <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
         <v>-1</v>
@@ -20986,10 +20986,10 @@
         <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6011650</v>
+        <v>6011649</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,55 +21009,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>45</v>
       </c>
       <c r="K231">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N231">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P231">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21066,19 +21066,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.15</v>
+        <v>5.5</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6014961</v>
+        <v>6011650</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,73 +21187,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H233">
         <v>2</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L233">
         <v>3.5</v>
       </c>
       <c r="M233">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N233">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q233">
         <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z233">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB233">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC233">
         <v>-1</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -103,13 +103,13 @@
     <t>Norway Division 1</t>
   </si>
   <si>
-    <t>Hodd</t>
-  </si>
-  <si>
     <t>Bryne</t>
   </si>
   <si>
     <t>KFUM</t>
+  </si>
+  <si>
+    <t>Hodd</t>
   </si>
   <si>
     <t>Moss</t>
@@ -121,10 +121,10 @@
     <t>Jerv</t>
   </si>
   <si>
-    <t>Sandnes Ulf</t>
+    <t>Mjondalen</t>
   </si>
   <si>
-    <t>Mjondalen</t>
+    <t>Sandnes Ulf</t>
   </si>
   <si>
     <t>Sogndal</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6010963</v>
+        <v>6011431</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
+        <v>2.4</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="N2">
-        <v>2.1</v>
-      </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011431</v>
+        <v>6011536</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
+        <v>1.833</v>
+      </c>
+      <c r="O3">
+        <v>3.8</v>
+      </c>
+      <c r="P3">
+        <v>3.8</v>
+      </c>
+      <c r="Q3">
+        <v>-0.5</v>
+      </c>
+      <c r="R3">
+        <v>1.825</v>
+      </c>
+      <c r="S3">
+        <v>2.025</v>
+      </c>
+      <c r="T3">
         <v>3</v>
       </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
-      <c r="P3">
-        <v>2.55</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2.05</v>
-      </c>
-      <c r="S3">
-        <v>1.8</v>
-      </c>
-      <c r="T3">
-        <v>2.25</v>
-      </c>
       <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.875</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6011536</v>
+        <v>6010963</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,37 +809,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2.1</v>
+      </c>
+      <c r="O4">
         <v>3.4</v>
       </c>
-      <c r="N4">
-        <v>1.833</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
         <v>1.825</v>
@@ -848,34 +848,34 @@
         <v>2.025</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6011538</v>
+        <v>6011537</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,16 +1165,16 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.8</v>
@@ -1183,55 +1183,55 @@
         <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.9</v>
-      </c>
-      <c r="S8">
-        <v>1.95</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6011537</v>
+        <v>6011538</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,16 +1254,16 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1272,55 +1272,55 @@
         <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>1.9</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2141,7 +2141,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -2408,7 +2408,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2497,7 +2497,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2675,7 +2675,7 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2767,7 +2767,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6011548</v>
+        <v>6010966</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -3046,41 +3046,41 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
         <v>1.85</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
@@ -3088,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6010966</v>
+        <v>6011548</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -3135,40 +3135,40 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>4.75</v>
+      </c>
+      <c r="N30">
+        <v>2.2</v>
+      </c>
+      <c r="O30">
         <v>3.75</v>
       </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.833</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3177,16 +3177,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6011659</v>
+        <v>6014986</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>2.6</v>
+      </c>
+      <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
+        <v>2.45</v>
+      </c>
+      <c r="N31">
+        <v>2.9</v>
+      </c>
+      <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31">
+        <v>2.4</v>
+      </c>
+      <c r="Q31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31">
-        <v>1.727</v>
-      </c>
-      <c r="L31">
-        <v>4.2</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>1.7</v>
-      </c>
-      <c r="O31">
-        <v>4.2</v>
-      </c>
-      <c r="P31">
-        <v>4.5</v>
-      </c>
-      <c r="Q31">
-        <v>-0.75</v>
-      </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6014986</v>
+        <v>6011659</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3568,7 +3568,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011435</v>
+        <v>6011550</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,73 +3924,73 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6010967</v>
+        <v>6011435</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,61 +4025,61 @@
         <v>46</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011550</v>
+        <v>6010967</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4102,52 +4102,52 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
         <v>3.75</v>
       </c>
       <c r="P41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,13 +4162,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4636,7 +4636,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6010968</v>
+        <v>6011556</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
+        <v>4.333</v>
+      </c>
+      <c r="N48">
+        <v>1.666</v>
+      </c>
+      <c r="O48">
         <v>3.8</v>
       </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>3.4</v>
-      </c>
       <c r="P48">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6011556</v>
+        <v>6010968</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N49">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X49">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45058.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011437</v>
+        <v>6011559</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
+        <v>2.7</v>
+      </c>
+      <c r="N51">
+        <v>2.3</v>
+      </c>
+      <c r="O51">
         <v>3.4</v>
       </c>
-      <c r="N51">
-        <v>1.75</v>
-      </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>2.15</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011558</v>
+        <v>6011560</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011559</v>
+        <v>6011561</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011560</v>
+        <v>6011660</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
         <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
         <v>3.6</v>
       </c>
       <c r="P54">
+        <v>2.15</v>
+      </c>
+      <c r="Q54">
+        <v>0.25</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
         <v>2.5</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>1.9</v>
-      </c>
-      <c r="S54">
-        <v>1.95</v>
-      </c>
-      <c r="T54">
-        <v>3.25</v>
-      </c>
       <c r="U54">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y54">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011561</v>
+        <v>6014983</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N55">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011660</v>
+        <v>6011558</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,49 +5434,49 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O56">
         <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
         <v>1.875</v>
@@ -5485,19 +5485,19 @@
         <v>1.975</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6014983</v>
+        <v>6011437</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,73 +5526,73 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
         <v>3.4</v>
       </c>
       <c r="N57">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>0.5125</v>
+      </c>
+      <c r="AA57">
         <v>-0.5</v>
       </c>
-      <c r="AA57">
-        <v>0.5</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011564</v>
+        <v>6011563</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N60">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
+        <v>1.825</v>
+      </c>
+      <c r="W60">
         <v>1.875</v>
       </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
       <c r="X60">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011438</v>
+        <v>6011564</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
+        <v>4.333</v>
+      </c>
+      <c r="Q61">
+        <v>-0.75</v>
+      </c>
+      <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
         <v>3.25</v>
       </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
+      <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
         <v>1.875</v>
       </c>
-      <c r="S61">
-        <v>1.975</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.95</v>
-      </c>
-      <c r="V61">
-        <v>1.9</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011562</v>
+        <v>6011438</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
+        <v>3.5</v>
+      </c>
+      <c r="M62">
+        <v>2.7</v>
+      </c>
+      <c r="N62">
+        <v>2.15</v>
+      </c>
+      <c r="O62">
         <v>3.6</v>
       </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>2.05</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
+        <v>1.9</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>2.6</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>-0.5</v>
       </c>
-      <c r="R62">
-        <v>2.025</v>
-      </c>
-      <c r="S62">
-        <v>1.825</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>2.025</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
-      <c r="W62">
-        <v>1.05</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>1.025</v>
-      </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6011563</v>
+        <v>6011562</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>45</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>2.05</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="M63">
-        <v>3.2</v>
-      </c>
-      <c r="N63">
-        <v>2.875</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
       <c r="P63">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
         <v>2.025</v>
@@ -6099,7 +6099,7 @@
         <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
         <v>2.025</v>
@@ -6108,7 +6108,7 @@
         <v>1.825</v>
       </c>
       <c r="W63">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,10 +6123,10 @@
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6324,10 +6324,10 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>45067.5</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011566</v>
+        <v>6011567</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,13 +6591,13 @@
         <v>45067.5</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6606,61 +6606,61 @@
         <v>47</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
+        <v>1.9</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>2</v>
-      </c>
-      <c r="V69">
-        <v>1.85</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>1.5</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011567</v>
+        <v>6011568</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45067.5</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.6</v>
       </c>
-      <c r="M70">
-        <v>3.4</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
       <c r="P70">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6011568</v>
+        <v>6011566</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,40 +6769,40 @@
         <v>45067.5</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6811,34 +6811,34 @@
         <v>1.85</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB71">
         <v>0.5</v>
       </c>
-      <c r="AA71">
+      <c r="AC71">
         <v>-0.5</v>
-      </c>
-      <c r="AB71">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6014981</v>
+        <v>6011955</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,46 +6858,46 @@
         <v>45067.5</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
         <v>2.75</v>
@@ -6909,25 +6909,25 @@
         <v>1.925</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.925</v>
-      </c>
-      <c r="AC72">
-        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6011955</v>
+        <v>6014981</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,46 +6947,46 @@
         <v>45067.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
+        <v>3.75</v>
+      </c>
+      <c r="M73">
+        <v>4.2</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
         <v>3.5</v>
       </c>
-      <c r="M73">
-        <v>2.15</v>
-      </c>
-      <c r="N73">
-        <v>3.25</v>
-      </c>
-      <c r="O73">
-        <v>3.4</v>
-      </c>
       <c r="P73">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>2.75</v>
@@ -6998,25 +6998,25 @@
         <v>1.925</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X73">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,10 +7036,10 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7392,10 +7392,10 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
         <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6011574</v>
+        <v>6011575</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L82">
+        <v>3.4</v>
+      </c>
+      <c r="M82">
+        <v>2.375</v>
+      </c>
+      <c r="N82">
+        <v>2.75</v>
+      </c>
+      <c r="O82">
         <v>3.6</v>
       </c>
-      <c r="M82">
-        <v>3.1</v>
-      </c>
-      <c r="N82">
-        <v>1.909</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
       <c r="P82">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6011573</v>
+        <v>6011574</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.9</v>
+      </c>
+      <c r="S83">
         <v>1.95</v>
       </c>
-      <c r="S83">
-        <v>1.9</v>
-      </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X83">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6010972</v>
+        <v>6011441</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,49 +7926,49 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s">
         <v>29</v>
       </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N84">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
         <v>2.05</v>
@@ -7977,25 +7977,25 @@
         <v>1.8</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6011441</v>
+        <v>6011573</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
         <v>3.4</v>
       </c>
       <c r="M85">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
+        <v>1.9</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
+        <v>2.2</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>-0</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>1.825</v>
-      </c>
-      <c r="S85">
-        <v>2.025</v>
-      </c>
-      <c r="T85">
-        <v>3</v>
-      </c>
-      <c r="U85">
-        <v>2.05</v>
-      </c>
-      <c r="V85">
-        <v>1.8</v>
-      </c>
-      <c r="W85">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>0.825</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6011575</v>
+        <v>6011942</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,40 +8104,40 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
         <v>2.375</v>
-      </c>
-      <c r="N86">
-        <v>2.75</v>
       </c>
       <c r="O86">
         <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
         <v>2.025</v>
@@ -8149,31 +8149,31 @@
         <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6011956</v>
+        <v>6014979</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87">
+        <v>1.85</v>
+      </c>
+      <c r="L87">
+        <v>3.75</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>1.909</v>
+      </c>
+      <c r="O87">
+        <v>3.75</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>2.025</v>
+      </c>
+      <c r="T87">
         <v>3</v>
       </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>2.375</v>
-      </c>
-      <c r="L87">
-        <v>3.4</v>
-      </c>
-      <c r="M87">
-        <v>2.8</v>
-      </c>
-      <c r="N87">
-        <v>2.4</v>
-      </c>
-      <c r="O87">
-        <v>3.5</v>
-      </c>
-      <c r="P87">
-        <v>2.875</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
-        <v>2.05</v>
-      </c>
-      <c r="S87">
-        <v>1.8</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
       <c r="U87">
+        <v>1.975</v>
+      </c>
+      <c r="V87">
         <v>1.875</v>
       </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6014979</v>
+        <v>6010972</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6011942</v>
+        <v>6011956</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,34 +8371,34 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
         <v>2.875</v>
@@ -8407,40 +8407,40 @@
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -8730,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8994,7 +8994,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -9083,10 +9083,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9350,10 +9350,10 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
         <v>29</v>
-      </c>
-      <c r="G100" t="s">
-        <v>30</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9706,10 +9706,10 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9887,7 +9887,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9973,7 +9973,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -10065,7 +10065,7 @@
         <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>43</v>
@@ -10329,7 +10329,7 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6011665</v>
+        <v>6010976</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>47</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6011588</v>
+        <v>6011665</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,73 +10685,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>5</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
         <v>3.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.925</v>
+      </c>
+      <c r="AB115">
         <v>0.825</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>1</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6010976</v>
+        <v>6011588</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P116">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
         <v>1.85</v>
       </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6011592</v>
+        <v>6014975</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
         <v>3.6</v>
       </c>
-      <c r="M120">
-        <v>3.75</v>
-      </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6014975</v>
+        <v>6011592</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.875</v>
+      </c>
+      <c r="S121">
+        <v>1.975</v>
+      </c>
+      <c r="T121">
+        <v>3.25</v>
+      </c>
+      <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
         <v>2.025</v>
       </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.9</v>
-      </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>1.025</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC121">
-        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11575,10 +11575,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -11753,7 +11753,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11842,7 +11842,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>43</v>
@@ -11931,7 +11931,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12290,7 +12290,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6011602</v>
+        <v>6014973</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K134">
+        <v>2.55</v>
+      </c>
+      <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>2.45</v>
+      </c>
+      <c r="N134">
+        <v>3.1</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
+        <v>2.25</v>
+      </c>
+      <c r="Q134">
+        <v>0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.925</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
         <v>1.95</v>
       </c>
-      <c r="L134">
-        <v>3.5</v>
-      </c>
-      <c r="M134">
-        <v>3.2</v>
-      </c>
-      <c r="N134">
-        <v>2</v>
-      </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
-      <c r="P134">
-        <v>3.5</v>
-      </c>
-      <c r="Q134">
-        <v>-0.5</v>
-      </c>
-      <c r="R134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
-      <c r="T134">
-        <v>3.25</v>
-      </c>
-      <c r="U134">
-        <v>1.925</v>
-      </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6014973</v>
+        <v>6011602</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>45</v>
+      </c>
+      <c r="K135">
+        <v>1.95</v>
+      </c>
+      <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>3.2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135">
+        <v>3.75</v>
+      </c>
+      <c r="P135">
+        <v>3.5</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.925</v>
+      </c>
+      <c r="V135">
+        <v>1.925</v>
+      </c>
+      <c r="W135">
         <v>1</v>
       </c>
-      <c r="J135" t="s">
-        <v>47</v>
-      </c>
-      <c r="K135">
-        <v>2.55</v>
-      </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>2.45</v>
-      </c>
-      <c r="N135">
-        <v>3.1</v>
-      </c>
-      <c r="O135">
-        <v>3.5</v>
-      </c>
-      <c r="P135">
-        <v>2.25</v>
-      </c>
-      <c r="Q135">
-        <v>0.25</v>
-      </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.925</v>
-      </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.925</v>
       </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>45151.5</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
@@ -12732,7 +12732,7 @@
         <v>45151.5</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12821,7 +12821,7 @@
         <v>45151.5</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13088,10 +13088,10 @@
         <v>45151.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13266,7 +13266,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>44</v>
@@ -13358,7 +13358,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -13625,7 +13625,7 @@
         <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6010981</v>
+        <v>6014970</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,40 +13978,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O152">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
         <v>1.825</v>
@@ -14023,31 +14023,31 @@
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6011609</v>
+        <v>6010981</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,40 +14067,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M153">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N153">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
         <v>1.825</v>
@@ -14109,34 +14109,34 @@
         <v>2.025</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6011610</v>
+        <v>6011609</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,34 +14156,34 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
+        <v>2.55</v>
+      </c>
+      <c r="N154">
+        <v>2.875</v>
+      </c>
+      <c r="O154">
         <v>3.6</v>
-      </c>
-      <c r="M154">
-        <v>2.5</v>
-      </c>
-      <c r="N154">
-        <v>2.8</v>
-      </c>
-      <c r="O154">
-        <v>3.75</v>
       </c>
       <c r="P154">
         <v>2.375</v>
@@ -14192,40 +14192,40 @@
         <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
         <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC154">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6011608</v>
+        <v>6011610</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,55 +14245,55 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>1</v>
-      </c>
-      <c r="I155">
-        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>47</v>
       </c>
       <c r="K155">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>2.5</v>
+      </c>
+      <c r="N155">
+        <v>2.8</v>
+      </c>
+      <c r="O155">
+        <v>3.75</v>
+      </c>
+      <c r="P155">
+        <v>2.375</v>
+      </c>
+      <c r="Q155">
+        <v>0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.75</v>
+      </c>
+      <c r="S155">
+        <v>2.05</v>
+      </c>
+      <c r="T155">
         <v>3.25</v>
       </c>
-      <c r="M155">
-        <v>2.75</v>
-      </c>
-      <c r="N155">
-        <v>2.6</v>
-      </c>
-      <c r="O155">
-        <v>3.25</v>
-      </c>
-      <c r="P155">
-        <v>2.7</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>1.9</v>
-      </c>
-      <c r="S155">
-        <v>1.95</v>
-      </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14302,19 +14302,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.7</v>
+        <v>1.375</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6011959</v>
+        <v>6011608</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,73 +14334,73 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="L156">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N156">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
         <v>1.85</v>
       </c>
-      <c r="V156">
-        <v>2</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6014970</v>
+        <v>6011965</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,49 +14423,49 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="N157">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R157">
+        <v>2.025</v>
+      </c>
+      <c r="S157">
         <v>1.825</v>
       </c>
-      <c r="S157">
-        <v>2.025</v>
-      </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
         <v>1.9</v>
@@ -14474,25 +14474,25 @@
         <v>1.95</v>
       </c>
       <c r="W157">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>0.825</v>
       </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6011965</v>
+        <v>6011959</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M158">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N158">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14779,10 +14779,10 @@
         <v>45165.5</v>
       </c>
       <c r="F161" t="s">
+        <v>36</v>
+      </c>
+      <c r="G161" t="s">
         <v>35</v>
-      </c>
-      <c r="G161" t="s">
-        <v>36</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15138,7 +15138,7 @@
         <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>42</v>
@@ -15583,7 +15583,7 @@
         <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15936,10 +15936,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16025,7 +16025,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16203,10 +16203,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7167383</v>
+        <v>6014967</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,58 +16381,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>45</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N179">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T179">
         <v>3</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,7 +16441,7 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
         <v>-1</v>
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6014967</v>
+        <v>7167383</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,58 +16470,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>45</v>
       </c>
       <c r="K180">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16530,7 +16530,7 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>34</v>
@@ -17271,10 +17271,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17449,7 +17449,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
         <v>33</v>
@@ -17538,10 +17538,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
         <v>40</v>
@@ -17716,7 +17716,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17897,7 +17897,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17986,7 +17986,7 @@
         <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18253,7 +18253,7 @@
         <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18431,7 +18431,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18520,7 +18520,7 @@
         <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18695,7 +18695,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
         <v>33</v>
@@ -18873,10 +18873,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
         <v>37</v>
@@ -19407,7 +19407,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
         <v>40</v>
@@ -19496,7 +19496,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
         <v>39</v>
@@ -19585,7 +19585,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19674,7 +19674,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>44</v>
@@ -19855,7 +19855,7 @@
         <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20211,7 +20211,7 @@
         <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20300,7 +20300,7 @@
         <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H223">
         <v>4</v>
@@ -20389,7 +20389,7 @@
         <v>40</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20478,7 +20478,7 @@
         <v>41</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6014961</v>
+        <v>6010989</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,76 +20564,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H226">
         <v>2</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K226">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
+        <v>2.7</v>
+      </c>
+      <c r="N226">
+        <v>2.2</v>
+      </c>
+      <c r="O226">
+        <v>3.6</v>
+      </c>
+      <c r="P226">
+        <v>3.25</v>
+      </c>
+      <c r="Q226">
+        <v>-0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.9</v>
+      </c>
+      <c r="S226">
+        <v>1.95</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
         <v>2.1</v>
       </c>
-      <c r="N226">
-        <v>3.25</v>
-      </c>
-      <c r="O226">
-        <v>3.5</v>
-      </c>
-      <c r="P226">
-        <v>2.2</v>
-      </c>
-      <c r="Q226">
-        <v>0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.925</v>
-      </c>
-      <c r="S226">
-        <v>1.925</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X226">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.55</v>
+      </c>
+      <c r="AC226">
         <v>-0.5</v>
-      </c>
-      <c r="AB226">
-        <v>0.875</v>
-      </c>
-      <c r="AC226">
-        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6010989</v>
+        <v>6011455</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,7 +20656,7 @@
         <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20668,43 +20668,43 @@
         <v>45</v>
       </c>
       <c r="K227">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
         <v>3.6</v>
       </c>
       <c r="P227">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U227">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20713,16 +20713,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6011455</v>
+        <v>6011647</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,37 +20742,37 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M228">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N228">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P228">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -20787,31 +20787,31 @@
         <v>3</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6011647</v>
+        <v>6011648</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20831,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K229">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L229">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M229">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="N229">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="O229">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X229">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6011648</v>
+        <v>6011649</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,40 +20920,40 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L230">
+        <v>4.333</v>
+      </c>
+      <c r="M230">
+        <v>4.5</v>
+      </c>
+      <c r="N230">
+        <v>1.45</v>
+      </c>
+      <c r="O230">
+        <v>5</v>
+      </c>
+      <c r="P230">
         <v>6.5</v>
       </c>
-      <c r="M230">
-        <v>10</v>
-      </c>
-      <c r="N230">
-        <v>1.142</v>
-      </c>
-      <c r="O230">
-        <v>9</v>
-      </c>
-      <c r="P230">
-        <v>15</v>
-      </c>
       <c r="Q230">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
         <v>1.975</v>
@@ -20965,19 +20965,19 @@
         <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z230">
         <v>-1</v>
@@ -20986,10 +20986,10 @@
         <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6011649</v>
+        <v>6011650</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,55 +21009,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M231">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N231">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O231">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21066,19 +21066,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>5.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC231">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6011650</v>
+        <v>6011675</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,70 +21101,70 @@
         <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L232">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N232">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V232">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC232">
         <v>-1</v>
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6011675</v>
+        <v>6014961</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,73 +21187,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L233">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N233">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="O233">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q233">
+        <v>0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.925</v>
+      </c>
+      <c r="S233">
+        <v>1.925</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.875</v>
+      </c>
+      <c r="V233">
+        <v>1.975</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>2.5</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
+        <v>0.4625</v>
+      </c>
+      <c r="AA233">
         <v>-0.5</v>
       </c>
-      <c r="R233">
-        <v>1.95</v>
-      </c>
-      <c r="S233">
-        <v>1.9</v>
-      </c>
-      <c r="T233">
-        <v>3.25</v>
-      </c>
-      <c r="U233">
-        <v>1.925</v>
-      </c>
-      <c r="V233">
-        <v>1.925</v>
-      </c>
-      <c r="W233">
-        <v>0.909</v>
-      </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>0.95</v>
-      </c>
-      <c r="AA233">
-        <v>-1</v>
-      </c>
       <c r="AB233">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21457,7 +21457,7 @@
         <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21546,7 +21546,7 @@
         <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21635,7 +21635,7 @@
         <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21813,7 +21813,7 @@
         <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -21902,7 +21902,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>1</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -103,13 +103,13 @@
     <t>Norway Division 1</t>
   </si>
   <si>
+    <t>Hodd</t>
+  </si>
+  <si>
     <t>Bryne</t>
   </si>
   <si>
     <t>KFUM</t>
-  </si>
-  <si>
-    <t>Hodd</t>
   </si>
   <si>
     <t>Moss</t>
@@ -121,10 +121,10 @@
     <t>Jerv</t>
   </si>
   <si>
-    <t>Mjondalen</t>
+    <t>Sandnes Ulf</t>
   </si>
   <si>
-    <t>Sandnes Ulf</t>
+    <t>Mjondalen</t>
   </si>
   <si>
     <t>Sogndal</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6011431</v>
+        <v>6010963</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011536</v>
+        <v>6011431</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6010963</v>
+        <v>6011536</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,37 +809,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
         <v>1.825</v>
@@ -848,34 +848,34 @@
         <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6011537</v>
+        <v>6011538</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,16 +1165,16 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.8</v>
@@ -1183,55 +1183,55 @@
         <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
-      </c>
-      <c r="S8">
-        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X8">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6011538</v>
+        <v>6011537</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,16 +1254,16 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1272,55 +1272,55 @@
         <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
         <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2141,7 +2141,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -2408,7 +2408,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2497,7 +2497,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2675,7 +2675,7 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2767,7 +2767,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6010966</v>
+        <v>6011548</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -3046,40 +3046,40 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>4.75</v>
+      </c>
+      <c r="N29">
+        <v>2.2</v>
+      </c>
+      <c r="O29">
         <v>3.75</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.833</v>
-      </c>
-      <c r="O29">
-        <v>3.6</v>
-      </c>
       <c r="P29">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3088,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6011548</v>
+        <v>6010966</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -3135,41 +3135,41 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
         <v>1.85</v>
       </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3177,16 +3177,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6014986</v>
+        <v>6011659</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6011659</v>
+        <v>6014986</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>2.6</v>
+      </c>
+      <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>2.45</v>
+      </c>
+      <c r="N32">
+        <v>2.9</v>
+      </c>
+      <c r="O32">
+        <v>3.4</v>
+      </c>
+      <c r="P32">
+        <v>2.4</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32">
-        <v>1.727</v>
-      </c>
-      <c r="L32">
-        <v>4.2</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>1.7</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
-      <c r="P32">
-        <v>4.5</v>
-      </c>
-      <c r="Q32">
-        <v>-0.75</v>
-      </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X32">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3568,7 +3568,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3921,7 +3921,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>40</v>
@@ -4010,7 +4010,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>39</v>
@@ -4099,7 +4099,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4280,7 +4280,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4636,7 +4636,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011556</v>
+        <v>6010968</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N48">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6010968</v>
+        <v>6011556</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
+        <v>4.333</v>
+      </c>
+      <c r="N49">
+        <v>1.666</v>
+      </c>
+      <c r="O49">
         <v>3.8</v>
       </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="O49">
-        <v>3.4</v>
-      </c>
       <c r="P49">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45058.5</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011559</v>
+        <v>6011558</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L51">
         <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
         <v>3</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011560</v>
+        <v>6011559</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011561</v>
+        <v>6011560</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,55 +5167,55 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O53">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5224,16 +5224,16 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011660</v>
+        <v>6011561</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
         <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
         <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z54">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6014983</v>
+        <v>6011660</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,10 +5345,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5360,61 +5360,61 @@
         <v>46</v>
       </c>
       <c r="K55">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
+        <v>3.5</v>
+      </c>
+      <c r="M55">
+        <v>2.75</v>
+      </c>
+      <c r="N55">
+        <v>3.2</v>
+      </c>
+      <c r="O55">
         <v>3.6</v>
       </c>
-      <c r="M55">
-        <v>3.4</v>
-      </c>
-      <c r="N55">
+      <c r="P55">
         <v>2.15</v>
       </c>
-      <c r="O55">
-        <v>3.3</v>
-      </c>
-      <c r="P55">
-        <v>3.4</v>
-      </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>0.5</v>
+      </c>
+      <c r="AA55">
         <v>-0.5</v>
       </c>
-      <c r="AA55">
-        <v>0.5</v>
-      </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011558</v>
+        <v>6014983</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
         <v>3.4</v>
       </c>
-      <c r="M56">
-        <v>2.6</v>
-      </c>
       <c r="N56">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>1.85</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.925</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.925</v>
       </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
-      <c r="U56">
-        <v>1.875</v>
-      </c>
-      <c r="V56">
-        <v>1.975</v>
-      </c>
       <c r="W56">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,10 +5523,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011563</v>
+        <v>6011564</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s">
         <v>35</v>
-      </c>
-      <c r="G60" t="s">
-        <v>41</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>1.7</v>
+      </c>
+      <c r="O60">
+        <v>4.2</v>
+      </c>
+      <c r="P60">
+        <v>4.333</v>
+      </c>
+      <c r="Q60">
+        <v>-0.75</v>
+      </c>
+      <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>3.25</v>
+      </c>
+      <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
+        <v>1.875</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
         <v>3.2</v>
       </c>
-      <c r="N60">
-        <v>2.875</v>
-      </c>
-      <c r="O60">
-        <v>3.4</v>
-      </c>
-      <c r="P60">
-        <v>2.5</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>2.025</v>
-      </c>
-      <c r="S60">
-        <v>1.825</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
-      <c r="U60">
-        <v>2.025</v>
-      </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
-      <c r="W60">
-        <v>1.875</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011564</v>
+        <v>6011438</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011438</v>
+        <v>6011562</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>2.05</v>
+      </c>
+      <c r="O62">
         <v>3.5</v>
       </c>
-      <c r="M62">
-        <v>2.7</v>
-      </c>
-      <c r="N62">
-        <v>2.15</v>
-      </c>
-      <c r="O62">
+      <c r="P62">
         <v>3.6</v>
       </c>
-      <c r="P62">
-        <v>3.25</v>
-      </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6011562</v>
+        <v>6011563</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>45</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>2.025</v>
@@ -6099,7 +6099,7 @@
         <v>1.825</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
         <v>2.025</v>
@@ -6108,7 +6108,7 @@
         <v>1.825</v>
       </c>
       <c r="W63">
-        <v>1.05</v>
+        <v>1.875</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,10 +6123,10 @@
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6324,10 +6324,10 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>45067.5</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6594,7 +6594,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011568</v>
+        <v>6011566</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,40 +6680,40 @@
         <v>45067.5</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
         <v>3.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N70">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6722,34 +6722,34 @@
         <v>1.85</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB70">
         <v>0.5</v>
       </c>
-      <c r="AA70">
+      <c r="AC70">
         <v>-0.5</v>
-      </c>
-      <c r="AB70">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6011566</v>
+        <v>6011568</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,40 +6769,40 @@
         <v>45067.5</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N71">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6811,34 +6811,34 @@
         <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y71">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA71">
+        <v>-0.5</v>
+      </c>
+      <c r="AB71">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB71">
-        <v>0.5</v>
-      </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>45067.5</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -7036,10 +7036,10 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
         <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7392,10 +7392,10 @@
         <v>45075.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6011575</v>
+        <v>6011574</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
         <v>3.6</v>
       </c>
-      <c r="P82">
-        <v>2.5</v>
-      </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6011574</v>
+        <v>6011573</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N83">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
         <v>1.9</v>
       </c>
-      <c r="S83">
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="T83">
-        <v>3.25</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6011441</v>
+        <v>6010972</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,49 +7926,49 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
+        <v>3.3</v>
+      </c>
+      <c r="M84">
+        <v>3.2</v>
+      </c>
+      <c r="N84">
+        <v>2.2</v>
+      </c>
+      <c r="O84">
         <v>3.4</v>
       </c>
-      <c r="M84">
-        <v>2.8</v>
-      </c>
-      <c r="N84">
-        <v>1.85</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
       <c r="P84">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
         <v>2.05</v>
@@ -7977,25 +7977,25 @@
         <v>1.8</v>
       </c>
       <c r="W84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6011573</v>
+        <v>6011441</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
         <v>3.4</v>
       </c>
       <c r="M85">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N85">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6011942</v>
+        <v>6011575</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,40 +8104,40 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O86">
         <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>2.025</v>
@@ -8149,31 +8149,31 @@
         <v>3</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6014979</v>
+        <v>6011942</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8193,58 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>2.025</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
-      </c>
-      <c r="S87">
-        <v>2.025</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6010972</v>
+        <v>6014979</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
         <v>1.875</v>
       </c>
-      <c r="S88">
-        <v>1.975</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>2.05</v>
-      </c>
-      <c r="V88">
-        <v>1.8</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -8638,7 +8638,7 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -8730,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8994,7 +8994,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -9083,10 +9083,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9350,10 +9350,10 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6011583</v>
+        <v>6011943</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6011584</v>
+        <v>6011583</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9659,19 +9659,19 @@
         <v>1.975</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9683,10 +9683,10 @@
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6011943</v>
+        <v>6011584</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9973,7 +9973,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -10065,7 +10065,7 @@
         <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>43</v>
@@ -10329,7 +10329,7 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6010976</v>
+        <v>6011665</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J114" t="s">
         <v>47</v>
       </c>
       <c r="K114">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L114">
+        <v>3.75</v>
+      </c>
+      <c r="M114">
+        <v>3.4</v>
+      </c>
+      <c r="N114">
+        <v>2.1</v>
+      </c>
+      <c r="O114">
+        <v>3.75</v>
+      </c>
+      <c r="P114">
         <v>3.3</v>
       </c>
-      <c r="M114">
-        <v>2.2</v>
-      </c>
-      <c r="N114">
-        <v>4</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
-      <c r="P114">
-        <v>1.909</v>
-      </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6011665</v>
+        <v>6011588</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,73 +10685,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
         <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6011588</v>
+        <v>6010976</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N116">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>1</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6014975</v>
+        <v>6011592</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
+        <v>1.975</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
         <v>2.025</v>
       </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.95</v>
-      </c>
       <c r="W120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>1.025</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6011592</v>
+        <v>6014975</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
+        <v>3.5</v>
+      </c>
+      <c r="M121">
         <v>3.6</v>
       </c>
-      <c r="M121">
-        <v>3.75</v>
-      </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11575,10 +11575,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -11753,7 +11753,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11842,7 +11842,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>43</v>
@@ -11931,7 +11931,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011601</v>
+        <v>6011598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130">
+        <v>2.8</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>2.2</v>
+      </c>
+      <c r="N130">
+        <v>3.3</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>2.1</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
+        <v>1.875</v>
+      </c>
+      <c r="T130">
         <v>3</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" t="s">
-        <v>45</v>
-      </c>
-      <c r="K130">
-        <v>1.666</v>
-      </c>
-      <c r="L130">
-        <v>4</v>
-      </c>
-      <c r="M130">
-        <v>4</v>
-      </c>
-      <c r="N130">
-        <v>1.45</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
-      <c r="P130">
-        <v>6.5</v>
-      </c>
-      <c r="Q130">
-        <v>-1.25</v>
-      </c>
-      <c r="R130">
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>3.5</v>
-      </c>
-      <c r="U130">
-        <v>2</v>
-      </c>
-      <c r="V130">
-        <v>1.85</v>
-      </c>
       <c r="W130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011598</v>
+        <v>6011601</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132">
+        <v>1.666</v>
+      </c>
+      <c r="L132">
         <v>4</v>
       </c>
-      <c r="J132" t="s">
-        <v>47</v>
-      </c>
-      <c r="K132">
-        <v>2.8</v>
-      </c>
-      <c r="L132">
-        <v>3.4</v>
-      </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6014973</v>
+        <v>6011602</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>45</v>
+      </c>
+      <c r="K134">
+        <v>1.95</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>3.2</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>3.5</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
         <v>1</v>
       </c>
-      <c r="J134" t="s">
-        <v>47</v>
-      </c>
-      <c r="K134">
-        <v>2.55</v>
-      </c>
-      <c r="L134">
-        <v>3.4</v>
-      </c>
-      <c r="M134">
-        <v>2.45</v>
-      </c>
-      <c r="N134">
-        <v>3.1</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>2.25</v>
-      </c>
-      <c r="Q134">
-        <v>0.25</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.925</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6011602</v>
+        <v>6014973</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
+        <v>2.55</v>
+      </c>
+      <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>2.45</v>
+      </c>
+      <c r="N135">
+        <v>3.1</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
+        <v>2.25</v>
+      </c>
+      <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
         <v>1.95</v>
       </c>
-      <c r="L135">
-        <v>3.5</v>
-      </c>
-      <c r="M135">
-        <v>3.2</v>
-      </c>
-      <c r="N135">
-        <v>2</v>
-      </c>
-      <c r="O135">
-        <v>3.75</v>
-      </c>
-      <c r="P135">
-        <v>3.5</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>2</v>
-      </c>
-      <c r="S135">
-        <v>1.85</v>
-      </c>
-      <c r="T135">
-        <v>3.25</v>
-      </c>
-      <c r="U135">
-        <v>1.925</v>
-      </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>45151.5</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
@@ -12732,7 +12732,7 @@
         <v>45151.5</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12821,7 +12821,7 @@
         <v>45151.5</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13088,10 +13088,10 @@
         <v>45151.5</v>
       </c>
       <c r="F142" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
         <v>29</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13266,7 +13266,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
         <v>44</v>
@@ -13358,7 +13358,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -13625,7 +13625,7 @@
         <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6014970</v>
+        <v>6010981</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,40 +13978,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
         <v>29</v>
       </c>
-      <c r="G152" t="s">
-        <v>32</v>
-      </c>
       <c r="H152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M152">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N152">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
         <v>1.825</v>
@@ -14023,31 +14023,31 @@
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6010981</v>
+        <v>6011609</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,40 +14067,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N153">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
         <v>1.825</v>
@@ -14109,34 +14109,34 @@
         <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6011609</v>
+        <v>6011610</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,34 +14156,34 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N154">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P154">
         <v>2.375</v>
@@ -14192,40 +14192,40 @@
         <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
         <v>3.25</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6011610</v>
+        <v>6011608</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,55 +14245,55 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>47</v>
       </c>
       <c r="K155">
+        <v>2.55</v>
+      </c>
+      <c r="L155">
+        <v>3.25</v>
+      </c>
+      <c r="M155">
+        <v>2.75</v>
+      </c>
+      <c r="N155">
         <v>2.6</v>
       </c>
-      <c r="L155">
-        <v>3.6</v>
-      </c>
-      <c r="M155">
+      <c r="O155">
+        <v>3.25</v>
+      </c>
+      <c r="P155">
+        <v>2.7</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>1.9</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
         <v>2.5</v>
       </c>
-      <c r="N155">
-        <v>2.8</v>
-      </c>
-      <c r="O155">
-        <v>3.75</v>
-      </c>
-      <c r="P155">
-        <v>2.375</v>
-      </c>
-      <c r="Q155">
-        <v>0.25</v>
-      </c>
-      <c r="R155">
-        <v>1.75</v>
-      </c>
-      <c r="S155">
-        <v>2.05</v>
-      </c>
-      <c r="T155">
-        <v>3.25</v>
-      </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14302,19 +14302,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6011608</v>
+        <v>6011611</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M156">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q156">
+        <v>-1</v>
+      </c>
+      <c r="R156">
+        <v>2.025</v>
+      </c>
+      <c r="S156">
+        <v>1.825</v>
+      </c>
+      <c r="T156">
+        <v>3.5</v>
+      </c>
+      <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
+        <v>1.875</v>
+      </c>
+      <c r="W156">
+        <v>0.615</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
         <v>0</v>
       </c>
-      <c r="R156">
-        <v>1.9</v>
-      </c>
-      <c r="S156">
-        <v>1.95</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>2</v>
-      </c>
-      <c r="V156">
-        <v>1.85</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>1.7</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6011959</v>
+        <v>6014970</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,73 +14512,73 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O158">
+        <v>3.6</v>
+      </c>
+      <c r="P158">
         <v>3.4</v>
-      </c>
-      <c r="P158">
-        <v>3.1</v>
       </c>
       <c r="Q158">
         <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011611</v>
+        <v>6011959</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14779,10 +14779,10 @@
         <v>45165.5</v>
       </c>
       <c r="F161" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" t="s">
         <v>36</v>
-      </c>
-      <c r="G161" t="s">
-        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15138,7 +15138,7 @@
         <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
         <v>42</v>
@@ -15583,7 +15583,7 @@
         <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15936,10 +15936,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16025,7 +16025,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16203,10 +16203,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6014967</v>
+        <v>7167383</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,58 +16381,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>45</v>
       </c>
       <c r="K179">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>3</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,7 +16441,7 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7167383</v>
+        <v>6014967</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,58 +16470,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>45</v>
       </c>
       <c r="K180">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16530,7 +16530,7 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
         <v>34</v>
@@ -17271,10 +17271,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17449,7 +17449,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
         <v>33</v>
@@ -17538,10 +17538,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>40</v>
@@ -17716,7 +17716,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17897,7 +17897,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17986,7 +17986,7 @@
         <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18253,7 +18253,7 @@
         <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18431,7 +18431,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18520,7 +18520,7 @@
         <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18695,7 +18695,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
         <v>33</v>
@@ -18873,10 +18873,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" t="s">
         <v>30</v>
-      </c>
-      <c r="G207" t="s">
-        <v>29</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
         <v>37</v>
@@ -19407,7 +19407,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
         <v>40</v>
@@ -19496,7 +19496,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
         <v>39</v>
@@ -19585,7 +19585,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19674,7 +19674,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>44</v>
@@ -19855,7 +19855,7 @@
         <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20211,7 +20211,7 @@
         <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20300,7 +20300,7 @@
         <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H223">
         <v>4</v>
@@ -20389,7 +20389,7 @@
         <v>40</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20478,7 +20478,7 @@
         <v>41</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20564,7 +20564,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
@@ -20653,7 +20653,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -20831,7 +20831,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
         <v>44</v>
@@ -21009,7 +21009,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
         <v>42</v>
@@ -21098,7 +21098,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
         <v>38</v>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6010990</v>
+        <v>6011651</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L236">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
+        <v>2.5</v>
+      </c>
+      <c r="N236">
+        <v>3.1</v>
+      </c>
+      <c r="O236">
+        <v>3.8</v>
+      </c>
+      <c r="P236">
         <v>2.15</v>
       </c>
-      <c r="N236">
-        <v>4.75</v>
-      </c>
-      <c r="O236">
-        <v>4.333</v>
-      </c>
-      <c r="P236">
-        <v>1.615</v>
-      </c>
       <c r="Q236">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>3</v>
       </c>
       <c r="U236">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V236">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6011651</v>
+        <v>6011652</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,49 +21543,49 @@
         <v>45242.4375</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
         <v>0</v>
       </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M237">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="O237">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U237">
         <v>2.025</v>
@@ -21594,19 +21594,19 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6011652</v>
+        <v>6011676</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,13 +21632,13 @@
         <v>45242.4375</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21647,43 +21647,43 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O238">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q238">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
+        <v>2.05</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
         <v>1.85</v>
       </c>
-      <c r="T238">
-        <v>3.5</v>
-      </c>
-      <c r="U238">
-        <v>2.025</v>
-      </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>-0</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>1</v>
-      </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
-      <c r="AC238">
-        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6011676</v>
+        <v>6011968</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
         <v>1.55</v>
       </c>
       <c r="L239">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M239">
+        <v>4.75</v>
+      </c>
+      <c r="N239">
+        <v>1.4</v>
+      </c>
+      <c r="O239">
         <v>5</v>
       </c>
-      <c r="N239">
-        <v>1.533</v>
-      </c>
-      <c r="O239">
-        <v>4.333</v>
-      </c>
       <c r="P239">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S239">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W239">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6011968</v>
+        <v>6011949</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,10 +21810,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -21825,46 +21825,46 @@
         <v>46</v>
       </c>
       <c r="K240">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L240">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M240">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N240">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O240">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P240">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T240">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V240">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Y240">
         <v>-1</v>
@@ -21873,13 +21873,13 @@
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6011949</v>
+        <v>6010990</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,55 +21899,55 @@
         <v>45242.4375</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>46</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L241">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N241">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="O241">
         <v>4.333</v>
       </c>
       <c r="P241">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21959,16 +21959,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA241">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011547</v>
+        <v>6011434</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,34 +2764,34 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1.8</v>
+      </c>
+      <c r="L26">
+        <v>3.75</v>
+      </c>
+      <c r="M26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>1.7</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>4.333</v>
-      </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
         <v>3.5</v>
@@ -2800,37 +2800,37 @@
         <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y26">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011434</v>
+        <v>6011547</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,34 +2853,34 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27">
+        <v>4.333</v>
+      </c>
+      <c r="N27">
+        <v>1.909</v>
+      </c>
+      <c r="O27">
         <v>4</v>
-      </c>
-      <c r="N27">
-        <v>2.05</v>
-      </c>
-      <c r="O27">
-        <v>3.8</v>
       </c>
       <c r="P27">
         <v>3.5</v>
@@ -2889,37 +2889,37 @@
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011553</v>
+        <v>6014985</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2.15</v>
+      </c>
+      <c r="V36">
+        <v>1.725</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
         <v>2.75</v>
       </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
       <c r="Y36">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB36">
-        <v>0.4875</v>
+        <v>1.15</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6014985</v>
+        <v>6011553</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
+        <v>2.025</v>
+      </c>
+      <c r="S37">
+        <v>1.825</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.975</v>
+      </c>
+      <c r="V37">
         <v>1.875</v>
       </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>2.15</v>
-      </c>
-      <c r="V37">
-        <v>1.725</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.825</v>
+      </c>
+      <c r="AB37">
+        <v>0.4875</v>
+      </c>
+      <c r="AC37">
         <v>-0.5</v>
-      </c>
-      <c r="AA37">
-        <v>0.4875</v>
-      </c>
-      <c r="AB37">
-        <v>1.15</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011435</v>
+        <v>6011551</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L38">
+        <v>3.75</v>
+      </c>
+      <c r="M38">
         <v>3.5</v>
       </c>
-      <c r="M38">
-        <v>2.5</v>
-      </c>
       <c r="N38">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011550</v>
+        <v>6011435</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
+        <v>1.8</v>
+      </c>
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>1.875</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.875</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.9</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011551</v>
+        <v>6011550</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>2.4</v>
+      </c>
+      <c r="N40">
+        <v>2.2</v>
+      </c>
+      <c r="O40">
         <v>3.75</v>
       </c>
-      <c r="M40">
-        <v>3.5</v>
-      </c>
-      <c r="N40">
-        <v>1.65</v>
-      </c>
-      <c r="O40">
-        <v>4.75</v>
-      </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011558</v>
+        <v>6014983</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
+        <v>3.6</v>
+      </c>
+      <c r="M51">
         <v>3.4</v>
       </c>
-      <c r="M51">
-        <v>2.6</v>
-      </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
         <v>-0.25</v>
       </c>
       <c r="R51">
+        <v>1.85</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
         <v>1.925</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.875</v>
-      </c>
-      <c r="V51">
-        <v>1.975</v>
-      </c>
       <c r="W51">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011559</v>
+        <v>6011558</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
         <v>3</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011560</v>
+        <v>6011559</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N53">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011561</v>
+        <v>6011560</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,55 +5256,55 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
         <v>47</v>
       </c>
       <c r="K54">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
         <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N54">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5313,16 +5313,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011437</v>
+        <v>6011561</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,73 +5345,73 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
         <v>3.75</v>
       </c>
       <c r="P55">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
+        <v>1.875</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
         <v>2.025</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
-      <c r="V55">
-        <v>2.025</v>
-      </c>
       <c r="W55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z55">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011660</v>
+        <v>6011437</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L56">
         <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA56">
         <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6014983</v>
+        <v>6011660</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,10 +5523,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5538,61 +5538,61 @@
         <v>45</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L57">
+        <v>3.5</v>
+      </c>
+      <c r="M57">
+        <v>2.75</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
         <v>3.6</v>
       </c>
-      <c r="M57">
-        <v>3.4</v>
-      </c>
-      <c r="N57">
+      <c r="P57">
         <v>2.15</v>
       </c>
-      <c r="O57">
-        <v>3.3</v>
-      </c>
-      <c r="P57">
-        <v>3.4</v>
-      </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>0.5</v>
+      </c>
+      <c r="AA57">
         <v>-0.5</v>
       </c>
-      <c r="AA57">
-        <v>0.5</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6010974</v>
+        <v>6011663</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,34 +9261,34 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
         <v>3.25</v>
@@ -9297,19 +9297,19 @@
         <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
         <v>2.025</v>
       </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9324,13 +9324,13 @@
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6011663</v>
+        <v>6010974</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,34 +9350,34 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
         <v>3.25</v>
@@ -9386,19 +9386,19 @@
         <v>-0.25</v>
       </c>
       <c r="R100">
+        <v>2.025</v>
+      </c>
+      <c r="S100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9413,13 +9413,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6011944</v>
+        <v>6010975</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,58 +10151,58 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>46</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="N109">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P109">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10211,13 +10211,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6010975</v>
+        <v>6011944</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,58 +10240,58 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>46</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="N110">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10300,13 +10300,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6014975</v>
+        <v>6011590</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6011592</v>
+        <v>6014975</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
         <v>3.6</v>
       </c>
-      <c r="M120">
-        <v>3.75</v>
-      </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6011590</v>
+        <v>6011592</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011602</v>
+        <v>6011445</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,73 +12020,73 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>46</v>
       </c>
       <c r="K130">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
+        <v>1.875</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="T130">
-        <v>3.25</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
       <c r="W130">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>-0</v>
+      </c>
+      <c r="AB130">
         <v>1</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>1</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>0.925</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011601</v>
+        <v>6011602</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,58 +12109,58 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>46</v>
       </c>
       <c r="K131">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011599</v>
+        <v>6011601</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="O132">
+        <v>4.75</v>
+      </c>
+      <c r="P132">
+        <v>6.5</v>
+      </c>
+      <c r="Q132">
+        <v>-1.25</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
         <v>3.5</v>
       </c>
-      <c r="P132">
-        <v>3.5</v>
-      </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.8</v>
-      </c>
-      <c r="S132">
-        <v>2.05</v>
-      </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
       <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>2</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC132">
-        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6011598</v>
+        <v>6011599</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,55 +12287,55 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>47</v>
       </c>
       <c r="K133">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
         <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12344,16 +12344,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6011445</v>
+        <v>6011598</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,40 +12376,40 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
         <v>1.975</v>
@@ -12418,31 +12418,31 @@
         <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6011604</v>
+        <v>6011603</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45151.5</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="N136">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6011603</v>
+        <v>6010979</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,13 +12643,13 @@
         <v>45151.5</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12658,43 +12658,43 @@
         <v>46</v>
       </c>
       <c r="K137">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
+        <v>1.975</v>
+      </c>
+      <c r="S137">
+        <v>1.875</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.8</v>
+      </c>
+      <c r="V137">
         <v>2.05</v>
       </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
-      </c>
-      <c r="U137">
-        <v>1.975</v>
-      </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
       <c r="W137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,13 +12703,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6010979</v>
+        <v>6011604</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45151.5</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
         <v>3.4</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
+        <v>0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.875</v>
+      </c>
+      <c r="V138">
+        <v>1.975</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>1.3</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>1.025</v>
+      </c>
+      <c r="AB138">
+        <v>0.4375</v>
+      </c>
+      <c r="AC138">
         <v>-0.5</v>
-      </c>
-      <c r="R138">
-        <v>1.975</v>
-      </c>
-      <c r="S138">
-        <v>1.875</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.8</v>
-      </c>
-      <c r="V138">
-        <v>2.05</v>
-      </c>
-      <c r="W138">
-        <v>1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>-1</v>
-      </c>
-      <c r="Z138">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>0.8</v>
-      </c>
-      <c r="AC138">
-        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6011669</v>
+        <v>6011607</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,73 +13266,73 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
+        <v>2.3</v>
+      </c>
+      <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
+        <v>2.2</v>
+      </c>
+      <c r="O144">
+        <v>3.5</v>
+      </c>
+      <c r="P144">
+        <v>3.25</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="L144">
-        <v>3.5</v>
-      </c>
-      <c r="M144">
-        <v>2.2</v>
-      </c>
-      <c r="N144">
-        <v>3.75</v>
-      </c>
-      <c r="O144">
-        <v>3.6</v>
-      </c>
-      <c r="P144">
-        <v>2</v>
-      </c>
-      <c r="Q144">
-        <v>0.5</v>
-      </c>
-      <c r="R144">
+      <c r="U144">
         <v>1.875</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.8</v>
-      </c>
-      <c r="V144">
-        <v>2.05</v>
-      </c>
       <c r="W144">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>-0.5</v>
+      </c>
+      <c r="AA144">
+        <v>0.475</v>
+      </c>
+      <c r="AB144">
         <v>0.875</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6011607</v>
+        <v>6010980</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,49 +13355,49 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
         <v>1.9</v>
       </c>
-      <c r="S145">
-        <v>1.95</v>
-      </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
         <v>1.875</v>
@@ -13406,25 +13406,25 @@
         <v>1.975</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA145">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6010980</v>
+        <v>6011958</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,40 +13444,40 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
+        <v>2.1</v>
+      </c>
+      <c r="L146">
+        <v>3.5</v>
+      </c>
+      <c r="M146">
+        <v>3.3</v>
+      </c>
+      <c r="N146">
         <v>2.2</v>
       </c>
-      <c r="L146">
-        <v>3.3</v>
-      </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>1.7</v>
-      </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P146">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
         <v>1.95</v>
@@ -13486,7 +13486,7 @@
         <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
         <v>1.875</v>
@@ -13495,19 +13495,19 @@
         <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6011958</v>
+        <v>6011669</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L147">
         <v>3.5</v>
       </c>
       <c r="M147">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6011610</v>
+        <v>6011611</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N155">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O155">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S155">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6011611</v>
+        <v>6011610</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N156">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6014970</v>
+        <v>6011608</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157">
+        <v>2.55</v>
+      </c>
+      <c r="L157">
+        <v>3.25</v>
+      </c>
+      <c r="M157">
+        <v>2.75</v>
+      </c>
+      <c r="N157">
+        <v>2.6</v>
+      </c>
+      <c r="O157">
+        <v>3.25</v>
+      </c>
+      <c r="P157">
+        <v>2.7</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
+        <v>1.85</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>1.7</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
+        <v>0.95</v>
+      </c>
+      <c r="AB157">
         <v>1</v>
-      </c>
-      <c r="J157" t="s">
-        <v>46</v>
-      </c>
-      <c r="K157">
-        <v>2.25</v>
-      </c>
-      <c r="L157">
-        <v>3.4</v>
-      </c>
-      <c r="M157">
-        <v>3.1</v>
-      </c>
-      <c r="N157">
-        <v>2.05</v>
-      </c>
-      <c r="O157">
-        <v>3.6</v>
-      </c>
-      <c r="P157">
-        <v>3.4</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.825</v>
-      </c>
-      <c r="S157">
-        <v>2.025</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
-      <c r="W157">
-        <v>1.05</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.825</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6011959</v>
+        <v>6014970</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,73 +14512,73 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O158">
+        <v>3.6</v>
+      </c>
+      <c r="P158">
         <v>3.4</v>
-      </c>
-      <c r="P158">
-        <v>3.1</v>
       </c>
       <c r="Q158">
         <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011608</v>
+        <v>6011959</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,73 +14601,73 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M159">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N159">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6014968</v>
+        <v>6011448</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O172">
+        <v>3.75</v>
+      </c>
+      <c r="P172">
         <v>3.6</v>
-      </c>
-      <c r="P172">
-        <v>4</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X172">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6011448</v>
+        <v>6011618</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
         <v>2.025</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
       <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.9</v>
+      </c>
+      <c r="V173">
+        <v>1.95</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
         <v>2.75</v>
       </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
-      <c r="V173">
-        <v>2.025</v>
-      </c>
-      <c r="W173">
-        <v>0.95</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6011618</v>
+        <v>6011945</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,73 +15936,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O174">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P174">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>2.025</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>3.25</v>
+      </c>
+      <c r="U174">
+        <v>1.925</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
         <v>0.5</v>
       </c>
-      <c r="R174">
-        <v>1.825</v>
-      </c>
-      <c r="S174">
-        <v>2.025</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.95</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
       <c r="X174">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6011945</v>
+        <v>6014968</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K175">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N175">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O175">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6011947</v>
+        <v>6014966</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L190">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M190">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N190">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
+        <v>2.025</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
         <v>3</v>
       </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
-      <c r="W190">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6014966</v>
+        <v>6011947</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L191">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M191">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N191">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X191">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6011638</v>
+        <v>6011639</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="N206">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
         <v>2.05</v>
       </c>
-      <c r="S206">
-        <v>1.75</v>
-      </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
         <v>1.05</v>
       </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
       <c r="AB206">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6011639</v>
+        <v>6011638</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,76 +18873,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L207">
         <v>3.6</v>
       </c>
       <c r="M207">
+        <v>3.3</v>
+      </c>
+      <c r="N207">
+        <v>2.4</v>
+      </c>
+      <c r="O207">
+        <v>3.6</v>
+      </c>
+      <c r="P207">
+        <v>2.7</v>
+      </c>
+      <c r="Q207">
+        <v>-0.25</v>
+      </c>
+      <c r="R207">
+        <v>2.05</v>
+      </c>
+      <c r="S207">
+        <v>1.75</v>
+      </c>
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>1.9</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="N207">
-        <v>3.6</v>
-      </c>
-      <c r="O207">
-        <v>3.5</v>
-      </c>
-      <c r="P207">
-        <v>2.05</v>
-      </c>
-      <c r="Q207">
-        <v>0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.8</v>
-      </c>
-      <c r="S207">
-        <v>2.05</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>1.975</v>
-      </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
         <v>1.05</v>
       </c>
-      <c r="Z207">
-        <v>-1</v>
-      </c>
       <c r="AA207">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6010987</v>
+        <v>6011640</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19407,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K213">
         <v>2.875</v>
       </c>
       <c r="L213">
+        <v>3.75</v>
+      </c>
+      <c r="M213">
+        <v>2.2</v>
+      </c>
+      <c r="N213">
         <v>3.5</v>
       </c>
-      <c r="M213">
-        <v>2.3</v>
-      </c>
-      <c r="N213">
-        <v>2.55</v>
-      </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>1.15</v>
       </c>
       <c r="AB213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6011640</v>
+        <v>6010987</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,76 +19496,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K214">
         <v>2.875</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="O214">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S214">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>1.15</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6011454</v>
+        <v>6010988</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,40 +20119,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>47</v>
+      </c>
+      <c r="K221">
+        <v>2.15</v>
+      </c>
+      <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>2.9</v>
+      </c>
+      <c r="N221">
+        <v>2.625</v>
+      </c>
+      <c r="O221">
+        <v>3.4</v>
+      </c>
+      <c r="P221">
+        <v>2.6</v>
+      </c>
+      <c r="Q221">
         <v>0</v>
-      </c>
-      <c r="J221" t="s">
-        <v>46</v>
-      </c>
-      <c r="K221">
-        <v>1.85</v>
-      </c>
-      <c r="L221">
-        <v>3.75</v>
-      </c>
-      <c r="M221">
-        <v>3.6</v>
-      </c>
-      <c r="N221">
-        <v>1.909</v>
-      </c>
-      <c r="O221">
-        <v>3.75</v>
-      </c>
-      <c r="P221">
-        <v>3.8</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
       </c>
       <c r="R221">
         <v>1.925</v>
@@ -20161,34 +20161,34 @@
         <v>1.925</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
         <v>0.925</v>
       </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6011644</v>
+        <v>6011454</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,13 +20208,13 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -20223,43 +20223,43 @@
         <v>46</v>
       </c>
       <c r="K222">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L222">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O222">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
+        <v>1.925</v>
+      </c>
+      <c r="S222">
+        <v>1.925</v>
+      </c>
+      <c r="T222">
+        <v>2.75</v>
+      </c>
+      <c r="U222">
         <v>1.8</v>
       </c>
-      <c r="S222">
+      <c r="V222">
         <v>2.05</v>
       </c>
-      <c r="T222">
-        <v>3.25</v>
-      </c>
-      <c r="U222">
-        <v>2.05</v>
-      </c>
-      <c r="V222">
-        <v>1.8</v>
-      </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20268,16 +20268,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
         <v>1.05</v>
-      </c>
-      <c r="AC222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6010988</v>
+        <v>6011644</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H223">
+        <v>4</v>
+      </c>
+      <c r="I223">
         <v>0</v>
       </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N223">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O223">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P223">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC223">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6011676</v>
+        <v>6011949</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K234">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L234">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N234">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O234">
         <v>4.333</v>
       </c>
       <c r="P234">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q234">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
         <v>3</v>
       </c>
       <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.85</v>
       </c>
-      <c r="V234">
-        <v>2</v>
-      </c>
       <c r="W234">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6011949</v>
+        <v>6011652</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>46</v>
+      </c>
+      <c r="K235">
+        <v>1.75</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>4</v>
+      </c>
+      <c r="N235">
+        <v>1.363</v>
+      </c>
+      <c r="O235">
+        <v>5.5</v>
+      </c>
+      <c r="P235">
+        <v>7</v>
+      </c>
+      <c r="Q235">
+        <v>-1.5</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>1.85</v>
+      </c>
+      <c r="T235">
+        <v>3.5</v>
+      </c>
+      <c r="U235">
+        <v>2.025</v>
+      </c>
+      <c r="V235">
+        <v>1.825</v>
+      </c>
+      <c r="W235">
+        <v>0.363</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
         <v>1</v>
       </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
-      <c r="J235" t="s">
-        <v>45</v>
-      </c>
-      <c r="K235">
-        <v>2.2</v>
-      </c>
-      <c r="L235">
-        <v>3.6</v>
-      </c>
-      <c r="M235">
-        <v>2.875</v>
-      </c>
-      <c r="N235">
-        <v>1.727</v>
-      </c>
-      <c r="O235">
-        <v>4.333</v>
-      </c>
-      <c r="P235">
-        <v>4.333</v>
-      </c>
-      <c r="Q235">
-        <v>-0.75</v>
-      </c>
-      <c r="R235">
-        <v>1.9</v>
-      </c>
-      <c r="S235">
-        <v>1.95</v>
-      </c>
-      <c r="T235">
-        <v>3</v>
-      </c>
-      <c r="U235">
-        <v>2</v>
-      </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
-      <c r="W235">
-        <v>-1</v>
-      </c>
-      <c r="X235">
-        <v>3.333</v>
-      </c>
-      <c r="Y235">
-        <v>-1</v>
-      </c>
-      <c r="Z235">
-        <v>-1</v>
-      </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6011652</v>
+        <v>6011676</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,13 +21454,13 @@
         <v>45242.4375</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21469,43 +21469,43 @@
         <v>46</v>
       </c>
       <c r="K236">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O236">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P236">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q236">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
         <v>1.85</v>
       </c>
-      <c r="T236">
-        <v>3.5</v>
-      </c>
-      <c r="U236">
-        <v>2.025</v>
-      </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W236">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>-0</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>1</v>
-      </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-      <c r="AC236">
-        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -121,19 +121,19 @@
     <t>Raufoss</t>
   </si>
   <si>
+    <t>Hodd</t>
+  </si>
+  <si>
     <t>Skeid</t>
   </si>
   <si>
-    <t>Hodd</t>
+    <t>Jerv</t>
   </si>
   <si>
     <t>Mjondalen</t>
   </si>
   <si>
     <t>Kristiansund BK</t>
-  </si>
-  <si>
-    <t>Jerv</t>
   </si>
   <si>
     <t>Kongsvinger</t>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6011441</v>
+        <v>6010972</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,46 +1183,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>3.2</v>
+      </c>
+      <c r="N8">
+        <v>2.2</v>
+      </c>
+      <c r="O8">
         <v>3.4</v>
       </c>
-      <c r="M8">
-        <v>2.8</v>
-      </c>
-      <c r="N8">
-        <v>1.85</v>
-      </c>
-      <c r="O8">
-        <v>3.75</v>
-      </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
         <v>2.05</v>
@@ -1231,25 +1231,25 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6010972</v>
+        <v>6011441</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,46 +1272,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>2.05</v>
@@ -1320,25 +1320,25 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6011576</v>
+        <v>6011577</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
         <v>2.15</v>
       </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6014978</v>
+        <v>6011576</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6011577</v>
+        <v>6014978</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,55 +1539,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1596,16 +1596,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1625,7 +1625,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1806,7 +1806,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2429,7 +2429,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2960,7 +2960,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3049,10 +3049,10 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3138,7 +3138,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3497,7 +3497,7 @@
         <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3586,7 +3586,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3675,7 +3675,7 @@
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -3761,7 +3761,7 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011590</v>
+        <v>6011592</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,76 +3939,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>53</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011592</v>
+        <v>6011590</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,76 +4028,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>53</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
+        <v>2.2</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>3.4</v>
+      </c>
+      <c r="Q40">
+        <v>-0.25</v>
+      </c>
+      <c r="R40">
         <v>1.85</v>
       </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>3.75</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.85</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>2.4</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>-0.5</v>
       </c>
-      <c r="R40">
-        <v>1.875</v>
-      </c>
-      <c r="S40">
-        <v>1.975</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>2.025</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>3</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
-      </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4206,7 +4206,7 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -4295,10 +4295,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4384,7 +4384,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4473,7 +4473,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>43</v>
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011596</v>
+        <v>6011444</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L46">
         <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N46">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
         <v>3.8</v>
       </c>
-      <c r="P46">
-        <v>2.5</v>
-      </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011594</v>
+        <v>6011593</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,34 +4651,34 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N47">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
         <v>6.5</v>
@@ -4687,40 +4687,40 @@
         <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011593</v>
+        <v>6011594</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,34 +4740,34 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L48">
         <v>4</v>
       </c>
       <c r="M48">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N48">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
         <v>6.5</v>
@@ -4776,40 +4776,40 @@
         <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6011444</v>
+        <v>6011596</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,76 +4829,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K49">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
+        <v>2.3</v>
+      </c>
+      <c r="N49">
+        <v>2.55</v>
+      </c>
+      <c r="O49">
+        <v>3.8</v>
+      </c>
+      <c r="P49">
         <v>2.5</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.85</v>
       </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>3.8</v>
-      </c>
-      <c r="Q49">
-        <v>-0.75</v>
-      </c>
-      <c r="R49">
-        <v>2.025</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
       <c r="T49">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
+        <v>1.5</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.5125</v>
-      </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>-0.5</v>
       </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4921,7 +4921,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5099,7 +5099,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5366,7 +5366,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6011666</v>
+        <v>6011667</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,76 +5541,76 @@
         <v>45151.5</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
+        <v>1.95</v>
+      </c>
+      <c r="V57">
         <v>1.9</v>
       </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5719,7 +5719,7 @@
         <v>45151.5</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011667</v>
+        <v>6011603</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,76 +5808,76 @@
         <v>45151.5</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6010979</v>
+        <v>6011666</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,10 +5897,10 @@
         <v>45151.5</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5912,43 +5912,43 @@
         <v>52</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
         <v>3.4</v>
       </c>
       <c r="M61">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5957,13 +5957,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5986,10 +5986,10 @@
         <v>45151.5</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6011603</v>
+        <v>6010979</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,13 +6075,13 @@
         <v>45151.5</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6090,43 +6090,43 @@
         <v>52</v>
       </c>
       <c r="K63">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.875</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
+        <v>1.8</v>
+      </c>
+      <c r="V63">
         <v>2.05</v>
       </c>
-      <c r="S63">
-        <v>1.8</v>
-      </c>
-      <c r="T63">
-        <v>3.25</v>
-      </c>
-      <c r="U63">
-        <v>1.975</v>
-      </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6135,13 +6135,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6253,10 +6253,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
         <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6431,7 +6431,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011606</v>
+        <v>6011668</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6624,43 +6624,43 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6669,16 +6669,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6701,7 +6701,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6011668</v>
+        <v>6011606</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,13 +6787,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6802,43 +6802,43 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N71">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
         <v>1.85</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>2</v>
       </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.975</v>
-      </c>
-      <c r="V71">
-        <v>1.875</v>
-      </c>
       <c r="W71">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6847,16 +6847,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6011959</v>
+        <v>6011610</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,76 +6965,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>2.5</v>
+      </c>
+      <c r="N73">
+        <v>2.8</v>
+      </c>
+      <c r="O73">
+        <v>3.75</v>
+      </c>
+      <c r="P73">
         <v>2.375</v>
       </c>
-      <c r="L73">
-        <v>3.3</v>
-      </c>
-      <c r="M73">
-        <v>2.875</v>
-      </c>
-      <c r="N73">
-        <v>2.3</v>
-      </c>
-      <c r="O73">
-        <v>3.4</v>
-      </c>
-      <c r="P73">
-        <v>3.1</v>
-      </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
+        <v>1.75</v>
+      </c>
+      <c r="S73">
         <v>2.05</v>
       </c>
-      <c r="S73">
-        <v>1.8</v>
-      </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6011610</v>
+        <v>6011608</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,55 +7054,55 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>51</v>
       </c>
       <c r="K74">
+        <v>2.55</v>
+      </c>
+      <c r="L74">
+        <v>3.25</v>
+      </c>
+      <c r="M74">
+        <v>2.75</v>
+      </c>
+      <c r="N74">
         <v>2.6</v>
       </c>
-      <c r="L74">
-        <v>3.6</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.25</v>
+      </c>
+      <c r="P74">
+        <v>2.7</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
         <v>2.5</v>
       </c>
-      <c r="N74">
-        <v>2.8</v>
-      </c>
-      <c r="O74">
-        <v>3.75</v>
-      </c>
-      <c r="P74">
-        <v>2.375</v>
-      </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.75</v>
-      </c>
-      <c r="S74">
-        <v>2.05</v>
-      </c>
-      <c r="T74">
-        <v>3.25</v>
-      </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6010981</v>
+        <v>6011959</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,76 +7143,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L75">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6014970</v>
+        <v>6010981</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,40 +7232,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R76">
         <v>1.825</v>
@@ -7277,31 +7277,31 @@
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6011965</v>
+        <v>6014970</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,49 +7321,49 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
         <v>2.025</v>
       </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>1.9</v>
@@ -7372,25 +7372,25 @@
         <v>1.95</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6011608</v>
+        <v>6011965</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,56 +7410,56 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="N78">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R78">
+        <v>2.025</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>3.5</v>
+      </c>
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
+        <v>0.825</v>
+      </c>
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.95</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7677,7 +7677,7 @@
         <v>45165.5</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6011612</v>
+        <v>6011615</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,76 +7944,76 @@
         <v>45165.5</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8036,7 +8036,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6011615</v>
+        <v>6011612</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8122,76 +8122,76 @@
         <v>45165.5</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8214,7 +8214,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8389,7 +8389,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8567,10 +8567,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" t="s">
         <v>38</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>6</v>
@@ -9190,7 +9190,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9267,7 +9267,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6014967</v>
+        <v>6011621</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,76 +9279,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>53</v>
+      </c>
+      <c r="K99">
+        <v>2.2</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
         <v>3</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99">
-        <v>1.615</v>
-      </c>
-      <c r="L99">
-        <v>3.75</v>
-      </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
       <c r="N99">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6011621</v>
+        <v>6014967</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,76 +9457,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9638,7 +9638,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9813,10 +9813,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10083,7 +10083,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10172,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -10513,7 +10513,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6011628</v>
+        <v>6011948</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10525,76 +10525,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>2</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N113">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6011948</v>
+        <v>6011628</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,73 +10617,73 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P114">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10703,7 +10703,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -11151,7 +11151,7 @@
         <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11240,7 +11240,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11593,10 +11593,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11952,7 +11952,7 @@
         <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011672</v>
+        <v>6011643</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,76 +12038,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011643</v>
+        <v>6011672</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,76 +12127,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N131">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12216,7 +12216,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12305,7 +12305,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12394,7 +12394,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>32</v>
@@ -12486,7 +12486,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12753,7 +12753,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12928,10 +12928,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6011454</v>
+        <v>6014962</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,58 +13017,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>52</v>
       </c>
       <c r="K141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
+        <v>3.2</v>
+      </c>
+      <c r="N141">
+        <v>2.1</v>
+      </c>
+      <c r="O141">
         <v>3.6</v>
       </c>
-      <c r="N141">
-        <v>1.909</v>
-      </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
       <c r="P141">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13077,16 +13077,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC141">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6014962</v>
+        <v>6011454</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,58 +13106,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>52</v>
       </c>
       <c r="K142">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
         <v>3.6</v>
       </c>
-      <c r="M142">
-        <v>3.2</v>
-      </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W142">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13166,16 +13166,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13287,7 +13287,7 @@
         <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13376,7 +13376,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13640,7 +13640,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
         <v>32</v>
@@ -13717,7 +13717,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6011649</v>
+        <v>6010989</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13729,76 +13729,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>2</v>
-      </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
+        <v>0.55</v>
+      </c>
+      <c r="AC149">
         <v>-0.5</v>
-      </c>
-      <c r="AC149">
-        <v>0.45</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6010989</v>
+        <v>6011649</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
         <v>2</v>
       </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K150">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M150">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N150">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P150">
+        <v>6.5</v>
+      </c>
+      <c r="Q150">
+        <v>-1.25</v>
+      </c>
+      <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>1.875</v>
+      </c>
+      <c r="T150">
         <v>3.25</v>
       </c>
-      <c r="Q150">
-        <v>-0.25</v>
-      </c>
-      <c r="R150">
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.9</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>2.1</v>
-      </c>
-      <c r="V150">
-        <v>1.775</v>
-      </c>
       <c r="W150">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
-        <v>0.55</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13907,7 +13907,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14266,7 +14266,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6011676</v>
+        <v>6011652</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,13 +14352,13 @@
         <v>45242.4375</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -14367,43 +14367,43 @@
         <v>52</v>
       </c>
       <c r="K156">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O156">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14412,16 +14412,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6011968</v>
+        <v>6011676</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,7 +14530,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
         <v>37</v>
@@ -14539,67 +14539,67 @@
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K158">
         <v>1.55</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N158">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P158">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q158">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X158">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6014960</v>
+        <v>6011968</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,76 +14619,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L159">
+        <v>4.5</v>
+      </c>
+      <c r="M159">
+        <v>4.75</v>
+      </c>
+      <c r="N159">
+        <v>1.4</v>
+      </c>
+      <c r="O159">
+        <v>5</v>
+      </c>
+      <c r="P159">
+        <v>7.5</v>
+      </c>
+      <c r="Q159">
+        <v>-1.5</v>
+      </c>
+      <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
+        <v>3.25</v>
+      </c>
+      <c r="U159">
+        <v>1.825</v>
+      </c>
+      <c r="V159">
+        <v>2.025</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
         <v>4</v>
       </c>
-      <c r="M159">
-        <v>5</v>
-      </c>
-      <c r="N159">
-        <v>1.909</v>
-      </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
-      <c r="P159">
-        <v>3.8</v>
-      </c>
-      <c r="Q159">
-        <v>-0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.9</v>
-      </c>
-      <c r="S159">
-        <v>1.95</v>
-      </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>1.9</v>
-      </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
-      <c r="W159">
-        <v>-1</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
       <c r="Y159">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6011971</v>
+        <v>6014960</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,49 +14708,49 @@
         <v>45242.4375</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>51</v>
       </c>
       <c r="K160">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="O160">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q160">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
         <v>1.9</v>
@@ -14765,19 +14765,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.444</v>
+        <v>2.8</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6011652</v>
+        <v>6011971</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N161">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="O161">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P161">
-        <v>7</v>
+        <v>1.444</v>
       </c>
       <c r="Q161">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
         <v>3.5</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7629077</v>
+        <v>7629074</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,46 +14886,46 @@
         <v>45383.5</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K162">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
         <v>1.875</v>
-      </c>
-      <c r="V162">
-        <v>1.975</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7629076</v>
+        <v>7629075</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,46 +14960,46 @@
         <v>45383.5</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K163">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N163">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
         <v>3.5</v>
       </c>
       <c r="P163">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7629075</v>
+        <v>7629077</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,28 +15034,28 @@
         <v>45383.5</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O164">
         <v>3.5</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
         <v>-0.5</v>
@@ -15067,7 +15067,7 @@
         <v>1.8</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
         <v>1.875</v>
@@ -15096,7 +15096,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7629074</v>
+        <v>7629012</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15108,46 +15108,46 @@
         <v>45383.5</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N165">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15170,7 +15170,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7629012</v>
+        <v>7629076</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15182,46 +15182,46 @@
         <v>45383.5</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L166">
         <v>3.5</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N166">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O166">
         <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.85</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15419,16 +15419,16 @@
         <v>2.625</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O169">
         <v>3.6</v>
       </c>
       <c r="P169">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R169">
         <v>2.025</v>
@@ -15440,10 +15440,10 @@
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W169">
         <v>0</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -121,19 +121,19 @@
     <t>Raufoss</t>
   </si>
   <si>
-    <t>Hodd</t>
-  </si>
-  <si>
     <t>Skeid</t>
   </si>
   <si>
-    <t>Jerv</t>
+    <t>Hodd</t>
   </si>
   <si>
     <t>Mjondalen</t>
   </si>
   <si>
     <t>Kristiansund BK</t>
+  </si>
+  <si>
+    <t>Jerv</t>
   </si>
   <si>
     <t>Kongsvinger</t>
@@ -163,10 +163,10 @@
     <t>Stabaek</t>
   </si>
   <si>
-    <t>Lyn 1896</t>
+    <t>Egersund</t>
   </si>
   <si>
-    <t>Egersund</t>
+    <t>Lyn 1896</t>
   </si>
   <si>
     <t>A</t>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6010972</v>
+        <v>6011441</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,46 +1183,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N8">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>2.05</v>
@@ -1231,25 +1231,25 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6011441</v>
+        <v>6010972</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,46 +1272,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
+        <v>3.3</v>
+      </c>
+      <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>2.2</v>
+      </c>
+      <c r="O9">
         <v>3.4</v>
       </c>
-      <c r="M9">
-        <v>2.8</v>
-      </c>
-      <c r="N9">
-        <v>1.85</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
       <c r="P9">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
         <v>2.05</v>
@@ -1320,25 +1320,25 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6011577</v>
+        <v>6011576</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.875</v>
       </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
         <v>2.5</v>
       </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>1.15</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
+        <v>0.4125</v>
+      </c>
+      <c r="AA10">
+        <v>-0.5</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.875</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6011576</v>
+        <v>6014978</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
+        <v>2.025</v>
+      </c>
+      <c r="S11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6014978</v>
+        <v>6011577</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,55 +1539,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1596,16 +1596,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1625,7 +1625,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1806,7 +1806,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2429,7 +2429,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2960,7 +2960,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3049,10 +3049,10 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3138,7 +3138,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6011587</v>
+        <v>6011443</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,13 +3227,13 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3242,43 +3242,43 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N31">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3287,16 +3287,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6011443</v>
+        <v>6011587</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,13 +3316,13 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3331,43 +3331,43 @@
         <v>52</v>
       </c>
       <c r="K32">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O32">
+        <v>4.333</v>
+      </c>
+      <c r="P32">
+        <v>4.2</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
         <v>3.25</v>
       </c>
-      <c r="P32">
-        <v>2.75</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>1.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3376,16 +3376,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3497,7 +3497,7 @@
         <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011591</v>
+        <v>6011588</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,58 +3583,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>52</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>2.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3643,13 +3643,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011588</v>
+        <v>6010976</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>2</v>
       </c>
-      <c r="V36">
-        <v>1.85</v>
-      </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6010976</v>
+        <v>6011591</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,40 +3761,40 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
         <v>1.95</v>
@@ -3803,34 +3803,34 @@
         <v>1.9</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3942,7 +3942,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -4295,10 +4295,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6014974</v>
+        <v>6011595</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,10 +4384,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4399,46 +4399,46 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
+        <v>3.6</v>
+      </c>
+      <c r="M44">
+        <v>3.5</v>
+      </c>
+      <c r="N44">
+        <v>2.2</v>
+      </c>
+      <c r="O44">
         <v>3.4</v>
       </c>
-      <c r="M44">
-        <v>3</v>
-      </c>
-      <c r="N44">
-        <v>2.3</v>
-      </c>
-      <c r="O44">
-        <v>3.6</v>
-      </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
+        <v>2.025</v>
+      </c>
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="V44">
-        <v>2.025</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4447,13 +4447,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011595</v>
+        <v>6014974</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,7 +4476,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4488,46 +4488,46 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>2.3</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.5</v>
-      </c>
-      <c r="N45">
-        <v>2.2</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
+        <v>1.825</v>
+      </c>
+      <c r="V45">
         <v>2.025</v>
       </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4536,13 +4536,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011444</v>
+        <v>6011596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L46">
         <v>3.4</v>
       </c>
       <c r="M46">
+        <v>2.3</v>
+      </c>
+      <c r="N46">
+        <v>2.55</v>
+      </c>
+      <c r="O46">
+        <v>3.8</v>
+      </c>
+      <c r="P46">
         <v>2.5</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
         <v>1.85</v>
       </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>3.8</v>
-      </c>
-      <c r="Q46">
-        <v>-0.75</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.825</v>
-      </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>1.5</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.5125</v>
-      </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>-0.5</v>
       </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011593</v>
+        <v>6011594</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,34 +4651,34 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N47">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
         <v>6.5</v>
@@ -4687,40 +4687,40 @@
         <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011594</v>
+        <v>6011593</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,34 +4740,34 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
         <v>4</v>
       </c>
       <c r="M48">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N48">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
         <v>6.5</v>
@@ -4776,40 +4776,40 @@
         <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6011596</v>
+        <v>6011444</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,76 +4829,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N49">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
         <v>3.8</v>
       </c>
-      <c r="P49">
-        <v>2.5</v>
-      </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6011599</v>
+        <v>6011445</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,73 +4918,73 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5099,7 +5099,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011445</v>
+        <v>6011602</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,58 +5185,58 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
         <v>2</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>52</v>
       </c>
       <c r="K53">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>3.2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
         <v>3.75</v>
       </c>
-      <c r="M53">
-        <v>4.75</v>
-      </c>
-      <c r="N53">
-        <v>1.533</v>
-      </c>
-      <c r="O53">
-        <v>4</v>
-      </c>
       <c r="P53">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5245,13 +5245,13 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6014973</v>
+        <v>6011599</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,55 +5274,55 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>51</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
         <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5331,19 +5331,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011602</v>
+        <v>6014973</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
+        <v>2.55</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.45</v>
+      </c>
+      <c r="N55">
+        <v>3.1</v>
+      </c>
+      <c r="O55">
+        <v>3.5</v>
+      </c>
+      <c r="P55">
+        <v>2.25</v>
+      </c>
+      <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.925</v>
+      </c>
+      <c r="S55">
+        <v>1.925</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
         <v>1.95</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>3.2</v>
-      </c>
-      <c r="N55">
-        <v>2</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
-      <c r="P55">
-        <v>3.5</v>
-      </c>
-      <c r="Q55">
-        <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6014972</v>
+        <v>6011667</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,76 +5452,76 @@
         <v>45151.5</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L56">
         <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N56">
         <v>2.15</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
+        <v>3.25</v>
+      </c>
+      <c r="U56">
+        <v>1.95</v>
+      </c>
+      <c r="V56">
         <v>1.9</v>
       </c>
-      <c r="S56">
-        <v>1.95</v>
-      </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.85</v>
-      </c>
-      <c r="V56">
-        <v>2</v>
-      </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6011667</v>
+        <v>6014972</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,76 +5541,76 @@
         <v>45151.5</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
         <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N57">
         <v>2.15</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011605</v>
+        <v>6011666</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,58 +5630,58 @@
         <v>45151.5</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N58">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
+        <v>1.9</v>
+      </c>
+      <c r="V58">
         <v>1.95</v>
       </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5690,16 +5690,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5719,7 +5719,7 @@
         <v>45151.5</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011666</v>
+        <v>6010979</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,10 +5897,10 @@
         <v>45151.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5912,43 +5912,43 @@
         <v>52</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L61">
         <v>3.4</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5957,13 +5957,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
         <v>0.8</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011957</v>
+        <v>6011605</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,58 +5986,58 @@
         <v>45151.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>52</v>
       </c>
       <c r="K62">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>2.025</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
+        <v>3.25</v>
+      </c>
+      <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
         <v>1.9</v>
       </c>
-      <c r="S62">
-        <v>1.95</v>
-      </c>
-      <c r="T62">
-        <v>3.5</v>
-      </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.875</v>
-      </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6046,16 +6046,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>1.025</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6010979</v>
+        <v>6011957</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,13 +6075,13 @@
         <v>45151.5</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6090,43 +6090,43 @@
         <v>52</v>
       </c>
       <c r="K63">
+        <v>1.533</v>
+      </c>
+      <c r="L63">
+        <v>4.2</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>1.571</v>
+      </c>
+      <c r="O63">
+        <v>4.5</v>
+      </c>
+      <c r="P63">
+        <v>4.75</v>
+      </c>
+      <c r="Q63">
+        <v>-1</v>
+      </c>
+      <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
         <v>1.95</v>
       </c>
-      <c r="L63">
-        <v>3.4</v>
-      </c>
-      <c r="M63">
-        <v>3.6</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
-      <c r="P63">
-        <v>4</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
+      <c r="T63">
+        <v>3.5</v>
+      </c>
+      <c r="U63">
         <v>1.975</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2.05</v>
-      </c>
       <c r="W63">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6135,13 +6135,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.8</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6253,10 +6253,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
         <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6431,7 +6431,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -6612,7 +6612,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6701,7 +6701,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6965,7 +6965,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -7143,10 +7143,10 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7235,7 +7235,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
         <v>29</v>
@@ -7677,7 +7677,7 @@
         <v>45165.5</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6011615</v>
+        <v>6011612</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,76 +7944,76 @@
         <v>45165.5</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K84">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8021,7 +8021,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6011966</v>
+        <v>6011615</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8033,58 +8033,58 @@
         <v>45165.5</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>52</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
+        <v>2.5</v>
+      </c>
+      <c r="N85">
+        <v>2.5</v>
+      </c>
+      <c r="O85">
+        <v>3.6</v>
+      </c>
+      <c r="P85">
+        <v>2.625</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>2.025</v>
+      </c>
+      <c r="T85">
         <v>3</v>
       </c>
-      <c r="N85">
-        <v>1.909</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>3.5</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>3.25</v>
-      </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8093,16 +8093,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8110,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6011612</v>
+        <v>6011966</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8122,76 +8122,76 @@
         <v>45165.5</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>3.25</v>
+      </c>
+      <c r="U86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>1.875</v>
       </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA86">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8214,7 +8214,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8389,7 +8389,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8567,10 +8567,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>6</v>
@@ -9190,7 +9190,7 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9267,7 +9267,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6011621</v>
+        <v>6014967</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,76 +9279,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6014967</v>
+        <v>6011621</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,76 +9457,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>53</v>
+      </c>
+      <c r="K101">
+        <v>2.2</v>
+      </c>
+      <c r="L101">
+        <v>3.4</v>
+      </c>
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>52</v>
-      </c>
-      <c r="K101">
-        <v>1.615</v>
-      </c>
-      <c r="L101">
-        <v>3.75</v>
-      </c>
-      <c r="M101">
-        <v>5</v>
-      </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O101">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9638,7 +9638,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9813,10 +9813,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10083,7 +10083,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10172,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -10513,7 +10513,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6011948</v>
+        <v>6011628</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10525,76 +10525,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P113">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6011628</v>
+        <v>6011948</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,73 +10617,73 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>2</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L114">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N114">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O114">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10703,7 +10703,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -11151,7 +11151,7 @@
         <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11240,7 +11240,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11593,10 +11593,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11952,7 +11952,7 @@
         <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011643</v>
+        <v>6011672</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,76 +12038,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K130">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N130">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011672</v>
+        <v>6011643</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,76 +12127,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N131">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12216,7 +12216,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12305,7 +12305,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12394,7 +12394,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
         <v>32</v>
@@ -12486,7 +12486,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12753,7 +12753,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12928,10 +12928,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6014962</v>
+        <v>6011454</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,58 +13017,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>52</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
         <v>3.6</v>
       </c>
-      <c r="M141">
-        <v>3.2</v>
-      </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13077,16 +13077,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6011454</v>
+        <v>6011644</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,13 +13106,13 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13121,43 +13121,43 @@
         <v>52</v>
       </c>
       <c r="K142">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M142">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O142">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="V142">
-        <v>2.05</v>
-      </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13166,16 +13166,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6011644</v>
+        <v>6014962</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,58 +13195,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L143">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13255,16 +13255,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6011673</v>
+        <v>6010988</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,55 +13284,55 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L144">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13341,19 +13341,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6010988</v>
+        <v>6011673</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,55 +13373,55 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M145">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13430,19 +13430,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13554,7 +13554,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13640,7 +13640,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
         <v>32</v>
@@ -13717,7 +13717,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6010989</v>
+        <v>6011649</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13729,76 +13729,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>2</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P149">
+        <v>6.5</v>
+      </c>
+      <c r="Q149">
+        <v>-1.25</v>
+      </c>
+      <c r="R149">
+        <v>1.975</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
         <v>3.25</v>
       </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.9</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>2.1</v>
-      </c>
-      <c r="V149">
-        <v>1.775</v>
-      </c>
       <c r="W149">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB149">
-        <v>0.55</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6011649</v>
+        <v>6010989</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
         <v>1</v>
       </c>
-      <c r="I150">
-        <v>2</v>
-      </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N150">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O150">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
+        <v>0.55</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="AC150">
-        <v>0.45</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13907,7 +13907,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6011651</v>
+        <v>6010990</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,76 +14174,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>53</v>
+      </c>
+      <c r="K154">
+        <v>2.875</v>
+      </c>
+      <c r="L154">
+        <v>3.75</v>
+      </c>
+      <c r="M154">
+        <v>2.15</v>
+      </c>
+      <c r="N154">
+        <v>4.75</v>
+      </c>
+      <c r="O154">
+        <v>4.333</v>
+      </c>
+      <c r="P154">
+        <v>1.615</v>
+      </c>
+      <c r="Q154">
         <v>1</v>
       </c>
-      <c r="J154" t="s">
-        <v>51</v>
-      </c>
-      <c r="K154">
-        <v>2.5</v>
-      </c>
-      <c r="L154">
-        <v>3.6</v>
-      </c>
-      <c r="M154">
-        <v>2.5</v>
-      </c>
-      <c r="N154">
-        <v>3.1</v>
-      </c>
-      <c r="O154">
-        <v>3.8</v>
-      </c>
-      <c r="P154">
-        <v>2.15</v>
-      </c>
-      <c r="Q154">
-        <v>0.25</v>
-      </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y154">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6010990</v>
+        <v>6011651</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,76 +14263,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K155">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
+        <v>2.5</v>
+      </c>
+      <c r="N155">
+        <v>3.1</v>
+      </c>
+      <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
         <v>2.15</v>
       </c>
-      <c r="N155">
-        <v>4.75</v>
-      </c>
-      <c r="O155">
-        <v>4.333</v>
-      </c>
-      <c r="P155">
-        <v>1.615</v>
-      </c>
       <c r="Q155">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14533,7 +14533,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14622,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14797,10 +14797,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7629074</v>
+        <v>7629077</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,46 +14886,46 @@
         <v>45383.5</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P162">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7629075</v>
+        <v>7629076</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,46 +14960,46 @@
         <v>45383.5</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O163">
         <v>3.5</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7629077</v>
+        <v>7629075</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,46 +15034,46 @@
         <v>45383.5</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N164">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O164">
         <v>3.5</v>
       </c>
       <c r="P164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q164">
         <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15096,7 +15096,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7629012</v>
+        <v>7629074</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15108,46 +15108,46 @@
         <v>45383.5</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K165">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15170,7 +15170,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7629076</v>
+        <v>7629012</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15182,31 +15182,31 @@
         <v>45383.5</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K166">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L166">
         <v>3.5</v>
       </c>
       <c r="M166">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N166">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
         <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
         <v>1.925</v>
@@ -15215,7 +15215,7 @@
         <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
         <v>1.85</v>
@@ -15271,31 +15271,31 @@
         <v>5</v>
       </c>
       <c r="N167">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7628520</v>
+        <v>7628610</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15330,46 +15330,46 @@
         <v>45383.5</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
+        <v>2.2</v>
+      </c>
+      <c r="L168">
+        <v>3.6</v>
+      </c>
+      <c r="M168">
+        <v>2.625</v>
+      </c>
+      <c r="N168">
+        <v>2.55</v>
+      </c>
+      <c r="O168">
+        <v>3.6</v>
+      </c>
+      <c r="P168">
+        <v>2.25</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>2.025</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
         <v>2</v>
-      </c>
-      <c r="L168">
-        <v>3.5</v>
-      </c>
-      <c r="M168">
-        <v>3</v>
-      </c>
-      <c r="N168">
-        <v>2.2</v>
-      </c>
-      <c r="O168">
-        <v>3.4</v>
-      </c>
-      <c r="P168">
-        <v>2.625</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>2.05</v>
-      </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>2</v>
-      </c>
-      <c r="V168">
-        <v>1.85</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15392,7 +15392,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7628610</v>
+        <v>7628520</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15404,46 +15404,46 @@
         <v>45383.5</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
         <v>50</v>
       </c>
       <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3.5</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
         <v>2.2</v>
       </c>
-      <c r="L169">
-        <v>3.6</v>
-      </c>
-      <c r="M169">
+      <c r="O169">
+        <v>3.4</v>
+      </c>
+      <c r="P169">
         <v>2.625</v>
       </c>
-      <c r="N169">
-        <v>2.45</v>
-      </c>
-      <c r="O169">
-        <v>3.6</v>
-      </c>
-      <c r="P169">
-        <v>2.3</v>
-      </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
         <v>1.85</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
       </c>
       <c r="W169">
         <v>0</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15581,6 +15581,154 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7629013</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170">
+        <v>1.615</v>
+      </c>
+      <c r="L170">
+        <v>4.2</v>
+      </c>
+      <c r="M170">
+        <v>4.5</v>
+      </c>
+      <c r="N170">
+        <v>1.65</v>
+      </c>
+      <c r="O170">
+        <v>4.333</v>
+      </c>
+      <c r="P170">
+        <v>4.75</v>
+      </c>
+      <c r="Q170">
+        <v>-0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.8</v>
+      </c>
+      <c r="S170">
+        <v>2.05</v>
+      </c>
+      <c r="T170">
+        <v>3</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.95</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>7629142</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171">
+        <v>1.75</v>
+      </c>
+      <c r="L171">
+        <v>4.2</v>
+      </c>
+      <c r="M171">
+        <v>3.75</v>
+      </c>
+      <c r="N171">
+        <v>1.75</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
+        <v>4</v>
+      </c>
+      <c r="Q171">
+        <v>-0.75</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>1.85</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
+        <v>1.875</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Norway Division 1</t>
   </si>
   <si>
-    <t>Sogndal</t>
+    <t>Ranheim</t>
+  </si>
+  <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
+    <t>KFUM</t>
   </si>
   <si>
     <t>Asane</t>
   </si>
   <si>
-    <t>KFUM</t>
-  </si>
-  <si>
-    <t>Ranheim</t>
-  </si>
-  <si>
-    <t>Sandnes Ulf</t>
+    <t>Sogndal</t>
   </si>
   <si>
     <t>Raufoss</t>
@@ -136,13 +136,13 @@
     <t>Jerv</t>
   </si>
   <si>
-    <t>Bryne</t>
+    <t>Kongsvinger</t>
   </si>
   <si>
     <t>Fredrikstad</t>
   </si>
   <si>
-    <t>Kongsvinger</t>
+    <t>Bryne</t>
   </si>
   <si>
     <t>IK Start</t>
@@ -157,16 +157,16 @@
     <t>Aalesund</t>
   </si>
   <si>
-    <t>Stabaek</t>
+    <t>Lyn 1896</t>
+  </si>
+  <si>
+    <t>Egersund</t>
   </si>
   <si>
     <t>Levanger</t>
   </si>
   <si>
-    <t>Lyn 1896</t>
-  </si>
-  <si>
-    <t>Egersund</t>
+    <t>Stabaek</t>
   </si>
   <si>
     <t>H</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6011574</v>
+        <v>6014979</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -661,40 +661,40 @@
         <v>51</v>
       </c>
       <c r="K2">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <v>1.909</v>
       </c>
       <c r="O2">
+        <v>3.75</v>
+      </c>
+      <c r="P2">
         <v>4</v>
-      </c>
-      <c r="P2">
-        <v>3.6</v>
       </c>
       <c r="Q2">
         <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>0.909</v>
@@ -706,16 +706,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011575</v>
+        <v>6011956</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,73 +738,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
+        <v>2.4</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.875</v>
+      </c>
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
         <v>2.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>2.5</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2.025</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
       <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="V3">
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>1.875</v>
       </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>1.5</v>
-      </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6014979</v>
+        <v>6011575</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,43 +916,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>2.025</v>
+      </c>
+      <c r="S5">
         <v>1.825</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -964,19 +964,19 @@
         <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.825</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011956</v>
+        <v>6011574</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6010973</v>
+        <v>6735385</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1625,40 +1625,40 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
         <v>1.825</v>
@@ -1670,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1682,7 +1682,7 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1691,7 +1691,7 @@
         <v>1.025</v>
       </c>
       <c r="AB13">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6011442</v>
+        <v>6010973</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,55 +1714,55 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>52</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1771,19 +1771,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6011578</v>
+        <v>6011579</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,58 +1803,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1863,16 +1863,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6735385</v>
+        <v>6011578</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,49 +1892,49 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
         <v>3.25</v>
       </c>
-      <c r="M16">
-        <v>2.55</v>
-      </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
+        <v>2.025</v>
+      </c>
+      <c r="S16">
         <v>1.825</v>
       </c>
-      <c r="S16">
-        <v>2.025</v>
-      </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1943,19 +1943,19 @@
         <v>1.875</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>0.9750000000000001</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6011579</v>
+        <v>6011442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,64 +1987,64 @@
         <v>32</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
         <v>3.6</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2337,7 +2337,7 @@
         <v>45101.625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2429,7 +2429,7 @@
         <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2518,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011585</v>
+        <v>6010975</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,73 +2782,73 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>1.5</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>5.25</v>
+      </c>
+      <c r="N26">
+        <v>1.5</v>
+      </c>
+      <c r="O26">
+        <v>4.5</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>-1.25</v>
+      </c>
+      <c r="R26">
+        <v>2.05</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
+      <c r="U26">
+        <v>1.9</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="L26">
-        <v>3.75</v>
-      </c>
-      <c r="M26">
-        <v>3.25</v>
-      </c>
-      <c r="N26">
-        <v>2.2</v>
-      </c>
-      <c r="O26">
-        <v>3.75</v>
-      </c>
-      <c r="P26">
-        <v>3.1</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>3.25</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA26">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011586</v>
+        <v>6011585</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,73 +2871,73 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6011944</v>
+        <v>6011586</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,37 +2960,37 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="I28">
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28">
+        <v>2.875</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
+        <v>2.15</v>
+      </c>
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>2.5</v>
-      </c>
-      <c r="L28">
-        <v>3.4</v>
-      </c>
-      <c r="M28">
-        <v>2.55</v>
-      </c>
-      <c r="N28">
-        <v>3.1</v>
-      </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
         <v>0.25</v>
@@ -3002,31 +3002,31 @@
         <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6010975</v>
+        <v>6011944</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,58 +3049,58 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>51</v>
       </c>
       <c r="K29">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3109,13 +3109,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3227,7 +3227,7 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -3316,7 +3316,7 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3408,7 +3408,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3494,10 +3494,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
@@ -3939,7 +3939,7 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -4031,7 +4031,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6010977</v>
+        <v>6011595</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,76 +4384,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
         <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011595</v>
+        <v>6010977</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011593</v>
+        <v>6011596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="O46">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
         <v>1.85</v>
-      </c>
-      <c r="S46">
-        <v>2</v>
       </c>
       <c r="T46">
         <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011596</v>
+        <v>6011593</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,76 +4651,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
+      <c r="J47" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47">
+        <v>1.571</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>4.75</v>
+      </c>
+      <c r="N47">
+        <v>1.444</v>
+      </c>
+      <c r="O47">
+        <v>4.75</v>
+      </c>
+      <c r="P47">
+        <v>6.5</v>
+      </c>
+      <c r="Q47">
+        <v>-1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47">
-        <v>2.7</v>
-      </c>
-      <c r="L47">
-        <v>3.4</v>
-      </c>
-      <c r="M47">
-        <v>2.3</v>
-      </c>
-      <c r="N47">
-        <v>2.55</v>
-      </c>
-      <c r="O47">
-        <v>3.8</v>
-      </c>
-      <c r="P47">
-        <v>2.5</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB47">
         <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4740,7 +4740,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4829,10 +4829,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6011601</v>
+        <v>6011599</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
+        <v>1.85</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
       <c r="W50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011598</v>
+        <v>6011601</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,76 +5007,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>1.666</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51">
-        <v>2.8</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011602</v>
+        <v>6011598</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,73 +5096,73 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52">
+        <v>2.8</v>
+      </c>
+      <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
+        <v>2.2</v>
+      </c>
+      <c r="N52">
+        <v>3.3</v>
+      </c>
+      <c r="O52">
+        <v>3.6</v>
+      </c>
+      <c r="P52">
+        <v>2.1</v>
+      </c>
+      <c r="Q52">
+        <v>0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.875</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>51</v>
-      </c>
-      <c r="K52">
+      <c r="U52">
+        <v>1.9</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="L52">
-        <v>3.5</v>
-      </c>
-      <c r="M52">
-        <v>3.2</v>
-      </c>
-      <c r="N52">
-        <v>2</v>
-      </c>
-      <c r="O52">
-        <v>3.75</v>
-      </c>
-      <c r="P52">
-        <v>3.5</v>
-      </c>
-      <c r="Q52">
-        <v>-0.5</v>
-      </c>
-      <c r="R52">
-        <v>2</v>
-      </c>
-      <c r="S52">
-        <v>1.85</v>
-      </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.925</v>
-      </c>
-      <c r="V52">
-        <v>1.925</v>
-      </c>
       <c r="W52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6014973</v>
+        <v>6011602</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,76 +5185,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53">
+        <v>1.95</v>
+      </c>
+      <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>3.2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.75</v>
+      </c>
+      <c r="P53">
+        <v>3.5</v>
+      </c>
+      <c r="Q53">
+        <v>-0.5</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>1.85</v>
+      </c>
+      <c r="T53">
+        <v>3.25</v>
+      </c>
+      <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
+        <v>1.925</v>
+      </c>
+      <c r="W53">
         <v>1</v>
       </c>
-      <c r="J53" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53">
-        <v>2.55</v>
-      </c>
-      <c r="L53">
-        <v>3.4</v>
-      </c>
-      <c r="M53">
-        <v>2.45</v>
-      </c>
-      <c r="N53">
-        <v>3.1</v>
-      </c>
-      <c r="O53">
-        <v>3.5</v>
-      </c>
-      <c r="P53">
-        <v>2.25</v>
-      </c>
-      <c r="Q53">
-        <v>0.25</v>
-      </c>
-      <c r="R53">
-        <v>1.925</v>
-      </c>
-      <c r="S53">
-        <v>1.925</v>
-      </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>1.95</v>
-      </c>
-      <c r="V53">
-        <v>1.9</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA53">
+        <v>-1</v>
+      </c>
+      <c r="AB53">
         <v>0.925</v>
       </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011445</v>
+        <v>6014973</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N54">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011599</v>
+        <v>6011445</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,73 +5363,73 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="V55">
-        <v>2</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5455,7 +5455,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5630,7 +5630,7 @@
         <v>45151.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -5722,7 +5722,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011604</v>
+        <v>6010979</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45151.5</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L61">
         <v>3.4</v>
       </c>
       <c r="M61">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N61">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5986,10 +5986,10 @@
         <v>45151.5</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6010979</v>
+        <v>6011604</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,76 +6075,76 @@
         <v>45151.5</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O63">
         <v>3.4</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q63">
+        <v>0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.975</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>1.3</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>1.025</v>
+      </c>
+      <c r="AB63">
+        <v>0.4375</v>
+      </c>
+      <c r="AC63">
         <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.975</v>
-      </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2.05</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.8</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6253,10 +6253,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6342,7 +6342,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -6434,7 +6434,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6698,10 +6698,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6879,7 +6879,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
         <v>44</v>
@@ -7057,7 +7057,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>41</v>
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6011965</v>
+        <v>6011611</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,19 +7321,19 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K77">
         <v>1.615</v>
@@ -7342,13 +7342,13 @@
         <v>4</v>
       </c>
       <c r="M77">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N77">
         <v>1.615</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
         <v>4.75</v>
@@ -7366,31 +7366,31 @@
         <v>3.5</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6011959</v>
+        <v>6011965</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N78">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6011611</v>
+        <v>6011959</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K79">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N79">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7588,7 +7588,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7680,7 +7680,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6011614</v>
+        <v>6011612</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,76 +7855,76 @@
         <v>45165.5</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>53</v>
+      </c>
+      <c r="K83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>51</v>
-      </c>
-      <c r="K83">
-        <v>1.55</v>
-      </c>
       <c r="L83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="N83">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6011612</v>
+        <v>6011614</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,76 +7944,76 @@
         <v>45165.5</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
+        <v>2.05</v>
+      </c>
+      <c r="T84">
+        <v>3.5</v>
+      </c>
+      <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
       </c>
-      <c r="S84">
-        <v>1.875</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.85</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>0.4</v>
+      </c>
+      <c r="AA84">
         <v>-0.5</v>
       </c>
-      <c r="AA84">
-        <v>0.4375</v>
-      </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8021,7 +8021,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6011966</v>
+        <v>6011615</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8033,58 +8033,58 @@
         <v>45165.5</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
+        <v>2.5</v>
+      </c>
+      <c r="N85">
+        <v>2.5</v>
+      </c>
+      <c r="O85">
+        <v>3.6</v>
+      </c>
+      <c r="P85">
+        <v>2.625</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>2.025</v>
+      </c>
+      <c r="T85">
         <v>3</v>
       </c>
-      <c r="N85">
-        <v>1.909</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>3.5</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>3.25</v>
-      </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8093,16 +8093,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8110,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6011615</v>
+        <v>6011966</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,55 +8125,55 @@
         <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>1.909</v>
+      </c>
+      <c r="O86">
+        <v>4</v>
+      </c>
+      <c r="P86">
         <v>3.5</v>
       </c>
-      <c r="M86">
-        <v>2.5</v>
-      </c>
-      <c r="N86">
-        <v>2.5</v>
-      </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>2.625</v>
-      </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8182,16 +8182,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8303,7 +8303,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8478,10 +8478,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
         <v>29</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8570,7 +8570,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8745,10 +8745,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -9012,7 +9012,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9101,7 +9101,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -9282,7 +9282,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9457,7 +9457,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
         <v>38</v>
@@ -9546,7 +9546,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9638,7 +9638,7 @@
         <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9902,10 +9902,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9991,7 +9991,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10080,7 +10080,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10172,7 +10172,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10525,7 +10525,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>43</v>
@@ -10706,7 +10706,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10970,10 +10970,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11148,10 +11148,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F120" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" t="s">
         <v>42</v>
-      </c>
-      <c r="G120" t="s">
-        <v>40</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11237,7 +11237,7 @@
         <v>45203.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11329,7 +11329,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11415,7 +11415,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>44</v>
@@ -11685,7 +11685,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11774,7 +11774,7 @@
         <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11860,7 +11860,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
@@ -11949,7 +11949,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -12041,7 +12041,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12130,7 +12130,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12219,7 +12219,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12394,7 +12394,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -12572,7 +12572,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
         <v>36</v>
@@ -12664,7 +12664,7 @@
         <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12839,7 +12839,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12928,7 +12928,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6011673</v>
+        <v>6011644</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,28 +13106,28 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N142">
         <v>1.5</v>
@@ -13136,7 +13136,7 @@
         <v>4.5</v>
       </c>
       <c r="P142">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
         <v>-1</v>
@@ -13148,34 +13148,34 @@
         <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
         <v>1.05</v>
       </c>
-      <c r="AB142">
-        <v>0.4875</v>
-      </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13198,7 +13198,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13284,7 +13284,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>44</v>
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6011644</v>
+        <v>6011673</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,28 +13373,28 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N145">
         <v>1.5</v>
@@ -13403,7 +13403,7 @@
         <v>4.5</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q145">
         <v>-1</v>
@@ -13415,34 +13415,34 @@
         <v>2.05</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13732,7 +13732,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13818,10 +13818,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13910,7 +13910,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13996,10 +13996,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14174,7 +14174,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>35</v>
@@ -14263,10 +14263,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F155" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155" t="s">
         <v>30</v>
-      </c>
-      <c r="G155" t="s">
-        <v>33</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14444,7 +14444,7 @@
         <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>44</v>
@@ -14619,7 +14619,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>37</v>
@@ -14886,10 +14886,10 @@
         <v>45383.5</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14978,7 +14978,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15064,7 +15064,7 @@
         <v>45383.5</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15153,10 +15153,10 @@
         <v>45383.5</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7629077</v>
+        <v>7628520</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,73 +15242,73 @@
         <v>45383.5</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>51</v>
+      </c>
+      <c r="K166">
         <v>2</v>
       </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
-      <c r="J166" t="s">
-        <v>53</v>
-      </c>
-      <c r="K166">
-        <v>1.8</v>
-      </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N166">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q166">
         <v>0</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
         <v>1.875</v>
       </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7629076</v>
+        <v>7629077</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,55 +15331,55 @@
         <v>45383.5</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>53</v>
       </c>
       <c r="K167">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
+        <v>3.6</v>
+      </c>
+      <c r="M167">
         <v>3.5</v>
       </c>
-      <c r="M167">
-        <v>2.4</v>
-      </c>
       <c r="N167">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O167">
         <v>3.4</v>
       </c>
       <c r="P167">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15391,16 +15391,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7629075</v>
+        <v>7629076</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,10 +15420,10 @@
         <v>45383.5</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15435,46 +15435,46 @@
         <v>53</v>
       </c>
       <c r="K168">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>2.4</v>
+      </c>
+      <c r="N168">
+        <v>2.25</v>
+      </c>
+      <c r="O168">
         <v>3.4</v>
       </c>
-      <c r="M168">
-        <v>2.875</v>
-      </c>
-      <c r="N168">
-        <v>2.05</v>
-      </c>
-      <c r="O168">
-        <v>3.3</v>
-      </c>
       <c r="P168">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15483,13 +15483,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7628520</v>
+        <v>7629075</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45383.5</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N169">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O169">
         <v>3.3</v>
       </c>
       <c r="P169">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
         <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7629277</v>
+        <v>7629078</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,7 +15595,7 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.5</v>
       </c>
       <c r="F170" t="s">
         <v>47</v>
@@ -15604,40 +15604,40 @@
         <v>40</v>
       </c>
       <c r="K170">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N170">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15652,450 +15652,6 @@
         <v>0</v>
       </c>
       <c r="AA170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>7629142</v>
-      </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" t="s">
-        <v>28</v>
-      </c>
-      <c r="E171" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F171" t="s">
-        <v>32</v>
-      </c>
-      <c r="G171" t="s">
-        <v>33</v>
-      </c>
-      <c r="K171">
-        <v>1.75</v>
-      </c>
-      <c r="L171">
-        <v>4.2</v>
-      </c>
-      <c r="M171">
-        <v>3.75</v>
-      </c>
-      <c r="N171">
-        <v>1.727</v>
-      </c>
-      <c r="O171">
-        <v>4.2</v>
-      </c>
-      <c r="P171">
-        <v>4.2</v>
-      </c>
-      <c r="Q171">
-        <v>-0.75</v>
-      </c>
-      <c r="R171">
-        <v>1.875</v>
-      </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
-      <c r="T171">
-        <v>3.25</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.875</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:29">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>7629014</v>
-      </c>
-      <c r="C172" t="s">
-        <v>28</v>
-      </c>
-      <c r="D172" t="s">
-        <v>28</v>
-      </c>
-      <c r="E172" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F172" t="s">
-        <v>43</v>
-      </c>
-      <c r="G172" t="s">
-        <v>46</v>
-      </c>
-      <c r="K172">
-        <v>3.3</v>
-      </c>
-      <c r="L172">
-        <v>3.6</v>
-      </c>
-      <c r="M172">
-        <v>2.05</v>
-      </c>
-      <c r="N172">
-        <v>2.875</v>
-      </c>
-      <c r="O172">
-        <v>3.6</v>
-      </c>
-      <c r="P172">
-        <v>2.15</v>
-      </c>
-      <c r="Q172">
-        <v>0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.825</v>
-      </c>
-      <c r="S172">
-        <v>2.025</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.925</v>
-      </c>
-      <c r="V172">
-        <v>1.925</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
-      <c r="Y172">
-        <v>0</v>
-      </c>
-      <c r="Z172">
-        <v>0</v>
-      </c>
-      <c r="AA172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>7629013</v>
-      </c>
-      <c r="C173" t="s">
-        <v>28</v>
-      </c>
-      <c r="D173" t="s">
-        <v>28</v>
-      </c>
-      <c r="E173" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F173" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173" t="s">
-        <v>37</v>
-      </c>
-      <c r="K173">
-        <v>1.615</v>
-      </c>
-      <c r="L173">
-        <v>4.2</v>
-      </c>
-      <c r="M173">
-        <v>4.5</v>
-      </c>
-      <c r="N173">
-        <v>1.55</v>
-      </c>
-      <c r="O173">
-        <v>4.5</v>
-      </c>
-      <c r="P173">
-        <v>5</v>
-      </c>
-      <c r="Q173">
-        <v>-1</v>
-      </c>
-      <c r="R173">
-        <v>1.975</v>
-      </c>
-      <c r="S173">
-        <v>1.875</v>
-      </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>1.875</v>
-      </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>7628613</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-      <c r="D174" t="s">
-        <v>28</v>
-      </c>
-      <c r="E174" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F174" t="s">
-        <v>34</v>
-      </c>
-      <c r="G174" t="s">
-        <v>45</v>
-      </c>
-      <c r="K174">
-        <v>6.5</v>
-      </c>
-      <c r="L174">
-        <v>4.5</v>
-      </c>
-      <c r="M174">
-        <v>1.444</v>
-      </c>
-      <c r="N174">
-        <v>5.25</v>
-      </c>
-      <c r="O174">
-        <v>4</v>
-      </c>
-      <c r="P174">
-        <v>1.571</v>
-      </c>
-      <c r="Q174">
-        <v>1</v>
-      </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>3</v>
-      </c>
-      <c r="U174">
-        <v>2.05</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-      <c r="Y174">
-        <v>0</v>
-      </c>
-      <c r="Z174">
-        <v>0</v>
-      </c>
-      <c r="AA174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>7628521</v>
-      </c>
-      <c r="C175" t="s">
-        <v>28</v>
-      </c>
-      <c r="D175" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F175" t="s">
-        <v>48</v>
-      </c>
-      <c r="G175" t="s">
-        <v>44</v>
-      </c>
-      <c r="K175">
-        <v>2.15</v>
-      </c>
-      <c r="L175">
-        <v>3.5</v>
-      </c>
-      <c r="M175">
-        <v>3.2</v>
-      </c>
-      <c r="N175">
-        <v>2.375</v>
-      </c>
-      <c r="O175">
-        <v>3.4</v>
-      </c>
-      <c r="P175">
-        <v>2.9</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>2.1</v>
-      </c>
-      <c r="S175">
-        <v>1.775</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
-      </c>
-      <c r="V175">
-        <v>1.85</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-      <c r="Y175">
-        <v>0</v>
-      </c>
-      <c r="Z175">
-        <v>0</v>
-      </c>
-      <c r="AA175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>7629078</v>
-      </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" s="2">
-        <v>45389.5</v>
-      </c>
-      <c r="F176" t="s">
-        <v>49</v>
-      </c>
-      <c r="G176" t="s">
-        <v>42</v>
-      </c>
-      <c r="K176">
-        <v>3</v>
-      </c>
-      <c r="L176">
-        <v>3.6</v>
-      </c>
-      <c r="M176">
-        <v>2.2</v>
-      </c>
-      <c r="N176">
-        <v>3.1</v>
-      </c>
-      <c r="O176">
-        <v>3.6</v>
-      </c>
-      <c r="P176">
-        <v>2.15</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.95</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-      <c r="Y176">
-        <v>0</v>
-      </c>
-      <c r="Z176">
-        <v>0</v>
-      </c>
-      <c r="AA176">
         <v>0</v>
       </c>
     </row>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011584</v>
+        <v>6014977</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>2.3</v>
+      </c>
+      <c r="N22">
+        <v>2.9</v>
+      </c>
+      <c r="O22">
         <v>3.5</v>
       </c>
-      <c r="M22">
+      <c r="P22">
+        <v>2.375</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="N22">
-        <v>3.5</v>
-      </c>
-      <c r="O22">
-        <v>3.75</v>
-      </c>
-      <c r="P22">
-        <v>1.95</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.875</v>
-      </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
-      <c r="T22">
-        <v>3.25</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6011943</v>
+        <v>6011584</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,73 +2515,73 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6014977</v>
+        <v>6011943</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6010976</v>
+        <v>6011665</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,55 +3494,55 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
         <v>53</v>
       </c>
       <c r="K34">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>3.4</v>
+      </c>
+      <c r="N34">
+        <v>2.1</v>
+      </c>
+      <c r="O34">
+        <v>3.75</v>
+      </c>
+      <c r="P34">
         <v>3.3</v>
       </c>
-      <c r="M34">
-        <v>2.2</v>
-      </c>
-      <c r="N34">
-        <v>4</v>
-      </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
-      <c r="P34">
-        <v>1.909</v>
-      </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3551,19 +3551,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011588</v>
+        <v>6010976</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
+        <v>1.85</v>
+      </c>
+      <c r="V35">
         <v>2</v>
       </c>
-      <c r="V35">
-        <v>1.85</v>
-      </c>
       <c r="W35">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011665</v>
+        <v>6011588</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,73 +3672,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
         <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011596</v>
+        <v>6011594</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,55 +4740,55 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>53</v>
       </c>
       <c r="K48">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N48">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4797,19 +4797,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6011594</v>
+        <v>6011596</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,55 +4829,55 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>53</v>
       </c>
       <c r="K49">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N49">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P49">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4886,19 +4886,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011598</v>
+        <v>6011601</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,76 +5007,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>1.666</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51">
-        <v>2.8</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011601</v>
+        <v>6011598</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,76 +5096,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52">
+        <v>2.8</v>
+      </c>
+      <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
+        <v>2.2</v>
+      </c>
+      <c r="N52">
+        <v>3.3</v>
+      </c>
+      <c r="O52">
+        <v>3.6</v>
+      </c>
+      <c r="P52">
+        <v>2.1</v>
+      </c>
+      <c r="Q52">
+        <v>0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.875</v>
+      </c>
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>51</v>
-      </c>
-      <c r="K52">
-        <v>1.666</v>
-      </c>
-      <c r="L52">
-        <v>4</v>
-      </c>
-      <c r="M52">
-        <v>4</v>
-      </c>
-      <c r="N52">
-        <v>1.45</v>
-      </c>
-      <c r="O52">
-        <v>4.75</v>
-      </c>
-      <c r="P52">
-        <v>6.5</v>
-      </c>
-      <c r="Q52">
-        <v>-1.25</v>
-      </c>
-      <c r="R52">
+      <c r="U52">
+        <v>1.9</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="S52">
-        <v>1.9</v>
-      </c>
-      <c r="T52">
-        <v>3.5</v>
-      </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
       <c r="W52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6011630</v>
+        <v>6014965</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,10 +11059,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11074,43 +11074,43 @@
         <v>51</v>
       </c>
       <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.15</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
+        <v>3.4</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>2.025</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
         <v>2.05</v>
       </c>
-      <c r="L119">
-        <v>3.75</v>
-      </c>
-      <c r="M119">
-        <v>3</v>
-      </c>
-      <c r="N119">
-        <v>1.95</v>
-      </c>
-      <c r="O119">
-        <v>4.2</v>
-      </c>
-      <c r="P119">
-        <v>3.2</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>2.025</v>
-      </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11119,16 +11119,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC119">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6014965</v>
+        <v>6011630</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,10 +11148,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11163,43 +11163,43 @@
         <v>51</v>
       </c>
       <c r="K120">
+        <v>2.05</v>
+      </c>
+      <c r="L120">
+        <v>3.75</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
         <v>1.95</v>
       </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
-        <v>3.4</v>
-      </c>
-      <c r="N120">
-        <v>2.15</v>
-      </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>2.025</v>
+      </c>
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="S120">
-        <v>2.025</v>
-      </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>2.05</v>
-      </c>
-      <c r="V120">
-        <v>1.8</v>
-      </c>
       <c r="W120">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,16 +11208,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16202,6 +16202,228 @@
       </c>
       <c r="AC176">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7628522</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F177" t="s">
+        <v>44</v>
+      </c>
+      <c r="G177" t="s">
+        <v>36</v>
+      </c>
+      <c r="K177">
+        <v>2.375</v>
+      </c>
+      <c r="L177">
+        <v>3.75</v>
+      </c>
+      <c r="M177">
+        <v>2.55</v>
+      </c>
+      <c r="N177">
+        <v>2.1</v>
+      </c>
+      <c r="O177">
+        <v>3.8</v>
+      </c>
+      <c r="P177">
+        <v>2.875</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>2.025</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7629079</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F178" t="s">
+        <v>35</v>
+      </c>
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+      <c r="K178">
+        <v>2.4</v>
+      </c>
+      <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
+        <v>2.7</v>
+      </c>
+      <c r="N178">
+        <v>2.4</v>
+      </c>
+      <c r="O178">
+        <v>3.4</v>
+      </c>
+      <c r="P178">
+        <v>2.7</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2.05</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.925</v>
+      </c>
+      <c r="V178">
+        <v>1.925</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7629016</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" t="s">
+        <v>31</v>
+      </c>
+      <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2.8</v>
+      </c>
+      <c r="N179">
+        <v>2.2</v>
+      </c>
+      <c r="O179">
+        <v>3.6</v>
+      </c>
+      <c r="P179">
+        <v>2.8</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
+        <v>1.825</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Sogndal</t>
   </si>
   <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
     <t>KFUM</t>
   </si>
   <si>
     <t>Sandnes Ulf</t>
-  </si>
-  <si>
-    <t>Ranheim</t>
   </si>
   <si>
     <t>Hodd</t>
@@ -151,10 +151,10 @@
     <t>Moss</t>
   </si>
   <si>
-    <t>Valerenga</t>
+    <t>Aalesund</t>
   </si>
   <si>
-    <t>Aalesund</t>
+    <t>Valerenga</t>
   </si>
   <si>
     <t>Stabaek</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6011942</v>
+        <v>6014979</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,55 +916,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
         <v>2.025</v>
-      </c>
-      <c r="S5">
-        <v>1.825</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -973,16 +973,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011956</v>
+        <v>6011942</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,31 +1005,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6">
         <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6">
-        <v>2.375</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
         <v>2.875</v>
@@ -1038,40 +1038,40 @@
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6014979</v>
+        <v>6011956</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.875</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
         <v>1.875</v>
       </c>
-      <c r="W7">
-        <v>0.909</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1714,7 +1714,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1984,7 +1984,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>45101.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2604,10 +2604,10 @@
         <v>45102.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011586</v>
+        <v>6011585</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,73 +2782,73 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6014976</v>
+        <v>6010975</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
+        <v>2.05</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2.05</v>
-      </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6011944</v>
+        <v>6011586</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,37 +2960,37 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="I28">
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>2.875</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
+        <v>2.15</v>
+      </c>
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>2.5</v>
-      </c>
-      <c r="L28">
-        <v>3.4</v>
-      </c>
-      <c r="M28">
-        <v>2.55</v>
-      </c>
-      <c r="N28">
-        <v>3.1</v>
-      </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
         <v>0.25</v>
@@ -3002,31 +3002,31 @@
         <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6011585</v>
+        <v>6011944</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,73 +3049,73 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>33</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3126,7 +3126,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6010975</v>
+        <v>6014976</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3138,76 +3138,76 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>2.2</v>
+      </c>
+      <c r="L30">
+        <v>3.4</v>
+      </c>
+      <c r="M30">
+        <v>2.875</v>
+      </c>
+      <c r="N30">
+        <v>2.375</v>
+      </c>
+      <c r="O30">
+        <v>3.6</v>
+      </c>
+      <c r="P30">
+        <v>2.7</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>1.5</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>5.25</v>
-      </c>
-      <c r="N30">
-        <v>1.5</v>
-      </c>
-      <c r="O30">
-        <v>4.5</v>
-      </c>
-      <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="Q30">
-        <v>-1.25</v>
-      </c>
       <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
         <v>2.05</v>
       </c>
-      <c r="S30">
-        <v>1.8</v>
-      </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>1.05</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6011664</v>
+        <v>6011587</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,58 +3227,58 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>53</v>
       </c>
       <c r="K31">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
         <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
       <c r="W31">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3287,16 +3287,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6011587</v>
+        <v>6011664</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,58 +3316,58 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>53</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
         <v>3.75</v>
       </c>
-      <c r="M32">
-        <v>3.4</v>
-      </c>
       <c r="N32">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>2</v>
       </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3376,16 +3376,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011665</v>
+        <v>6011589</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
+        <v>1.7</v>
+      </c>
+      <c r="L35">
+        <v>3.8</v>
+      </c>
+      <c r="M35">
+        <v>4.333</v>
+      </c>
+      <c r="N35">
+        <v>1.7</v>
+      </c>
+      <c r="O35">
+        <v>4.333</v>
+      </c>
+      <c r="P35">
+        <v>4.2</v>
+      </c>
+      <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
         <v>2</v>
-      </c>
-      <c r="L35">
-        <v>3.75</v>
-      </c>
-      <c r="M35">
-        <v>3.4</v>
-      </c>
-      <c r="N35">
-        <v>2.1</v>
-      </c>
-      <c r="O35">
-        <v>3.75</v>
-      </c>
-      <c r="P35">
-        <v>3.3</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.925</v>
       </c>
       <c r="T35">
         <v>3.25</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011589</v>
+        <v>6011588</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,58 +3672,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>53</v>
       </c>
       <c r="K36">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
         <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3732,16 +3732,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011588</v>
+        <v>6011665</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,73 +3761,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>5</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N37">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
         <v>3.25</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.925</v>
+      </c>
+      <c r="AB37">
         <v>0.825</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3853,7 +3853,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6014975</v>
+        <v>6011592</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,76 +3939,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q39">
         <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>1.975</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
+        <v>1.825</v>
+      </c>
+      <c r="V39">
         <v>2.025</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.9</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>1.025</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011590</v>
+        <v>6014975</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,76 +4028,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA40">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011592</v>
+        <v>6011590</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>52</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
+        <v>2.2</v>
+      </c>
+      <c r="O41">
+        <v>3.4</v>
+      </c>
+      <c r="P41">
+        <v>3.4</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
         <v>1.85</v>
       </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>3.75</v>
-      </c>
-      <c r="Q41">
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1.85</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2.4</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>1.875</v>
-      </c>
-      <c r="S41">
-        <v>1.975</v>
-      </c>
-      <c r="T41">
-        <v>3.25</v>
-      </c>
-      <c r="U41">
-        <v>1.825</v>
-      </c>
-      <c r="V41">
-        <v>2.025</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>3</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6014974</v>
+        <v>6010977</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L43">
+        <v>3.3</v>
+      </c>
+      <c r="M43">
+        <v>3.3</v>
+      </c>
+      <c r="N43">
+        <v>2.375</v>
+      </c>
+      <c r="O43">
         <v>3.4</v>
       </c>
-      <c r="M43">
-        <v>3</v>
-      </c>
-      <c r="N43">
-        <v>2.3</v>
-      </c>
-      <c r="O43">
-        <v>3.6</v>
-      </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6010977</v>
+        <v>6011595</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,76 +4384,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
         <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011595</v>
+        <v>6014974</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,10 +4473,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4488,46 +4488,46 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>2.3</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.5</v>
-      </c>
-      <c r="N45">
-        <v>2.2</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
+        <v>1.825</v>
+      </c>
+      <c r="V45">
         <v>2.025</v>
       </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4536,13 +4536,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011594</v>
+        <v>6011596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,55 +4562,55 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>51</v>
       </c>
       <c r="K46">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4619,19 +4619,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011596</v>
+        <v>6011594</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,55 +4651,55 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>51</v>
       </c>
       <c r="K47">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N47">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4708,19 +4708,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4740,7 +4740,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4832,7 +4832,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6011445</v>
+        <v>6011601</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,49 +4918,49 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
       </c>
       <c r="K50">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>1.45</v>
+      </c>
+      <c r="O50">
         <v>4.75</v>
-      </c>
-      <c r="N50">
-        <v>1.533</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
       </c>
       <c r="P50">
         <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
         <v>2</v>
@@ -4969,7 +4969,7 @@
         <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.5329999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4978,16 +4978,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011601</v>
+        <v>6011445</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,49 +5007,49 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>53</v>
       </c>
       <c r="K51">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L51">
+        <v>3.75</v>
+      </c>
+      <c r="M51">
+        <v>4.75</v>
+      </c>
+      <c r="N51">
+        <v>1.533</v>
+      </c>
+      <c r="O51">
         <v>4</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-      <c r="N51">
-        <v>1.45</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
       </c>
       <c r="P51">
         <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
         <v>2</v>
@@ -5058,7 +5058,7 @@
         <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5067,16 +5067,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5096,7 +5096,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5366,7 +5366,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>45151.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>44</v>
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>45151.5</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6011669</v>
+        <v>6011958</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,76 +6164,76 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
       </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
       <c r="H64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L64">
         <v>3.5</v>
       </c>
       <c r="M64">
+        <v>3.3</v>
+      </c>
+      <c r="N64">
         <v>2.2</v>
       </c>
-      <c r="N64">
-        <v>3.75</v>
-      </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.9</v>
+      </c>
+      <c r="T64">
+        <v>3.25</v>
+      </c>
+      <c r="U64">
         <v>1.875</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.975</v>
       </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
-      <c r="U64">
-        <v>1.8</v>
-      </c>
-      <c r="V64">
-        <v>2.05</v>
-      </c>
       <c r="W64">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6011607</v>
+        <v>6011669</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,73 +6253,73 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>3</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65">
-        <v>2.3</v>
-      </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X65">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6011958</v>
+        <v>6010980</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,40 +6342,40 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
         <v>1.95</v>
@@ -6384,7 +6384,7 @@
         <v>1.9</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
         <v>1.875</v>
@@ -6393,19 +6393,19 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6010980</v>
+        <v>6011607</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,49 +6431,49 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67">
+        <v>2.3</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>3.1</v>
+      </c>
+      <c r="N67">
         <v>2.2</v>
       </c>
-      <c r="L67">
-        <v>3.3</v>
-      </c>
-      <c r="M67">
-        <v>3.2</v>
-      </c>
-      <c r="N67">
-        <v>1.7</v>
-      </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
         <v>1.95</v>
       </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
         <v>1.875</v>
@@ -6482,25 +6482,25 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -7146,7 +7146,7 @@
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6011609</v>
+        <v>6011610</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,34 +7321,34 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K77">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
         <v>2.375</v>
@@ -7357,40 +7357,40 @@
         <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
         <v>3.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6011610</v>
+        <v>6011609</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,34 +7410,34 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>2.55</v>
+      </c>
+      <c r="N78">
+        <v>2.875</v>
+      </c>
+      <c r="O78">
         <v>3.6</v>
-      </c>
-      <c r="M78">
-        <v>2.5</v>
-      </c>
-      <c r="N78">
-        <v>2.8</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
       </c>
       <c r="P78">
         <v>2.375</v>
@@ -7446,40 +7446,40 @@
         <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
         <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7499,7 +7499,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7588,7 +7588,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6011966</v>
+        <v>6010982</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,10 +7677,10 @@
         <v>45165.5</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7692,61 +7692,61 @@
         <v>53</v>
       </c>
       <c r="K81">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P81">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q81">
+        <v>-1.25</v>
+      </c>
+      <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2.05</v>
+      </c>
+      <c r="W81">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
         <v>-0.5</v>
       </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.85</v>
-      </c>
-      <c r="T81">
-        <v>3.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.875</v>
-      </c>
-      <c r="W81">
-        <v>0.909</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>1</v>
-      </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6010982</v>
+        <v>6011447</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,40 +7766,40 @@
         <v>45165.5</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K82">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>1.9</v>
@@ -7808,34 +7808,34 @@
         <v>1.95</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6011447</v>
+        <v>6011612</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,76 +7855,76 @@
         <v>45165.5</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K83">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y83">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6011612</v>
+        <v>6011615</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,76 +7944,76 @@
         <v>45165.5</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8021,7 +8021,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6011615</v>
+        <v>6011966</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8033,58 +8033,58 @@
         <v>45165.5</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>53</v>
       </c>
       <c r="K85">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>1.909</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
         <v>3.5</v>
       </c>
-      <c r="M85">
-        <v>2.5</v>
-      </c>
-      <c r="N85">
-        <v>2.5</v>
-      </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>2.625</v>
-      </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8093,16 +8093,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8570,7 +8570,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8748,7 +8748,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8923,7 +8923,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9012,7 +9012,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9101,10 +9101,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
         <v>33</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6011619</v>
+        <v>6010984</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,58 +9279,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>53</v>
       </c>
       <c r="K99">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N99">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
         <v>3.5</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9339,16 +9339,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6011621</v>
+        <v>6011619</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9368,49 +9368,49 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
         <v>1.909</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q100">
         <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
         <v>1.95</v>
       </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
         <v>1.925</v>
@@ -9419,25 +9419,25 @@
         <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6010984</v>
+        <v>6011621</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,76 +9457,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K101">
+        <v>2.2</v>
+      </c>
+      <c r="L101">
+        <v>3.4</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>1.909</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
+        <v>3.8</v>
+      </c>
+      <c r="Q101">
+        <v>-0.5</v>
+      </c>
+      <c r="R101">
         <v>1.95</v>
       </c>
-      <c r="L101">
-        <v>3.5</v>
-      </c>
-      <c r="M101">
-        <v>3.4</v>
-      </c>
-      <c r="N101">
-        <v>2.15</v>
-      </c>
-      <c r="O101">
-        <v>3.5</v>
-      </c>
-      <c r="P101">
-        <v>3.25</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>42</v>
@@ -10080,7 +10080,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10172,7 +10172,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10528,7 +10528,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6011630</v>
+        <v>6014965</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,10 +11059,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11074,43 +11074,43 @@
         <v>53</v>
       </c>
       <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.15</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
+        <v>3.4</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>2.025</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
         <v>2.05</v>
       </c>
-      <c r="L119">
-        <v>3.75</v>
-      </c>
-      <c r="M119">
-        <v>3</v>
-      </c>
-      <c r="N119">
-        <v>1.95</v>
-      </c>
-      <c r="O119">
-        <v>4.2</v>
-      </c>
-      <c r="P119">
-        <v>3.2</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>2.025</v>
-      </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11119,16 +11119,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC119">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6014965</v>
+        <v>6011630</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,10 +11148,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11163,43 +11163,43 @@
         <v>53</v>
       </c>
       <c r="K120">
+        <v>2.05</v>
+      </c>
+      <c r="L120">
+        <v>3.75</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
         <v>1.95</v>
       </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
-        <v>3.4</v>
-      </c>
-      <c r="N120">
-        <v>2.15</v>
-      </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>2.025</v>
+      </c>
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="S120">
-        <v>2.025</v>
-      </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>2.05</v>
-      </c>
-      <c r="V120">
-        <v>1.8</v>
-      </c>
       <c r="W120">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,16 +11208,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11329,7 +11329,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11682,7 +11682,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11949,7 +11949,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12038,7 +12038,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>42</v>
@@ -12575,7 +12575,7 @@
         <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
         <v>30</v>
@@ -12839,7 +12839,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>37</v>
@@ -12931,7 +12931,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13287,7 +13287,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13551,10 +13551,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6011647</v>
+        <v>6011648</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K150">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M150">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="N150">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P150">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X150">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6011648</v>
+        <v>6010989</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,59 +13996,59 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
         <v>1</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>53</v>
       </c>
       <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.7</v>
+      </c>
+      <c r="N152">
+        <v>2.2</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>3.25</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.9</v>
+      </c>
+      <c r="S152">
+        <v>1.95</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>2.1</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
         <v>1.2</v>
       </c>
-      <c r="L152">
-        <v>6.5</v>
-      </c>
-      <c r="M152">
-        <v>10</v>
-      </c>
-      <c r="N152">
-        <v>1.142</v>
-      </c>
-      <c r="O152">
-        <v>9</v>
-      </c>
-      <c r="P152">
-        <v>15</v>
-      </c>
-      <c r="Q152">
-        <v>-2.25</v>
-      </c>
-      <c r="R152">
-        <v>1.975</v>
-      </c>
-      <c r="S152">
-        <v>1.875</v>
-      </c>
-      <c r="T152">
-        <v>3.25</v>
-      </c>
-      <c r="U152">
-        <v>1.85</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>0.1419999999999999</v>
-      </c>
       <c r="X152">
         <v>-1</v>
       </c>
@@ -14056,16 +14056,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6010989</v>
+        <v>6011647</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K153">
+        <v>2.25</v>
+      </c>
+      <c r="L153">
+        <v>3.8</v>
+      </c>
+      <c r="M153">
+        <v>2.625</v>
+      </c>
+      <c r="N153">
         <v>2.3</v>
       </c>
-      <c r="L153">
-        <v>3.6</v>
-      </c>
-      <c r="M153">
-        <v>2.7</v>
-      </c>
-      <c r="N153">
-        <v>2.2</v>
-      </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2.05</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
         <v>1.9</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.95</v>
       </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>2.1</v>
-      </c>
-      <c r="V153">
-        <v>1.775</v>
-      </c>
       <c r="W153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14444,7 +14444,7 @@
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14708,7 +14708,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14800,7 +14800,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7628611</v>
+        <v>7628610</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45383.5</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O162">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
         <v>3</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7629074</v>
+        <v>7629012</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,13 +14975,13 @@
         <v>45383.5</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -14990,43 +14990,43 @@
         <v>53</v>
       </c>
       <c r="K163">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>1.875</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="S163">
-        <v>1.875</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2.05</v>
-      </c>
       <c r="W163">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15035,16 +15035,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15064,7 +15064,7 @@
         <v>45383.5</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G164" t="s">
         <v>47</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7629012</v>
+        <v>7629077</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,49 +15242,49 @@
         <v>45383.5</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L166">
+        <v>3.6</v>
+      </c>
+      <c r="M166">
         <v>3.5</v>
       </c>
-      <c r="M166">
-        <v>2.6</v>
-      </c>
       <c r="N166">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
         <v>2</v>
       </c>
-      <c r="S166">
-        <v>1.85</v>
-      </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
         <v>1.875</v>
@@ -15293,19 +15293,19 @@
         <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB166">
         <v>0.875</v>
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7629077</v>
+        <v>7628611</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,76 +15331,76 @@
         <v>45383.5</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>52</v>
       </c>
       <c r="K167">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N167">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7628610</v>
+        <v>7628520</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,73 +15420,73 @@
         <v>45383.5</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q168">
         <v>0</v>
       </c>
       <c r="R168">
+        <v>2.025</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
         <v>1.975</v>
       </c>
-      <c r="S168">
+      <c r="V168">
         <v>1.875</v>
       </c>
-      <c r="T168">
-        <v>3</v>
-      </c>
-      <c r="U168">
-        <v>1.85</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7628520</v>
+        <v>7629074</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45383.5</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>53</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
+        <v>3.75</v>
+      </c>
+      <c r="N169">
+        <v>1.7</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>4</v>
+      </c>
+      <c r="Q169">
+        <v>-0.75</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.875</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="N169">
-        <v>2.5</v>
-      </c>
-      <c r="O169">
-        <v>3.3</v>
-      </c>
-      <c r="P169">
-        <v>2.4</v>
-      </c>
-      <c r="Q169">
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>2.05</v>
+      </c>
+      <c r="W169">
+        <v>0.7</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.4875</v>
+      </c>
+      <c r="AA169">
+        <v>-0.5</v>
+      </c>
+      <c r="AB169">
         <v>0</v>
       </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.975</v>
-      </c>
-      <c r="V169">
-        <v>1.875</v>
-      </c>
-      <c r="W169">
-        <v>1.5</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>1.025</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15779,7 +15779,7 @@
         <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15865,10 +15865,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F173" t="s">
+        <v>32</v>
+      </c>
+      <c r="G173" t="s">
         <v>34</v>
-      </c>
-      <c r="G173" t="s">
-        <v>33</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -16046,7 +16046,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16221,7 +16221,7 @@
         <v>45396.5</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16399,7 +16399,7 @@
         <v>45397.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
         <v>49</v>
@@ -16488,7 +16488,7 @@
         <v>45397.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
         <v>30</v>
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7629016</v>
+        <v>7628522</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45397.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N181">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O181">
         <v>3.75</v>
       </c>
       <c r="P181">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
         <v>0</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
         <v>3</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X181">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.8</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
         <v>0</v>
       </c>
-      <c r="AA181">
+      <c r="AC181">
         <v>-0</v>
-      </c>
-      <c r="AB181">
-        <v>-1</v>
-      </c>
-      <c r="AC181">
-        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7628522</v>
+        <v>7629016</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45397.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K182">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="O182">
         <v>3.75</v>
       </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q182">
         <v>0</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
         <v>3</v>
       </c>
       <c r="U182">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16914,524 +16914,6 @@
       </c>
       <c r="AC184">
         <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>7629083</v>
-      </c>
-      <c r="C185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D185" t="s">
-        <v>28</v>
-      </c>
-      <c r="E185" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F185" t="s">
-        <v>30</v>
-      </c>
-      <c r="G185" t="s">
-        <v>41</v>
-      </c>
-      <c r="K185">
-        <v>2.75</v>
-      </c>
-      <c r="L185">
-        <v>3.3</v>
-      </c>
-      <c r="M185">
-        <v>2.45</v>
-      </c>
-      <c r="N185">
-        <v>2.625</v>
-      </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
-      <c r="P185">
-        <v>2.55</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.85</v>
-      </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.85</v>
-      </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <v>0</v>
-      </c>
-      <c r="Y185">
-        <v>0</v>
-      </c>
-      <c r="Z185">
-        <v>0</v>
-      </c>
-      <c r="AA185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>7629082</v>
-      </c>
-      <c r="C186" t="s">
-        <v>28</v>
-      </c>
-      <c r="D186" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F186" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" t="s">
-        <v>29</v>
-      </c>
-      <c r="K186">
-        <v>1.7</v>
-      </c>
-      <c r="L186">
-        <v>4</v>
-      </c>
-      <c r="M186">
-        <v>4</v>
-      </c>
-      <c r="N186">
-        <v>1.7</v>
-      </c>
-      <c r="O186">
-        <v>4</v>
-      </c>
-      <c r="P186">
-        <v>4</v>
-      </c>
-      <c r="Q186">
-        <v>-0.75</v>
-      </c>
-      <c r="R186">
-        <v>1.925</v>
-      </c>
-      <c r="S186">
-        <v>1.925</v>
-      </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>2.025</v>
-      </c>
-      <c r="V186">
-        <v>1.825</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
-        <v>0</v>
-      </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
-      <c r="AA186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>7629081</v>
-      </c>
-      <c r="C187" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" t="s">
-        <v>28</v>
-      </c>
-      <c r="E187" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F187" t="s">
-        <v>48</v>
-      </c>
-      <c r="G187" t="s">
-        <v>40</v>
-      </c>
-      <c r="K187">
-        <v>2.2</v>
-      </c>
-      <c r="L187">
-        <v>3.6</v>
-      </c>
-      <c r="M187">
-        <v>2.625</v>
-      </c>
-      <c r="N187">
-        <v>2.2</v>
-      </c>
-      <c r="O187">
-        <v>3.6</v>
-      </c>
-      <c r="P187">
-        <v>2.625</v>
-      </c>
-      <c r="Q187">
-        <v>-0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.025</v>
-      </c>
-      <c r="S187">
-        <v>1.825</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-      <c r="X187">
-        <v>0</v>
-      </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-      <c r="AA187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>7629017</v>
-      </c>
-      <c r="C188" t="s">
-        <v>28</v>
-      </c>
-      <c r="D188" t="s">
-        <v>28</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F188" t="s">
-        <v>43</v>
-      </c>
-      <c r="G188" t="s">
-        <v>33</v>
-      </c>
-      <c r="K188">
-        <v>1.909</v>
-      </c>
-      <c r="L188">
-        <v>3.6</v>
-      </c>
-      <c r="M188">
-        <v>3.2</v>
-      </c>
-      <c r="N188">
-        <v>1.666</v>
-      </c>
-      <c r="O188">
-        <v>3.8</v>
-      </c>
-      <c r="P188">
-        <v>4</v>
-      </c>
-      <c r="Q188">
-        <v>-0.75</v>
-      </c>
-      <c r="R188">
-        <v>1.95</v>
-      </c>
-      <c r="S188">
-        <v>1.9</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.95</v>
-      </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>7628616</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F189" t="s">
-        <v>50</v>
-      </c>
-      <c r="G189" t="s">
-        <v>46</v>
-      </c>
-      <c r="K189">
-        <v>3.4</v>
-      </c>
-      <c r="L189">
-        <v>3.4</v>
-      </c>
-      <c r="M189">
-        <v>1.909</v>
-      </c>
-      <c r="N189">
-        <v>2.75</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.2</v>
-      </c>
-      <c r="Q189">
-        <v>0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.8</v>
-      </c>
-      <c r="S189">
-        <v>2.05</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.8</v>
-      </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>7628523</v>
-      </c>
-      <c r="C190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" t="s">
-        <v>28</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F190" t="s">
-        <v>31</v>
-      </c>
-      <c r="G190" t="s">
-        <v>44</v>
-      </c>
-      <c r="K190">
-        <v>1.727</v>
-      </c>
-      <c r="L190">
-        <v>3.8</v>
-      </c>
-      <c r="M190">
-        <v>4</v>
-      </c>
-      <c r="N190">
-        <v>1.75</v>
-      </c>
-      <c r="O190">
-        <v>3.8</v>
-      </c>
-      <c r="P190">
-        <v>4</v>
-      </c>
-      <c r="Q190">
-        <v>-0.75</v>
-      </c>
-      <c r="R190">
-        <v>2.025</v>
-      </c>
-      <c r="S190">
-        <v>1.825</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.975</v>
-      </c>
-      <c r="V190">
-        <v>1.875</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>7628617</v>
-      </c>
-      <c r="C191" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" t="s">
-        <v>28</v>
-      </c>
-      <c r="E191" s="2">
-        <v>45402.54166666666</v>
-      </c>
-      <c r="F191" t="s">
-        <v>49</v>
-      </c>
-      <c r="G191" t="s">
-        <v>45</v>
-      </c>
-      <c r="K191">
-        <v>3.3</v>
-      </c>
-      <c r="L191">
-        <v>3.5</v>
-      </c>
-      <c r="M191">
-        <v>1.909</v>
-      </c>
-      <c r="N191">
-        <v>4</v>
-      </c>
-      <c r="O191">
-        <v>3.8</v>
-      </c>
-      <c r="P191">
-        <v>1.666</v>
-      </c>
-      <c r="Q191">
-        <v>0.75</v>
-      </c>
-      <c r="R191">
-        <v>1.925</v>
-      </c>
-      <c r="S191">
-        <v>1.925</v>
-      </c>
-      <c r="T191">
-        <v>2.75</v>
-      </c>
-      <c r="U191">
-        <v>1.875</v>
-      </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-      <c r="AA191">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,28 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7629088</t>
+  </si>
+  <si>
+    <t>7628524</t>
+  </si>
+  <si>
+    <t>7628620</t>
+  </si>
+  <si>
+    <t>7629020</t>
+  </si>
+  <si>
+    <t>7629021</t>
+  </si>
+  <si>
+    <t>7629086</t>
+  </si>
+  <si>
     <t>7629087</t>
   </si>
   <si>
-    <t>7628524</t>
+    <t>7628619</t>
   </si>
   <si>
     <t>Norway Division 1</t>
@@ -540,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB201"/>
+  <dimension ref="A1:AB207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +655,16 @@
         <v>6011441</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -655,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>2.4</v>
@@ -723,16 +741,16 @@
         <v>6010972</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -741,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -809,16 +827,16 @@
         <v>6011573</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -827,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -895,16 +913,16 @@
         <v>6011942</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -913,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -981,16 +999,16 @@
         <v>6011575</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J6">
         <v>2.9</v>
@@ -1067,16 +1085,16 @@
         <v>6011956</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1085,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J7">
         <v>2.375</v>
@@ -1153,16 +1171,16 @@
         <v>6014979</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1171,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <v>1.85</v>
@@ -1239,16 +1257,16 @@
         <v>6011574</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45081.41666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J9">
         <v>2.15</v>
@@ -1325,16 +1343,16 @@
         <v>6014978</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45087.41666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1343,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>1.571</v>
@@ -1411,16 +1429,16 @@
         <v>6011577</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45087.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1429,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1497,16 +1515,16 @@
         <v>6011576</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45087.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J12">
         <v>2.9</v>
@@ -1583,16 +1601,16 @@
         <v>6011578</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1601,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1669,16 +1687,16 @@
         <v>6010973</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1687,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J14">
         <v>2.1</v>
@@ -1755,16 +1773,16 @@
         <v>6011579</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1773,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J15">
         <v>1.666</v>
@@ -1841,16 +1859,16 @@
         <v>6011442</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1859,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1927,16 +1945,16 @@
         <v>6735385</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1945,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J17">
         <v>2.45</v>
@@ -2013,16 +2031,16 @@
         <v>6011581</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45100.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2031,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>1.909</v>
@@ -2099,16 +2117,16 @@
         <v>6011663</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45101.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2117,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2185,16 +2203,16 @@
         <v>6010974</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45101.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2203,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <v>2.1</v>
@@ -2271,16 +2289,16 @@
         <v>6011582</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45101.625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2289,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2354,49 +2372,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011583</v>
+        <v>6011584</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45102.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J22">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="K22">
         <v>3.5</v>
       </c>
       <c r="L22">
+        <v>1.95</v>
+      </c>
+      <c r="M22">
+        <v>3.5</v>
+      </c>
+      <c r="N22">
         <v>3.75</v>
       </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.6</v>
-      </c>
       <c r="O22">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P22">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q22">
         <v>1.875</v>
@@ -2405,19 +2423,19 @@
         <v>1.975</v>
       </c>
       <c r="S22">
+        <v>3.25</v>
+      </c>
+      <c r="T22">
+        <v>1.975</v>
+      </c>
+      <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
+        <v>-1</v>
+      </c>
+      <c r="W22">
         <v>2.75</v>
-      </c>
-      <c r="T22">
-        <v>1.85</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>0.909</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2429,10 +2447,10 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2440,49 +2458,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6011584</v>
+        <v>6011583</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45102.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J23">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="K23">
         <v>3.5</v>
       </c>
       <c r="L23">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O23">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
         <v>1.875</v>
@@ -2491,19 +2509,19 @@
         <v>1.975</v>
       </c>
       <c r="S23">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2515,10 +2533,10 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2529,16 +2547,16 @@
         <v>6011943</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45102.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2547,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J24">
         <v>1.85</v>
@@ -2615,16 +2633,16 @@
         <v>6014977</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45102.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2633,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2701,16 +2719,16 @@
         <v>6010975</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45108.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2719,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2787,16 +2805,16 @@
         <v>6014976</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45108.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2805,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2873,16 +2891,16 @@
         <v>6011586</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45108.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2891,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J28">
         <v>2.875</v>
@@ -2959,16 +2977,16 @@
         <v>6011944</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45108.41666666666</v>
       </c>
       <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
         <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -2977,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3045,16 +3063,16 @@
         <v>6011585</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45108.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3063,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3131,16 +3149,16 @@
         <v>6011587</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45109.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3149,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J31">
         <v>1.909</v>
@@ -3217,16 +3235,16 @@
         <v>6011443</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45109.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -3235,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3303,16 +3321,16 @@
         <v>6011664</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45109.41666666666</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3321,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3389,16 +3407,16 @@
         <v>6011589</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45115.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3407,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J34">
         <v>1.7</v>
@@ -3475,16 +3493,16 @@
         <v>6010976</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45115.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3493,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3558,67 +3576,67 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011588</v>
+        <v>6011591</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45115.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J36">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K36">
+        <v>3.5</v>
+      </c>
+      <c r="L36">
+        <v>2.25</v>
+      </c>
+      <c r="M36">
+        <v>3.1</v>
+      </c>
+      <c r="N36">
         <v>3.6</v>
       </c>
-      <c r="L36">
-        <v>4.2</v>
-      </c>
-      <c r="M36">
-        <v>1.533</v>
-      </c>
-      <c r="N36">
-        <v>4.5</v>
-      </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>0.5329999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3627,13 +3645,13 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3644,82 +3662,82 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011591</v>
+        <v>6011665</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45115.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37">
         <v>2</v>
       </c>
-      <c r="I37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L37">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O37">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
         <v>-1</v>
@@ -3730,82 +3748,82 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011665</v>
+        <v>6011588</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45115.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
         <v>3.25</v>
       </c>
       <c r="T38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -3819,16 +3837,16 @@
         <v>6011590</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45116.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J39">
         <v>2.25</v>
@@ -3905,16 +3923,16 @@
         <v>6011592</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45116.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3923,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3991,16 +4009,16 @@
         <v>6014975</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45116.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4009,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -4077,16 +4095,16 @@
         <v>6011597</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45142.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4095,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4163,16 +4181,16 @@
         <v>6010977</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4181,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4249,16 +4267,16 @@
         <v>6014974</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4267,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J44">
         <v>2.15</v>
@@ -4335,16 +4353,16 @@
         <v>6011595</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4353,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4421,16 +4439,16 @@
         <v>6011594</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4439,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J46">
         <v>1.65</v>
@@ -4504,85 +4522,85 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011596</v>
+        <v>6011593</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="I47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47">
+        <v>1.571</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>4.75</v>
+      </c>
+      <c r="M47">
+        <v>1.444</v>
+      </c>
+      <c r="N47">
+        <v>4.75</v>
+      </c>
+      <c r="O47">
+        <v>6.5</v>
+      </c>
+      <c r="P47">
+        <v>-1.25</v>
+      </c>
+      <c r="Q47">
+        <v>1.85</v>
+      </c>
+      <c r="R47">
         <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47">
-        <v>2.7</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>2.3</v>
-      </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>3.8</v>
-      </c>
-      <c r="O47">
-        <v>2.5</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
-      <c r="R47">
-        <v>1.85</v>
       </c>
       <c r="S47">
         <v>3.25</v>
       </c>
       <c r="T47">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA47">
         <v>-0.5</v>
       </c>
       <c r="AB47">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4590,67 +4608,67 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011593</v>
+        <v>6011444</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J48">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="K48">
+        <v>3.4</v>
+      </c>
+      <c r="L48">
+        <v>2.5</v>
+      </c>
+      <c r="M48">
+        <v>1.85</v>
+      </c>
+      <c r="N48">
         <v>4</v>
       </c>
-      <c r="L48">
-        <v>4.75</v>
-      </c>
-      <c r="M48">
-        <v>1.444</v>
-      </c>
-      <c r="N48">
-        <v>4.75</v>
-      </c>
       <c r="O48">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>0.444</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4659,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y48">
+        <v>0.5125</v>
+      </c>
+      <c r="Z48">
         <v>-0.5</v>
       </c>
-      <c r="Z48">
-        <v>0.5</v>
-      </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4676,85 +4694,85 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6011444</v>
+        <v>6011596</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
         <v>43</v>
-      </c>
-      <c r="F49" t="s">
-        <v>36</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J49">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="K49">
         <v>3.4</v>
       </c>
       <c r="L49">
+        <v>2.3</v>
+      </c>
+      <c r="M49">
+        <v>2.55</v>
+      </c>
+      <c r="N49">
+        <v>3.8</v>
+      </c>
+      <c r="O49">
         <v>2.5</v>
       </c>
-      <c r="M49">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
         <v>1.85</v>
       </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="O49">
-        <v>3.8</v>
-      </c>
-      <c r="P49">
-        <v>-0.75</v>
-      </c>
-      <c r="Q49">
-        <v>2.025</v>
-      </c>
-      <c r="R49">
-        <v>1.825</v>
-      </c>
       <c r="S49">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
+        <v>-1</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>1.5</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
         <v>0.8500000000000001</v>
       </c>
-      <c r="W49">
-        <v>-1</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>0.5125</v>
-      </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>-0.5</v>
       </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4765,16 +4783,16 @@
         <v>6011599</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45147.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4783,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4848,85 +4866,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011602</v>
+        <v>6014973</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45147.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J51">
+        <v>2.55</v>
+      </c>
+      <c r="K51">
+        <v>3.4</v>
+      </c>
+      <c r="L51">
+        <v>2.45</v>
+      </c>
+      <c r="M51">
+        <v>3.1</v>
+      </c>
+      <c r="N51">
+        <v>3.5</v>
+      </c>
+      <c r="O51">
+        <v>2.25</v>
+      </c>
+      <c r="P51">
+        <v>0.25</v>
+      </c>
+      <c r="Q51">
+        <v>1.925</v>
+      </c>
+      <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>2.75</v>
+      </c>
+      <c r="T51">
         <v>1.95</v>
       </c>
-      <c r="K51">
-        <v>3.5</v>
-      </c>
-      <c r="L51">
-        <v>3.2</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <v>3.75</v>
-      </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
-      <c r="P51">
-        <v>-0.5</v>
-      </c>
-      <c r="Q51">
-        <v>2</v>
-      </c>
-      <c r="R51">
-        <v>1.85</v>
-      </c>
-      <c r="S51">
-        <v>3.25</v>
-      </c>
-      <c r="T51">
-        <v>1.925</v>
-      </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4934,85 +4952,85 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6014973</v>
+        <v>6011445</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45147.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J52">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="K52">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="P52">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5020,49 +5038,49 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011445</v>
+        <v>6011598</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45147.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J53">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="M53">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O53">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="P53">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q53">
         <v>1.975</v>
@@ -5071,31 +5089,31 @@
         <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5106,85 +5124,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011598</v>
+        <v>6011601</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45147.54166666666</v>
       </c>
       <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
         <v>36</v>
       </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54">
+        <v>1.666</v>
+      </c>
+      <c r="K54">
         <v>4</v>
       </c>
-      <c r="I54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54">
-        <v>2.8</v>
-      </c>
-      <c r="K54">
-        <v>3.4</v>
-      </c>
       <c r="L54">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="N54">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O54">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="P54">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5192,67 +5210,67 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011601</v>
+        <v>6011602</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45147.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J55">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O55">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5261,16 +5279,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5281,16 +5299,16 @@
         <v>6011957</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45151.5</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5299,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J56">
         <v>1.533</v>
@@ -5364,85 +5382,85 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6011667</v>
+        <v>6011666</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45151.5</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J57">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
+        <v>2.875</v>
+      </c>
+      <c r="M57">
+        <v>2.55</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
         <v>2.9</v>
       </c>
-      <c r="M57">
-        <v>2.15</v>
-      </c>
-      <c r="N57">
-        <v>3.75</v>
-      </c>
-      <c r="O57">
-        <v>3.1</v>
-      </c>
       <c r="P57">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S57">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T57">
+        <v>1.9</v>
+      </c>
+      <c r="U57">
         <v>1.95</v>
       </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
       <c r="V57">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5450,85 +5468,85 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011666</v>
+        <v>6011667</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45151.5</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J58">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L58">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T58">
+        <v>1.95</v>
+      </c>
+      <c r="U58">
         <v>1.9</v>
       </c>
-      <c r="U58">
-        <v>1.95</v>
-      </c>
       <c r="V58">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5539,16 +5557,16 @@
         <v>6014972</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45151.5</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5557,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J59">
         <v>2.1</v>
@@ -5625,16 +5643,16 @@
         <v>6011605</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45151.5</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5643,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J60">
         <v>2.15</v>
@@ -5708,67 +5726,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011603</v>
+        <v>6010979</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45151.5</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J61">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="K61">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L61">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q61">
+        <v>1.975</v>
+      </c>
+      <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
+        <v>2.25</v>
+      </c>
+      <c r="T61">
+        <v>1.8</v>
+      </c>
+      <c r="U61">
         <v>2.05</v>
       </c>
-      <c r="R61">
-        <v>1.8</v>
-      </c>
-      <c r="S61">
-        <v>3.25</v>
-      </c>
-      <c r="T61">
-        <v>1.975</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
       <c r="V61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5777,13 +5795,13 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5794,67 +5812,67 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6010979</v>
+        <v>6011603</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45151.5</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J62">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="K62">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N62">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P62">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q62">
+        <v>2.05</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>3.25</v>
+      </c>
+      <c r="T62">
         <v>1.975</v>
       </c>
-      <c r="R62">
+      <c r="U62">
         <v>1.875</v>
       </c>
-      <c r="S62">
-        <v>2.25</v>
-      </c>
-      <c r="T62">
-        <v>1.8</v>
-      </c>
-      <c r="U62">
-        <v>2.05</v>
-      </c>
       <c r="V62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -5863,13 +5881,13 @@
         <v>-1</v>
       </c>
       <c r="Y62">
+        <v>1.05</v>
+      </c>
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
-      <c r="AA62">
-        <v>0.8</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -5883,16 +5901,16 @@
         <v>6011604</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45151.5</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5901,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J63">
         <v>2.6</v>
@@ -5969,16 +5987,16 @@
         <v>6010980</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5987,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J64">
         <v>2.2</v>
@@ -6055,16 +6073,16 @@
         <v>6011669</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6073,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -6141,16 +6159,16 @@
         <v>6011607</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6159,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J66">
         <v>2.3</v>
@@ -6227,16 +6245,16 @@
         <v>6011958</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6245,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J67">
         <v>2.1</v>
@@ -6313,16 +6331,16 @@
         <v>6011606</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6331,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J68">
         <v>2.875</v>
@@ -6399,16 +6417,16 @@
         <v>6011668</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -6417,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -6485,16 +6503,16 @@
         <v>6014971</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6503,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J70">
         <v>1.95</v>
@@ -6571,16 +6589,16 @@
         <v>6011446</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6589,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6657,16 +6675,16 @@
         <v>6010981</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6675,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J72">
         <v>1.533</v>
@@ -6743,16 +6761,16 @@
         <v>6011608</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6761,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6829,16 +6847,16 @@
         <v>6011611</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J74">
         <v>1.615</v>
@@ -6912,85 +6930,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6011959</v>
+        <v>6011965</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J75">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
         <v>-1</v>
       </c>
       <c r="W75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6998,85 +7016,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6011965</v>
+        <v>6011959</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J76">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7084,85 +7102,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6014970</v>
+        <v>6011610</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J77">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M77">
+        <v>2.8</v>
+      </c>
+      <c r="N77">
+        <v>3.75</v>
+      </c>
+      <c r="O77">
+        <v>2.375</v>
+      </c>
+      <c r="P77">
+        <v>0.25</v>
+      </c>
+      <c r="Q77">
+        <v>1.75</v>
+      </c>
+      <c r="R77">
         <v>2.05</v>
       </c>
-      <c r="N77">
-        <v>3.6</v>
-      </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
-      <c r="P77">
-        <v>-0.25</v>
-      </c>
-      <c r="Q77">
-        <v>1.825</v>
-      </c>
-      <c r="R77">
-        <v>2.025</v>
-      </c>
       <c r="S77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
+        <v>-1</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>1.375</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>1.05</v>
       </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>0.825</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7170,43 +7188,43 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6011610</v>
+        <v>6011609</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J78">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K78">
+        <v>3.4</v>
+      </c>
+      <c r="L78">
+        <v>2.55</v>
+      </c>
+      <c r="M78">
+        <v>2.875</v>
+      </c>
+      <c r="N78">
         <v>3.6</v>
-      </c>
-      <c r="L78">
-        <v>2.5</v>
-      </c>
-      <c r="M78">
-        <v>2.8</v>
-      </c>
-      <c r="N78">
-        <v>3.75</v>
       </c>
       <c r="O78">
         <v>2.375</v>
@@ -7215,40 +7233,40 @@
         <v>0.25</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
         <v>3.25</v>
       </c>
       <c r="T78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7256,49 +7274,49 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6011609</v>
+        <v>6014970</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45161.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J79">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="K79">
         <v>3.4</v>
       </c>
       <c r="L79">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="N79">
         <v>3.6</v>
       </c>
       <c r="O79">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q79">
         <v>1.825</v>
@@ -7307,16 +7325,16 @@
         <v>2.025</v>
       </c>
       <c r="S79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7331,10 +7349,10 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7345,16 +7363,16 @@
         <v>6011613</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7363,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J80">
         <v>2.4</v>
@@ -7431,16 +7449,16 @@
         <v>6010982</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45165.5</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7449,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J81">
         <v>1.55</v>
@@ -7517,16 +7535,16 @@
         <v>6011447</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45165.5</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7535,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7603,16 +7621,16 @@
         <v>6011612</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45165.5</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7689,16 +7707,16 @@
         <v>6011966</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45165.5</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7707,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7775,16 +7793,16 @@
         <v>6011614</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45165.5</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J85">
         <v>1.55</v>
@@ -7861,16 +7879,16 @@
         <v>6011615</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45165.5</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7879,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J86">
         <v>2.4</v>
@@ -7947,16 +7965,16 @@
         <v>6014969</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45166.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7965,7 +7983,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J87">
         <v>2.65</v>
@@ -8033,16 +8051,16 @@
         <v>6011616</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8119,16 +8137,16 @@
         <v>6011967</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8137,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J89">
         <v>1.533</v>
@@ -8205,16 +8223,16 @@
         <v>6010983</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8223,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J90">
         <v>2.9</v>
@@ -8291,16 +8309,16 @@
         <v>6011617</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8309,7 +8327,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J91">
         <v>1.571</v>
@@ -8377,16 +8395,16 @@
         <v>6014968</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8395,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8463,16 +8481,16 @@
         <v>6011945</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G93">
         <v>6</v>
@@ -8481,7 +8499,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J93">
         <v>1.55</v>
@@ -8549,16 +8567,16 @@
         <v>6011448</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8567,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8635,16 +8653,16 @@
         <v>6011618</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8653,7 +8671,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8721,16 +8739,16 @@
         <v>7167384</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45184.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8757,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8807,16 +8825,16 @@
         <v>6011946</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J97">
         <v>3.1</v>
@@ -8893,16 +8911,16 @@
         <v>6011620</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8911,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8979,16 +8997,16 @@
         <v>6010984</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8997,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J99">
         <v>1.95</v>
@@ -9062,67 +9080,67 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6014967</v>
+        <v>6011619</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J100">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="N100">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9131,16 +9149,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9148,58 +9166,58 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6011619</v>
+        <v>6011621</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J101">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M101">
         <v>1.909</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
         <v>-0.5</v>
       </c>
       <c r="Q101">
+        <v>1.95</v>
+      </c>
+      <c r="R101">
         <v>1.9</v>
       </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
       <c r="S101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T101">
         <v>1.925</v>
@@ -9208,25 +9226,25 @@
         <v>1.925</v>
       </c>
       <c r="V101">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
       <c r="AA101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9234,85 +9252,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6011621</v>
+        <v>7167383</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J102">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="K102">
         <v>3.4</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="M102">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N102">
         <v>3.6</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q102">
+        <v>1.9</v>
+      </c>
+      <c r="R102">
         <v>1.95</v>
-      </c>
-      <c r="R102">
-        <v>1.9</v>
       </c>
       <c r="S102">
         <v>3</v>
       </c>
       <c r="T102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9320,67 +9338,67 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7167383</v>
+        <v>6014967</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J103">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="K103">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L103">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P103">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
         <v>3</v>
       </c>
       <c r="T103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9389,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9409,16 +9427,16 @@
         <v>6011670</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9427,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9495,16 +9513,16 @@
         <v>6011625</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9513,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9581,16 +9599,16 @@
         <v>6011624</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9599,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J106">
         <v>4.75</v>
@@ -9667,16 +9685,16 @@
         <v>6010985</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9685,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J107">
         <v>2.1</v>
@@ -9753,16 +9771,16 @@
         <v>6014966</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9771,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9839,16 +9857,16 @@
         <v>6011947</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9857,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J109">
         <v>1.5</v>
@@ -9925,16 +9943,16 @@
         <v>6011623</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9943,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J110">
         <v>1.8</v>
@@ -10011,16 +10029,16 @@
         <v>6011450</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10029,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J111">
         <v>2.8</v>
@@ -10097,16 +10115,16 @@
         <v>7236111</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10115,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J112">
         <v>2.15</v>
@@ -10183,16 +10201,16 @@
         <v>6011627</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10201,7 +10219,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J113">
         <v>3.2</v>
@@ -10269,16 +10287,16 @@
         <v>6011628</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10287,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10355,16 +10373,16 @@
         <v>6011629</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10373,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J115">
         <v>2.625</v>
@@ -10441,16 +10459,16 @@
         <v>6011948</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10459,7 +10477,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10527,16 +10545,16 @@
         <v>6011630</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10545,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10613,16 +10631,16 @@
         <v>6014965</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10631,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J118">
         <v>1.95</v>
@@ -10699,16 +10717,16 @@
         <v>6011626</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10717,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J119">
         <v>1.533</v>
@@ -10785,16 +10803,16 @@
         <v>6011451</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10821,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J120">
         <v>1.65</v>
@@ -10871,16 +10889,16 @@
         <v>7270775</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45203.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10889,7 +10907,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10957,16 +10975,16 @@
         <v>6014964</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10975,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11043,16 +11061,16 @@
         <v>6011637</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11061,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J123">
         <v>4.1</v>
@@ -11129,16 +11147,16 @@
         <v>6011636</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J124">
         <v>1.909</v>
@@ -11215,16 +11233,16 @@
         <v>7287869</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11233,7 +11251,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J125">
         <v>2.625</v>
@@ -11301,16 +11319,16 @@
         <v>6011452</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J126">
         <v>1.666</v>
@@ -11387,16 +11405,16 @@
         <v>6011638</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11405,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J127">
         <v>2.05</v>
@@ -11473,16 +11491,16 @@
         <v>6011639</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11491,7 +11509,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J128">
         <v>3.6</v>
@@ -11559,16 +11577,16 @@
         <v>6011671</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -11577,7 +11595,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J129">
         <v>1.85</v>
@@ -11645,16 +11663,16 @@
         <v>6011672</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11663,7 +11681,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J130">
         <v>3.8</v>
@@ -11731,16 +11749,16 @@
         <v>6010987</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11749,7 +11767,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J131">
         <v>2.875</v>
@@ -11817,16 +11835,16 @@
         <v>6011642</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11835,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J132">
         <v>1.727</v>
@@ -11903,16 +11921,16 @@
         <v>6011643</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11921,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J133">
         <v>2.875</v>
@@ -11989,16 +12007,16 @@
         <v>6011640</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12007,7 +12025,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12075,16 +12093,16 @@
         <v>6014963</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12093,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12161,16 +12179,16 @@
         <v>6011641</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J136">
         <v>1.7</v>
@@ -12247,16 +12265,16 @@
         <v>6011453</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12265,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J137">
         <v>1.4</v>
@@ -12333,16 +12351,16 @@
         <v>6011674</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12351,7 +12369,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J138">
         <v>2.9</v>
@@ -12419,16 +12437,16 @@
         <v>6011646</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12437,7 +12455,7 @@
         <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J139">
         <v>2.15</v>
@@ -12505,16 +12523,16 @@
         <v>6011645</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12523,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J140">
         <v>2.9</v>
@@ -12591,16 +12609,16 @@
         <v>6011673</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12609,7 +12627,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J141">
         <v>1.5</v>
@@ -12677,16 +12695,16 @@
         <v>6011644</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -12695,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J142">
         <v>1.571</v>
@@ -12763,16 +12781,16 @@
         <v>6010988</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12781,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J143">
         <v>2.15</v>
@@ -12849,16 +12867,16 @@
         <v>6014962</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J144">
         <v>2.05</v>
@@ -12935,16 +12953,16 @@
         <v>6011454</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12953,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J145">
         <v>1.85</v>
@@ -13021,16 +13039,16 @@
         <v>6011649</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E146" t="s">
+        <v>44</v>
+      </c>
+      <c r="F146" t="s">
         <v>38</v>
-      </c>
-      <c r="F146" t="s">
-        <v>32</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13039,7 +13057,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J146">
         <v>1.571</v>
@@ -13107,16 +13125,16 @@
         <v>6011650</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13125,7 +13143,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J147">
         <v>2.5</v>
@@ -13193,16 +13211,16 @@
         <v>6014961</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13211,7 +13229,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J148">
         <v>3.2</v>
@@ -13279,16 +13297,16 @@
         <v>6011675</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13297,7 +13315,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13365,16 +13383,16 @@
         <v>6010989</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13383,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J150">
         <v>2.3</v>
@@ -13451,16 +13469,16 @@
         <v>6011455</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E151" t="s">
+        <v>49</v>
+      </c>
+      <c r="F151" t="s">
         <v>43</v>
-      </c>
-      <c r="F151" t="s">
-        <v>37</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13469,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J151">
         <v>2.5</v>
@@ -13537,16 +13555,16 @@
         <v>6011647</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13555,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J152">
         <v>2.25</v>
@@ -13623,16 +13641,16 @@
         <v>6011648</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13641,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J153">
         <v>1.2</v>
@@ -13709,16 +13727,16 @@
         <v>6011651</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13727,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13795,16 +13813,16 @@
         <v>6011652</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J155">
         <v>1.75</v>
@@ -13881,16 +13899,16 @@
         <v>6011676</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13899,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J156">
         <v>1.55</v>
@@ -13967,16 +13985,16 @@
         <v>6011968</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +14003,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J157">
         <v>1.55</v>
@@ -14053,16 +14071,16 @@
         <v>6011971</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14071,7 +14089,7 @@
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J158">
         <v>4.75</v>
@@ -14139,16 +14157,16 @@
         <v>6014960</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14157,7 +14175,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J159">
         <v>1.6</v>
@@ -14225,16 +14243,16 @@
         <v>6011949</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14243,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J160">
         <v>2.2</v>
@@ -14311,16 +14329,16 @@
         <v>6010990</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14329,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J161">
         <v>2.875</v>
@@ -14397,16 +14415,16 @@
         <v>7629075</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45383.5</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14415,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J162">
         <v>2.1</v>
@@ -14483,16 +14501,16 @@
         <v>7628611</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45383.5</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14501,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J163">
         <v>1.5</v>
@@ -14569,16 +14587,16 @@
         <v>7629074</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45383.5</v>
       </c>
       <c r="E164" t="s">
+        <v>48</v>
+      </c>
+      <c r="F164" t="s">
         <v>42</v>
-      </c>
-      <c r="F164" t="s">
-        <v>36</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14587,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J164">
         <v>1.727</v>
@@ -14655,16 +14673,16 @@
         <v>7628610</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45383.5</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14673,7 +14691,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J165">
         <v>2.2</v>
@@ -14741,16 +14759,16 @@
         <v>7629077</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45383.5</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14759,7 +14777,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J166">
         <v>1.8</v>
@@ -14827,16 +14845,16 @@
         <v>7629012</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45383.5</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14845,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J167">
         <v>2.25</v>
@@ -14913,16 +14931,16 @@
         <v>7628520</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45383.5</v>
       </c>
       <c r="E168" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14931,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J168">
         <v>2</v>
@@ -14999,16 +15017,16 @@
         <v>7629076</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45383.5</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15017,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J169">
         <v>2.4</v>
@@ -15085,16 +15103,16 @@
         <v>7628521</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15103,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J170">
         <v>2.15</v>
@@ -15171,16 +15189,16 @@
         <v>7629277</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" t="s">
         <v>49</v>
-      </c>
-      <c r="F171" t="s">
-        <v>43</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15189,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15257,16 +15275,16 @@
         <v>7629014</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15275,7 +15293,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15343,16 +15361,16 @@
         <v>7629013</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -15361,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J173">
         <v>1.615</v>
@@ -15429,16 +15447,16 @@
         <v>7628613</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15447,7 +15465,7 @@
         <v>2</v>
       </c>
       <c r="I174" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J174">
         <v>6.5</v>
@@ -15515,16 +15533,16 @@
         <v>7629142</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15533,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J175">
         <v>1.75</v>
@@ -15601,16 +15619,16 @@
         <v>7629078</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45389.5</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J176">
         <v>3</v>
@@ -15687,16 +15705,16 @@
         <v>7628614</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45396.5</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15723,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J177">
         <v>1.533</v>
@@ -15770,85 +15788,85 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7629016</v>
+        <v>7629247</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J178">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K178">
         <v>3.6</v>
       </c>
       <c r="L178">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O178">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q178">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
         <v>3</v>
       </c>
       <c r="T178">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
         <v>-1</v>
       </c>
       <c r="W178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15856,85 +15874,85 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7628522</v>
+        <v>7629015</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J179">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="K179">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L179">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="M179">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N179">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O179">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="P179">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15942,85 +15960,85 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7628615</v>
+        <v>7628522</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E180" t="s">
+        <v>51</v>
+      </c>
+      <c r="F180" t="s">
         <v>42</v>
       </c>
-      <c r="F180" t="s">
-        <v>51</v>
-      </c>
       <c r="G180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J180">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K180">
         <v>3.75</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="M180">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P180">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S180">
         <v>3</v>
       </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W180">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16028,10 +16046,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7629015</v>
+        <v>7629016</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45397.58333333334</v>
@@ -16040,7 +16058,7 @@
         <v>40</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,64 +16067,64 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J181">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K181">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
+        <v>2.8</v>
+      </c>
+      <c r="M181">
+        <v>2.6</v>
+      </c>
+      <c r="N181">
+        <v>3.75</v>
+      </c>
+      <c r="O181">
+        <v>2.5</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>1.975</v>
+      </c>
+      <c r="R181">
+        <v>1.875</v>
+      </c>
+      <c r="S181">
+        <v>3</v>
+      </c>
+      <c r="T181">
+        <v>1.925</v>
+      </c>
+      <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
+        <v>-1</v>
+      </c>
+      <c r="W181">
         <v>2.75</v>
       </c>
-      <c r="M181">
-        <v>2.875</v>
-      </c>
-      <c r="N181">
-        <v>3.8</v>
-      </c>
-      <c r="O181">
-        <v>2.25</v>
-      </c>
-      <c r="P181">
-        <v>0.25</v>
-      </c>
-      <c r="Q181">
-        <v>1.825</v>
-      </c>
-      <c r="R181">
-        <v>2.025</v>
-      </c>
-      <c r="S181">
-        <v>2.75</v>
-      </c>
-      <c r="T181">
-        <v>1.85</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-      <c r="V181">
-        <v>-1</v>
-      </c>
-      <c r="W181">
-        <v>2.8</v>
-      </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16114,64 +16132,64 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7629247</v>
+        <v>7629080</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J182">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K182">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M182">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N182">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P182">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
         <v>-1</v>
@@ -16180,19 +16198,19 @@
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16200,85 +16218,85 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7629080</v>
+        <v>7628615</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H183">
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J183">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L183">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M183">
         <v>1.65</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O183">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P183">
         <v>-0.75</v>
       </c>
       <c r="Q183">
+        <v>1.85</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>3</v>
+      </c>
+      <c r="T183">
         <v>1.825</v>
       </c>
-      <c r="R183">
+      <c r="U183">
         <v>2.025</v>
       </c>
-      <c r="S183">
-        <v>2.75</v>
-      </c>
-      <c r="T183">
-        <v>1.875</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X183">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA183">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16289,16 +16307,16 @@
         <v>7629079</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16307,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16375,16 +16393,16 @@
         <v>7629081</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E185" t="s">
+        <v>54</v>
+      </c>
+      <c r="F185" t="s">
         <v>48</v>
-      </c>
-      <c r="F185" t="s">
-        <v>42</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16393,7 +16411,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J185">
         <v>2.2</v>
@@ -16461,16 +16479,16 @@
         <v>7629017</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16479,7 +16497,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16547,16 +16565,16 @@
         <v>7628616</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16565,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -16633,16 +16651,16 @@
         <v>7628523</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16651,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J188">
         <v>1.727</v>
@@ -16716,85 +16734,85 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7629083</v>
+        <v>7629082</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J189">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="K189">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L189">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O189">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q189">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T189">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X189">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16802,85 +16820,85 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7629082</v>
+        <v>7629083</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J190">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="K190">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="M190">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="N190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="P190">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T190">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
         <v>-1</v>
       </c>
       <c r="W190">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16891,16 +16909,16 @@
         <v>7628617</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45402.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16909,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J191">
         <v>3.3</v>
@@ -16977,16 +16995,16 @@
         <v>7629018</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E192" t="s">
+        <v>49</v>
+      </c>
+      <c r="F192" t="s">
         <v>43</v>
-      </c>
-      <c r="F192" t="s">
-        <v>37</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16995,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J192">
         <v>2</v>
@@ -17063,16 +17081,16 @@
         <v>7629084</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17081,7 +17099,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J193">
         <v>1.727</v>
@@ -17149,16 +17167,16 @@
         <v>7629249</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17167,7 +17185,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J194">
         <v>2.5</v>
@@ -17235,16 +17253,16 @@
         <v>7629085</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17253,7 +17271,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J195">
         <v>2.9</v>
@@ -17321,16 +17339,16 @@
         <v>7629019</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17339,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J196">
         <v>1.666</v>
@@ -17407,16 +17425,16 @@
         <v>7631936</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17425,7 +17443,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J197">
         <v>2.25</v>
@@ -17493,16 +17511,16 @@
         <v>7628618</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45410.39583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G198">
         <v>5</v>
@@ -17511,7 +17529,7 @@
         <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J198">
         <v>4.333</v>
@@ -17579,16 +17597,16 @@
         <v>7629143</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45410.5</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17597,7 +17615,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17665,52 +17683,52 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45416.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J200">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M200">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N200">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O200">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P200">
         <v>-0.25</v>
       </c>
       <c r="Q200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
         <v>2.75</v>
       </c>
       <c r="T200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -17730,16 +17748,16 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45416.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J201">
         <v>2.4</v>
@@ -17784,6 +17802,396 @@
         <v>0</v>
       </c>
       <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E202" t="s">
+        <v>52</v>
+      </c>
+      <c r="F202" t="s">
+        <v>49</v>
+      </c>
+      <c r="J202">
+        <v>1.75</v>
+      </c>
+      <c r="K202">
+        <v>3.5</v>
+      </c>
+      <c r="L202">
+        <v>3.9</v>
+      </c>
+      <c r="M202">
+        <v>1.666</v>
+      </c>
+      <c r="N202">
+        <v>3.6</v>
+      </c>
+      <c r="O202">
+        <v>4.2</v>
+      </c>
+      <c r="P202">
+        <v>-0.75</v>
+      </c>
+      <c r="Q202">
+        <v>1.975</v>
+      </c>
+      <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>2.75</v>
+      </c>
+      <c r="T202">
+        <v>1.925</v>
+      </c>
+      <c r="U202">
+        <v>1.925</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="s">
+        <v>35</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E203" t="s">
+        <v>54</v>
+      </c>
+      <c r="F203" t="s">
+        <v>43</v>
+      </c>
+      <c r="J203">
+        <v>2.05</v>
+      </c>
+      <c r="K203">
+        <v>3.8</v>
+      </c>
+      <c r="L203">
+        <v>2.75</v>
+      </c>
+      <c r="M203">
+        <v>1.95</v>
+      </c>
+      <c r="N203">
+        <v>3.8</v>
+      </c>
+      <c r="O203">
+        <v>2.9</v>
+      </c>
+      <c r="P203">
+        <v>-0.25</v>
+      </c>
+      <c r="Q203">
+        <v>1.8</v>
+      </c>
+      <c r="R203">
+        <v>2.05</v>
+      </c>
+      <c r="S203">
+        <v>3</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E204" t="s">
+        <v>50</v>
+      </c>
+      <c r="F204" t="s">
+        <v>42</v>
+      </c>
+      <c r="J204">
+        <v>1.85</v>
+      </c>
+      <c r="K204">
+        <v>3.5</v>
+      </c>
+      <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>2.3</v>
+      </c>
+      <c r="N204">
+        <v>3.5</v>
+      </c>
+      <c r="O204">
+        <v>2.625</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>1.8</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
+        <v>2.75</v>
+      </c>
+      <c r="T204">
+        <v>1.825</v>
+      </c>
+      <c r="U204">
+        <v>2.025</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E205" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" t="s">
+        <v>53</v>
+      </c>
+      <c r="J205">
+        <v>2.7</v>
+      </c>
+      <c r="K205">
+        <v>3.9</v>
+      </c>
+      <c r="L205">
+        <v>2.05</v>
+      </c>
+      <c r="M205">
+        <v>2.25</v>
+      </c>
+      <c r="N205">
+        <v>3.8</v>
+      </c>
+      <c r="O205">
+        <v>2.55</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>1.8</v>
+      </c>
+      <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
+        <v>3</v>
+      </c>
+      <c r="T205">
+        <v>2.05</v>
+      </c>
+      <c r="U205">
+        <v>1.8</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E206" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" t="s">
+        <v>40</v>
+      </c>
+      <c r="J206">
+        <v>2.1</v>
+      </c>
+      <c r="K206">
+        <v>3.3</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>2.05</v>
+      </c>
+      <c r="N206">
+        <v>3.3</v>
+      </c>
+      <c r="O206">
+        <v>3</v>
+      </c>
+      <c r="P206">
+        <v>-0.25</v>
+      </c>
+      <c r="Q206">
+        <v>1.875</v>
+      </c>
+      <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
+        <v>2.75</v>
+      </c>
+      <c r="T206">
+        <v>1.925</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E207" t="s">
+        <v>57</v>
+      </c>
+      <c r="F207" t="s">
+        <v>56</v>
+      </c>
+      <c r="J207">
+        <v>1.8</v>
+      </c>
+      <c r="K207">
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>3.25</v>
+      </c>
+      <c r="M207">
+        <v>1.909</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207">
+        <v>3</v>
+      </c>
+      <c r="P207">
+        <v>-0.5</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>3</v>
+      </c>
+      <c r="T207">
+        <v>1.85</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
         <v>0</v>
       </c>
     </row>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7629088</t>
+    <t>7628524</t>
   </si>
   <si>
-    <t>7628524</t>
+    <t>7628619</t>
   </si>
   <si>
     <t>7628620</t>
@@ -115,10 +115,10 @@
     <t>7629086</t>
   </si>
   <si>
-    <t>7629087</t>
+    <t>7629088</t>
   </si>
   <si>
-    <t>7628619</t>
+    <t>7629087</t>
   </si>
   <si>
     <t>Norway Division 1</t>
@@ -2372,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011584</v>
+        <v>6011583</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2381,40 +2381,40 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="K22">
         <v>3.5</v>
       </c>
       <c r="L22">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O22">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q22">
         <v>1.875</v>
@@ -2423,19 +2423,19 @@
         <v>1.975</v>
       </c>
       <c r="S22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W22">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2447,10 +2447,10 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6011583</v>
+        <v>6011584</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -2467,40 +2467,40 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J23">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="K23">
         <v>3.5</v>
       </c>
       <c r="L23">
+        <v>1.95</v>
+      </c>
+      <c r="M23">
+        <v>3.5</v>
+      </c>
+      <c r="N23">
         <v>3.75</v>
       </c>
-      <c r="M23">
-        <v>1.909</v>
-      </c>
-      <c r="N23">
-        <v>3.6</v>
-      </c>
       <c r="O23">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P23">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q23">
         <v>1.875</v>
@@ -2509,19 +2509,19 @@
         <v>1.975</v>
       </c>
       <c r="S23">
+        <v>3.25</v>
+      </c>
+      <c r="T23">
+        <v>1.975</v>
+      </c>
+      <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
+      <c r="W23">
         <v>2.75</v>
-      </c>
-      <c r="T23">
-        <v>1.85</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>0.909</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2533,10 +2533,10 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3576,7 +3576,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011591</v>
+        <v>6011588</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -3585,58 +3585,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>58</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O36">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="P36">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>2.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3645,13 +3645,13 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3662,7 +3662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011665</v>
+        <v>6011591</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -3671,73 +3671,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="M37">
+        <v>3.1</v>
+      </c>
+      <c r="N37">
+        <v>3.6</v>
+      </c>
+      <c r="O37">
+        <v>2.15</v>
+      </c>
+      <c r="P37">
+        <v>0.25</v>
+      </c>
+      <c r="Q37">
+        <v>1.95</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>1.95</v>
+      </c>
+      <c r="U37">
+        <v>1.9</v>
+      </c>
+      <c r="V37">
         <v>2.1</v>
       </c>
-      <c r="N37">
-        <v>3.75</v>
-      </c>
-      <c r="O37">
-        <v>3.3</v>
-      </c>
-      <c r="P37">
-        <v>-0.5</v>
-      </c>
-      <c r="Q37">
-        <v>1.925</v>
-      </c>
-      <c r="R37">
-        <v>1.925</v>
-      </c>
-      <c r="S37">
-        <v>3.25</v>
-      </c>
-      <c r="T37">
-        <v>1.825</v>
-      </c>
-      <c r="U37">
-        <v>2.025</v>
-      </c>
-      <c r="V37">
-        <v>-1</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
         <v>-1</v>
@@ -3748,7 +3748,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011588</v>
+        <v>6011665</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -3757,73 +3757,73 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L38">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O38">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
         <v>3.25</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>0.925</v>
+      </c>
+      <c r="AA38">
         <v>0.825</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -4522,7 +4522,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011593</v>
+        <v>6011596</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -4531,76 +4531,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>2</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J47">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="M47">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O47">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="P47">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
         <v>1.85</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
       </c>
       <c r="S47">
         <v>3.25</v>
       </c>
       <c r="T47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>-0.5</v>
       </c>
       <c r="AB47">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4608,7 +4608,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011444</v>
+        <v>6011593</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -4617,58 +4617,58 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
         <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>58</v>
       </c>
       <c r="J48">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="M48">
+        <v>1.444</v>
+      </c>
+      <c r="N48">
+        <v>4.75</v>
+      </c>
+      <c r="O48">
+        <v>6.5</v>
+      </c>
+      <c r="P48">
+        <v>-1.25</v>
+      </c>
+      <c r="Q48">
         <v>1.85</v>
       </c>
-      <c r="N48">
-        <v>4</v>
-      </c>
-      <c r="O48">
-        <v>3.8</v>
-      </c>
-      <c r="P48">
-        <v>-0.75</v>
-      </c>
-      <c r="Q48">
-        <v>2.025</v>
-      </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>0.8500000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4677,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="Z48">
+        <v>0.5</v>
+      </c>
+      <c r="AA48">
         <v>-0.5</v>
       </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6011596</v>
+        <v>6011444</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -4703,76 +4703,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J49">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K49">
         <v>3.4</v>
       </c>
       <c r="L49">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M49">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
         <v>3.8</v>
       </c>
-      <c r="O49">
-        <v>2.5</v>
-      </c>
       <c r="P49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4866,7 +4866,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6014973</v>
+        <v>6011602</v>
       </c>
       <c r="C51" t="s">
         <v>35</v>
@@ -4875,76 +4875,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51">
+        <v>1.95</v>
+      </c>
+      <c r="K51">
+        <v>3.5</v>
+      </c>
+      <c r="L51">
+        <v>3.2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3.75</v>
+      </c>
+      <c r="O51">
+        <v>3.5</v>
+      </c>
+      <c r="P51">
+        <v>-0.5</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>1.85</v>
+      </c>
+      <c r="S51">
+        <v>3.25</v>
+      </c>
+      <c r="T51">
+        <v>1.925</v>
+      </c>
+      <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
         <v>1</v>
       </c>
-      <c r="I51" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51">
-        <v>2.55</v>
-      </c>
-      <c r="K51">
-        <v>3.4</v>
-      </c>
-      <c r="L51">
-        <v>2.45</v>
-      </c>
-      <c r="M51">
-        <v>3.1</v>
-      </c>
-      <c r="N51">
-        <v>3.5</v>
-      </c>
-      <c r="O51">
-        <v>2.25</v>
-      </c>
-      <c r="P51">
-        <v>0.25</v>
-      </c>
-      <c r="Q51">
-        <v>1.925</v>
-      </c>
-      <c r="R51">
-        <v>1.925</v>
-      </c>
-      <c r="S51">
-        <v>2.75</v>
-      </c>
-      <c r="T51">
-        <v>1.95</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>-1</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.925</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4952,7 +4952,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011445</v>
+        <v>6014973</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -4961,76 +4961,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J52">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L52">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="M52">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O52">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="P52">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5038,7 +5038,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011598</v>
+        <v>6011445</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -5047,40 +5047,40 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
-      <c r="H53">
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53">
+        <v>1.6</v>
+      </c>
+      <c r="K53">
+        <v>3.75</v>
+      </c>
+      <c r="L53">
+        <v>4.75</v>
+      </c>
+      <c r="M53">
+        <v>1.533</v>
+      </c>
+      <c r="N53">
         <v>4</v>
       </c>
-      <c r="I53" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53">
-        <v>2.8</v>
-      </c>
-      <c r="K53">
-        <v>3.4</v>
-      </c>
-      <c r="L53">
-        <v>2.2</v>
-      </c>
-      <c r="M53">
-        <v>3.3</v>
-      </c>
-      <c r="N53">
-        <v>3.6</v>
-      </c>
       <c r="O53">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="P53">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q53">
         <v>1.975</v>
@@ -5089,31 +5089,31 @@
         <v>1.875</v>
       </c>
       <c r="S53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5124,7 +5124,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011601</v>
+        <v>6011598</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -5133,76 +5133,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54">
+        <v>2.8</v>
+      </c>
+      <c r="K54">
+        <v>3.4</v>
+      </c>
+      <c r="L54">
+        <v>2.2</v>
+      </c>
+      <c r="M54">
+        <v>3.3</v>
+      </c>
+      <c r="N54">
+        <v>3.6</v>
+      </c>
+      <c r="O54">
+        <v>2.1</v>
+      </c>
+      <c r="P54">
+        <v>0.25</v>
+      </c>
+      <c r="Q54">
+        <v>1.975</v>
+      </c>
+      <c r="R54">
+        <v>1.875</v>
+      </c>
+      <c r="S54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>58</v>
-      </c>
-      <c r="J54">
-        <v>1.666</v>
-      </c>
-      <c r="K54">
-        <v>4</v>
-      </c>
-      <c r="L54">
-        <v>4</v>
-      </c>
-      <c r="M54">
-        <v>1.45</v>
-      </c>
-      <c r="N54">
-        <v>4.75</v>
-      </c>
-      <c r="O54">
-        <v>6.5</v>
-      </c>
-      <c r="P54">
-        <v>-1.25</v>
-      </c>
-      <c r="Q54">
+      <c r="T54">
+        <v>1.9</v>
+      </c>
+      <c r="U54">
         <v>1.95</v>
       </c>
-      <c r="R54">
-        <v>1.9</v>
-      </c>
-      <c r="S54">
-        <v>3.5</v>
-      </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.85</v>
-      </c>
       <c r="V54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5210,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011602</v>
+        <v>6011601</v>
       </c>
       <c r="C55" t="s">
         <v>35</v>
@@ -5219,58 +5219,58 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>58</v>
       </c>
       <c r="J55">
+        <v>1.666</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>1.45</v>
+      </c>
+      <c r="N55">
+        <v>4.75</v>
+      </c>
+      <c r="O55">
+        <v>6.5</v>
+      </c>
+      <c r="P55">
+        <v>-1.25</v>
+      </c>
+      <c r="Q55">
         <v>1.95</v>
       </c>
-      <c r="K55">
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.2</v>
-      </c>
-      <c r="M55">
+      <c r="T55">
         <v>2</v>
       </c>
-      <c r="N55">
-        <v>3.75</v>
-      </c>
-      <c r="O55">
-        <v>3.5</v>
-      </c>
-      <c r="P55">
-        <v>-0.5</v>
-      </c>
-      <c r="Q55">
-        <v>2</v>
-      </c>
-      <c r="R55">
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>3.25</v>
-      </c>
-      <c r="T55">
-        <v>1.925</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
       <c r="V55">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5279,16 +5279,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5382,7 +5382,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6011666</v>
+        <v>6011667</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
@@ -5391,76 +5391,76 @@
         <v>45151.5</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>2</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J57">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L57">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M57">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T57">
+        <v>1.95</v>
+      </c>
+      <c r="U57">
         <v>1.9</v>
       </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
       <c r="V57">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5468,7 +5468,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011667</v>
+        <v>6011666</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -5477,76 +5477,76 @@
         <v>45151.5</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>1</v>
       </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J58">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
+        <v>2.875</v>
+      </c>
+      <c r="M58">
+        <v>2.55</v>
+      </c>
+      <c r="N58">
+        <v>3.2</v>
+      </c>
+      <c r="O58">
         <v>2.9</v>
       </c>
-      <c r="M58">
-        <v>2.15</v>
-      </c>
-      <c r="N58">
-        <v>3.75</v>
-      </c>
-      <c r="O58">
-        <v>3.1</v>
-      </c>
       <c r="P58">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T58">
+        <v>1.9</v>
+      </c>
+      <c r="U58">
         <v>1.95</v>
       </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
       <c r="V58">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5726,7 +5726,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6010979</v>
+        <v>6011603</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -5735,13 +5735,13 @@
         <v>45151.5</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5750,43 +5750,43 @@
         <v>58</v>
       </c>
       <c r="J61">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="K61">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P61">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q61">
+        <v>2.05</v>
+      </c>
+      <c r="R61">
+        <v>1.8</v>
+      </c>
+      <c r="S61">
+        <v>3.25</v>
+      </c>
+      <c r="T61">
         <v>1.975</v>
       </c>
-      <c r="R61">
+      <c r="U61">
         <v>1.875</v>
       </c>
-      <c r="S61">
-        <v>2.25</v>
-      </c>
-      <c r="T61">
-        <v>1.8</v>
-      </c>
-      <c r="U61">
-        <v>2.05</v>
-      </c>
       <c r="V61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5795,13 +5795,13 @@
         <v>-1</v>
       </c>
       <c r="Y61">
+        <v>1.05</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z61">
-        <v>-1</v>
-      </c>
-      <c r="AA61">
-        <v>0.8</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5812,7 +5812,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011603</v>
+        <v>6010979</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -5821,13 +5821,13 @@
         <v>45151.5</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5836,43 +5836,43 @@
         <v>58</v>
       </c>
       <c r="J62">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="K62">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q62">
+        <v>1.975</v>
+      </c>
+      <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>2.25</v>
+      </c>
+      <c r="T62">
+        <v>1.8</v>
+      </c>
+      <c r="U62">
         <v>2.05</v>
       </c>
-      <c r="R62">
-        <v>1.8</v>
-      </c>
-      <c r="S62">
-        <v>3.25</v>
-      </c>
-      <c r="T62">
-        <v>1.975</v>
-      </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
       <c r="V62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -5881,13 +5881,13 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -6930,7 +6930,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6011965</v>
+        <v>6011959</v>
       </c>
       <c r="C75" t="s">
         <v>35</v>
@@ -6939,76 +6939,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J75">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="M75">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="N75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q75">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
         <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7016,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6011959</v>
+        <v>6011965</v>
       </c>
       <c r="C76" t="s">
         <v>35</v>
@@ -7025,76 +7025,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J76">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N76">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q76">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7102,7 +7102,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6011610</v>
+        <v>6014970</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -7111,76 +7111,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J77">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K77">
+        <v>3.4</v>
+      </c>
+      <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>2.05</v>
+      </c>
+      <c r="N77">
         <v>3.6</v>
       </c>
-      <c r="L77">
-        <v>2.5</v>
-      </c>
-      <c r="M77">
-        <v>2.8</v>
-      </c>
-      <c r="N77">
-        <v>3.75</v>
-      </c>
       <c r="O77">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7188,7 +7188,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6011609</v>
+        <v>6011610</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -7197,34 +7197,34 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J78">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="M78">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N78">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O78">
         <v>2.375</v>
@@ -7233,40 +7233,40 @@
         <v>0.25</v>
       </c>
       <c r="Q78">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
         <v>3.25</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7274,7 +7274,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6014970</v>
+        <v>6011609</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -7283,40 +7283,40 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>58</v>
       </c>
       <c r="J79">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="K79">
         <v>3.4</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="M79">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N79">
         <v>3.6</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="P79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q79">
         <v>1.825</v>
@@ -7325,16 +7325,16 @@
         <v>2.025</v>
       </c>
       <c r="S79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.05</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7349,10 +7349,10 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -9080,7 +9080,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6011619</v>
+        <v>6014967</v>
       </c>
       <c r="C100" t="s">
         <v>35</v>
@@ -9089,58 +9089,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>58</v>
       </c>
       <c r="J100">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N100">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9149,16 +9149,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9166,7 +9166,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6011621</v>
+        <v>6011619</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -9175,49 +9175,49 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J101">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
         <v>1.909</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P101">
         <v>-0.5</v>
       </c>
       <c r="Q101">
+        <v>1.9</v>
+      </c>
+      <c r="R101">
         <v>1.95</v>
       </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
       <c r="S101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
         <v>1.925</v>
@@ -9226,25 +9226,25 @@
         <v>1.925</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9252,7 +9252,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7167383</v>
+        <v>6011621</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -9261,76 +9261,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J102">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="K102">
         <v>3.4</v>
       </c>
       <c r="L102">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
         <v>3.6</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q102">
+        <v>1.95</v>
+      </c>
+      <c r="R102">
         <v>1.9</v>
-      </c>
-      <c r="R102">
-        <v>1.95</v>
       </c>
       <c r="S102">
         <v>3</v>
       </c>
       <c r="T102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9338,7 +9338,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6014967</v>
+        <v>7167383</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -9347,58 +9347,58 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="s">
         <v>58</v>
       </c>
       <c r="J103">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="K103">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="M103">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N103">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
         <v>3</v>
       </c>
       <c r="T103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -14412,7 +14412,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7629075</v>
+        <v>7629074</v>
       </c>
       <c r="C162" t="s">
         <v>35</v>
@@ -14421,76 +14421,76 @@
         <v>45383.5</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J162">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
+        <v>1.7</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>-0.75</v>
+      </c>
+      <c r="Q162">
+        <v>1.975</v>
+      </c>
+      <c r="R162">
+        <v>1.875</v>
+      </c>
+      <c r="S162">
+        <v>3</v>
+      </c>
+      <c r="T162">
+        <v>1.8</v>
+      </c>
+      <c r="U162">
         <v>2.05</v>
       </c>
-      <c r="N162">
-        <v>3.3</v>
-      </c>
-      <c r="O162">
-        <v>3</v>
-      </c>
-      <c r="P162">
-        <v>-0.25</v>
-      </c>
-      <c r="Q162">
-        <v>1.875</v>
-      </c>
-      <c r="R162">
-        <v>1.975</v>
-      </c>
-      <c r="S162">
-        <v>2.5</v>
-      </c>
-      <c r="T162">
-        <v>2.05</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
       <c r="V162">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
+        <v>0.4875</v>
+      </c>
+      <c r="Z162">
         <v>-0.5</v>
       </c>
-      <c r="Z162">
-        <v>0.4875</v>
-      </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14584,7 +14584,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7629074</v>
+        <v>7629075</v>
       </c>
       <c r="C164" t="s">
         <v>35</v>
@@ -14593,76 +14593,76 @@
         <v>45383.5</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J164">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K164">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M164">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q164">
+        <v>1.875</v>
+      </c>
+      <c r="R164">
         <v>1.975</v>
       </c>
-      <c r="R164">
-        <v>1.875</v>
-      </c>
       <c r="S164">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T164">
+        <v>2.05</v>
+      </c>
+      <c r="U164">
         <v>1.8</v>
       </c>
-      <c r="U164">
-        <v>2.05</v>
-      </c>
       <c r="V164">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
+        <v>-0.5</v>
+      </c>
+      <c r="Z164">
         <v>0.4875</v>
       </c>
-      <c r="Z164">
-        <v>-0.5</v>
-      </c>
       <c r="AA164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14670,7 +14670,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7628610</v>
+        <v>7628520</v>
       </c>
       <c r="C165" t="s">
         <v>35</v>
@@ -14679,73 +14679,73 @@
         <v>45383.5</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G165">
         <v>3</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K165">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L165">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N165">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O165">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="P165">
         <v>0</v>
       </c>
       <c r="Q165">
+        <v>2.025</v>
+      </c>
+      <c r="R165">
+        <v>1.825</v>
+      </c>
+      <c r="S165">
+        <v>2.5</v>
+      </c>
+      <c r="T165">
         <v>1.975</v>
       </c>
-      <c r="R165">
+      <c r="U165">
         <v>1.875</v>
       </c>
-      <c r="S165">
-        <v>3</v>
-      </c>
-      <c r="T165">
-        <v>1.85</v>
-      </c>
-      <c r="U165">
-        <v>2</v>
-      </c>
       <c r="V165">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
         <v>-1</v>
@@ -14756,7 +14756,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7629077</v>
+        <v>7629012</v>
       </c>
       <c r="C166" t="s">
         <v>35</v>
@@ -14765,49 +14765,49 @@
         <v>45383.5</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F166" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>58</v>
+      </c>
+      <c r="J166">
+        <v>2.25</v>
+      </c>
+      <c r="K166">
+        <v>3.5</v>
+      </c>
+      <c r="L166">
+        <v>2.6</v>
+      </c>
+      <c r="M166">
+        <v>1.95</v>
+      </c>
+      <c r="N166">
+        <v>3.5</v>
+      </c>
+      <c r="O166">
+        <v>3.2</v>
+      </c>
+      <c r="P166">
+        <v>-0.5</v>
+      </c>
+      <c r="Q166">
         <v>2</v>
       </c>
-      <c r="H166">
-        <v>2</v>
-      </c>
-      <c r="I166" t="s">
-        <v>60</v>
-      </c>
-      <c r="J166">
-        <v>1.8</v>
-      </c>
-      <c r="K166">
-        <v>3.6</v>
-      </c>
-      <c r="L166">
-        <v>3.5</v>
-      </c>
-      <c r="M166">
-        <v>2.3</v>
-      </c>
-      <c r="N166">
-        <v>3.4</v>
-      </c>
-      <c r="O166">
-        <v>2.55</v>
-      </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-      <c r="Q166">
+      <c r="R166">
         <v>1.85</v>
       </c>
-      <c r="R166">
-        <v>2</v>
-      </c>
       <c r="S166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T166">
         <v>1.875</v>
@@ -14816,19 +14816,19 @@
         <v>1.975</v>
       </c>
       <c r="V166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
         <v>0.875</v>
@@ -14842,7 +14842,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7629012</v>
+        <v>7628610</v>
       </c>
       <c r="C167" t="s">
         <v>35</v>
@@ -14851,73 +14851,73 @@
         <v>45383.5</v>
       </c>
       <c r="E167" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G167">
         <v>3</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J167">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L167">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="M167">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="N167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O167">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q167">
+        <v>1.975</v>
+      </c>
+      <c r="R167">
+        <v>1.875</v>
+      </c>
+      <c r="S167">
+        <v>3</v>
+      </c>
+      <c r="T167">
+        <v>1.85</v>
+      </c>
+      <c r="U167">
         <v>2</v>
       </c>
-      <c r="R167">
-        <v>1.85</v>
-      </c>
-      <c r="S167">
-        <v>2.5</v>
-      </c>
-      <c r="T167">
-        <v>1.875</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
       <c r="V167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -14928,7 +14928,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7628520</v>
+        <v>7629076</v>
       </c>
       <c r="C168" t="s">
         <v>35</v>
@@ -14937,76 +14937,76 @@
         <v>45383.5</v>
       </c>
       <c r="E168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J168">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K168">
         <v>3.5</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N168">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
+        <v>2.6</v>
+      </c>
+      <c r="P168">
+        <v>-0.25</v>
+      </c>
+      <c r="Q168">
+        <v>2.05</v>
+      </c>
+      <c r="R168">
+        <v>1.75</v>
+      </c>
+      <c r="S168">
+        <v>2.75</v>
+      </c>
+      <c r="T168">
+        <v>2.025</v>
+      </c>
+      <c r="U168">
+        <v>1.825</v>
+      </c>
+      <c r="V168">
+        <v>-1</v>
+      </c>
+      <c r="W168">
         <v>2.4</v>
       </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-      <c r="Q168">
-        <v>2.025</v>
-      </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>2.5</v>
-      </c>
-      <c r="T168">
-        <v>1.975</v>
-      </c>
-      <c r="U168">
-        <v>1.875</v>
-      </c>
-      <c r="V168">
-        <v>1.5</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15014,7 +15014,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7629076</v>
+        <v>7629077</v>
       </c>
       <c r="C169" t="s">
         <v>35</v>
@@ -15023,55 +15023,55 @@
         <v>45383.5</v>
       </c>
       <c r="E169" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="s">
         <v>60</v>
       </c>
       <c r="J169">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K169">
+        <v>3.6</v>
+      </c>
+      <c r="L169">
         <v>3.5</v>
       </c>
-      <c r="L169">
-        <v>2.4</v>
-      </c>
       <c r="M169">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N169">
         <v>3.4</v>
       </c>
       <c r="O169">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P169">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q169">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R169">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S169">
         <v>2.75</v>
       </c>
       <c r="T169">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
         <v>-1</v>
@@ -15083,16 +15083,16 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z169">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15788,7 +15788,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7629247</v>
+        <v>7629080</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -15797,55 +15797,55 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178" t="s">
         <v>59</v>
       </c>
       <c r="J178">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q178">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
         <v>-1</v>
@@ -15854,19 +15854,19 @@
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15874,7 +15874,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7629015</v>
+        <v>7629016</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -15883,10 +15883,10 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15898,61 +15898,61 @@
         <v>60</v>
       </c>
       <c r="J179">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K179">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L179">
+        <v>2.8</v>
+      </c>
+      <c r="M179">
+        <v>2.6</v>
+      </c>
+      <c r="N179">
+        <v>3.75</v>
+      </c>
+      <c r="O179">
+        <v>2.5</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>1.975</v>
+      </c>
+      <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
+        <v>3</v>
+      </c>
+      <c r="T179">
+        <v>1.925</v>
+      </c>
+      <c r="U179">
+        <v>1.925</v>
+      </c>
+      <c r="V179">
+        <v>-1</v>
+      </c>
+      <c r="W179">
         <v>2.75</v>
       </c>
-      <c r="M179">
-        <v>2.875</v>
-      </c>
-      <c r="N179">
-        <v>3.8</v>
-      </c>
-      <c r="O179">
-        <v>2.25</v>
-      </c>
-      <c r="P179">
-        <v>0.25</v>
-      </c>
-      <c r="Q179">
-        <v>1.825</v>
-      </c>
-      <c r="R179">
-        <v>2.025</v>
-      </c>
-      <c r="S179">
-        <v>2.75</v>
-      </c>
-      <c r="T179">
-        <v>1.85</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
-        <v>-1</v>
-      </c>
-      <c r="W179">
-        <v>2.8</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16046,7 +16046,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7629016</v>
+        <v>7628615</v>
       </c>
       <c r="C181" t="s">
         <v>35</v>
@@ -16055,76 +16055,76 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181" t="s">
         <v>60</v>
       </c>
       <c r="J181">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="N181">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="P181">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q181">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S181">
         <v>3</v>
       </c>
       <c r="T181">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
         <v>-1</v>
       </c>
       <c r="W181">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16132,7 +16132,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7629080</v>
+        <v>7629015</v>
       </c>
       <c r="C182" t="s">
         <v>35</v>
@@ -16141,40 +16141,40 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J182">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L182">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M182">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="N182">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O182">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P182">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q182">
         <v>1.825</v>
@@ -16186,31 +16186,31 @@
         <v>2.75</v>
       </c>
       <c r="T182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X182">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16218,7 +16218,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7628615</v>
+        <v>7629247</v>
       </c>
       <c r="C183" t="s">
         <v>35</v>
@@ -16227,76 +16227,76 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F183" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J183">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K183">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L183">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
         <v>3</v>
       </c>
       <c r="T183">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16734,7 +16734,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7629082</v>
+        <v>7629083</v>
       </c>
       <c r="C189" t="s">
         <v>35</v>
@@ -16743,76 +16743,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J189">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="K189">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="M189">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="P189">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q189">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16820,7 +16820,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7629083</v>
+        <v>7629082</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -16829,76 +16829,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J190">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="K190">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N190">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O190">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T190">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
         <v>-1</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X190">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17078,7 +17078,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7629084</v>
+        <v>7629249</v>
       </c>
       <c r="C193" t="s">
         <v>35</v>
@@ -17087,73 +17087,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J193">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K193">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M193">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
         <v>3.8</v>
       </c>
       <c r="O193">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="P193">
+        <v>0.25</v>
+      </c>
+      <c r="Q193">
+        <v>2.05</v>
+      </c>
+      <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193">
+        <v>1.925</v>
+      </c>
+      <c r="U193">
+        <v>1.925</v>
+      </c>
+      <c r="V193">
+        <v>-1</v>
+      </c>
+      <c r="W193">
+        <v>2.8</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="Z193">
         <v>-0.5</v>
       </c>
-      <c r="Q193">
-        <v>2</v>
-      </c>
-      <c r="R193">
-        <v>1.85</v>
-      </c>
-      <c r="S193">
-        <v>2.75</v>
-      </c>
-      <c r="T193">
-        <v>1.95</v>
-      </c>
-      <c r="U193">
-        <v>1.9</v>
-      </c>
-      <c r="V193">
-        <v>-1</v>
-      </c>
-      <c r="W193">
-        <v>-1</v>
-      </c>
-      <c r="X193">
-        <v>2.3</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB193">
         <v>-1</v>
@@ -17164,7 +17164,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7629249</v>
+        <v>7629085</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -17173,10 +17173,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17188,40 +17188,40 @@
         <v>60</v>
       </c>
       <c r="J194">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="K194">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L194">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M194">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N194">
         <v>3.8</v>
       </c>
       <c r="O194">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P194">
         <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
         <v>3</v>
       </c>
       <c r="T194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
         <v>-1</v>
@@ -17233,13 +17233,13 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.5249999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="Z194">
         <v>-0.5</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17250,7 +17250,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7629085</v>
+        <v>7629019</v>
       </c>
       <c r="C195" t="s">
         <v>35</v>
@@ -17259,76 +17259,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G195">
+        <v>3</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>58</v>
+      </c>
+      <c r="J195">
+        <v>1.666</v>
+      </c>
+      <c r="K195">
+        <v>3.8</v>
+      </c>
+      <c r="L195">
+        <v>4.333</v>
+      </c>
+      <c r="M195">
+        <v>1.571</v>
+      </c>
+      <c r="N195">
+        <v>4.2</v>
+      </c>
+      <c r="O195">
+        <v>5</v>
+      </c>
+      <c r="P195">
+        <v>-1</v>
+      </c>
+      <c r="Q195">
         <v>2</v>
       </c>
-      <c r="H195">
-        <v>2</v>
-      </c>
-      <c r="I195" t="s">
-        <v>60</v>
-      </c>
-      <c r="J195">
-        <v>2.9</v>
-      </c>
-      <c r="K195">
-        <v>3.7</v>
-      </c>
-      <c r="L195">
-        <v>2.1</v>
-      </c>
-      <c r="M195">
-        <v>2.9</v>
-      </c>
-      <c r="N195">
-        <v>3.8</v>
-      </c>
-      <c r="O195">
-        <v>2.05</v>
-      </c>
-      <c r="P195">
-        <v>0.25</v>
-      </c>
-      <c r="Q195">
-        <v>1.975</v>
-      </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
         <v>3</v>
       </c>
       <c r="T195">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W195">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17336,7 +17336,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7629019</v>
+        <v>7631936</v>
       </c>
       <c r="C196" t="s">
         <v>35</v>
@@ -17345,70 +17345,70 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J196">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K196">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L196">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="M196">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N196">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O196">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="P196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q196">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S196">
         <v>3</v>
       </c>
       <c r="T196">
+        <v>1.975</v>
+      </c>
+      <c r="U196">
         <v>1.875</v>
       </c>
-      <c r="U196">
-        <v>1.975</v>
-      </c>
       <c r="V196">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA196">
         <v>0</v>
@@ -17422,7 +17422,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7631936</v>
+        <v>7629084</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
@@ -17431,55 +17431,55 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F197" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G197">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I197" t="s">
         <v>59</v>
       </c>
       <c r="J197">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K197">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L197">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O197">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q197">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T197">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
         <v>-1</v>
@@ -17488,19 +17488,19 @@
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>1.625</v>
+        <v>2.3</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17689,46 +17689,46 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J200">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M200">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N200">
         <v>3.6</v>
       </c>
       <c r="O200">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P200">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q200">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S200">
         <v>2.75</v>
       </c>
       <c r="T200">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -17754,31 +17754,31 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F201" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J201">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K201">
+        <v>4</v>
+      </c>
+      <c r="L201">
+        <v>3.25</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201">
         <v>3.4</v>
       </c>
-      <c r="L201">
-        <v>2.5</v>
-      </c>
-      <c r="M201">
-        <v>2.55</v>
-      </c>
-      <c r="N201">
-        <v>3.4</v>
-      </c>
-      <c r="O201">
-        <v>2.375</v>
-      </c>
       <c r="P201">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -17787,13 +17787,13 @@
         <v>1.85</v>
       </c>
       <c r="S201">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17834,22 +17834,22 @@
         <v>3.9</v>
       </c>
       <c r="M202">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="N202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P202">
         <v>-0.75</v>
       </c>
       <c r="Q202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
         <v>2.75</v>
@@ -17899,31 +17899,31 @@
         <v>2.75</v>
       </c>
       <c r="M203">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O203">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q203">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R203">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
         <v>3</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -17964,22 +17964,22 @@
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O204">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="P204">
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
         <v>2.75</v>
@@ -18035,25 +18035,25 @@
         <v>3.8</v>
       </c>
       <c r="O205">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P205">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q205">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
         <v>3</v>
       </c>
       <c r="T205">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
         <v>0</v>
@@ -18079,46 +18079,46 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J206">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K206">
+        <v>3.75</v>
+      </c>
+      <c r="L206">
+        <v>3.1</v>
+      </c>
+      <c r="M206">
+        <v>2.15</v>
+      </c>
+      <c r="N206">
+        <v>3.5</v>
+      </c>
+      <c r="O206">
         <v>3.3</v>
-      </c>
-      <c r="L206">
-        <v>3</v>
-      </c>
-      <c r="M206">
-        <v>2.05</v>
-      </c>
-      <c r="N206">
-        <v>3.3</v>
-      </c>
-      <c r="O206">
-        <v>3</v>
       </c>
       <c r="P206">
         <v>-0.25</v>
       </c>
       <c r="Q206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S206">
         <v>2.75</v>
       </c>
       <c r="T206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
         <v>0</v>
@@ -18144,46 +18144,46 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J207">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O207">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q207">
+        <v>1.85</v>
+      </c>
+      <c r="R207">
         <v>2</v>
       </c>
-      <c r="R207">
-        <v>1.85</v>
-      </c>
       <c r="S207">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
         <v>0</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -97,28 +97,28 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7629251</t>
+  </si>
+  <si>
     <t>7629250</t>
   </si>
   <si>
-    <t>7629251</t>
+    <t>7629089</t>
+  </si>
+  <si>
+    <t>7629023</t>
+  </si>
+  <si>
+    <t>7629022</t>
+  </si>
+  <si>
+    <t>7628621</t>
   </si>
   <si>
     <t>7628525</t>
   </si>
   <si>
     <t>7628622</t>
-  </si>
-  <si>
-    <t>7629022</t>
-  </si>
-  <si>
-    <t>7629023</t>
-  </si>
-  <si>
-    <t>7629089</t>
-  </si>
-  <si>
-    <t>7628621</t>
   </si>
   <si>
     <t>Norway Division 1</t>
@@ -18377,46 +18377,46 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J208">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L208">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M208">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N208">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O208">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T208">
+        <v>1.825</v>
+      </c>
+      <c r="U208">
         <v>2.025</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -18442,46 +18442,46 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J209">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K209">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L209">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M209">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N209">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q209">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R209">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
         <v>2.75</v>
       </c>
       <c r="T209">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -18507,46 +18507,46 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J210">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K210">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L210">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M210">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="N210">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O210">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P210">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q210">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
         <v>2.75</v>
       </c>
       <c r="T210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -18572,46 +18572,46 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F211" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J211">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="K211">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L211">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M211">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O211">
+        <v>2.9</v>
+      </c>
+      <c r="P211">
+        <v>-0.25</v>
+      </c>
+      <c r="Q211">
+        <v>2</v>
+      </c>
+      <c r="R211">
         <v>1.85</v>
       </c>
-      <c r="P211">
-        <v>0.5</v>
-      </c>
-      <c r="Q211">
-        <v>1.975</v>
-      </c>
-      <c r="R211">
-        <v>1.875</v>
-      </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T211">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -18652,31 +18652,31 @@
         <v>4.333</v>
       </c>
       <c r="M212">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="N212">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q212">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
         <v>3</v>
       </c>
       <c r="T212">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -18702,25 +18702,25 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F213" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J213">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L213">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
         <v>2.9</v>
@@ -18729,19 +18729,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q213">
+        <v>1.875</v>
+      </c>
+      <c r="R213">
         <v>1.975</v>
-      </c>
-      <c r="R213">
-        <v>1.875</v>
       </c>
       <c r="S213">
         <v>3</v>
       </c>
       <c r="T213">
+        <v>1.85</v>
+      </c>
+      <c r="U213">
         <v>2</v>
-      </c>
-      <c r="U213">
-        <v>1.85</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -18767,46 +18767,46 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J214">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="K214">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M214">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="P214">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
         <v>2.75</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -18832,46 +18832,46 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F215" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J215">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="K215">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L215">
+        <v>1.666</v>
+      </c>
+      <c r="M215">
+        <v>3.4</v>
+      </c>
+      <c r="N215">
+        <v>3.5</v>
+      </c>
+      <c r="O215">
+        <v>2</v>
+      </c>
+      <c r="P215">
+        <v>0.5</v>
+      </c>
+      <c r="Q215">
+        <v>1.825</v>
+      </c>
+      <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
         <v>2.75</v>
       </c>
-      <c r="M215">
-        <v>2</v>
-      </c>
-      <c r="N215">
-        <v>3.6</v>
-      </c>
-      <c r="O215">
-        <v>3</v>
-      </c>
-      <c r="P215">
-        <v>-0.25</v>
-      </c>
-      <c r="Q215">
-        <v>1.85</v>
-      </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
-      <c r="S215">
-        <v>3</v>
-      </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
         <v>0</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -124,10 +124,10 @@
     <t>Hodd</t>
   </si>
   <si>
-    <t>Mjondalen</t>
+    <t>Kristiansund BK</t>
   </si>
   <si>
-    <t>Kristiansund BK</t>
+    <t>Mjondalen</t>
   </si>
   <si>
     <t>Jerv</t>
@@ -812,7 +812,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6011576</v>
+        <v>6014978</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1328,73 +1328,73 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="K10">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q10">
+        <v>2.025</v>
+      </c>
+      <c r="R10">
         <v>1.825</v>
       </c>
-      <c r="R10">
-        <v>2.025</v>
-      </c>
       <c r="S10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1402,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6014978</v>
+        <v>6011576</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1414,73 +1414,73 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="M11">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="P11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
+        <v>1.825</v>
+      </c>
+      <c r="R11">
         <v>2.025</v>
       </c>
-      <c r="R11">
-        <v>1.825</v>
-      </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6011579</v>
+        <v>6735385</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1583,76 +1583,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="M13">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1660,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6735385</v>
+        <v>6011579</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1669,76 +1669,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>1.666</v>
+      </c>
+      <c r="K14">
+        <v>3.6</v>
+      </c>
+      <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>1.727</v>
+      </c>
+      <c r="N14">
         <v>4</v>
       </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14">
-        <v>2.45</v>
-      </c>
-      <c r="K14">
-        <v>3.25</v>
-      </c>
-      <c r="L14">
-        <v>2.55</v>
-      </c>
-      <c r="M14">
-        <v>2.9</v>
-      </c>
-      <c r="N14">
-        <v>3.5</v>
-      </c>
       <c r="O14">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
         <v>3</v>
       </c>
       <c r="T14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2188,7 +2188,7 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2446,7 +2446,7 @@
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2701,7 +2701,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>43</v>
@@ -2959,7 +2959,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
@@ -3466,7 +3466,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6010976</v>
+        <v>6011588</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3475,76 +3475,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="K35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L35">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="N35">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O35">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="P35">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
       </c>
-      <c r="U35">
-        <v>2</v>
-      </c>
       <c r="V35">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3552,7 +3552,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011588</v>
+        <v>6011591</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3561,58 +3561,58 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
         <v>50</v>
       </c>
       <c r="J36">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K36">
+        <v>3.5</v>
+      </c>
+      <c r="L36">
+        <v>2.25</v>
+      </c>
+      <c r="M36">
+        <v>3.1</v>
+      </c>
+      <c r="N36">
         <v>3.6</v>
       </c>
-      <c r="L36">
-        <v>4.2</v>
-      </c>
-      <c r="M36">
-        <v>1.533</v>
-      </c>
-      <c r="N36">
-        <v>4.5</v>
-      </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>0.5329999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3621,13 +3621,13 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3638,7 +3638,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011591</v>
+        <v>6011589</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3647,7 +3647,7 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -3656,49 +3656,49 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>50</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L37">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O37">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3707,16 +3707,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3724,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011589</v>
+        <v>6010976</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3733,76 +3733,76 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="K38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="M38">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="P38">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
+        <v>1.95</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>2.5</v>
+      </c>
+      <c r="T38">
         <v>1.85</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <v>2</v>
       </c>
-      <c r="S38">
-        <v>3.25</v>
-      </c>
-      <c r="T38">
-        <v>1.875</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
       <c r="V38">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4249,7 +4249,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
@@ -4335,7 +4335,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -4928,7 +4928,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011599</v>
+        <v>6014973</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4937,55 +4937,55 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
         <v>51</v>
       </c>
       <c r="J52">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="K52">
         <v>3.4</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="M52">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
         <v>3.5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="P52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q52">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
         <v>2.75</v>
       </c>
       <c r="T52">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
         <v>-1</v>
@@ -4994,19 +4994,19 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5014,7 +5014,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6014973</v>
+        <v>6011602</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5023,76 +5023,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>1.95</v>
+      </c>
+      <c r="K53">
+        <v>3.5</v>
+      </c>
+      <c r="L53">
+        <v>3.2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3.75</v>
+      </c>
+      <c r="O53">
+        <v>3.5</v>
+      </c>
+      <c r="P53">
+        <v>-0.5</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>1.85</v>
+      </c>
+      <c r="S53">
+        <v>3.25</v>
+      </c>
+      <c r="T53">
+        <v>1.925</v>
+      </c>
+      <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
         <v>1</v>
       </c>
-      <c r="I53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53">
-        <v>2.55</v>
-      </c>
-      <c r="K53">
-        <v>3.4</v>
-      </c>
-      <c r="L53">
-        <v>2.45</v>
-      </c>
-      <c r="M53">
-        <v>3.1</v>
-      </c>
-      <c r="N53">
-        <v>3.5</v>
-      </c>
-      <c r="O53">
-        <v>2.25</v>
-      </c>
-      <c r="P53">
-        <v>0.25</v>
-      </c>
-      <c r="Q53">
-        <v>1.925</v>
-      </c>
-      <c r="R53">
-        <v>1.925</v>
-      </c>
-      <c r="S53">
-        <v>2.75</v>
-      </c>
-      <c r="T53">
-        <v>1.95</v>
-      </c>
-      <c r="U53">
-        <v>1.9</v>
-      </c>
-      <c r="V53">
-        <v>-1</v>
-      </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
         <v>0.925</v>
       </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5100,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011602</v>
+        <v>6011601</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5109,58 +5109,58 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>50</v>
       </c>
       <c r="J54">
+        <v>1.666</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>1.45</v>
+      </c>
+      <c r="N54">
+        <v>4.75</v>
+      </c>
+      <c r="O54">
+        <v>6.5</v>
+      </c>
+      <c r="P54">
+        <v>-1.25</v>
+      </c>
+      <c r="Q54">
         <v>1.95</v>
       </c>
-      <c r="K54">
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
         <v>3.5</v>
       </c>
-      <c r="L54">
-        <v>3.2</v>
-      </c>
-      <c r="M54">
+      <c r="T54">
         <v>2</v>
       </c>
-      <c r="N54">
-        <v>3.75</v>
-      </c>
-      <c r="O54">
-        <v>3.5</v>
-      </c>
-      <c r="P54">
-        <v>-0.5</v>
-      </c>
-      <c r="Q54">
-        <v>2</v>
-      </c>
-      <c r="R54">
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="S54">
-        <v>3.25</v>
-      </c>
-      <c r="T54">
-        <v>1.925</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
       <c r="V54">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5169,16 +5169,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011601</v>
+        <v>6011599</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5195,76 +5195,76 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O55">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T55">
+        <v>1.85</v>
+      </c>
+      <c r="U55">
         <v>2</v>
       </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
       <c r="V55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5272,7 +5272,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011666</v>
+        <v>6011667</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5281,76 +5281,76 @@
         <v>45151.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M56">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O56">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T56">
+        <v>1.95</v>
+      </c>
+      <c r="U56">
         <v>1.9</v>
       </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
       <c r="V56">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6010979</v>
+        <v>6011605</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5367,58 +5367,58 @@
         <v>45151.5</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>50</v>
       </c>
       <c r="J57">
+        <v>2.15</v>
+      </c>
+      <c r="K57">
+        <v>3.5</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2.3</v>
+      </c>
+      <c r="N57">
+        <v>3.75</v>
+      </c>
+      <c r="O57">
+        <v>2.875</v>
+      </c>
+      <c r="P57">
+        <v>-0.25</v>
+      </c>
+      <c r="Q57">
+        <v>2.025</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>3.25</v>
+      </c>
+      <c r="T57">
         <v>1.95</v>
       </c>
-      <c r="K57">
-        <v>3.4</v>
-      </c>
-      <c r="L57">
-        <v>3.6</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>3.4</v>
-      </c>
-      <c r="O57">
-        <v>4</v>
-      </c>
-      <c r="P57">
-        <v>-0.5</v>
-      </c>
-      <c r="Q57">
-        <v>1.975</v>
-      </c>
-      <c r="R57">
-        <v>1.875</v>
-      </c>
-      <c r="S57">
-        <v>2.25</v>
-      </c>
-      <c r="T57">
-        <v>1.8</v>
-      </c>
       <c r="U57">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5427,16 +5427,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5444,7 +5444,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011957</v>
+        <v>6010979</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5453,13 +5453,13 @@
         <v>45151.5</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5468,43 +5468,43 @@
         <v>50</v>
       </c>
       <c r="J58">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="K58">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O58">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V58">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5513,13 +5513,13 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
         <v>-1</v>
@@ -5530,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011605</v>
+        <v>6011604</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5539,76 +5539,76 @@
         <v>45151.5</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J59">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="K59">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M59">
+        <v>3.1</v>
+      </c>
+      <c r="N59">
+        <v>3.4</v>
+      </c>
+      <c r="O59">
         <v>2.3</v>
       </c>
-      <c r="N59">
-        <v>3.75</v>
-      </c>
-      <c r="O59">
-        <v>2.875</v>
-      </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q59">
+        <v>1.825</v>
+      </c>
+      <c r="R59">
         <v>2.025</v>
       </c>
-      <c r="R59">
-        <v>1.825</v>
-      </c>
       <c r="S59">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T59">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
+        <v>-1</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
         <v>1.3</v>
       </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
         <v>1.025</v>
       </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB59">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5616,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011604</v>
+        <v>6011603</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5625,76 +5625,76 @@
         <v>45151.5</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
         <v>1</v>
       </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J60">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="K60">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L60">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O60">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="P60">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q60">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T60">
+        <v>1.975</v>
+      </c>
+      <c r="U60">
         <v>1.875</v>
       </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
       <c r="V60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5702,7 +5702,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011603</v>
+        <v>6011957</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5711,10 +5711,10 @@
         <v>45151.5</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5732,28 +5732,28 @@
         <v>4.2</v>
       </c>
       <c r="L61">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="N61">
         <v>4.5</v>
       </c>
       <c r="O61">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P61">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q61">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T61">
         <v>1.975</v>
@@ -5762,7 +5762,7 @@
         <v>1.875</v>
       </c>
       <c r="V61">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5771,7 +5771,7 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z61">
         <v>-1</v>
@@ -5788,7 +5788,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011667</v>
+        <v>6011666</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5797,76 +5797,76 @@
         <v>45151.5</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
         <v>1</v>
       </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J62">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K62">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
+        <v>2.875</v>
+      </c>
+      <c r="M62">
+        <v>2.55</v>
+      </c>
+      <c r="N62">
+        <v>3.2</v>
+      </c>
+      <c r="O62">
         <v>2.9</v>
       </c>
-      <c r="M62">
-        <v>2.15</v>
-      </c>
-      <c r="N62">
-        <v>3.75</v>
-      </c>
-      <c r="O62">
-        <v>3.1</v>
-      </c>
       <c r="P62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T62">
+        <v>1.9</v>
+      </c>
+      <c r="U62">
         <v>1.95</v>
       </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
       <c r="V62">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -6488,7 +6488,7 @@
         <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6574,7 +6574,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6915,7 +6915,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
         <v>29</v>
@@ -7078,7 +7078,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6011611</v>
+        <v>6010981</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7087,76 +7087,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>1</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J77">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="N77">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O77">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
         <v>-1</v>
       </c>
       <c r="Q77">
+        <v>1.825</v>
+      </c>
+      <c r="R77">
         <v>2.025</v>
       </c>
-      <c r="R77">
-        <v>1.825</v>
-      </c>
       <c r="S77">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7173,7 +7173,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
         <v>38</v>
@@ -7250,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6010981</v>
+        <v>6011611</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7259,76 +7259,76 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J79">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>1.615</v>
+      </c>
+      <c r="N79">
         <v>4.2</v>
       </c>
-      <c r="L79">
-        <v>6</v>
-      </c>
-      <c r="M79">
-        <v>1.5</v>
-      </c>
-      <c r="N79">
-        <v>4.333</v>
-      </c>
       <c r="O79">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
         <v>-1</v>
       </c>
       <c r="Q79">
+        <v>2.025</v>
+      </c>
+      <c r="R79">
         <v>1.825</v>
       </c>
-      <c r="R79">
-        <v>2.025</v>
-      </c>
       <c r="S79">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z79">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7520,7 +7520,7 @@
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6011447</v>
+        <v>6011612</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7603,76 +7603,76 @@
         <v>45165.5</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J83">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M83">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
         <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X83">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7766,7 +7766,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6011612</v>
+        <v>6010982</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7775,61 +7775,61 @@
         <v>45165.5</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M85">
+        <v>1.4</v>
+      </c>
+      <c r="N85">
+        <v>4.2</v>
+      </c>
+      <c r="O85">
+        <v>9.5</v>
+      </c>
+      <c r="P85">
+        <v>-1.25</v>
+      </c>
+      <c r="Q85">
+        <v>1.9</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
         <v>2.25</v>
       </c>
-      <c r="N85">
-        <v>3.8</v>
-      </c>
-      <c r="O85">
-        <v>2.9</v>
-      </c>
-      <c r="P85">
-        <v>-0.25</v>
-      </c>
-      <c r="Q85">
-        <v>1.975</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>2.75</v>
-      </c>
       <c r="T85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -7838,13 +7838,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7852,7 +7852,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6010982</v>
+        <v>6011447</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7861,40 +7861,40 @@
         <v>45165.5</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J86">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="K86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O86">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
         <v>1.9</v>
@@ -7903,34 +7903,34 @@
         <v>1.95</v>
       </c>
       <c r="S86">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7950,7 +7950,7 @@
         <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6010983</v>
+        <v>6011967</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8119,76 +8119,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J89">
+        <v>1.533</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>5.25</v>
+      </c>
+      <c r="M89">
+        <v>1.533</v>
+      </c>
+      <c r="N89">
+        <v>4.5</v>
+      </c>
+      <c r="O89">
+        <v>6</v>
+      </c>
+      <c r="P89">
+        <v>-1</v>
+      </c>
+      <c r="Q89">
+        <v>1.85</v>
+      </c>
+      <c r="R89">
         <v>2</v>
       </c>
-      <c r="H89">
+      <c r="S89">
+        <v>3.25</v>
+      </c>
+      <c r="T89">
+        <v>1.95</v>
+      </c>
+      <c r="U89">
+        <v>1.9</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
+        <v>3.5</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
         <v>1</v>
       </c>
-      <c r="I89" t="s">
-        <v>50</v>
-      </c>
-      <c r="J89">
-        <v>2.9</v>
-      </c>
-      <c r="K89">
-        <v>3.5</v>
-      </c>
-      <c r="L89">
-        <v>2.15</v>
-      </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>3.5</v>
-      </c>
-      <c r="O89">
-        <v>2.3</v>
-      </c>
-      <c r="P89">
-        <v>0.25</v>
-      </c>
-      <c r="Q89">
-        <v>1.825</v>
-      </c>
-      <c r="R89">
-        <v>2.025</v>
-      </c>
-      <c r="S89">
-        <v>2.5</v>
-      </c>
-      <c r="T89">
-        <v>2.025</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>0.825</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8196,7 +8196,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6011617</v>
+        <v>6010983</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8205,49 +8205,49 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
         <v>1</v>
       </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J90">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="K90">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="M90">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="P90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q90">
+        <v>1.825</v>
+      </c>
+      <c r="R90">
         <v>2.025</v>
       </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
       <c r="S90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
         <v>2.025</v>
@@ -8256,25 +8256,25 @@
         <v>1.825</v>
       </c>
       <c r="V90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8282,7 +8282,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6011967</v>
+        <v>6011617</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8291,28 +8291,28 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J91">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
         <v>1.533</v>
@@ -8321,46 +8321,46 @@
         <v>4.5</v>
       </c>
       <c r="O91">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P91">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T91">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
         <v>-1</v>
       </c>
       <c r="W91">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8979,7 +8979,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -9154,7 +9154,7 @@
         <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9842,7 +9842,7 @@
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9928,7 +9928,7 @@
         <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
         <v>34</v>
@@ -10441,7 +10441,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
         <v>30</v>
@@ -10518,7 +10518,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6011630</v>
+        <v>6011626</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10527,10 +10527,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10542,61 +10542,61 @@
         <v>50</v>
       </c>
       <c r="J117">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="K117">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M117">
+        <v>1.5</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
+        <v>5.75</v>
+      </c>
+      <c r="P117">
+        <v>-1</v>
+      </c>
+      <c r="Q117">
+        <v>1.85</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>2.75</v>
+      </c>
+      <c r="T117">
         <v>1.95</v>
       </c>
-      <c r="N117">
-        <v>4.2</v>
-      </c>
-      <c r="O117">
-        <v>3.2</v>
-      </c>
-      <c r="P117">
+      <c r="U117">
+        <v>1.9</v>
+      </c>
+      <c r="V117">
+        <v>0.5</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.475</v>
+      </c>
+      <c r="AB117">
         <v>-0.5</v>
-      </c>
-      <c r="Q117">
-        <v>2</v>
-      </c>
-      <c r="R117">
-        <v>1.85</v>
-      </c>
-      <c r="S117">
-        <v>3.25</v>
-      </c>
-      <c r="T117">
-        <v>2.025</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>0.95</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>1</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
-        <v>-0.5</v>
-      </c>
-      <c r="AB117">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10604,7 +10604,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6011451</v>
+        <v>6014965</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10613,73 +10613,73 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J118">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="K118">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N118">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O118">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10690,7 +10690,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6011626</v>
+        <v>6011451</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10699,76 +10699,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
         <v>3</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
       <c r="I119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J119">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L119">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N119">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P119">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
         <v>2.75</v>
       </c>
       <c r="T119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10776,7 +10776,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6014965</v>
+        <v>6011630</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10785,10 +10785,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -10800,43 +10800,43 @@
         <v>50</v>
       </c>
       <c r="J120">
+        <v>2.05</v>
+      </c>
+      <c r="K120">
+        <v>3.75</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
         <v>1.95</v>
       </c>
-      <c r="K120">
-        <v>3.6</v>
-      </c>
-      <c r="L120">
-        <v>3.4</v>
-      </c>
-      <c r="M120">
-        <v>2.15</v>
-      </c>
       <c r="N120">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
+        <v>3.25</v>
+      </c>
+      <c r="T120">
+        <v>2.025</v>
+      </c>
+      <c r="U120">
         <v>1.825</v>
       </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
-      <c r="S120">
-        <v>2.5</v>
-      </c>
-      <c r="T120">
-        <v>2.05</v>
-      </c>
-      <c r="U120">
-        <v>1.8</v>
-      </c>
       <c r="V120">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10845,16 +10845,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10874,7 +10874,7 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11132,7 +11132,7 @@
         <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
         <v>42</v>
@@ -11903,7 +11903,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
@@ -12508,7 +12508,7 @@
         <v>28</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12680,7 +12680,7 @@
         <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13193,7 +13193,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
         <v>33</v>
@@ -13365,7 +13365,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
         <v>39</v>
@@ -13712,7 +13712,7 @@
         <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13786,7 +13786,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6011651</v>
+        <v>6014960</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
@@ -13795,55 +13795,55 @@
         <v>45242.4375</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="s">
         <v>51</v>
       </c>
       <c r="J155">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K155">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L155">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N155">
         <v>3.8</v>
       </c>
       <c r="O155">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="P155">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
         <v>3</v>
       </c>
       <c r="T155">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
         <v>-1</v>
@@ -13852,19 +13852,19 @@
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13872,7 +13872,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6014960</v>
+        <v>6011971</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13881,49 +13881,49 @@
         <v>45242.4375</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I156" t="s">
         <v>51</v>
       </c>
       <c r="J156">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="M156">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N156">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="P156">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T156">
         <v>1.9</v>
@@ -13938,19 +13938,19 @@
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.8</v>
+        <v>0.444</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13958,7 +13958,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6011971</v>
+        <v>6011949</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13967,76 +13967,76 @@
         <v>45242.4375</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J157">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="K157">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L157">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="M157">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N157">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O157">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
         <v>-1</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X157">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14044,7 +14044,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6011949</v>
+        <v>6011676</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14053,76 +14053,76 @@
         <v>45242.4375</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J158">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="K158">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M158">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="N158">
         <v>4.333</v>
       </c>
       <c r="O158">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P158">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
         <v>3</v>
       </c>
       <c r="T158">
+        <v>1.85</v>
+      </c>
+      <c r="U158">
         <v>2</v>
       </c>
-      <c r="U158">
-        <v>1.85</v>
-      </c>
       <c r="V158">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W158">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14130,7 +14130,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011676</v>
+        <v>6011652</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14139,13 +14139,13 @@
         <v>45242.4375</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14154,43 +14154,43 @@
         <v>50</v>
       </c>
       <c r="J159">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K159">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="N159">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P159">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T159">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14199,16 +14199,16 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14216,7 +14216,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6011652</v>
+        <v>6011651</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14225,49 +14225,49 @@
         <v>45242.4375</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J160">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M160">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="N160">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="P160">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T160">
         <v>2.025</v>
@@ -14276,19 +14276,19 @@
         <v>1.825</v>
       </c>
       <c r="V160">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14999,7 +14999,7 @@
         <v>45383.5</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
         <v>33</v>
@@ -15346,7 +15346,7 @@
         <v>32</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -15764,7 +15764,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7629247</v>
+        <v>7629080</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15773,55 +15773,55 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178" t="s">
         <v>51</v>
       </c>
       <c r="J178">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q178">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
         <v>-1</v>
@@ -15830,19 +15830,19 @@
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15945,7 +15945,7 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
         <v>42</v>
@@ -16108,7 +16108,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7629080</v>
+        <v>7629247</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16117,55 +16117,55 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
         <v>51</v>
       </c>
       <c r="J182">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L182">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O182">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q182">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T182">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
         <v>-1</v>
@@ -16174,19 +16174,19 @@
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA182">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16194,7 +16194,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7628615</v>
+        <v>7628522</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16203,76 +16203,76 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J183">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K183">
         <v>3.75</v>
       </c>
       <c r="L183">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="M183">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N183">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P183">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
         <v>3</v>
       </c>
       <c r="T183">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W183">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16280,7 +16280,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7628522</v>
+        <v>7628615</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16289,76 +16289,76 @@
         <v>45397.58333333334</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J184">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K184">
         <v>3.75</v>
       </c>
       <c r="L184">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="M184">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="N184">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O184">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P184">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R184">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S184">
         <v>3</v>
       </c>
       <c r="T184">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -17493,7 +17493,7 @@
         <v>45410.39583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
         <v>45</v>
@@ -17656,7 +17656,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7629021</v>
+        <v>7629086</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17665,34 +17665,34 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
         <v>52</v>
       </c>
       <c r="J200">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="K200">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L200">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M200">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N200">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O200">
         <v>2.9</v>
@@ -17701,25 +17701,25 @@
         <v>-0.25</v>
       </c>
       <c r="Q200">
+        <v>1.925</v>
+      </c>
+      <c r="R200">
+        <v>1.925</v>
+      </c>
+      <c r="S200">
+        <v>3</v>
+      </c>
+      <c r="T200">
         <v>1.975</v>
       </c>
-      <c r="R200">
+      <c r="U200">
         <v>1.875</v>
       </c>
-      <c r="S200">
-        <v>2.75</v>
-      </c>
-      <c r="T200">
-        <v>1.8</v>
-      </c>
-      <c r="U200">
-        <v>2.05</v>
-      </c>
       <c r="V200">
         <v>-1</v>
       </c>
       <c r="W200">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -17728,13 +17728,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z200">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17742,7 +17742,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7629020</v>
+        <v>7629021</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17751,10 +17751,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -17766,61 +17766,61 @@
         <v>52</v>
       </c>
       <c r="J201">
+        <v>1.85</v>
+      </c>
+      <c r="K201">
+        <v>3.5</v>
+      </c>
+      <c r="L201">
+        <v>3.5</v>
+      </c>
+      <c r="M201">
+        <v>2.25</v>
+      </c>
+      <c r="N201">
+        <v>3.6</v>
+      </c>
+      <c r="O201">
+        <v>2.9</v>
+      </c>
+      <c r="P201">
+        <v>-0.25</v>
+      </c>
+      <c r="Q201">
+        <v>1.975</v>
+      </c>
+      <c r="R201">
+        <v>1.875</v>
+      </c>
+      <c r="S201">
+        <v>2.75</v>
+      </c>
+      <c r="T201">
+        <v>1.8</v>
+      </c>
+      <c r="U201">
         <v>2.05</v>
       </c>
-      <c r="K201">
-        <v>3.8</v>
-      </c>
-      <c r="L201">
-        <v>2.75</v>
-      </c>
-      <c r="M201">
-        <v>1.8</v>
-      </c>
-      <c r="N201">
-        <v>4</v>
-      </c>
-      <c r="O201">
-        <v>3.75</v>
-      </c>
-      <c r="P201">
+      <c r="V201">
+        <v>-1</v>
+      </c>
+      <c r="W201">
+        <v>2.6</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
         <v>-0.5</v>
       </c>
-      <c r="Q201">
-        <v>1.825</v>
-      </c>
-      <c r="R201">
-        <v>2.025</v>
-      </c>
-      <c r="S201">
-        <v>3</v>
-      </c>
-      <c r="T201">
-        <v>2</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
-      <c r="V201">
-        <v>-1</v>
-      </c>
-      <c r="W201">
-        <v>3</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
       <c r="Z201">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17828,7 +17828,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7628620</v>
+        <v>7629020</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17837,28 +17837,28 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J202">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="K202">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L202">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="M202">
         <v>1.8</v>
@@ -17867,46 +17867,46 @@
         <v>4</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q202">
+        <v>1.825</v>
+      </c>
+      <c r="R202">
         <v>2.025</v>
       </c>
-      <c r="R202">
-        <v>1.825</v>
-      </c>
       <c r="S202">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T202">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17914,7 +17914,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7628619</v>
+        <v>7628620</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17923,76 +17923,76 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F203" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G203">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J203">
+        <v>1.75</v>
+      </c>
+      <c r="K203">
+        <v>3.5</v>
+      </c>
+      <c r="L203">
+        <v>3.9</v>
+      </c>
+      <c r="M203">
         <v>1.8</v>
       </c>
-      <c r="K203">
+      <c r="N203">
         <v>4</v>
       </c>
-      <c r="L203">
-        <v>3.25</v>
-      </c>
-      <c r="M203">
-        <v>2.2</v>
-      </c>
-      <c r="N203">
-        <v>3.8</v>
-      </c>
       <c r="O203">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q203">
+        <v>2.025</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>2.75</v>
+      </c>
+      <c r="T203">
         <v>1.925</v>
       </c>
-      <c r="R203">
+      <c r="U203">
         <v>1.925</v>
       </c>
-      <c r="S203">
-        <v>3</v>
-      </c>
-      <c r="T203">
-        <v>2.05</v>
-      </c>
-      <c r="U203">
-        <v>1.8</v>
-      </c>
       <c r="V203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W203">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
+        <v>0.5125</v>
+      </c>
+      <c r="Z203">
         <v>-0.5</v>
       </c>
-      <c r="Z203">
-        <v>0.4625</v>
-      </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18000,7 +18000,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7628524</v>
+        <v>7628619</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -18009,76 +18009,76 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I204" t="s">
         <v>52</v>
       </c>
       <c r="J204">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K204">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L204">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M204">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N204">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O204">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
         <v>-1</v>
       </c>
       <c r="W204">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18086,7 +18086,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7629086</v>
+        <v>7628524</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -18095,55 +18095,55 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205" t="s">
         <v>52</v>
       </c>
       <c r="J205">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K205">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L205">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="M205">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N205">
         <v>4</v>
       </c>
       <c r="O205">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T205">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
         <v>-1</v>
@@ -18155,16 +18155,16 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z205">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18516,7 +18516,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7629251</v>
+        <v>7628622</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18525,76 +18525,76 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210" t="s">
+        <v>51</v>
+      </c>
+      <c r="J210">
+        <v>4.333</v>
+      </c>
+      <c r="K210">
+        <v>3.8</v>
+      </c>
+      <c r="L210">
+        <v>1.666</v>
+      </c>
+      <c r="M210">
+        <v>3.4</v>
+      </c>
+      <c r="N210">
+        <v>3.6</v>
+      </c>
+      <c r="O210">
+        <v>1.95</v>
+      </c>
+      <c r="P210">
+        <v>0.5</v>
+      </c>
+      <c r="Q210">
+        <v>1.825</v>
+      </c>
+      <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
+        <v>2.75</v>
+      </c>
+      <c r="T210">
+        <v>1.85</v>
+      </c>
+      <c r="U210">
+        <v>2</v>
+      </c>
+      <c r="V210">
+        <v>-1</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
+        <v>0.95</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>1.025</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
         <v>1</v>
-      </c>
-      <c r="I210" t="s">
-        <v>50</v>
-      </c>
-      <c r="J210">
-        <v>2.25</v>
-      </c>
-      <c r="K210">
-        <v>3.5</v>
-      </c>
-      <c r="L210">
-        <v>2.75</v>
-      </c>
-      <c r="M210">
-        <v>2.3</v>
-      </c>
-      <c r="N210">
-        <v>3.5</v>
-      </c>
-      <c r="O210">
-        <v>2.875</v>
-      </c>
-      <c r="P210">
-        <v>-0.25</v>
-      </c>
-      <c r="Q210">
-        <v>2.05</v>
-      </c>
-      <c r="R210">
-        <v>1.8</v>
-      </c>
-      <c r="S210">
-        <v>2.5</v>
-      </c>
-      <c r="T210">
-        <v>1.925</v>
-      </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
-      <c r="V210">
-        <v>1.3</v>
-      </c>
-      <c r="W210">
-        <v>-1</v>
-      </c>
-      <c r="X210">
-        <v>-1</v>
-      </c>
-      <c r="Y210">
-        <v>1.05</v>
-      </c>
-      <c r="Z210">
-        <v>-1</v>
-      </c>
-      <c r="AA210">
-        <v>0.925</v>
-      </c>
-      <c r="AB210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18602,7 +18602,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7629250</v>
+        <v>7629251</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18611,58 +18611,58 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
         <v>1</v>
-      </c>
-      <c r="H211">
-        <v>0</v>
       </c>
       <c r="I211" t="s">
         <v>50</v>
       </c>
       <c r="J211">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K211">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L211">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="N211">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O211">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="P211">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>0.5329999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W211">
         <v>-1</v>
@@ -18671,16 +18671,16 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18688,7 +18688,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7629089</v>
+        <v>7629250</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18697,76 +18697,76 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J212">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K212">
         <v>3.75</v>
       </c>
       <c r="L212">
+        <v>4.333</v>
+      </c>
+      <c r="M212">
+        <v>1.533</v>
+      </c>
+      <c r="N212">
         <v>4</v>
       </c>
-      <c r="M212">
-        <v>1.7</v>
-      </c>
-      <c r="N212">
-        <v>3.8</v>
-      </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P212">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W212">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18774,7 +18774,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7629022</v>
+        <v>7629089</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18783,34 +18783,34 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J213">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K213">
         <v>3.75</v>
       </c>
       <c r="L213">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O213">
         <v>4.2</v>
@@ -18819,40 +18819,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
         <v>3</v>
       </c>
       <c r="T213">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18860,7 +18860,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7629023</v>
+        <v>7629022</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18869,58 +18869,58 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G214">
+        <v>5</v>
+      </c>
+      <c r="H214">
         <v>1</v>
-      </c>
-      <c r="H214">
-        <v>0</v>
       </c>
       <c r="I214" t="s">
         <v>50</v>
       </c>
       <c r="J214">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L214">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="M214">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="P214">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
+        <v>2</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>3</v>
+      </c>
+      <c r="T214">
+        <v>1.9</v>
+      </c>
+      <c r="U214">
         <v>1.95</v>
       </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>2.75</v>
-      </c>
-      <c r="T214">
-        <v>1.825</v>
-      </c>
-      <c r="U214">
-        <v>2.025</v>
-      </c>
       <c r="V214">
-        <v>1.55</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18929,16 +18929,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18946,7 +18946,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7628622</v>
+        <v>7629023</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18955,76 +18955,76 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J215">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="K215">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L215">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M215">
+        <v>2.55</v>
+      </c>
+      <c r="N215">
         <v>3.4</v>
       </c>
-      <c r="N215">
-        <v>3.6</v>
-      </c>
       <c r="O215">
+        <v>2.5</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
         <v>1.95</v>
       </c>
-      <c r="P215">
-        <v>0.5</v>
-      </c>
-      <c r="Q215">
-        <v>1.825</v>
-      </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
         <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
         <v>0.95</v>
       </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
         <v>1.025</v>
-      </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
-      <c r="AB215">
-        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19041,7 +19041,7 @@
         <v>45428.5</v>
       </c>
       <c r="E216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
         <v>31</v>
@@ -19290,7 +19290,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7628624</v>
+        <v>7629024</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19299,10 +19299,10 @@
         <v>45428.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19314,61 +19314,61 @@
         <v>51</v>
       </c>
       <c r="J219">
+        <v>2.1</v>
+      </c>
+      <c r="K219">
+        <v>3.5</v>
+      </c>
+      <c r="L219">
+        <v>3.1</v>
+      </c>
+      <c r="M219">
+        <v>2.4</v>
+      </c>
+      <c r="N219">
+        <v>3.4</v>
+      </c>
+      <c r="O219">
+        <v>2.75</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>1.825</v>
+      </c>
+      <c r="R219">
+        <v>2.025</v>
+      </c>
+      <c r="S219">
+        <v>2.75</v>
+      </c>
+      <c r="T219">
+        <v>1.875</v>
+      </c>
+      <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
+        <v>-1</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
         <v>1.75</v>
       </c>
-      <c r="K219">
-        <v>3.8</v>
-      </c>
-      <c r="L219">
-        <v>3.9</v>
-      </c>
-      <c r="M219">
-        <v>1.909</v>
-      </c>
-      <c r="N219">
-        <v>3.8</v>
-      </c>
-      <c r="O219">
-        <v>3.4</v>
-      </c>
-      <c r="P219">
-        <v>-0.5</v>
-      </c>
-      <c r="Q219">
-        <v>1.975</v>
-      </c>
-      <c r="R219">
-        <v>1.875</v>
-      </c>
-      <c r="S219">
-        <v>3</v>
-      </c>
-      <c r="T219">
-        <v>1.95</v>
-      </c>
-      <c r="U219">
-        <v>1.9</v>
-      </c>
-      <c r="V219">
-        <v>-1</v>
-      </c>
-      <c r="W219">
-        <v>-1</v>
-      </c>
-      <c r="X219">
-        <v>2.4</v>
-      </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19376,7 +19376,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7629024</v>
+        <v>7628624</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19385,10 +19385,10 @@
         <v>45428.54166666666</v>
       </c>
       <c r="E220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19400,61 +19400,61 @@
         <v>51</v>
       </c>
       <c r="J220">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K220">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L220">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M220">
+        <v>1.909</v>
+      </c>
+      <c r="N220">
+        <v>3.8</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
+        <v>-0.5</v>
+      </c>
+      <c r="Q220">
+        <v>1.975</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>3</v>
+      </c>
+      <c r="T220">
+        <v>1.95</v>
+      </c>
+      <c r="U220">
+        <v>1.9</v>
+      </c>
+      <c r="V220">
+        <v>-1</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
         <v>2.4</v>
       </c>
-      <c r="N220">
-        <v>3.4</v>
-      </c>
-      <c r="O220">
-        <v>2.75</v>
-      </c>
-      <c r="P220">
-        <v>0</v>
-      </c>
-      <c r="Q220">
-        <v>1.825</v>
-      </c>
-      <c r="R220">
-        <v>2.025</v>
-      </c>
-      <c r="S220">
-        <v>2.75</v>
-      </c>
-      <c r="T220">
-        <v>1.875</v>
-      </c>
-      <c r="U220">
-        <v>1.975</v>
-      </c>
-      <c r="V220">
-        <v>-1</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>1.75</v>
-      </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19462,7 +19462,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7628526</v>
+        <v>7628623</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19471,76 +19471,76 @@
         <v>45428.54166666666</v>
       </c>
       <c r="E221" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J221">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L221">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="P221">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q221">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T221">
+        <v>2.025</v>
+      </c>
+      <c r="U221">
         <v>1.825</v>
       </c>
-      <c r="U221">
-        <v>2.025</v>
-      </c>
       <c r="V221">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z221">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19548,7 +19548,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7628623</v>
+        <v>7628526</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19557,76 +19557,76 @@
         <v>45428.54166666666</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F222" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G222">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222" t="s">
+        <v>51</v>
+      </c>
+      <c r="J222">
+        <v>2.25</v>
+      </c>
+      <c r="K222">
+        <v>3.4</v>
+      </c>
+      <c r="L222">
+        <v>2.9</v>
+      </c>
+      <c r="M222">
+        <v>2.15</v>
+      </c>
+      <c r="N222">
+        <v>3.4</v>
+      </c>
+      <c r="O222">
         <v>3</v>
       </c>
-      <c r="I222" t="s">
-        <v>50</v>
-      </c>
-      <c r="J222">
+      <c r="P222">
+        <v>-0.25</v>
+      </c>
+      <c r="Q222">
+        <v>1.925</v>
+      </c>
+      <c r="R222">
+        <v>1.925</v>
+      </c>
+      <c r="S222">
         <v>2.5</v>
       </c>
-      <c r="K222">
-        <v>3.5</v>
-      </c>
-      <c r="L222">
-        <v>2.45</v>
-      </c>
-      <c r="M222">
-        <v>2.7</v>
-      </c>
-      <c r="N222">
-        <v>3.5</v>
-      </c>
-      <c r="O222">
-        <v>2.4</v>
-      </c>
-      <c r="P222">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>2.05</v>
-      </c>
-      <c r="R222">
-        <v>1.8</v>
-      </c>
-      <c r="S222">
-        <v>3.25</v>
-      </c>
       <c r="T222">
+        <v>1.825</v>
+      </c>
+      <c r="U222">
         <v>2.025</v>
       </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
       <c r="V222">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
+        <v>-1</v>
+      </c>
+      <c r="AB222">
         <v>1.025</v>
-      </c>
-      <c r="AB222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:28">

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -2504,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011584</v>
+        <v>6014977</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -2513,82 +2513,82 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M22">
+        <v>3.4</v>
+      </c>
+      <c r="N22">
+        <v>2.3</v>
+      </c>
+      <c r="O22">
+        <v>2.9</v>
+      </c>
+      <c r="P22">
         <v>3.5</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>2.375</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.05</v>
+      </c>
+      <c r="U22">
+        <v>2.75</v>
+      </c>
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
-      <c r="P22">
-        <v>3.75</v>
-      </c>
-      <c r="Q22">
-        <v>1.95</v>
-      </c>
-      <c r="R22">
-        <v>0.5</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>1.975</v>
-      </c>
-      <c r="U22">
-        <v>3.25</v>
-      </c>
-      <c r="V22">
-        <v>1.975</v>
-      </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2596,7 +2596,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6014977</v>
+        <v>6011584</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2605,82 +2605,82 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="R23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>1.975</v>
+      </c>
+      <c r="W23">
+        <v>1.875</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>2.75</v>
       </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
-      <c r="W23">
-        <v>1.9</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
       <c r="Z23">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2688,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6011943</v>
+        <v>6011583</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2697,19 +2697,19 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2718,43 +2718,43 @@
         <v>61</v>
       </c>
       <c r="L24">
+        <v>1.95</v>
+      </c>
+      <c r="M24">
+        <v>3.5</v>
+      </c>
+      <c r="N24">
+        <v>3.75</v>
+      </c>
+      <c r="O24">
+        <v>1.909</v>
+      </c>
+      <c r="P24">
+        <v>3.6</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>-0.5</v>
+      </c>
+      <c r="S24">
+        <v>1.875</v>
+      </c>
+      <c r="T24">
+        <v>1.975</v>
+      </c>
+      <c r="U24">
+        <v>2.75</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="M24">
-        <v>3.6</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>1.5</v>
-      </c>
-      <c r="P24">
-        <v>4.333</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="R24">
-        <v>-1.25</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>1.825</v>
-      </c>
-      <c r="U24">
-        <v>3.25</v>
-      </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2763,16 +2763,16 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2780,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011583</v>
+        <v>6011943</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2789,19 +2789,19 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2810,43 +2810,43 @@
         <v>61</v>
       </c>
       <c r="L25">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="M25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="P25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U25">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X25">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2855,16 +2855,16 @@
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3148,7 +3148,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6010975</v>
+        <v>6011586</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -3157,79 +3157,79 @@
         <v>45108.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <v>4</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L29">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>2.15</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>5.25</v>
-      </c>
-      <c r="O29">
-        <v>1.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="R29">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD29">
         <v>-1</v>
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6011586</v>
+        <v>6010975</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -3249,79 +3249,79 @@
         <v>45108.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30">
+        <v>1.5</v>
+      </c>
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30">
-        <v>2.875</v>
-      </c>
-      <c r="M30">
-        <v>3.6</v>
-      </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD30">
         <v>-1</v>
@@ -3700,7 +3700,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011589</v>
+        <v>6011665</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3709,82 +3709,82 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L35">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O35">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="P35">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="R35">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
         <v>3.25</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X35">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3792,7 +3792,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011591</v>
+        <v>6010976</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -3801,46 +3801,46 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
+        <v>3.3</v>
+      </c>
+      <c r="N36">
+        <v>2.2</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
         <v>3.5</v>
       </c>
-      <c r="N36">
-        <v>2.25</v>
-      </c>
-      <c r="O36">
-        <v>3.1</v>
-      </c>
-      <c r="P36">
-        <v>3.6</v>
-      </c>
       <c r="Q36">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="R36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S36">
         <v>1.95</v>
@@ -3849,34 +3849,34 @@
         <v>1.9</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3884,7 +3884,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6010976</v>
+        <v>6011591</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -3893,46 +3893,46 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="R37">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S37">
         <v>1.95</v>
@@ -3941,34 +3941,34 @@
         <v>1.9</v>
       </c>
       <c r="U37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3976,7 +3976,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011665</v>
+        <v>6011589</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -3985,82 +3985,82 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N38">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O38">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="P38">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q38">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="R38">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>3.25</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD38">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4068,7 +4068,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011592</v>
+        <v>6014975</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -4077,82 +4077,82 @@
         <v>45116.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M39">
+        <v>3.5</v>
+      </c>
+      <c r="N39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>3.75</v>
-      </c>
       <c r="O39">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R39">
         <v>-0.5</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4160,7 +4160,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011590</v>
+        <v>6011592</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -4169,16 +4169,16 @@
         <v>45116.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4190,61 +4190,61 @@
         <v>62</v>
       </c>
       <c r="L40">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P40">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U40">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
       </c>
       <c r="AD40">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4252,7 +4252,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6014975</v>
+        <v>6011590</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -4261,13 +4261,13 @@
         <v>45116.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4276,67 +4276,67 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q41">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>2.5</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4436,7 +4436,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6011595</v>
+        <v>6014974</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -4445,10 +4445,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4457,55 +4457,55 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>62</v>
       </c>
       <c r="L43">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M43">
+        <v>3.4</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>2.3</v>
+      </c>
+      <c r="P43">
         <v>3.6</v>
       </c>
-      <c r="N43">
-        <v>3.5</v>
-      </c>
-      <c r="O43">
-        <v>2.2</v>
-      </c>
-      <c r="P43">
-        <v>3.4</v>
-      </c>
       <c r="Q43">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="R43">
         <v>-0.25</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
+        <v>1.825</v>
+      </c>
+      <c r="W43">
         <v>2.025</v>
       </c>
-      <c r="W43">
-        <v>1.825</v>
-      </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4514,13 +4514,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AC43">
         <v>-1</v>
       </c>
       <c r="AD43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4528,7 +4528,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6010977</v>
+        <v>6011595</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -4537,16 +4537,16 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4555,64 +4555,64 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L44">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O44">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P44">
         <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R44">
         <v>-0.25</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U44">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4620,7 +4620,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6014974</v>
+        <v>6010977</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -4629,82 +4629,82 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="M45">
+        <v>3.3</v>
+      </c>
+      <c r="N45">
+        <v>3.3</v>
+      </c>
+      <c r="O45">
+        <v>2.375</v>
+      </c>
+      <c r="P45">
         <v>3.4</v>
       </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>2.3</v>
-      </c>
-      <c r="P45">
-        <v>3.6</v>
-      </c>
       <c r="Q45">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="R45">
         <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -5632,7 +5632,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011605</v>
+        <v>6010979</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5641,16 +5641,16 @@
         <v>45151.5</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5662,43 +5662,43 @@
         <v>61</v>
       </c>
       <c r="L56">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O56">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="R56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U56">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X56">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5707,16 +5707,16 @@
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5724,7 +5724,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6010979</v>
+        <v>6011603</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -5733,13 +5733,13 @@
         <v>45151.5</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5748,49 +5748,49 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
         <v>61</v>
       </c>
       <c r="L57">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P57">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R57">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S57">
+        <v>2.05</v>
+      </c>
+      <c r="T57">
+        <v>1.8</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
         <v>1.975</v>
       </c>
-      <c r="T57">
+      <c r="W57">
         <v>1.875</v>
       </c>
-      <c r="U57">
-        <v>2.25</v>
-      </c>
-      <c r="V57">
-        <v>1.8</v>
-      </c>
-      <c r="W57">
-        <v>2.05</v>
-      </c>
       <c r="X57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5799,13 +5799,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
+        <v>1.05</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.8</v>
       </c>
       <c r="AD57">
         <v>-1</v>
@@ -5816,7 +5816,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011603</v>
+        <v>6011604</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -5825,82 +5825,82 @@
         <v>45151.5</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L58">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N58">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O58">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q58">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R58">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V58">
+        <v>1.875</v>
+      </c>
+      <c r="W58">
         <v>1.975</v>
       </c>
-      <c r="W58">
-        <v>1.875</v>
-      </c>
       <c r="X58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AD58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5908,7 +5908,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011604</v>
+        <v>6011605</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -5917,16 +5917,16 @@
         <v>45151.5</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5935,64 +5935,64 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L59">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="M59">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N59">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P59">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q59">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="R59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S59">
+        <v>2.025</v>
+      </c>
+      <c r="T59">
         <v>1.825</v>
       </c>
-      <c r="T59">
-        <v>2.025</v>
-      </c>
       <c r="U59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD59">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -14648,7 +14648,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6011968</v>
+        <v>6011652</v>
       </c>
       <c r="C154" t="s">
         <v>37</v>
@@ -14657,82 +14657,82 @@
         <v>45242.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L154">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="M154">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N154">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="P154">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q154">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="R154">
         <v>-1.5</v>
       </c>
       <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>1.85</v>
+      </c>
+      <c r="U154">
+        <v>3.5</v>
+      </c>
+      <c r="V154">
         <v>2.025</v>
       </c>
-      <c r="T154">
+      <c r="W154">
         <v>1.825</v>
       </c>
-      <c r="U154">
-        <v>3.25</v>
-      </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
-      <c r="W154">
-        <v>2.025</v>
-      </c>
       <c r="X154">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y154">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
+      </c>
+      <c r="AD154">
         <v>0.825</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
-      </c>
-      <c r="AD154">
-        <v>1.025</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14740,7 +14740,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6011652</v>
+        <v>6014960</v>
       </c>
       <c r="C155" t="s">
         <v>37</v>
@@ -14749,82 +14749,82 @@
         <v>45242.4375</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L155">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="M155">
         <v>4</v>
       </c>
       <c r="N155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O155">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="P155">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q155">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="R155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U155">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X155">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD155">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14832,7 +14832,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6011971</v>
+        <v>6011968</v>
       </c>
       <c r="C156" t="s">
         <v>37</v>
@@ -14841,82 +14841,82 @@
         <v>45242.4375</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L156">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="M156">
         <v>4.5</v>
       </c>
       <c r="N156">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O156">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="P156">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q156">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="R156">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z156">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14924,7 +14924,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6014960</v>
+        <v>6011971</v>
       </c>
       <c r="C157" t="s">
         <v>37</v>
@@ -14933,55 +14933,55 @@
         <v>45242.4375</v>
       </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K157" t="s">
         <v>60</v>
       </c>
       <c r="L157">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N157">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="O157">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="R157">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V157">
         <v>1.9</v>
@@ -14996,19 +14996,19 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>2.8</v>
+        <v>0.444</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC157">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD157">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15200,7 +15200,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6010990</v>
+        <v>6011651</v>
       </c>
       <c r="C160" t="s">
         <v>37</v>
@@ -15209,16 +15209,16 @@
         <v>45242.4375</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15227,64 +15227,64 @@
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L160">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
+        <v>2.5</v>
+      </c>
+      <c r="O160">
+        <v>3.1</v>
+      </c>
+      <c r="P160">
+        <v>3.8</v>
+      </c>
+      <c r="Q160">
         <v>2.15</v>
       </c>
-      <c r="O160">
-        <v>4.75</v>
-      </c>
-      <c r="P160">
-        <v>4.333</v>
-      </c>
-      <c r="Q160">
-        <v>1.615</v>
-      </c>
       <c r="R160">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U160">
         <v>3</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
         <v>-1</v>
       </c>
       <c r="AD160">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15292,7 +15292,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6011651</v>
+        <v>6010990</v>
       </c>
       <c r="C161" t="s">
         <v>37</v>
@@ -15301,16 +15301,16 @@
         <v>45242.4375</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -15319,64 +15319,64 @@
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L161">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="R161">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U161">
         <v>3</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z161">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
         <v>-1</v>
       </c>
       <c r="AD161">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15568,7 +15568,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7629012</v>
+        <v>7629074</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
@@ -15577,82 +15577,82 @@
         <v>45383.5</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="s">
         <v>61</v>
       </c>
       <c r="L164">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O164">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q164">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R164">
+        <v>-0.75</v>
+      </c>
+      <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
+        <v>1.875</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>2.05</v>
+      </c>
+      <c r="X164">
+        <v>0.7</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.4875</v>
+      </c>
+      <c r="AB164">
         <v>-0.5</v>
       </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
-      <c r="T164">
-        <v>1.85</v>
-      </c>
-      <c r="U164">
-        <v>2.5</v>
-      </c>
-      <c r="V164">
-        <v>1.875</v>
-      </c>
-      <c r="W164">
-        <v>1.975</v>
-      </c>
-      <c r="X164">
-        <v>0.95</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
-      <c r="AA164">
-        <v>1</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD164">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -16028,7 +16028,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7629074</v>
+        <v>7629012</v>
       </c>
       <c r="C169" t="s">
         <v>37</v>
@@ -16037,64 +16037,64 @@
         <v>45383.5</v>
       </c>
       <c r="E169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F169" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="s">
         <v>61</v>
       </c>
       <c r="L169">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O169">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="P169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q169">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="R169">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>1.85</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>1.875</v>
+      </c>
+      <c r="W169">
         <v>1.975</v>
       </c>
-      <c r="T169">
-        <v>1.875</v>
-      </c>
-      <c r="U169">
-        <v>3</v>
-      </c>
-      <c r="V169">
-        <v>1.8</v>
-      </c>
-      <c r="W169">
-        <v>2.05</v>
-      </c>
       <c r="X169">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="Y169">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD169">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -18236,7 +18236,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7629018</v>
+        <v>7629084</v>
       </c>
       <c r="C193" t="s">
         <v>37</v>
@@ -18245,82 +18245,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L193">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M193">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P193">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q193">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R193">
         <v>-0.5</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U193">
         <v>2.75</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>2.3</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC193">
         <v>0.95</v>
       </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
-      <c r="AA193">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
-      </c>
       <c r="AD193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18420,7 +18420,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7629085</v>
+        <v>7629019</v>
       </c>
       <c r="C195" t="s">
         <v>37</v>
@@ -18429,82 +18429,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L195">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="M195">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N195">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O195">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="P195">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="R195">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U195">
         <v>3</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y195">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD195">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18512,7 +18512,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7629084</v>
+        <v>7629018</v>
       </c>
       <c r="C196" t="s">
         <v>37</v>
@@ -18521,82 +18521,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L196">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M196">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O196">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P196">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R196">
         <v>-0.5</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U196">
         <v>2.75</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18604,7 +18604,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7629019</v>
+        <v>7629085</v>
       </c>
       <c r="C197" t="s">
         <v>37</v>
@@ -18613,82 +18613,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L197">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="M197">
+        <v>3.7</v>
+      </c>
+      <c r="N197">
+        <v>2.1</v>
+      </c>
+      <c r="O197">
+        <v>2.9</v>
+      </c>
+      <c r="P197">
         <v>3.8</v>
       </c>
-      <c r="N197">
-        <v>4.333</v>
-      </c>
-      <c r="O197">
-        <v>1.571</v>
-      </c>
-      <c r="P197">
-        <v>4.2</v>
-      </c>
       <c r="Q197">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="R197">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U197">
         <v>3</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X197">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC197">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD197">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -22450,31 +22450,31 @@
         <v>4</v>
       </c>
       <c r="O239">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="P239">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R239">
         <v>-0.75</v>
       </c>
       <c r="S239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U239">
         <v>2.75</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X239">
         <v>0</v>
@@ -22515,31 +22515,31 @@
         <v>4.5</v>
       </c>
       <c r="O240">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q240">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="R240">
         <v>-0.5</v>
       </c>
       <c r="S240">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="U240">
         <v>2.75</v>
       </c>
       <c r="V240">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="X240">
         <v>0</v>
@@ -22580,31 +22580,31 @@
         <v>4.2</v>
       </c>
       <c r="O241">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="P241">
         <v>4</v>
       </c>
       <c r="Q241">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="R241">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S241">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="U241">
         <v>3</v>
       </c>
       <c r="V241">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="X241">
         <v>0</v>
@@ -22645,31 +22645,31 @@
         <v>2</v>
       </c>
       <c r="O242">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P242">
         <v>3.6</v>
       </c>
       <c r="Q242">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R242">
         <v>0.25</v>
       </c>
       <c r="S242">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U242">
         <v>3</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X242">
         <v>0</v>
@@ -22710,31 +22710,31 @@
         <v>4</v>
       </c>
       <c r="O243">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="P243">
         <v>3.9</v>
       </c>
       <c r="Q243">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="R243">
         <v>-0.75</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T243">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U243">
         <v>2.75</v>
       </c>
       <c r="V243">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="X243">
         <v>0</v>
@@ -22778,28 +22778,28 @@
         <v>2.1</v>
       </c>
       <c r="P244">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q244">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R244">
         <v>-0.25</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U244">
         <v>2.75</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X244">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>2.75</v>
       </c>
       <c r="O245">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P245">
         <v>3.8</v>
@@ -22852,10 +22852,10 @@
         <v>-0.25</v>
       </c>
       <c r="S245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T245">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>3</v>

--- a/Norway Division 1/Norway Division 1.xlsx
+++ b/Norway Division 1/Norway Division 1.xlsx
@@ -2688,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6011583</v>
+        <v>6011584</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2697,46 +2697,46 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
         <v>3.5</v>
       </c>
       <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
+        <v>3.5</v>
+      </c>
+      <c r="P24">
         <v>3.75</v>
       </c>
-      <c r="O24">
-        <v>1.909</v>
-      </c>
-      <c r="P24">
-        <v>3.6</v>
-      </c>
       <c r="Q24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="R24">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S24">
         <v>1.875</v>
@@ -2745,19 +2745,19 @@
         <v>1.975</v>
       </c>
       <c r="U24">
+        <v>3.25</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>1.875</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>2.75</v>
-      </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>0.909</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
@@ -2769,10 +2769,10 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2780,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011584</v>
+        <v>6011583</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2789,46 +2789,46 @@
         <v>45102.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="M25">
         <v>3.5</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q25">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
         <v>1.875</v>
@@ -2837,19 +2837,19 @@
         <v>1.975</v>
       </c>
       <c r="U25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
@@ -2861,10 +2861,10 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3056,7 +3056,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6011585</v>
+        <v>6010975</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -3065,79 +3065,79 @@
         <v>45108.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28">
+        <v>1.5</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>5.25</v>
+      </c>
+      <c r="O28">
+        <v>1.5</v>
+      </c>
+      <c r="P28">
+        <v>4.5</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>-1.25</v>
+      </c>
+      <c r="S28">
+        <v>2.05</v>
+      </c>
+      <c r="T28">
+        <v>1.8</v>
+      </c>
+      <c r="U28">
         <v>3</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28">
+      <c r="V28">
+        <v>1.9</v>
+      </c>
+      <c r="W28">
         <v>1.95</v>
       </c>
-      <c r="M28">
-        <v>3.75</v>
-      </c>
-      <c r="N28">
-        <v>3.25</v>
-      </c>
-      <c r="O28">
-        <v>2.2</v>
-      </c>
-      <c r="P28">
-        <v>3.75</v>
-      </c>
-      <c r="Q28">
-        <v>3.1</v>
-      </c>
-      <c r="R28">
-        <v>-0.25</v>
-      </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>1.925</v>
-      </c>
-      <c r="U28">
-        <v>3.25</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
-      <c r="W28">
-        <v>1.9</v>
-      </c>
       <c r="X28">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD28">
         <v>-1</v>
@@ -3148,7 +3148,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6010975</v>
+        <v>6011585</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -3157,79 +3157,79 @@
         <v>45108.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O29">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="P29">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="R29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>1.9</v>
       </c>
-      <c r="W29">
-        <v>1.95</v>
-      </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD29">
         <v>-1</v>
@@ -3608,7 +3608,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6011665</v>
+        <v>6010976</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -3617,61 +3617,61 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>60</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N34">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q34">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="R34">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U34">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3680,19 +3680,19 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3700,7 +3700,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011591</v>
+        <v>6011665</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3709,79 +3709,79 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O35">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="R35">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X35">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -3792,7 +3792,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011589</v>
+        <v>6011591</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -3801,19 +3801,19 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3822,43 +3822,43 @@
         <v>61</v>
       </c>
       <c r="L36">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="P36">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q36">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="R36">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X36">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3867,16 +3867,16 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD36">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3884,7 +3884,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6010976</v>
+        <v>6011588</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -3893,82 +3893,82 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q37">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="R37">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U37">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
         <v>1.85</v>
       </c>
-      <c r="W37">
-        <v>2</v>
-      </c>
       <c r="X37">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3976,7 +3976,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011588</v>
+        <v>6011589</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -3985,19 +3985,19 @@
         <v>45115.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4006,43 +4006,43 @@
         <v>61</v>
       </c>
       <c r="L38">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="M38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N38">
+        <v>4.333</v>
+      </c>
+      <c r="O38">
+        <v>1.7</v>
+      </c>
+      <c r="P38">
+        <v>4.333</v>
+      </c>
+      <c r="Q38">
         <v>4.2</v>
       </c>
-      <c r="O38">
-        <v>1.533</v>
-      </c>
-      <c r="P38">
-        <v>4.5</v>
-      </c>
-      <c r="Q38">
-        <v>5.75</v>
-      </c>
       <c r="R38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>3.25</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X38">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -4051,16 +4051,16 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD38">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4068,7 +4068,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011590</v>
+        <v>6014975</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -4077,13 +4077,13 @@
         <v>45116.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4092,67 +4092,67 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U39">
         <v>2.5</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4160,7 +4160,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6014975</v>
+        <v>6011590</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -4169,13 +4169,13 @@
         <v>45116.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4184,67 +4184,67 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R40">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>2.5</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4436,7 +4436,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6011595</v>
+        <v>6014974</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -4445,10 +4445,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4457,55 +4457,55 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>62</v>
       </c>
       <c r="L43">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M43">
+        <v>3.4</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>2.3</v>
+      </c>
+      <c r="P43">
         <v>3.6</v>
       </c>
-      <c r="N43">
-        <v>3.5</v>
-      </c>
-      <c r="O43">
-        <v>2.2</v>
-      </c>
-      <c r="P43">
-        <v>3.4</v>
-      </c>
       <c r="Q43">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="R43">
         <v>-0.25</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
+        <v>1.825</v>
+      </c>
+      <c r="W43">
         <v>2.025</v>
       </c>
-      <c r="W43">
-        <v>1.825</v>
-      </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4514,13 +4514,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AC43">
         <v>-1</v>
       </c>
       <c r="AD43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4528,7 +4528,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6014974</v>
+        <v>6010977</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -4537,82 +4537,82 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L44">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="M44">
+        <v>3.3</v>
+      </c>
+      <c r="N44">
+        <v>3.3</v>
+      </c>
+      <c r="O44">
+        <v>2.375</v>
+      </c>
+      <c r="P44">
         <v>3.4</v>
       </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-      <c r="O44">
-        <v>2.3</v>
-      </c>
-      <c r="P44">
-        <v>3.6</v>
-      </c>
       <c r="Q44">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="R44">
         <v>-0.25</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y44">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4620,7 +4620,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6010977</v>
+        <v>6011595</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -4629,16 +4629,16 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4647,64 +4647,64 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L45">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P45">
         <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R45">
         <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X45">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -5172,7 +5172,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011602</v>
+        <v>6011601</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -5181,64 +5181,64 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>61</v>
       </c>
       <c r="L51">
+        <v>1.666</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>1.45</v>
+      </c>
+      <c r="P51">
+        <v>4.75</v>
+      </c>
+      <c r="Q51">
+        <v>6.5</v>
+      </c>
+      <c r="R51">
+        <v>-1.25</v>
+      </c>
+      <c r="S51">
         <v>1.95</v>
       </c>
-      <c r="M51">
+      <c r="T51">
+        <v>1.9</v>
+      </c>
+      <c r="U51">
         <v>3.5</v>
       </c>
-      <c r="N51">
-        <v>3.2</v>
-      </c>
-      <c r="O51">
-        <v>2</v>
-      </c>
-      <c r="P51">
-        <v>3.75</v>
-      </c>
-      <c r="Q51">
-        <v>3.5</v>
-      </c>
-      <c r="R51">
-        <v>-0.5</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
         <v>1.85</v>
       </c>
-      <c r="U51">
-        <v>3.25</v>
-      </c>
-      <c r="V51">
-        <v>1.925</v>
-      </c>
-      <c r="W51">
-        <v>1.925</v>
-      </c>
       <c r="X51">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5247,16 +5247,16 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5264,7 +5264,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011445</v>
+        <v>6011599</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -5273,79 +5273,79 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L52">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="R52">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U52">
+        <v>2.75</v>
+      </c>
+      <c r="V52">
+        <v>1.85</v>
+      </c>
+      <c r="W52">
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
         <v>2.5</v>
       </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
-      <c r="W52">
-        <v>1.85</v>
-      </c>
-      <c r="X52">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
       <c r="AA52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD52">
         <v>-1</v>
@@ -5356,7 +5356,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011598</v>
+        <v>6011445</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -5365,46 +5365,46 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53">
+        <v>1.6</v>
+      </c>
+      <c r="M53">
+        <v>3.75</v>
+      </c>
+      <c r="N53">
+        <v>4.75</v>
+      </c>
+      <c r="O53">
+        <v>1.533</v>
+      </c>
+      <c r="P53">
         <v>4</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>60</v>
-      </c>
-      <c r="L53">
-        <v>2.8</v>
-      </c>
-      <c r="M53">
-        <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>2.2</v>
-      </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>3.6</v>
-      </c>
       <c r="Q53">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="R53">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S53">
         <v>1.975</v>
@@ -5413,31 +5413,31 @@
         <v>1.875</v>
       </c>
       <c r="U53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD53">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011599</v>
+        <v>6011602</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -5457,79 +5457,79 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L54">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
       </c>
       <c r="R54">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U54">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD54">
         <v>-1</v>
@@ -5540,7 +5540,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011601</v>
+        <v>6011598</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5549,82 +5549,82 @@
         <v>45147.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55">
+        <v>2.8</v>
+      </c>
+      <c r="M55">
+        <v>3.4</v>
+      </c>
+      <c r="N55">
+        <v>2.2</v>
+      </c>
+      <c r="O55">
+        <v>3.3</v>
+      </c>
+      <c r="P55">
+        <v>3.6</v>
+      </c>
+      <c r="Q55">
+        <v>2.1</v>
+      </c>
+      <c r="R55">
+        <v>0.25</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>1.875</v>
+      </c>
+      <c r="U55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>61</v>
-      </c>
-      <c r="L55">
-        <v>1.666</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
-      <c r="O55">
-        <v>1.45</v>
-      </c>
-      <c r="P55">
-        <v>4.75</v>
-      </c>
-      <c r="Q55">
-        <v>6.5</v>
-      </c>
-      <c r="R55">
-        <v>-1.25</v>
-      </c>
-      <c r="S55">
+      <c r="V55">
+        <v>1.9</v>
+      </c>
+      <c r="W55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>1.9</v>
-      </c>
-      <c r="U55">
-        <v>3.5</v>
-      </c>
-      <c r="V55">
-        <v>2</v>
-      </c>
-      <c r="W55">
-        <v>1.85</v>
-      </c>
       <c r="X55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5632,7 +5632,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011604</v>
+        <v>6011605</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5641,16 +5641,16 @@
         <v>45151.5</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5659,64 +5659,64 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L56">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q56">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="R56">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>2.025</v>
-      </c>
       <c r="U56">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5724,7 +5724,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6014972</v>
+        <v>6011604</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -5733,16 +5733,16 @@
         <v>45151.5</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5751,64 +5751,64 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O57">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q57">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="R57">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X57">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5816,7 +5816,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011667</v>
+        <v>6014972</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -5825,82 +5825,82 @@
         <v>45151.5</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L58">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M58">
         <v>3.5</v>
       </c>
       <c r="N58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O58">
         <v>2.15</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q58">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R58">
         <v>-0.25</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD58">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5908,7 +5908,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011666</v>
+        <v>6011957</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -5917,64 +5917,64 @@
         <v>45151.5</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>61</v>
       </c>
       <c r="L59">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="M59">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U59">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X59">
-        <v>1.55</v>
+        <v>0.571</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5983,13 +5983,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD59">
         <v>-1</v>
@@ -6000,7 +6000,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011605</v>
+        <v>6011667</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -6009,25 +6009,25 @@
         <v>45151.5</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L60">
         <v>2.15</v>
@@ -6036,25 +6036,25 @@
         <v>3.5</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O60">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P60">
         <v>3.75</v>
       </c>
       <c r="Q60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R60">
         <v>-0.25</v>
       </c>
       <c r="S60">
+        <v>1.825</v>
+      </c>
+      <c r="T60">
         <v>2.025</v>
-      </c>
-      <c r="T60">
-        <v>1.825</v>
       </c>
       <c r="U60">
         <v>3.25</v>
@@ -6066,25 +6066,25 @@
         <v>1.9</v>
       </c>
       <c r="X60">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>1.025</v>
       </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD60">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6092,7 +6092,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011957</v>
+        <v>6011666</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -6101,64 +6101,64 @@
         <v>45151.5</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
         <v>61</v>
       </c>
       <c r="L61">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="O61">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="P61">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q61">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S61">
+        <v>1.8</v>
+      </c>
+      <c r="T61">
+        <v>2.05</v>
+      </c>
+      <c r="U61">
+        <v>2.25</v>
+      </c>
+      <c r="V61">
         <v>1.9</v>
       </c>
-      <c r="T61">
+      <c r="W61">
         <v>1.95</v>
       </c>
-      <c r="U61">
-        <v>3.5</v>
-      </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
-      <c r="W61">
-        <v>1.875</v>
-      </c>
       <c r="X61">
-        <v>0.571</v>
+        <v>1.55</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -6167,13 +6167,13 @@
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.8</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD61">
         <v>-1</v>
@@ -7104,7 +7104,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6011611</v>
+        <v>6011610</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
@@ -7113,82 +7113,82 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L72">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="P72">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="R72">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U72">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X72">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC72">
         <v>-1</v>
       </c>
       <c r="AD72">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7380,7 +7380,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6011610</v>
+        <v>6011611</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
@@ -7389,82 +7389,82 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L75">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="M75">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O75">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="P75">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="R75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U75">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB75">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC75">
         <v>-1</v>
       </c>
       <c r="AD75">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7472,7 +7472,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6011965</v>
+        <v>6011609</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -7481,82 +7481,82 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L76">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="O76">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q76">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="R76">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S76">
+        <v>1.825</v>
+      </c>
+      <c r="T76">
         <v>2.025</v>
       </c>
-      <c r="T76">
-        <v>1.825</v>
-      </c>
       <c r="U76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD76">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7748,7 +7748,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6011609</v>
+        <v>6011965</v>
       </c>
       <c r="C79" t="s">
         <v>37</v>
@@ -7757,82 +7757,82 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L79">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="O79">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q79">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="R79">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S79">
+        <v>2.025</v>
+      </c>
+      <c r="T79">
         <v>1.825</v>
       </c>
-      <c r="T79">
-        <v>2.025</v>
-      </c>
       <c r="U79">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="X79">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.825</v>
       </c>
-      <c r="AB79">
-        <v>-1</v>
-      </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD79">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -10232,7 +10232,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6010985</v>
+        <v>6011670</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
@@ -10241,82 +10241,82 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L106">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N106">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R106">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
         <v>2.75</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AD106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10324,7 +10324,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6011670</v>
+        <v>6010985</v>
       </c>
       <c r="C107" t="s">
         <v>37</v>
@@ -10333,82 +10333,82 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L107">
+        <v>2.1</v>
+      </c>
+      <c r="M107">
+        <v>3.6</v>
+      </c>
+      <c r="N107">
+        <v>3.2</v>
+      </c>
+      <c r="O107">
+        <v>1.833</v>
+      </c>
+      <c r="P107">
         <v>4</v>
       </c>
-      <c r="M107">
-        <v>3.8</v>
-      </c>
-      <c r="N107">
-        <v>1.8</v>
-      </c>
-      <c r="O107">
+      <c r="Q107">
         <v>4</v>
       </c>
-      <c r="P107">
-        <v>3.5</v>
-      </c>
-      <c r="Q107">
-        <v>1.909</v>
-      </c>
       <c r="R107">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U107">
         <v>2.75</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC107">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AD107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -13176,7 +13176,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6011645</v>
+        <v>6011674</v>
       </c>
       <c r="C138" t="s">
         <v>37</v>
@@ -13185,22 +13185,22 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K138" t="s">
         <v>60</v>
@@ -13209,37 +13209,37 @@
         <v>2.9</v>
       </c>
       <c r="M138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="R138">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U138">
         <v>3.25</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -13248,19 +13248,19 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
         <v>-1</v>
       </c>
       <c r="AD138">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13268,7 +13268,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6011674</v>
+        <v>6011646</v>
       </c>
       <c r="C139" t="s">
         <v>37</v>
@@ -13277,16 +13277,16 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -13298,40 +13298,40 @@
         <v>60</v>
       </c>
       <c r="L139">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P139">
         <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="R139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -13340,19 +13340,19 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD139">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13360,7 +13360,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6011646</v>
+        <v>6011645</v>
       </c>
       <c r="C140" t="s">
         <v>37</v>
@@ -13369,61 +13369,61 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K140" t="s">
         <v>60</v>
       </c>
       <c r="L140">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="M140">
         <v>3.75</v>
       </c>
       <c r="N140">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="R140">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -13432,19 +13432,19 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD140">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -15384,7 +15384,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7628611</v>
+        <v>7629074</v>
       </c>
       <c r="C162" t="s">
         <v>37</v>
@@ -15393,13 +15393,13 @@
         <v>45383.5</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15411,64 +15411,64 @@
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L162">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="M162">
+        <v>3.75</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>1.7</v>
+      </c>
+      <c r="P162">
+        <v>3.75</v>
+      </c>
+      <c r="Q162">
         <v>4</v>
       </c>
-      <c r="N162">
-        <v>5</v>
-      </c>
-      <c r="O162">
-        <v>1.4</v>
-      </c>
-      <c r="P162">
-        <v>4.333</v>
-      </c>
-      <c r="Q162">
-        <v>6</v>
-      </c>
       <c r="R162">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U162">
         <v>3</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y162">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD162">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15476,7 +15476,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7628610</v>
+        <v>7628611</v>
       </c>
       <c r="C163" t="s">
         <v>37</v>
@@ -15485,82 +15485,82 @@
         <v>45383.5</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F163" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" t="s">
+        <v>62</v>
+      </c>
+      <c r="L163">
+        <v>1.5</v>
+      </c>
+      <c r="M163">
         <v>4</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-      <c r="J163">
-        <v>3</v>
-      </c>
-      <c r="K163" t="s">
-        <v>60</v>
-      </c>
-      <c r="L163">
-        <v>2.2</v>
-      </c>
-      <c r="M163">
-        <v>3.6</v>
-      </c>
       <c r="N163">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O163">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="P163">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q163">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="R163">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U163">
         <v>3</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z163">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15568,7 +15568,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7629074</v>
+        <v>7628610</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
@@ -15577,46 +15577,46 @@
         <v>45383.5</v>
       </c>
       <c r="E164" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K164" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L164">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O164">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="P164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q164">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="R164">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S164">
         <v>1.975</v>
@@ -15628,31 +15628,31 @@
         <v>3</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X164">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA164">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD164">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15660,7 +15660,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7629075</v>
+        <v>7629012</v>
       </c>
       <c r="C165" t="s">
         <v>37</v>
@@ -15669,82 +15669,82 @@
         <v>45383.5</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L165">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M165">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N165">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P165">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q165">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U165">
         <v>2.5</v>
       </c>
       <c r="V165">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB165">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15752,7 +15752,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7629012</v>
+        <v>7629075</v>
       </c>
       <c r="C166" t="s">
         <v>37</v>
@@ -15761,82 +15761,82 @@
         <v>45383.5</v>
       </c>
       <c r="E166" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F166" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>62</v>
+      </c>
+      <c r="L166">
+        <v>2.1</v>
+      </c>
+      <c r="M166">
+        <v>3.4</v>
+      </c>
+      <c r="N166">
+        <v>2.875</v>
+      </c>
+      <c r="O166">
+        <v>2.05</v>
+      </c>
+      <c r="P166">
+        <v>3.3</v>
+      </c>
+      <c r="Q166">
         <v>3</v>
       </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166" t="s">
-        <v>61</v>
-      </c>
-      <c r="L166">
-        <v>2.25</v>
-      </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>2.6</v>
-      </c>
-      <c r="O166">
-        <v>1.95</v>
-      </c>
-      <c r="P166">
-        <v>3.5</v>
-      </c>
-      <c r="Q166">
-        <v>3.2</v>
-      </c>
       <c r="R166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U166">
         <v>2.5</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W166">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15844,7 +15844,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7629077</v>
+        <v>7628520</v>
       </c>
       <c r="C167" t="s">
         <v>37</v>
@@ -15853,79 +15853,79 @@
         <v>45383.5</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L167">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M167">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O167">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q167">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R167">
         <v>0</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T167">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V167">
+        <v>1.975</v>
+      </c>
+      <c r="W167">
         <v>1.875</v>
       </c>
-      <c r="W167">
-        <v>1.975</v>
-      </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD167">
         <v>-1</v>
@@ -15936,7 +15936,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7628520</v>
+        <v>7629076</v>
       </c>
       <c r="C168" t="s">
         <v>37</v>
@@ -15945,82 +15945,82 @@
         <v>45383.5</v>
       </c>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L168">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M168">
         <v>3.5</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P168">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
+        <v>2.6</v>
+      </c>
+      <c r="R168">
+        <v>-0.25</v>
+      </c>
+      <c r="S168">
+        <v>2.05</v>
+      </c>
+      <c r="T168">
+        <v>1.75</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>2.025</v>
+      </c>
+      <c r="W168">
+        <v>1.825</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
         <v>2.4</v>
       </c>
-      <c r="R168">
-        <v>0</v>
-      </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
-      <c r="T168">
-        <v>1.825</v>
-      </c>
-      <c r="U168">
-        <v>2.5</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
-      <c r="W168">
-        <v>1.875</v>
-      </c>
-      <c r="X168">
-        <v>1.5</v>
-      </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16028,7 +16028,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7629076</v>
+        <v>7629077</v>
       </c>
       <c r="C169" t="s">
         <v>37</v>
@@ -16037,61 +16037,61 @@
         <v>45383.5</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F169" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" t="s">
         <v>62</v>
       </c>
       <c r="L169">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M169">
+        <v>3.6</v>
+      </c>
+      <c r="N169">
         <v>3.5</v>
       </c>
-      <c r="N169">
-        <v>2.4</v>
-      </c>
       <c r="O169">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P169">
         <v>3.4</v>
       </c>
       <c r="Q169">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R169">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S169">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
         <v>2.75</v>
       </c>
       <c r="V169">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB169">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD169">
-        <v>0.825</v>
+        <v>-1</v